--- a/json_to_excel/i18n_from_json.xlsx
+++ b/json_to_excel/i18n_from_json.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D315"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,147 +418,4403 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>common</v>
+        <v>accountMag</v>
       </c>
       <c r="B2" t="str">
-        <v>key0</v>
+        <v>account</v>
       </c>
       <c r="C2" t="str">
-        <v>en0</v>
+        <v>Account</v>
       </c>
       <c r="D2" t="str">
-        <v>中文0</v>
+        <v>账号</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>common</v>
+        <v>accountMag</v>
       </c>
       <c r="B3" t="str">
-        <v>key1</v>
+        <v>userName</v>
       </c>
       <c r="C3" t="str">
-        <v>en1</v>
+        <v>User Name</v>
       </c>
       <c r="D3" t="str">
-        <v>中文1</v>
+        <v>姓名</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>common</v>
+        <v>accountMag</v>
       </c>
       <c r="B4" t="str">
-        <v>key2</v>
+        <v>roleId</v>
       </c>
       <c r="C4" t="str">
-        <v>en2</v>
+        <v>Role ID</v>
       </c>
       <c r="D4" t="str">
-        <v>中文2</v>
+        <v>所属角色</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>common</v>
+        <v>accountMag</v>
       </c>
       <c r="B5" t="str">
-        <v>key3</v>
+        <v>statusCd</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>Account Status</v>
       </c>
       <c r="D5" t="str">
-        <v>中文3</v>
+        <v>账号状态</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>common</v>
+        <v>accountMag</v>
       </c>
       <c r="B6" t="str">
-        <v>key4</v>
+        <v>createTime</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>Create Time</v>
       </c>
       <c r="D6" t="str">
-        <v>中文4</v>
+        <v>创建时间</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>login</v>
+        <v>accountMag</v>
       </c>
       <c r="B7" t="str">
-        <v>key0</v>
+        <v>userCode</v>
       </c>
       <c r="C7" t="str">
-        <v/>
+        <v>Account Code</v>
       </c>
       <c r="D7" t="str">
-        <v>中文0</v>
+        <v>账号编码</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>login</v>
+        <v>accountMag</v>
       </c>
       <c r="B8" t="str">
-        <v>key1</v>
+        <v>roleName</v>
       </c>
       <c r="C8" t="str">
-        <v/>
+        <v>Role</v>
       </c>
       <c r="D8" t="str">
-        <v>中文1</v>
+        <v>角色名称</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>login</v>
+        <v>accountMag</v>
       </c>
       <c r="B9" t="str">
-        <v>key2</v>
+        <v>areaCode</v>
       </c>
       <c r="C9" t="str">
-        <v/>
+        <v>Area Code</v>
       </c>
       <c r="D9" t="str">
-        <v>中文2</v>
+        <v>区号</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>login</v>
+        <v>accountMag</v>
       </c>
       <c r="B10" t="str">
-        <v>key3</v>
+        <v>mobile</v>
       </c>
       <c r="C10" t="str">
-        <v/>
+        <v>Mobile Phone</v>
       </c>
       <c r="D10" t="str">
-        <v>中文3</v>
+        <v>手机号码</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
+        <v>accountMag</v>
+      </c>
+      <c r="B11" t="str">
+        <v>phone</v>
+      </c>
+      <c r="C11" t="str">
+        <v>TelePhone</v>
+      </c>
+      <c r="D11" t="str">
+        <v>办公号码</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>accountMag</v>
+      </c>
+      <c r="B12" t="str">
+        <v>email</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Email</v>
+      </c>
+      <c r="D12" t="str">
+        <v>邮箱</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>accountMag</v>
+      </c>
+      <c r="B13" t="str">
+        <v>fax</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Fax</v>
+      </c>
+      <c r="D13" t="str">
+        <v>传真号码</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>accountMag</v>
+      </c>
+      <c r="B14" t="str">
+        <v>corp</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Corp</v>
+      </c>
+      <c r="D14" t="str">
+        <v>企业</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>accountMag</v>
+      </c>
+      <c r="B15" t="str">
+        <v>createAccount</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Create Account</v>
+      </c>
+      <c r="D15" t="str">
+        <v>新建账号</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>accountMag</v>
+      </c>
+      <c r="B16" t="str">
+        <v>viewPlain</v>
+      </c>
+      <c r="C16" t="str">
+        <v>View Plain</v>
+      </c>
+      <c r="D16" t="str">
+        <v>查看明文</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>accountMag</v>
+      </c>
+      <c r="B17" t="str">
+        <v>stop</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Stop</v>
+      </c>
+      <c r="D17" t="str">
+        <v>停用</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>accountMag</v>
+      </c>
+      <c r="B18" t="str">
+        <v>activate</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Activate</v>
+      </c>
+      <c r="D18" t="str">
+        <v>启用</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>accountMag</v>
+      </c>
+      <c r="B19" t="str">
+        <v>simStatus</v>
+      </c>
+      <c r="C19" t="str">
+        <v>SIM card status</v>
+      </c>
+      <c r="D19" t="str">
+        <v>卡状态</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>accountMag</v>
+      </c>
+      <c r="B20" t="str">
+        <v>deleteAsk</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Are you sure you want to delete the associated number?</v>
+      </c>
+      <c r="D20" t="str">
+        <v>是否删除关联号码？</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>accountMag</v>
+      </c>
+      <c r="B21" t="str">
+        <v>stopAsk</v>
+      </c>
+      <c r="C21" t="str">
+        <v>You are about to 【disable】 this account, proceed?</v>
+      </c>
+      <c r="D21" t="str">
+        <v>即将【停用】该账号，是否继续？</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>accountMag</v>
+      </c>
+      <c r="B22" t="str">
+        <v>activateAsk</v>
+      </c>
+      <c r="C22" t="str">
+        <v>You are about to 【activate】 this account, proceed?</v>
+      </c>
+      <c r="D22" t="str">
+        <v>即将【激活】该账号，是否继续？</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>accountMag</v>
+      </c>
+      <c r="B23" t="str">
+        <v>activateAccount</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Activate Account</v>
+      </c>
+      <c r="D23" t="str">
+        <v>激活账号</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>accountMag</v>
+      </c>
+      <c r="B24" t="str">
+        <v>stopAccount</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Disable Account</v>
+      </c>
+      <c r="D24" t="str">
+        <v>停用账号</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>accountMag</v>
+      </c>
+      <c r="B25" t="str">
+        <v>activateSuccess</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Activation Successful!</v>
+      </c>
+      <c r="D25" t="str">
+        <v>激活成功！</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>accountMag</v>
+      </c>
+      <c r="B26" t="str">
+        <v>stopSuccess</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Disabled Successfully!</v>
+      </c>
+      <c r="D26" t="str">
+        <v>停用成功！</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>ann</v>
+      </c>
+      <c r="B27" t="str">
+        <v>bulletinType</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Bulletin Type</v>
+      </c>
+      <c r="D27" t="str">
+        <v>公告类型</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>ann</v>
+      </c>
+      <c r="B28" t="str">
+        <v>type</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Status</v>
+      </c>
+      <c r="D28" t="str">
+        <v>公告状态</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>ann</v>
+      </c>
+      <c r="B29" t="str">
+        <v>markRead</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Mark as Read</v>
+      </c>
+      <c r="D29" t="str">
+        <v>标记已读</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>ann</v>
+      </c>
+      <c r="B30" t="str">
+        <v>markAllRead</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Mark All as Read</v>
+      </c>
+      <c r="D30" t="str">
+        <v>全部已读</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>ann</v>
+      </c>
+      <c r="B31" t="str">
+        <v>bulletinTitle</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Bulletin Title</v>
+      </c>
+      <c r="D31" t="str">
+        <v>公告标题</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>ann</v>
+      </c>
+      <c r="B32" t="str">
+        <v>bulletinTypeDefault</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Corporate Bulletin</v>
+      </c>
+      <c r="D32" t="str">
+        <v>企业公告</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>ann</v>
+      </c>
+      <c r="B33" t="str">
+        <v>publishDate</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Effective Date</v>
+      </c>
+      <c r="D33" t="str">
+        <v>生效时间</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>ann</v>
+      </c>
+      <c r="B34" t="str">
+        <v>expDate</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Expiration Date</v>
+      </c>
+      <c r="D34" t="str">
+        <v>失效时间</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>ann</v>
+      </c>
+      <c r="B35" t="str">
+        <v>read</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Read</v>
+      </c>
+      <c r="D35" t="str">
+        <v>已读</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>ann</v>
+      </c>
+      <c r="B36" t="str">
+        <v>unread</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Unread</v>
+      </c>
+      <c r="D36" t="str">
+        <v>未读</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>ann</v>
+      </c>
+      <c r="B37" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="D37" t="str">
+        <v>未知</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>ann</v>
+      </c>
+      <c r="B38" t="str">
+        <v>detail</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Bulletin Detail</v>
+      </c>
+      <c r="D38" t="str">
+        <v>公告详情</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>ann</v>
+      </c>
+      <c r="B39" t="str">
+        <v>createDate</v>
+      </c>
+      <c r="C39" t="str">
+        <v xml:space="preserve">Publication Date: </v>
+      </c>
+      <c r="D39" t="str">
+        <v>发布日期：</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>ann</v>
+      </c>
+      <c r="B40" t="str">
+        <v>updateDate</v>
+      </c>
+      <c r="C40" t="str">
+        <v xml:space="preserve">Modification Date: </v>
+      </c>
+      <c r="D40" t="str">
+        <v>修改日期：</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>ann</v>
+      </c>
+      <c r="B41" t="str">
+        <v>back</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Back</v>
+      </c>
+      <c r="D41" t="str">
+        <v>返 回</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>api</v>
+      </c>
+      <c r="B42" t="str">
+        <v>intro</v>
+      </c>
+      <c r="C42" t="str">
+        <v>API Introduction</v>
+      </c>
+      <c r="D42" t="str">
+        <v>API介绍</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>api</v>
+      </c>
+      <c r="B43" t="str">
+        <v>introDes1</v>
+      </c>
+      <c r="C43" t="str">
+        <v>The international CMP platform integrates self-operated numbers and resale numbers from international carriers, providing a unified API capability interface. IoT customers can use their own application platforms to call the API interface to retrieve information related to data traffic of Internet of Things cards, SMS usage, card lifecycle status, etc.</v>
+      </c>
+      <c r="D43" t="str">
+        <v>国际CMP平台融合自营号码、国际运营商转售号码，提供统一的API能力接口，物联网客户可以通过自己的应用平台调用API接口，获取物联卡数据流量、短信使用、卡生命周期状态等相关信息。</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>api</v>
+      </c>
+      <c r="B44" t="str">
+        <v>introDes2</v>
+      </c>
+      <c r="C44" t="str">
+        <v>To obtain the API specification, please download it under [System Management] - [Knowledge Base].</v>
+      </c>
+      <c r="D44" t="str">
+        <v>如需获取 API 规范，请到【系统管理】- 【知识库】下载</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>api</v>
+      </c>
+      <c r="B45" t="str">
+        <v>basicInfo</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Basic Information</v>
+      </c>
+      <c r="D45" t="str">
+        <v>基础信息</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>api</v>
+      </c>
+      <c r="B46" t="str">
+        <v>gwUserName</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Gateway Account Name</v>
+      </c>
+      <c r="D46" t="str">
+        <v>网关账号名称</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>api</v>
+      </c>
+      <c r="B47" t="str">
+        <v>cmpUserCode</v>
+      </c>
+      <c r="C47" t="str">
+        <v>CMP Account</v>
+      </c>
+      <c r="D47" t="str">
+        <v>CMP账号</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>api</v>
+      </c>
+      <c r="B48" t="str">
+        <v>cmpUserName</v>
+      </c>
+      <c r="C48" t="str">
+        <v>CMP Account Name</v>
+      </c>
+      <c r="D48" t="str">
+        <v>CMP账号名称</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>api</v>
+      </c>
+      <c r="B49" t="str">
+        <v>appKey</v>
+      </c>
+      <c r="C49" t="str">
+        <v>APP_Key</v>
+      </c>
+      <c r="D49" t="str">
+        <v>APP_Key</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>api</v>
+      </c>
+      <c r="B50" t="str">
+        <v>secretKey</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Secret_Key</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Secret_Key</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>api</v>
+      </c>
+      <c r="B51" t="str">
+        <v>createUserCode</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Created By</v>
+      </c>
+      <c r="D51" t="str">
+        <v>创建人</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>api</v>
+      </c>
+      <c r="B52" t="str">
+        <v>createDate</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Creation Date</v>
+      </c>
+      <c r="D52" t="str">
+        <v>创建时间</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>api</v>
+      </c>
+      <c r="B53" t="str">
+        <v>updateUserCode</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Updated By</v>
+      </c>
+      <c r="D53" t="str">
+        <v>修改人</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>api</v>
+      </c>
+      <c r="B54" t="str">
+        <v>updateDate</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Update Date</v>
+      </c>
+      <c r="D54" t="str">
+        <v>修改时间</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>api</v>
+      </c>
+      <c r="B55" t="str">
+        <v>viewPlain</v>
+      </c>
+      <c r="C55" t="str">
+        <v>View Plain Text</v>
+      </c>
+      <c r="D55" t="str">
+        <v>查看明文</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>api</v>
+      </c>
+      <c r="B56" t="str">
+        <v>currentEmail</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Email bound to the current account</v>
+      </c>
+      <c r="D56" t="str">
+        <v>当前账号绑定的邮箱</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>api</v>
+      </c>
+      <c r="B57" t="str">
+        <v>checkCode</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Verification Code</v>
+      </c>
+      <c r="D57" t="str">
+        <v>验证码</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>api</v>
+      </c>
+      <c r="B58" t="str">
+        <v>sendCode</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Send</v>
+      </c>
+      <c r="D58" t="str">
+        <v>发送验证码</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>api</v>
+      </c>
+      <c r="B59" t="str">
+        <v>apiEdit</v>
+      </c>
+      <c r="C59" t="str">
+        <v>API Key Modification</v>
+      </c>
+      <c r="D59" t="str">
+        <v>API密钥修改</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>api</v>
+      </c>
+      <c r="B60" t="str">
+        <v>oldSecret</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Old Secret</v>
+      </c>
+      <c r="D60" t="str">
+        <v>旧密钥</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>api</v>
+      </c>
+      <c r="B61" t="str">
+        <v>newSecret</v>
+      </c>
+      <c r="C61" t="str">
+        <v>New Secret</v>
+      </c>
+      <c r="D61" t="str">
+        <v>新密钥</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>api</v>
+      </c>
+      <c r="B62" t="str">
+        <v>secretTip</v>
+      </c>
+      <c r="C62" t="str">
+        <v>To ensure the normal use of the encryption algorithm, the key length is fixed at 9 characters. The key must contain uppercase and lowercase English letters and numbers. The key must not be consecutive numbers or passwords.</v>
+      </c>
+      <c r="D62" t="str">
+        <v>为确保加密算法正常使用，密钥长度固定为 9 位，密钥必须包含大小写英文和数字，密钥不得是连续数字或者密码</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>batchUpload</v>
+      </c>
+      <c r="B63" t="str">
+        <v>uploading</v>
+      </c>
+      <c r="C63" t="str">
+        <v>File is uploading, please wait</v>
+      </c>
+      <c r="D63" t="str">
+        <v>文件上传中，请稍候</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>batchUpload</v>
+      </c>
+      <c r="B64" t="str">
+        <v>please</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Please</v>
+      </c>
+      <c r="D64" t="str">
+        <v>请</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>batchUpload</v>
+      </c>
+      <c r="B65" t="str">
+        <v>downloadTpl</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Download Template</v>
+      </c>
+      <c r="D65" t="str">
+        <v>下载模板</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>batchUpload</v>
+      </c>
+      <c r="B66" t="str">
+        <v>please2</v>
+      </c>
+      <c r="C66" t="str">
+        <v>, and after entering data according to the template instructions, upload it</v>
+      </c>
+      <c r="D66" t="str">
+        <v>，并按照模板提示输入数据后上传</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>batchUpload</v>
+      </c>
+      <c r="B67" t="str">
+        <v>warmTip</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Warm Reminder: Please select template download;</v>
+      </c>
+      <c r="D67" t="str">
+        <v>温馨提示：请选择模板下载；</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>batchUpload</v>
+      </c>
+      <c r="B68" t="str">
+        <v>drag1</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Drag the file here, or</v>
+      </c>
+      <c r="D68" t="str">
+        <v>将文件拖到此处，或</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>batchUpload</v>
+      </c>
+      <c r="B69" t="str">
+        <v>drag2</v>
+      </c>
+      <c r="C69" t="str">
+        <v>choose to upload the file</v>
+      </c>
+      <c r="D69" t="str">
+        <v>选择文件上传</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>batchUpload</v>
+      </c>
+      <c r="B70" t="str">
+        <v>drag3</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Only single Excel files are supported for upload, supported formats: .xlsx</v>
+      </c>
+      <c r="D70" t="str">
+        <v>仅支持单个Excel文件上传，支持格式：.xlsx</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>batchUpload</v>
+      </c>
+      <c r="B71" t="str">
+        <v>submit</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Confirm</v>
+      </c>
+      <c r="D71" t="str">
+        <v>确认提交</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>batchUpload</v>
+      </c>
+      <c r="B72" t="str">
+        <v>uploadTip1</v>
+      </c>
+      <c r="C72" t="str">
+        <v>1. Import must be an xlsx file;</v>
+      </c>
+      <c r="D72" t="str">
+        <v>1、导入必须是xlsx文件；</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>batchUpload</v>
+      </c>
+      <c r="B73" t="str">
+        <v>uploadTip2</v>
+      </c>
+      <c r="C73" t="str">
+        <v>2. Only import the first tab of the EXCEL file;</v>
+      </c>
+      <c r="D73" t="str">
+        <v>2、只导入EXCEL文件的第一个标签页；</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>batchUpload</v>
+      </c>
+      <c r="B74" t="str">
+        <v>uploadTip3</v>
+      </c>
+      <c r="C74" t="str">
+        <v>3. The maximum file size is 10MB;</v>
+      </c>
+      <c r="D74" t="str">
+        <v>3、文件大小最大为10MB；</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>batchUpload</v>
+      </c>
+      <c r="B75" t="str">
+        <v>uploadTip4</v>
+      </c>
+      <c r="C75" t="str">
+        <v>4. The maximum number of numbers is 10,000, which must include the international area code;</v>
+      </c>
+      <c r="D75" t="str">
+        <v>4、号码最多10000个，需包含国际区号；</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>batchUpload</v>
+      </c>
+      <c r="B76" t="str">
+        <v>uploadTipSimMag</v>
+      </c>
+      <c r="C76" t="str">
+        <v>4. The maximum number of numbers is {maxNum}, which must include the international area code;</v>
+      </c>
+      <c r="D76" t="str">
+        <v>4、号码最多{maxNum}个，需包含国际区号；</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>batchUpload</v>
+      </c>
+      <c r="B77" t="str">
+        <v>subtmitSuccess</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Upload successful</v>
+      </c>
+      <c r="D77" t="str">
+        <v>上传成功</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>batchUpload</v>
+      </c>
+      <c r="B78" t="str">
+        <v>subtmitFail</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Upload failed</v>
+      </c>
+      <c r="D78" t="str">
+        <v>上传失败</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>batchUpload</v>
+      </c>
+      <c r="B79" t="str">
+        <v>task</v>
+      </c>
+      <c r="C79" t="str">
+        <v>The file download task has been created, please go to the download task page</v>
+      </c>
+      <c r="D79" t="str">
+        <v>文件下载任务已生成，请到下载任务页面</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>batchUpload</v>
+      </c>
+      <c r="B80" t="str">
+        <v>process</v>
+      </c>
+      <c r="C80" t="str">
+        <v>to check the task progress</v>
+      </c>
+      <c r="D80" t="str">
+        <v>查看任务进度</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>batchUpload</v>
+      </c>
+      <c r="B81" t="str">
+        <v>know</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Understood</v>
+      </c>
+      <c r="D81" t="str">
+        <v>知道了</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>batchUpload</v>
+      </c>
+      <c r="B82" t="str">
+        <v>systemError</v>
+      </c>
+      <c r="C82" t="str">
+        <v>System exception</v>
+      </c>
+      <c r="D82" t="str">
+        <v>系统异常</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>batchUpload</v>
+      </c>
+      <c r="B83" t="str">
+        <v>fileSize</v>
+      </c>
+      <c r="C83" t="str">
+        <v>The uploaded file cannot exceed</v>
+      </c>
+      <c r="D83" t="str">
+        <v>上传文件不能超过</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>batchUpload</v>
+      </c>
+      <c r="B84" t="str">
+        <v>fileType</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Incorrect file type, please confirm</v>
+      </c>
+      <c r="D84" t="str">
+        <v>文件类型错误，请确认</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>common</v>
+      </c>
+      <c r="B85" t="str">
+        <v>action</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Action</v>
+      </c>
+      <c r="D85" t="str">
+        <v>操作</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>common</v>
+      </c>
+      <c r="B86" t="str">
+        <v>download</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Download</v>
+      </c>
+      <c r="D86" t="str">
+        <v>下载</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>common</v>
+      </c>
+      <c r="B87" t="str">
+        <v>edit</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Edit</v>
+      </c>
+      <c r="D87" t="str">
+        <v>编辑</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>common</v>
+      </c>
+      <c r="B88" t="str">
+        <v>delete</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Delete</v>
+      </c>
+      <c r="D88" t="str">
+        <v>删除</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>common</v>
+      </c>
+      <c r="B89" t="str">
+        <v>query</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Query</v>
+      </c>
+      <c r="D89" t="str">
+        <v>查询</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>common</v>
+      </c>
+      <c r="B90" t="str">
+        <v>reset</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Reset</v>
+      </c>
+      <c r="D90" t="str">
+        <v>重置</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>common</v>
+      </c>
+      <c r="B91" t="str">
+        <v>status</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Status</v>
+      </c>
+      <c r="D91" t="str">
+        <v>状态</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>common</v>
+      </c>
+      <c r="B92" t="str">
+        <v>remark</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Remark</v>
+      </c>
+      <c r="D92" t="str">
+        <v>备注</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>common</v>
+      </c>
+      <c r="B93" t="str">
+        <v>downloadMag</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Download Manage</v>
+      </c>
+      <c r="D93" t="str">
+        <v>下载管理</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>common</v>
+      </c>
+      <c r="B94" t="str">
+        <v>basicInfo</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Basic Info</v>
+      </c>
+      <c r="D94" t="str">
+        <v>基本信息</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>common</v>
+      </c>
+      <c r="B95" t="str">
+        <v>logout</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Logout</v>
+      </c>
+      <c r="D95" t="str">
+        <v>退出登录</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>common</v>
+      </c>
+      <c r="B96" t="str">
+        <v>batchQuery</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Batch Query</v>
+      </c>
+      <c r="D96" t="str">
+        <v>批量查询</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>common</v>
+      </c>
+      <c r="B97" t="str">
+        <v>batchImport</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Batch Import</v>
+      </c>
+      <c r="D97" t="str">
+        <v>批量导入</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>common</v>
+      </c>
+      <c r="B98" t="str">
+        <v>batchDelete</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Batch Delete</v>
+      </c>
+      <c r="D98" t="str">
+        <v>批量删除</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>common</v>
+      </c>
+      <c r="B99" t="str">
+        <v>export</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Export</v>
+      </c>
+      <c r="D99" t="str">
+        <v>导出</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>common</v>
+      </c>
+      <c r="B100" t="str">
+        <v>beginTime</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Begin</v>
+      </c>
+      <c r="D100" t="str">
+        <v>开始时间</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>common</v>
+      </c>
+      <c r="B101" t="str">
+        <v>endTime</v>
+      </c>
+      <c r="C101" t="str">
+        <v>End</v>
+      </c>
+      <c r="D101" t="str">
+        <v>结束时间</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>common</v>
+      </c>
+      <c r="B102" t="str">
+        <v>showMoreBtn</v>
+      </c>
+      <c r="C102" t="str">
+        <v>More</v>
+      </c>
+      <c r="D102" t="str">
+        <v>高级搜索</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>common</v>
+      </c>
+      <c r="B103" t="str">
+        <v>ok</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="D103" t="str">
+        <v>确 定</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>common</v>
+      </c>
+      <c r="B104" t="str">
+        <v>cancel</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Cancel</v>
+      </c>
+      <c r="D104" t="str">
+        <v>取 消</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>common</v>
+      </c>
+      <c r="B105" t="str">
+        <v>deleteSuccess</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Deleted successfully!</v>
+      </c>
+      <c r="D105" t="str">
+        <v>删除成功！</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>common</v>
+      </c>
+      <c r="B106" t="str">
+        <v>yes</v>
+      </c>
+      <c r="C106" t="str">
+        <v>YES</v>
+      </c>
+      <c r="D106" t="str">
+        <v>是</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>common</v>
+      </c>
+      <c r="B107" t="str">
+        <v>no</v>
+      </c>
+      <c r="C107" t="str">
+        <v>NO</v>
+      </c>
+      <c r="D107" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>common</v>
+      </c>
+      <c r="B108" t="str">
+        <v>save</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Save</v>
+      </c>
+      <c r="D108" t="str">
+        <v>保 存</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>dataUsage</v>
+      </c>
+      <c r="B109" t="str">
+        <v>offerUsage</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Package Usage</v>
+      </c>
+      <c r="D109" t="str">
+        <v>套餐使用量</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>dataUsage</v>
+      </c>
+      <c r="B110" t="str">
+        <v>custUsage</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Total Customer Usage</v>
+      </c>
+      <c r="D110" t="str">
+        <v>用户总使用量</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>dataUsage</v>
+      </c>
+      <c r="B111" t="str">
+        <v>billCycle</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Payment Period</v>
+      </c>
+      <c r="D111" t="str">
+        <v>账期</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>dataUsage</v>
+      </c>
+      <c r="B112" t="str">
+        <v>usageType</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Usage Category</v>
+      </c>
+      <c r="D112" t="str">
+        <v>用量分类</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>dataUsage</v>
+      </c>
+      <c r="B113" t="str">
+        <v>offerName</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Offer Name</v>
+      </c>
+      <c r="D113" t="str">
+        <v>套餐名称</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>dataUsage</v>
+      </c>
+      <c r="B114" t="str">
+        <v>totalUsage</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Total Offer Usage</v>
+      </c>
+      <c r="D114" t="str">
+        <v>套餐总使用量</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>dataUsage</v>
+      </c>
+      <c r="B115" t="str">
+        <v>usage</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Used Amount</v>
+      </c>
+      <c r="D115" t="str">
+        <v>已使用量</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>dataUsage</v>
+      </c>
+      <c r="B116" t="str">
+        <v>remain</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Remaining Amount</v>
+      </c>
+      <c r="D116" t="str">
+        <v>剩余量</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>dataUsage</v>
+      </c>
+      <c r="B117" t="str">
+        <v>data</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Data Usage</v>
+      </c>
+      <c r="D117" t="str">
+        <v>数据</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>dataUsage</v>
+      </c>
+      <c r="B118" t="str">
+        <v>voice</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Voice Usage</v>
+      </c>
+      <c r="D118" t="str">
+        <v>语音</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>dataUsage</v>
+      </c>
+      <c r="B119" t="str">
+        <v>sms</v>
+      </c>
+      <c r="C119" t="str">
+        <v>SMS Usage</v>
+      </c>
+      <c r="D119" t="str">
+        <v>短信</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>dataUsage</v>
+      </c>
+      <c r="B120" t="str">
+        <v>all</v>
+      </c>
+      <c r="C120" t="str">
+        <v>All</v>
+      </c>
+      <c r="D120" t="str">
+        <v>全部</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>dataUsage</v>
+      </c>
+      <c r="B121" t="str">
+        <v>flowMbDesc</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Total Data (MB)</v>
+      </c>
+      <c r="D121" t="str">
+        <v>总流量（MB)</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>dataUsage</v>
+      </c>
+      <c r="B122" t="str">
+        <v>voiceMinsDesc</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Voice Duration (Minutes)</v>
+      </c>
+      <c r="D122" t="str">
+        <v>语音时长（分钟）</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>dataUsage</v>
+      </c>
+      <c r="B123" t="str">
+        <v>smsDesc</v>
+      </c>
+      <c r="C123" t="str">
+        <v>SMS (Messages)</v>
+      </c>
+      <c r="D123" t="str">
+        <v>短信（条）</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>dataUsage</v>
+      </c>
+      <c r="B124" t="str">
+        <v>batchTitle1</v>
+      </c>
+      <c r="C124" t="str">
+        <v>Batch Package Usage Inquiry</v>
+      </c>
+      <c r="D124" t="str">
+        <v>批量套餐使用量查询</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>dataUsage</v>
+      </c>
+      <c r="B125" t="str">
+        <v>batchTitle2</v>
+      </c>
+      <c r="C125" t="str">
+        <v>Total Customer Usage Inquiry</v>
+      </c>
+      <c r="D125" t="str">
+        <v>用户总使用使用量查询</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>forgetPassword</v>
+      </c>
+      <c r="B126" t="str">
+        <v>validProfile</v>
+      </c>
+      <c r="C126" t="str">
+        <v>Validate Profile</v>
+      </c>
+      <c r="D126" t="str">
+        <v>验证身份</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>forgetPassword</v>
+      </c>
+      <c r="B127" t="str">
+        <v>resetPassword</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Reset Password</v>
+      </c>
+      <c r="D127" t="str">
+        <v>重置密码</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>forgetPassword</v>
+      </c>
+      <c r="B128" t="str">
+        <v>finished</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Finished</v>
+      </c>
+      <c r="D128" t="str">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>forgetPassword</v>
+      </c>
+      <c r="B129" t="str">
+        <v>hasAccount</v>
+      </c>
+      <c r="C129" t="str">
+        <v>already have account,</v>
+      </c>
+      <c r="D129" t="str">
+        <v>已有账号，</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>forgetPassword</v>
+      </c>
+      <c r="B130" t="str">
+        <v>imediateLogin</v>
+      </c>
+      <c r="C130" t="str">
+        <v>login immediately</v>
+      </c>
+      <c r="D130" t="str">
+        <v>立即登录</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>forgetPassword</v>
+      </c>
+      <c r="B131" t="str">
+        <v>next</v>
+      </c>
+      <c r="C131" t="str">
+        <v>next</v>
+      </c>
+      <c r="D131" t="str">
+        <v>下一步</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>forgetPassword</v>
+      </c>
+      <c r="B132" t="str">
+        <v>passwordPh</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Please input password</v>
+      </c>
+      <c r="D132" t="str">
+        <v>请输入新密码</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>forgetPassword</v>
+      </c>
+      <c r="B133" t="str">
+        <v>password2Ph</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Please confirm password</v>
+      </c>
+      <c r="D133" t="str">
+        <v>请输入确认新密码</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>forgetPassword</v>
+      </c>
+      <c r="B134" t="str">
+        <v>successTitle</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Modify Successfully, Please Save Carefully</v>
+      </c>
+      <c r="D134" t="str">
+        <v>修改成功，请妥善保存</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>forgetPassword</v>
+      </c>
+      <c r="B135" t="str">
+        <v>passwordError1</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Password length must be between 8 and 16 characters</v>
+      </c>
+      <c r="D135" t="str">
+        <v>密码长度 8-16位</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>forgetPassword</v>
+      </c>
+      <c r="B136" t="str">
+        <v>passwordError2</v>
+      </c>
+      <c r="C136" t="str">
+        <v>The password must include at least three types of the following: uppercase letters, lowercase letters, numbers, and special characters</v>
+      </c>
+      <c r="D136" t="str">
+        <v>密码至少要包括大写字母、小写字母、数字、特殊字符中的三种</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>forgetPassword</v>
+      </c>
+      <c r="B137" t="str">
+        <v>passwordError3</v>
+      </c>
+      <c r="C137" t="str">
+        <v>The password cannot contain three or more consecutive digits or letters on the keyboard</v>
+      </c>
+      <c r="D137" t="str">
+        <v>密码不能出现键盘上三位及以上连续数字、字母</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>forgetPassword</v>
+      </c>
+      <c r="B138" t="str">
+        <v>passwordError4</v>
+      </c>
+      <c r="C138" t="str">
+        <v>The password must not include the full username string, variations in case, or similar transformations</v>
+      </c>
+      <c r="D138" t="str">
+        <v>密码中不得包含用户名的完整字符串、大小写变位或形似变换的字符串</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>forgetPassword</v>
+      </c>
+      <c r="B139" t="str">
+        <v>notSame</v>
+      </c>
+      <c r="C139" t="str">
+        <v>The two entered passwords do not match</v>
+      </c>
+      <c r="D139" t="str">
+        <v>两次输入的密码不一致</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>forgetPassword</v>
+      </c>
+      <c r="B140" t="str">
+        <v>sendSuccess</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Sent successfully!</v>
+      </c>
+      <c r="D140" t="str">
+        <v>发送成功！</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>know</v>
+      </c>
+      <c r="B141" t="str">
+        <v>docName</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Document Name</v>
+      </c>
+      <c r="D141" t="str">
+        <v>文档名称</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>know</v>
+      </c>
+      <c r="B142" t="str">
+        <v>docDesc</v>
+      </c>
+      <c r="C142" t="str">
+        <v>Document Description</v>
+      </c>
+      <c r="D142" t="str">
+        <v>文档描述</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>know</v>
+      </c>
+      <c r="B143" t="str">
+        <v>docTypeName</v>
+      </c>
+      <c r="C143" t="str">
+        <v>Document Type</v>
+      </c>
+      <c r="D143" t="str">
+        <v>文档类型</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>know</v>
+      </c>
+      <c r="B144" t="str">
+        <v>createStaffName</v>
+      </c>
+      <c r="C144" t="str">
+        <v>Created By</v>
+      </c>
+      <c r="D144" t="str">
+        <v>创建人</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>know</v>
+      </c>
+      <c r="B145" t="str">
+        <v>createTime</v>
+      </c>
+      <c r="C145" t="str">
+        <v>Creation Time</v>
+      </c>
+      <c r="D145" t="str">
+        <v>创建时间</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>linkD</v>
+      </c>
+      <c r="B146" t="str">
+        <v>oneClick</v>
+      </c>
+      <c r="C146" t="str">
+        <v>One-click Diagnosis</v>
+      </c>
+      <c r="D146" t="str">
+        <v>一键诊断</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>linkD</v>
+      </c>
+      <c r="B147" t="str">
+        <v>oneClickDes</v>
+      </c>
+      <c r="C147" t="str">
+        <v>Query the status of a single card, the opening status of the card network, the binding situation of the machine and the card, the detailed data list, and the recent online and offline records of the card</v>
+      </c>
+      <c r="D147" t="str">
+        <v>查询单张卡状态、卡网络开通情况、机卡绑定情况、数据详单、卡近期上下线记录</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>linkD</v>
+      </c>
+      <c r="B148" t="str">
+        <v>resultTitle</v>
+      </c>
+      <c r="C148" t="str">
+        <v>Card diagnosis completed. The results are as follows:</v>
+      </c>
+      <c r="D148" t="str">
+        <v>卡诊断完成，结果如下</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>linkD</v>
+      </c>
+      <c r="B149" t="str">
+        <v>basicInfo</v>
+      </c>
+      <c r="C149" t="str">
+        <v>Basic Information</v>
+      </c>
+      <c r="D149" t="str">
+        <v>基础信息</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>linkD</v>
+      </c>
+      <c r="B150" t="str">
+        <v>resultDetailTitle</v>
+      </c>
+      <c r="C150" t="str">
+        <v>Diagnosis Result</v>
+      </c>
+      <c r="D150" t="str">
+        <v>诊断结果</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>linkD</v>
+      </c>
+      <c r="B151" t="str">
+        <v>resutlItemLabel1</v>
+      </c>
+      <c r="C151" t="str">
+        <v>SIM Card Status</v>
+      </c>
+      <c r="D151" t="str">
+        <v>SIM卡状态</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>linkD</v>
+      </c>
+      <c r="B152" t="str">
+        <v>resutlItemContent1</v>
+      </c>
+      <c r="C152" t="str">
+        <v>Displays the SIM card status</v>
+      </c>
+      <c r="D152" t="str">
+        <v>展示 SIM 卡状态</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>linkD</v>
+      </c>
+      <c r="B153" t="str">
+        <v>resutlItemLabel2</v>
+      </c>
+      <c r="C153" t="str">
+        <v>SIM Card Connection</v>
+      </c>
+      <c r="D153" t="str">
+        <v>SIM卡连接</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>linkD</v>
+      </c>
+      <c r="B154" t="str">
+        <v>resutlItemContent2</v>
+      </c>
+      <c r="C154" t="str">
+        <v>Determines the SIM card connection attributes through the SIM card product information</v>
+      </c>
+      <c r="D154" t="str">
+        <v>通过 SIM 卡产品资料，判断 SIM 卡连接属性</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
         <v>login</v>
       </c>
-      <c r="B11" t="str">
-        <v>key4</v>
-      </c>
-      <c r="C11" t="str">
+      <c r="B155" t="str">
+        <v>loginBoxTitle</v>
+      </c>
+      <c r="C155" t="str">
+        <v>Welcome to the International CMP Portal</v>
+      </c>
+      <c r="D155" t="str">
+        <v>欢迎来到国际CMP门户</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>login</v>
+      </c>
+      <c r="B156" t="str">
+        <v>loginButton</v>
+      </c>
+      <c r="C156" t="str">
+        <v>login</v>
+      </c>
+      <c r="D156" t="str">
+        <v>登录</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>login</v>
+      </c>
+      <c r="B157" t="str">
+        <v>loginType1EmailPh</v>
+      </c>
+      <c r="C157" t="str">
+        <v xml:space="preserve">Please enter the user account or email address </v>
+      </c>
+      <c r="D157" t="str">
+        <v>请输入账号/邮箱</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>login</v>
+      </c>
+      <c r="B158" t="str">
+        <v>loginType2EmailPh</v>
+      </c>
+      <c r="C158" t="str">
+        <v>Please enter the email address</v>
+      </c>
+      <c r="D158" t="str">
+        <v>请输入邮箱</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>login</v>
+      </c>
+      <c r="B159" t="str">
+        <v>passwordPh</v>
+      </c>
+      <c r="C159" t="str">
+        <v>Please enter the password</v>
+      </c>
+      <c r="D159" t="str">
+        <v>请输入密码</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>login</v>
+      </c>
+      <c r="B160" t="str">
+        <v>imageCodePh</v>
+      </c>
+      <c r="C160" t="str">
+        <v>Please enter the verification code</v>
+      </c>
+      <c r="D160" t="str">
+        <v>请输入图形验证码</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>login</v>
+      </c>
+      <c r="B161" t="str">
+        <v>emailCodePh</v>
+      </c>
+      <c r="C161" t="str">
+        <v>Please enter the email verification code</v>
+      </c>
+      <c r="D161" t="str">
+        <v>请输入邮箱验证码</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>login</v>
+      </c>
+      <c r="B162" t="str">
+        <v>checkPrivacyPh</v>
+      </c>
+      <c r="C162" t="str">
+        <v xml:space="preserve">Please read and confirm the relevant agreements and policies </v>
+      </c>
+      <c r="D162" t="str">
+        <v>登录前请先阅读和确认平台相关协议和政策</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>login</v>
+      </c>
+      <c r="B163" t="str">
+        <v>getCode</v>
+      </c>
+      <c r="C163" t="str">
+        <v>Get Code</v>
+      </c>
+      <c r="D163" t="str">
+        <v>获取验证码</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>login</v>
+      </c>
+      <c r="B164" t="str">
+        <v>reSend</v>
+      </c>
+      <c r="C164" t="str">
+        <v>Resend</v>
+      </c>
+      <c r="D164" t="str">
+        <v>重新发送</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>login</v>
+      </c>
+      <c r="B165" t="str">
+        <v>countDown</v>
+      </c>
+      <c r="C165" t="str">
+        <v>resend {countDownNum}</v>
+      </c>
+      <c r="D165" t="str">
+        <v>重新发送 {countDownNum}</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>login</v>
+      </c>
+      <c r="B166" t="str">
+        <v>privacyDesPart1</v>
+      </c>
+      <c r="C166" t="str">
+        <v>l confirm that l have read, consent and agree to</v>
+      </c>
+      <c r="D166" t="str">
+        <v>我确认已阅读、许可并同意中国电信国际有限公司</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>login</v>
+      </c>
+      <c r="B167" t="str">
+        <v>privacyDesPart2</v>
+      </c>
+      <c r="C167" t="str">
+        <v xml:space="preserve"> the Privacy Policy Statement. </v>
+      </c>
+      <c r="D167" t="str">
+        <v>《隐私政策声明》</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>login</v>
+      </c>
+      <c r="B168" t="str">
+        <v>privacyDesPart3</v>
+      </c>
+      <c r="C168" t="str">
+        <v>If l am a user situated within the European Economic Area or the United Kingdom, l confirm that l have read, consent and agree to the</v>
+      </c>
+      <c r="D168" t="str">
+        <v>如果我是欧洲经济区或英国境内的用户,我确认我已阅读、许可并同意中国电信国际有限公司</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>login</v>
+      </c>
+      <c r="B169" t="str">
+        <v>privacyDesPart4</v>
+      </c>
+      <c r="C169" t="str">
+        <v>GDPR Privacy Policy Statement.</v>
+      </c>
+      <c r="D169" t="str">
+        <v>《GDPR 隐私政策声明》</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>login</v>
+      </c>
+      <c r="B170" t="str">
+        <v>forgetPassword</v>
+      </c>
+      <c r="C170" t="str">
+        <v>Forget Account/Password</v>
+      </c>
+      <c r="D170" t="str">
+        <v>忘记密码？</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>login</v>
+      </c>
+      <c r="B171" t="str">
+        <v>loginTypePassword</v>
+      </c>
+      <c r="C171" t="str">
+        <v>Password Login</v>
+      </c>
+      <c r="D171" t="str">
+        <v>密码登录</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>login</v>
+      </c>
+      <c r="B172" t="str">
+        <v>loginTypeEmail</v>
+      </c>
+      <c r="C172" t="str">
+        <v>Verification Code Login</v>
+      </c>
+      <c r="D172" t="str">
+        <v>邮箱验证码登录</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>login</v>
+      </c>
+      <c r="B173" t="str">
+        <v>headerTitle</v>
+      </c>
+      <c r="C173" t="str">
+        <v xml:space="preserve">International IoT CMP </v>
+      </c>
+      <c r="D173" t="str">
+        <v>国际物联网CMP平台</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>login</v>
+      </c>
+      <c r="B174" t="str">
+        <v>leftTextPart1</v>
+      </c>
+      <c r="C174" t="str">
         <v/>
       </c>
-      <c r="D11" t="str">
-        <v>中文4</v>
+      <c r="D174" t="str">
+        <v>面向</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>login</v>
+      </c>
+      <c r="B175" t="str">
+        <v>leftTextPart2</v>
+      </c>
+      <c r="C175" t="str">
+        <v>Global</v>
+      </c>
+      <c r="D175" t="str">
+        <v>全球</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>login</v>
+      </c>
+      <c r="B176" t="str">
+        <v>leftTextPart3</v>
+      </c>
+      <c r="C176" t="str">
+        <v>· Seamless</v>
+      </c>
+      <c r="D176" t="str">
+        <v>· 无缝链接</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>login</v>
+      </c>
+      <c r="B177" t="str">
+        <v>leftTextPart4</v>
+      </c>
+      <c r="C177" t="str">
+        <v>Connection Management</v>
+      </c>
+      <c r="D177" t="str">
+        <v>连接管理</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>login</v>
+      </c>
+      <c r="B178" t="str">
+        <v>leftTextPart5</v>
+      </c>
+      <c r="C178" t="str">
+        <v>Join us and start building</v>
+      </c>
+      <c r="D178" t="str">
+        <v>加入我们，然后开始构建</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>login</v>
+      </c>
+      <c r="B179" t="str">
+        <v>copyRight</v>
+      </c>
+      <c r="C179" t="str">
+        <v>© 2024 Tianyi IoT Technology Co., Ltd. All rights reserved.Su ICP No. 19042642-1 Value-added Telecommunications Business License A2.B1.B2-2009000</v>
+      </c>
+      <c r="D179" t="str">
+        <v>@2024天翼物联科技有限公司版权所有苏ICP备19042642号-1增值电信业务经营许可证A2.B1.B2-2009000</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>oper</v>
+      </c>
+      <c r="B180" t="str">
+        <v>operName</v>
+      </c>
+      <c r="C180" t="str">
+        <v>Operation Name</v>
+      </c>
+      <c r="D180" t="str">
+        <v>操作名称</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>oper</v>
+      </c>
+      <c r="B181" t="str">
+        <v>operDate</v>
+      </c>
+      <c r="C181" t="str">
+        <v>Operation Date</v>
+      </c>
+      <c r="D181" t="str">
+        <v>操作日期</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>oper</v>
+      </c>
+      <c r="B182" t="str">
+        <v>resultCode</v>
+      </c>
+      <c r="C182" t="str">
+        <v>Result Code</v>
+      </c>
+      <c r="D182" t="str">
+        <v>操作结果</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>oper</v>
+      </c>
+      <c r="B183" t="str">
+        <v>clientIp</v>
+      </c>
+      <c r="C183" t="str">
+        <v>Client IP</v>
+      </c>
+      <c r="D183" t="str">
+        <v>客户端IP</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>oper</v>
+      </c>
+      <c r="B184" t="str">
+        <v>userCode</v>
+      </c>
+      <c r="C184" t="str">
+        <v>User Account</v>
+      </c>
+      <c r="D184" t="str">
+        <v>操作账号</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>oper</v>
+      </c>
+      <c r="B185" t="str">
+        <v>traceId</v>
+      </c>
+      <c r="C185" t="str">
+        <v>Trace Id</v>
+      </c>
+      <c r="D185" t="str">
+        <v>唯一请求标识</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>oper</v>
+      </c>
+      <c r="B186" t="str">
+        <v>success</v>
+      </c>
+      <c r="C186" t="str">
+        <v>Success</v>
+      </c>
+      <c r="D186" t="str">
+        <v>成功</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>oper</v>
+      </c>
+      <c r="B187" t="str">
+        <v>fail</v>
+      </c>
+      <c r="C187" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="D187" t="str">
+        <v>失败</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>oper</v>
+      </c>
+      <c r="B188" t="str">
+        <v>all</v>
+      </c>
+      <c r="C188" t="str">
+        <v>All</v>
+      </c>
+      <c r="D188" t="str">
+        <v>全部</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>order</v>
+      </c>
+      <c r="B189" t="str">
+        <v>orderCode</v>
+      </c>
+      <c r="C189" t="str">
+        <v>Order Code</v>
+      </c>
+      <c r="D189" t="str">
+        <v>订单编码</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>order</v>
+      </c>
+      <c r="B190" t="str">
+        <v>number</v>
+      </c>
+      <c r="C190" t="str">
+        <v>Code</v>
+      </c>
+      <c r="D190" t="str">
+        <v>号码</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>order</v>
+      </c>
+      <c r="B191" t="str">
+        <v>busType</v>
+      </c>
+      <c r="C191" t="str">
+        <v>Account</v>
+      </c>
+      <c r="D191" t="str">
+        <v>业务类型</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>order</v>
+      </c>
+      <c r="B192" t="str">
+        <v>orderStatus</v>
+      </c>
+      <c r="C192" t="str">
+        <v>Order Status</v>
+      </c>
+      <c r="D192" t="str">
+        <v>订单状态</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>order</v>
+      </c>
+      <c r="B193" t="str">
+        <v>account</v>
+      </c>
+      <c r="C193" t="str">
+        <v>Account Status</v>
+      </c>
+      <c r="D193" t="str">
+        <v>账号</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>order</v>
+      </c>
+      <c r="B194" t="str">
+        <v>serviceTime</v>
+      </c>
+      <c r="C194" t="str">
+        <v>Service Time</v>
+      </c>
+      <c r="D194" t="str">
+        <v>受理时间</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>order</v>
+      </c>
+      <c r="B195" t="str">
+        <v>cust</v>
+      </c>
+      <c r="C195" t="str">
+        <v>Cust</v>
+      </c>
+      <c r="D195" t="str">
+        <v>客户</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>order</v>
+      </c>
+      <c r="B196" t="str">
+        <v>access</v>
+      </c>
+      <c r="C196" t="str">
+        <v>Access Number</v>
+      </c>
+      <c r="D196" t="str">
+        <v>接入号</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>order</v>
+      </c>
+      <c r="B197" t="str">
+        <v>source</v>
+      </c>
+      <c r="C197" t="str">
+        <v>Order Source</v>
+      </c>
+      <c r="D197" t="str">
+        <v>订单来源</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>roleMag</v>
+      </c>
+      <c r="B198" t="str">
+        <v>roleCode</v>
+      </c>
+      <c r="C198" t="str">
+        <v>Role Code</v>
+      </c>
+      <c r="D198" t="str">
+        <v>角色编码</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>roleMag</v>
+      </c>
+      <c r="B199" t="str">
+        <v>roleName</v>
+      </c>
+      <c r="C199" t="str">
+        <v>Role Name</v>
+      </c>
+      <c r="D199" t="str">
+        <v>角色名称</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>roleMag</v>
+      </c>
+      <c r="B200" t="str">
+        <v>qryTime</v>
+      </c>
+      <c r="C200" t="str">
+        <v>Activation Time</v>
+      </c>
+      <c r="D200" t="str">
+        <v>激活时间</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>roleMag</v>
+      </c>
+      <c r="B201" t="str">
+        <v>createBtn</v>
+      </c>
+      <c r="C201" t="str">
+        <v>Create Member</v>
+      </c>
+      <c r="D201" t="str">
+        <v>新建成员</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>roleMag</v>
+      </c>
+      <c r="B202" t="str">
+        <v>createStaffName</v>
+      </c>
+      <c r="C202" t="str">
+        <v>Created By</v>
+      </c>
+      <c r="D202" t="str">
+        <v>创建人</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>roleMag</v>
+      </c>
+      <c r="B203" t="str">
+        <v>createTime</v>
+      </c>
+      <c r="C203" t="str">
+        <v>Creation Time</v>
+      </c>
+      <c r="D203" t="str">
+        <v>创建时间</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>roleMag</v>
+      </c>
+      <c r="B204" t="str">
+        <v>remark</v>
+      </c>
+      <c r="C204" t="str">
+        <v>Remarks</v>
+      </c>
+      <c r="D204" t="str">
+        <v>备注</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>roleMag</v>
+      </c>
+      <c r="B205" t="str">
+        <v>modifyRoleCreate</v>
+      </c>
+      <c r="C205" t="str">
+        <v>Create Role</v>
+      </c>
+      <c r="D205" t="str">
+        <v>新建角色</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>roleMag</v>
+      </c>
+      <c r="B206" t="str">
+        <v>modifyRoleEdit</v>
+      </c>
+      <c r="C206" t="str">
+        <v>Edit Role</v>
+      </c>
+      <c r="D206" t="str">
+        <v>修改角色</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>roleMag</v>
+      </c>
+      <c r="B207" t="str">
+        <v>deleteAsk</v>
+      </c>
+      <c r="C207" t="str">
+        <v>Are you sure you want to delete the selected role(s)?</v>
+      </c>
+      <c r="D207" t="str">
+        <v>确定要删除已选中的角色吗？</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>roleMag</v>
+      </c>
+      <c r="B208" t="str">
+        <v>menuName</v>
+      </c>
+      <c r="C208" t="str">
+        <v>Menu Name</v>
+      </c>
+      <c r="D208" t="str">
+        <v>菜单名称</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>roleMag</v>
+      </c>
+      <c r="B209" t="str">
+        <v>menuPriv</v>
+      </c>
+      <c r="C209" t="str">
+        <v>Menu Privilege</v>
+      </c>
+      <c r="D209" t="str">
+        <v>菜单权限</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>roleMag</v>
+      </c>
+      <c r="B210" t="str">
+        <v>privAction</v>
+      </c>
+      <c r="C210" t="str">
+        <v>Action Privilege</v>
+      </c>
+      <c r="D210" t="str">
+        <v>操作权限</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>roleMag</v>
+      </c>
+      <c r="B211" t="str">
+        <v>checkAll</v>
+      </c>
+      <c r="C211" t="str">
+        <v>Select All</v>
+      </c>
+      <c r="D211" t="str">
+        <v>全选</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B212" t="str">
+        <v>selectRule</v>
+      </c>
+      <c r="C212" t="str">
+        <v>Set Rule</v>
+      </c>
+      <c r="D212" t="str">
+        <v>选择规则类型</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B213" t="str">
+        <v>setRule</v>
+      </c>
+      <c r="C213" t="str">
+        <v/>
+      </c>
+      <c r="D213" t="str">
+        <v>设置规则</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B214" t="str">
+        <v>ruleName</v>
+      </c>
+      <c r="C214" t="str">
+        <v>Rule Name</v>
+      </c>
+      <c r="D214" t="str">
+        <v>规则名称</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B215" t="str">
+        <v>supplier</v>
+      </c>
+      <c r="C215" t="str">
+        <v>Supplier</v>
+      </c>
+      <c r="D215" t="str">
+        <v>供应商</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B216" t="str">
+        <v>ruleType</v>
+      </c>
+      <c r="C216" t="str">
+        <v>Rule Type</v>
+      </c>
+      <c r="D216" t="str">
+        <v>规则类型</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B217" t="str">
+        <v>ruleCategory</v>
+      </c>
+      <c r="C217" t="str">
+        <v>Rule Category</v>
+      </c>
+      <c r="D217" t="str">
+        <v>规则类别</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B218" t="str">
+        <v>createTime</v>
+      </c>
+      <c r="C218" t="str">
+        <v>Creation Time</v>
+      </c>
+      <c r="D218" t="str">
+        <v>创建时间</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B219" t="str">
+        <v>createUser</v>
+      </c>
+      <c r="C219" t="str">
+        <v>Creation User</v>
+      </c>
+      <c r="D219" t="str">
+        <v>创建用户</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B220" t="str">
+        <v>query</v>
+      </c>
+      <c r="C220" t="str">
+        <v>Query</v>
+      </c>
+      <c r="D220" t="str">
+        <v>查询</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B221" t="str">
+        <v>resetting</v>
+      </c>
+      <c r="C221" t="str">
+        <v>Reset</v>
+      </c>
+      <c r="D221" t="str">
+        <v>重置</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B222" t="str">
+        <v>addRule</v>
+      </c>
+      <c r="C222" t="str">
+        <v>New Rule</v>
+      </c>
+      <c r="D222" t="str">
+        <v>新建规则</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B223" t="str">
+        <v>increase</v>
+      </c>
+      <c r="C223" t="str">
+        <v>Add</v>
+      </c>
+      <c r="D223" t="str">
+        <v>添加</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B224" t="str">
+        <v>prev</v>
+      </c>
+      <c r="C224" t="str">
+        <v>Previous Step</v>
+      </c>
+      <c r="D224" t="str">
+        <v>上一步</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B225" t="str">
+        <v>complete</v>
+      </c>
+      <c r="C225" t="str">
+        <v>Complete</v>
+      </c>
+      <c r="D225" t="str">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B226" t="str">
+        <v>monitorObjectType</v>
+      </c>
+      <c r="C226" t="str">
+        <v>Monitoring Object Type</v>
+      </c>
+      <c r="D226" t="str">
+        <v>监控对象类型</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B227" t="str">
+        <v>objectType</v>
+      </c>
+      <c r="C227" t="str">
+        <v>Object Type</v>
+      </c>
+      <c r="D227" t="str">
+        <v>对象类型</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B228" t="str">
+        <v>operate</v>
+      </c>
+      <c r="C228" t="str">
+        <v>Operation</v>
+      </c>
+      <c r="D228" t="str">
+        <v>操作</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B229" t="str">
+        <v>enter</v>
+      </c>
+      <c r="C229" t="str">
+        <v>Please Enter</v>
+      </c>
+      <c r="D229" t="str">
+        <v>请输入</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B230" t="str">
+        <v>pleaseSelect</v>
+      </c>
+      <c r="C230" t="str">
+        <v>Please Select</v>
+      </c>
+      <c r="D230" t="str">
+        <v>请选择</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B231" t="str">
+        <v>loading</v>
+      </c>
+      <c r="C231" t="str">
+        <v>Loading</v>
+      </c>
+      <c r="D231" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B232" t="str">
+        <v>modify</v>
+      </c>
+      <c r="C232" t="str">
+        <v>Edit</v>
+      </c>
+      <c r="D232" t="str">
+        <v>修改</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B233" t="str">
+        <v>delete</v>
+      </c>
+      <c r="C233" t="str">
+        <v>Delete</v>
+      </c>
+      <c r="D233" t="str">
+        <v>删除</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B234" t="str">
+        <v>cancellation</v>
+      </c>
+      <c r="C234" t="str">
+        <v>Cancel</v>
+      </c>
+      <c r="D234" t="str">
+        <v>取消</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B235" t="str">
+        <v>effective</v>
+      </c>
+      <c r="C235" t="str">
+        <v>Valid</v>
+      </c>
+      <c r="D235" t="str">
+        <v>有效</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B236" t="str">
+        <v>invalid</v>
+      </c>
+      <c r="C236" t="str">
+        <v>Invalid</v>
+      </c>
+      <c r="D236" t="str">
+        <v>无效</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B237" t="str">
+        <v>delectRule</v>
+      </c>
+      <c r="C237" t="str">
+        <v>Delete Rule</v>
+      </c>
+      <c r="D237" t="str">
+        <v>删除规则</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B238" t="str">
+        <v>delectAction</v>
+      </c>
+      <c r="C238" t="str">
+        <v>A deletion operation will be performed. Do you wish to continue?</v>
+      </c>
+      <c r="D238" t="str">
+        <v>将进行删除操作，是否继续</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B239" t="str">
+        <v>delectSuccess</v>
+      </c>
+      <c r="C239" t="str">
+        <v>Deleted Successfully</v>
+      </c>
+      <c r="D239" t="str">
+        <v>删除成功</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B240" t="str">
+        <v>usageMonitor</v>
+      </c>
+      <c r="C240" t="str">
+        <v>Usage Monitoring</v>
+      </c>
+      <c r="D240" t="str">
+        <v>用量监控</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B241" t="str">
+        <v>selfSupport</v>
+      </c>
+      <c r="C241" t="str">
+        <v>Self-operated</v>
+      </c>
+      <c r="D241" t="str">
+        <v>自营</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B242" t="str">
+        <v>monthDataUsage</v>
+      </c>
+      <c r="C242" t="str">
+        <v>Monthly Data Usage</v>
+      </c>
+      <c r="D242" t="str">
+        <v>月数据用量</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B243" t="str">
+        <v>monthSmsUsage</v>
+      </c>
+      <c r="C243" t="str">
+        <v>Monthly SMS Usage</v>
+      </c>
+      <c r="D243" t="str">
+        <v>月短信用量</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B244" t="str">
+        <v>monthVoiceUsage</v>
+      </c>
+      <c r="C244" t="str">
+        <v>Monthly Voice Usage</v>
+      </c>
+      <c r="D244" t="str">
+        <v>月语音用量</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B245" t="str">
+        <v>monthDataPrompt</v>
+      </c>
+      <c r="C245" t="str">
+        <v>Triggered when the monthly network usage traffic of the SIM card in the current billing cycle reaches **MB</v>
+      </c>
+      <c r="D245" t="str">
+        <v>当SIM卡在当前计费周期月网络使用流量 达到**MB时触发</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B246" t="str">
+        <v>monthSmsPrompt</v>
+      </c>
+      <c r="C246" t="str">
+        <v>Triggered when the monthly SMS usage of the SIM card in the current billing cycle reaches **messages</v>
+      </c>
+      <c r="D246" t="str">
+        <v>当SIM卡在当前计费周期月短信使用量达 到**条时触发</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B247" t="str">
+        <v>monthVoicePrompt</v>
+      </c>
+      <c r="C247" t="str">
+        <v xml:space="preserve">Triggered when the monthly SMS usage of the SIM card in the current billing cycle reaches **messages  </v>
+      </c>
+      <c r="D247" t="str">
+        <v>当SIM卡在当前计费周期月短信使用量达 到**条时触发</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B248" t="str">
+        <v>selectManufacturer</v>
+      </c>
+      <c r="C248" t="str">
+        <v>Select Manufacturer</v>
+      </c>
+      <c r="D248" t="str">
+        <v>选择厂商</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B249" t="str">
+        <v>package</v>
+      </c>
+      <c r="C249" t="str">
+        <v>Package</v>
+      </c>
+      <c r="D249" t="str">
+        <v>套餐</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B250" t="str">
+        <v>packageName</v>
+      </c>
+      <c r="C250" t="str">
+        <v>Offer Name</v>
+      </c>
+      <c r="D250" t="str">
+        <v>套餐名称</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B251" t="str">
+        <v>packageInfo</v>
+      </c>
+      <c r="C251" t="str">
+        <v>Offer Info</v>
+      </c>
+      <c r="D251" t="str">
+        <v>套餐信息</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B252" t="str">
+        <v>determine</v>
+      </c>
+      <c r="C252" t="str">
+        <v>Confirm</v>
+      </c>
+      <c r="D252" t="str">
+        <v>确定</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B253" t="str">
+        <v>defineRule</v>
+      </c>
+      <c r="C253" t="str">
+        <v>Define Rule</v>
+      </c>
+      <c r="D253" t="str">
+        <v>定义规则</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B254" t="str">
+        <v>ruleDefine</v>
+      </c>
+      <c r="C254" t="str">
+        <v>Rule Definition</v>
+      </c>
+      <c r="D254" t="str">
+        <v>规则定义</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B255" t="str">
+        <v>selected</v>
+      </c>
+      <c r="C255" t="str">
+        <v>Current Selection</v>
+      </c>
+      <c r="D255" t="str">
+        <v>当前选择</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B256" t="str">
+        <v>ruleConfiguration</v>
+      </c>
+      <c r="C256" t="str">
+        <v>Rule Configuration</v>
+      </c>
+      <c r="D256" t="str">
+        <v>规则配置</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B257" t="str">
+        <v>threshold</v>
+      </c>
+      <c r="C257" t="str">
+        <v>Threshold</v>
+      </c>
+      <c r="D257" t="str">
+        <v>阈值</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B258" t="str">
+        <v>thresholdCannotEmpty</v>
+      </c>
+      <c r="C258" t="str">
+        <v>The threshold cannot be empty</v>
+      </c>
+      <c r="D258" t="str">
+        <v>阈值不能为空</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B259" t="str">
+        <v>pushURL</v>
+      </c>
+      <c r="C259" t="str">
+        <v>Push URL</v>
+      </c>
+      <c r="D259" t="str">
+        <v>推送URL</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B260" t="str">
+        <v>testAddress</v>
+      </c>
+      <c r="C260" t="str">
+        <v>Test Address</v>
+      </c>
+      <c r="D260" t="str">
+        <v>测试地址</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B261" t="str">
+        <v>uploadCertificate</v>
+      </c>
+      <c r="C261" t="str">
+        <v>Upload Certificate</v>
+      </c>
+      <c r="D261" t="str">
+        <v>上传证书</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B262" t="str">
+        <v>httpPrompt</v>
+      </c>
+      <c r="C262" t="str">
+        <v>Note: No certificate needs to be uploaded for HTTP requests; in the HTTPS docking scenario, the server certificate can be uploaded (it needs to be re-uploaded after the certificate's validity period expires); if there is no port in the push URL, add the default port 80.</v>
+      </c>
+      <c r="D262" t="str">
+        <v>注意:http请求不需要上传证书;https对接场景下，可上传服务器证书(证书有效期到期后需重传);如果推送url中没有端口，请在url中添加默认端口80。</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B263" t="str">
+        <v>ruleObject</v>
+      </c>
+      <c r="C263" t="str">
+        <v>Note: No certificate needs to be uploaded for HTTP requests; in the HTTPS docking scenario, the server certificate can be uploaded (it needs to be re-uploaded after the certificate's validity period expires); if there is no port in the push URL, add the default port 80.</v>
+      </c>
+      <c r="D263" t="str">
+        <v>规则对象</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B264" t="str">
+        <v>batchImport</v>
+      </c>
+      <c r="C264" t="str">
+        <v>Rule Object</v>
+      </c>
+      <c r="D264" t="str">
+        <v>批量导入</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B265" t="str">
+        <v>batchDelete</v>
+      </c>
+      <c r="C265" t="str">
+        <v>Batch Import</v>
+      </c>
+      <c r="D265" t="str">
+        <v>批量删除</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B266" t="str">
+        <v>accNumber</v>
+      </c>
+      <c r="C266" t="str">
+        <v>Batch Delete</v>
+      </c>
+      <c r="D266" t="str">
+        <v>接入号码</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B267" t="str">
+        <v>batchImportNumber</v>
+      </c>
+      <c r="C267" t="str">
+        <v>Access Number</v>
+      </c>
+      <c r="D267" t="str">
+        <v>批量导入号码</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B268" t="str">
+        <v>batchDeleteNumber</v>
+      </c>
+      <c r="C268" t="str">
+        <v>Batch Import Numbers</v>
+      </c>
+      <c r="D268" t="str">
+        <v>批量删除号码</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B269" t="str">
+        <v>enterprise</v>
+      </c>
+      <c r="C269" t="str">
+        <v>Batch Delete Numbers</v>
+      </c>
+      <c r="D269" t="str">
+        <v>企业</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B270" t="str">
+        <v>simCard</v>
+      </c>
+      <c r="C270" t="str">
+        <v>Enterprise</v>
+      </c>
+      <c r="D270" t="str">
+        <v>SIM卡</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B271" t="str">
+        <v>category</v>
+      </c>
+      <c r="C271" t="str">
+        <v>SIM Card</v>
+      </c>
+      <c r="D271" t="str">
+        <v>类别</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B272" t="str">
+        <v>triggerFlip</v>
+      </c>
+      <c r="C272" t="str">
+        <v>Trigger</v>
+      </c>
+      <c r="D272" t="str">
+        <v>触发器</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B273" t="str">
+        <v>actionDestMessage</v>
+      </c>
+      <c r="C273" t="str">
+        <v>The push URL cannot be empty</v>
+      </c>
+      <c r="D273" t="str">
+        <v>推送URL不能为空</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B274" t="str">
+        <v>ruleNameMessage</v>
+      </c>
+      <c r="C274" t="str">
+        <v>The rule name cannot be empty</v>
+      </c>
+      <c r="D274" t="str">
+        <v>规则名称不能为空</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B275" t="str">
+        <v>objTypeMessage</v>
+      </c>
+      <c r="C275" t="str">
+        <v>The object type cannot be empty</v>
+      </c>
+      <c r="D275" t="str">
+        <v>对象类型不能为空</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B276" t="str">
+        <v>ruleId</v>
+      </c>
+      <c r="C276" t="str">
+        <v>Rule ID</v>
+      </c>
+      <c r="D276" t="str">
+        <v>规则ID</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B277" t="str">
+        <v>triggerDate</v>
+      </c>
+      <c r="C277" t="str">
+        <v>Trigger Date</v>
+      </c>
+      <c r="D277" t="str">
+        <v>触发日期</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B278" t="str">
+        <v>iotNetworkCard</v>
+      </c>
+      <c r="C278" t="str">
+        <v>Internet of Things Card</v>
+      </c>
+      <c r="D278" t="str">
+        <v>物联网卡</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B279" t="str">
+        <v>sendMessageUrl</v>
+      </c>
+      <c r="C279" t="str">
+        <v>Send an API message to the URL</v>
+      </c>
+      <c r="D279" t="str">
+        <v>发送一条API消息,至URL</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B280" t="str">
+        <v>pushContent</v>
+      </c>
+      <c r="C280" t="str">
+        <v>Push Content</v>
+      </c>
+      <c r="D280" t="str">
+        <v>推送内容</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B281" t="str">
+        <v>operationRes</v>
+      </c>
+      <c r="C281" t="str">
+        <v>Operation Result</v>
+      </c>
+      <c r="D281" t="str">
+        <v>操作结果</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B282" t="str">
+        <v>operationResInfo</v>
+      </c>
+      <c r="C282" t="str">
+        <v>Operation Result Information</v>
+      </c>
+      <c r="D282" t="str">
+        <v>操作结果信息</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>rule</v>
+      </c>
+      <c r="B283" t="str">
+        <v>failureReason</v>
+      </c>
+      <c r="C283" t="str">
+        <v>Failure Reason</v>
+      </c>
+      <c r="D283" t="str">
+        <v>失败原因</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B284" t="str">
+        <v>simStatus</v>
+      </c>
+      <c r="C284" t="str">
+        <v>SIM Status</v>
+      </c>
+      <c r="D284" t="str">
+        <v>卡状态</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B285" t="str">
+        <v>addressId</v>
+      </c>
+      <c r="C285" t="str">
+        <v>Supplier</v>
+      </c>
+      <c r="D285" t="str">
+        <v>供应商</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B286" t="str">
+        <v>actDate</v>
+      </c>
+      <c r="C286" t="str">
+        <v>Activate Time</v>
+      </c>
+      <c r="D286" t="str">
+        <v>激活时间</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B287" t="str">
+        <v>package</v>
+      </c>
+      <c r="C287" t="str">
+        <v>Package</v>
+      </c>
+      <c r="D287" t="str">
+        <v>套餐</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B288" t="str">
+        <v>cust</v>
+      </c>
+      <c r="C288" t="str">
+        <v>enterprise</v>
+      </c>
+      <c r="D288" t="str">
+        <v>企业</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B289" t="str">
+        <v>monthUsage</v>
+      </c>
+      <c r="C289" t="str">
+        <v>Monthly Usage(MB)</v>
+      </c>
+      <c r="D289" t="str">
+        <v>当月使用量（MB）</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B290" t="str">
+        <v>use</v>
+      </c>
+      <c r="C290" t="str">
+        <v>online</v>
+      </c>
+      <c r="D290" t="str">
+        <v>在用</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B291" t="str">
+        <v>stop</v>
+      </c>
+      <c r="C291" t="str">
+        <v>offline</v>
+      </c>
+      <c r="D291" t="str">
+        <v>停机</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B292" t="str">
+        <v>destroy</v>
+      </c>
+      <c r="C292" t="str">
+        <v>destroy</v>
+      </c>
+      <c r="D292" t="str">
+        <v>拆机</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B293" t="str">
+        <v>batchImportTitle</v>
+      </c>
+      <c r="C293" t="str">
+        <v xml:space="preserve">Bulk SIM Card Inquiry </v>
+      </c>
+      <c r="D293" t="str">
+        <v>SIM卡批量查询</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B294" t="str">
+        <v>unactivated</v>
+      </c>
+      <c r="C294" t="str">
+        <v>Not Activated</v>
+      </c>
+      <c r="D294" t="str">
+        <v>未激活</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B295" t="str">
+        <v>unactivated_test</v>
+      </c>
+      <c r="C295" t="str">
+        <v>Not Activated (Test Period)</v>
+      </c>
+      <c r="D295" t="str">
+        <v>未激活(测试期)</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B296" t="str">
+        <v>activated_test</v>
+      </c>
+      <c r="C296" t="str">
+        <v>Activated (Test Period)</v>
+      </c>
+      <c r="D296" t="str">
+        <v>已激活(测试期)</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B297" t="str">
+        <v>basicInfo</v>
+      </c>
+      <c r="C297" t="str">
+        <v>Basic Information</v>
+      </c>
+      <c r="D297" t="str">
+        <v>基本信息</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B298" t="str">
+        <v>offerInfo</v>
+      </c>
+      <c r="C298" t="str">
+        <v>Package Information</v>
+      </c>
+      <c r="D298" t="str">
+        <v>套餐信息</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B299" t="str">
+        <v>basicInfoTitle</v>
+      </c>
+      <c r="C299" t="str">
+        <v>Functional Products</v>
+      </c>
+      <c r="D299" t="str">
+        <v>功能产品</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B300" t="str">
+        <v>openDate</v>
+      </c>
+      <c r="C300" t="str">
+        <v>Card Opening Date</v>
+      </c>
+      <c r="D300" t="str">
+        <v>开卡时间</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B301" t="str">
+        <v>prodName</v>
+      </c>
+      <c r="C301" t="str">
+        <v>Product Name</v>
+      </c>
+      <c r="D301" t="str">
+        <v>产品名称</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B302" t="str">
+        <v>prodNbr</v>
+      </c>
+      <c r="C302" t="str">
+        <v>Product Code</v>
+      </c>
+      <c r="D302" t="str">
+        <v>产品编码</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B303" t="str">
+        <v>effDate</v>
+      </c>
+      <c r="C303" t="str">
+        <v>Effective Date</v>
+      </c>
+      <c r="D303" t="str">
+        <v>生效时间</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B304" t="str">
+        <v>packageInfoTitle</v>
+      </c>
+      <c r="C304" t="str">
+        <v>Main Package Information</v>
+      </c>
+      <c r="D304" t="str">
+        <v>主套餐信息</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B305" t="str">
+        <v>totalUsage</v>
+      </c>
+      <c r="C305" t="str">
+        <v>Total Usage (MB)</v>
+      </c>
+      <c r="D305" t="str">
+        <v>总使用量(MB)</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B306" t="str">
+        <v>mainOfferUsage</v>
+      </c>
+      <c r="C306" t="str">
+        <v>Main Package Usage</v>
+      </c>
+      <c r="D306" t="str">
+        <v>主套餐使用量</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B307" t="str">
+        <v>selectOfferUsage</v>
+      </c>
+      <c r="C307" t="str">
+        <v>Optional Package Usage</v>
+      </c>
+      <c r="D307" t="str">
+        <v>可选包使用量</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B308" t="str">
+        <v>selectOffer</v>
+      </c>
+      <c r="C308" t="str">
+        <v>Optional Packages</v>
+      </c>
+      <c r="D308" t="str">
+        <v>可选包</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B309" t="str">
+        <v>selectOfferName</v>
+      </c>
+      <c r="C309" t="str">
+        <v>Optional Package Name</v>
+      </c>
+      <c r="D309" t="str">
+        <v>可选包名称</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B310" t="str">
+        <v>offerName</v>
+      </c>
+      <c r="C310" t="str">
+        <v>Package Name</v>
+      </c>
+      <c r="D310" t="str">
+        <v>套餐名称</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B311" t="str">
+        <v>offerNbr</v>
+      </c>
+      <c r="C311" t="str">
+        <v>Package Number</v>
+      </c>
+      <c r="D311" t="str">
+        <v>套餐编号</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B312" t="str">
+        <v>expDate</v>
+      </c>
+      <c r="C312" t="str">
+        <v>Expiration Date</v>
+      </c>
+      <c r="D312" t="str">
+        <v>失效时间</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B313" t="str">
+        <v>statusCd</v>
+      </c>
+      <c r="C313" t="str">
+        <v>Status</v>
+      </c>
+      <c r="D313" t="str">
+        <v>状态</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B314" t="str">
+        <v>statusCdGood</v>
+      </c>
+      <c r="C314" t="str">
+        <v>Valid</v>
+      </c>
+      <c r="D314" t="str">
+        <v>有效</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B315" t="str">
+        <v>statusCdBad</v>
+      </c>
+      <c r="C315" t="str">
+        <v>Invalid</v>
+      </c>
+      <c r="D315" t="str">
+        <v>无效</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D315"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/json_to_excel/i18n_from_json.xlsx
+++ b/json_to_excel/i18n_from_json.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D315"/>
+  <dimension ref="A1:D331"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -617,13 +617,13 @@
         <v>accountMag</v>
       </c>
       <c r="B16" t="str">
-        <v>viewPlain</v>
+        <v>editAccount</v>
       </c>
       <c r="C16" t="str">
-        <v>View Plain</v>
+        <v>Edit Account</v>
       </c>
       <c r="D16" t="str">
-        <v>查看明文</v>
+        <v>编辑账号</v>
       </c>
     </row>
     <row r="17">
@@ -631,13 +631,13 @@
         <v>accountMag</v>
       </c>
       <c r="B17" t="str">
-        <v>stop</v>
+        <v>viewPlain</v>
       </c>
       <c r="C17" t="str">
-        <v>Stop</v>
+        <v>View Plain</v>
       </c>
       <c r="D17" t="str">
-        <v>停用</v>
+        <v>查看明文</v>
       </c>
     </row>
     <row r="18">
@@ -645,13 +645,13 @@
         <v>accountMag</v>
       </c>
       <c r="B18" t="str">
-        <v>activate</v>
+        <v>stop</v>
       </c>
       <c r="C18" t="str">
-        <v>Activate</v>
+        <v>Stop</v>
       </c>
       <c r="D18" t="str">
-        <v>启用</v>
+        <v>停用</v>
       </c>
     </row>
     <row r="19">
@@ -659,13 +659,13 @@
         <v>accountMag</v>
       </c>
       <c r="B19" t="str">
-        <v>simStatus</v>
+        <v>activate</v>
       </c>
       <c r="C19" t="str">
-        <v>SIM card status</v>
+        <v>Activate</v>
       </c>
       <c r="D19" t="str">
-        <v>卡状态</v>
+        <v>启用</v>
       </c>
     </row>
     <row r="20">
@@ -673,13 +673,13 @@
         <v>accountMag</v>
       </c>
       <c r="B20" t="str">
-        <v>deleteAsk</v>
+        <v>simStatus</v>
       </c>
       <c r="C20" t="str">
-        <v>Are you sure you want to delete the associated number?</v>
+        <v>SIM card status</v>
       </c>
       <c r="D20" t="str">
-        <v>是否删除关联号码？</v>
+        <v>卡状态</v>
       </c>
     </row>
     <row r="21">
@@ -687,13 +687,13 @@
         <v>accountMag</v>
       </c>
       <c r="B21" t="str">
-        <v>stopAsk</v>
+        <v>deleteAsk</v>
       </c>
       <c r="C21" t="str">
-        <v>You are about to 【disable】 this account, proceed?</v>
+        <v>Are you sure you want to delete the associated number?</v>
       </c>
       <c r="D21" t="str">
-        <v>即将【停用】该账号，是否继续？</v>
+        <v>是否删除关联号码？</v>
       </c>
     </row>
     <row r="22">
@@ -701,13 +701,13 @@
         <v>accountMag</v>
       </c>
       <c r="B22" t="str">
-        <v>activateAsk</v>
+        <v>stopAsk</v>
       </c>
       <c r="C22" t="str">
-        <v>You are about to 【activate】 this account, proceed?</v>
+        <v>You are about to 【disable】 this account, proceed?</v>
       </c>
       <c r="D22" t="str">
-        <v>即将【激活】该账号，是否继续？</v>
+        <v>即将【停用】该账号，是否继续？</v>
       </c>
     </row>
     <row r="23">
@@ -715,13 +715,13 @@
         <v>accountMag</v>
       </c>
       <c r="B23" t="str">
-        <v>activateAccount</v>
+        <v>activateAsk</v>
       </c>
       <c r="C23" t="str">
-        <v>Activate Account</v>
+        <v>You are about to 【activate】 this account, proceed?</v>
       </c>
       <c r="D23" t="str">
-        <v>激活账号</v>
+        <v>即将【激活】该账号，是否继续？</v>
       </c>
     </row>
     <row r="24">
@@ -729,13 +729,13 @@
         <v>accountMag</v>
       </c>
       <c r="B24" t="str">
-        <v>stopAccount</v>
+        <v>activateAccount</v>
       </c>
       <c r="C24" t="str">
-        <v>Disable Account</v>
+        <v>Activate Account</v>
       </c>
       <c r="D24" t="str">
-        <v>停用账号</v>
+        <v>激活账号</v>
       </c>
     </row>
     <row r="25">
@@ -743,13 +743,13 @@
         <v>accountMag</v>
       </c>
       <c r="B25" t="str">
-        <v>activateSuccess</v>
+        <v>stopAccount</v>
       </c>
       <c r="C25" t="str">
-        <v>Activation Successful!</v>
+        <v>Disable Account</v>
       </c>
       <c r="D25" t="str">
-        <v>激活成功！</v>
+        <v>停用账号</v>
       </c>
     </row>
     <row r="26">
@@ -757,27 +757,27 @@
         <v>accountMag</v>
       </c>
       <c r="B26" t="str">
-        <v>stopSuccess</v>
+        <v>activateSuccess</v>
       </c>
       <c r="C26" t="str">
-        <v>Disabled Successfully!</v>
+        <v>Activation Successful!</v>
       </c>
       <c r="D26" t="str">
-        <v>停用成功！</v>
+        <v>激活成功！</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>ann</v>
+        <v>accountMag</v>
       </c>
       <c r="B27" t="str">
-        <v>bulletinType</v>
+        <v>stopSuccess</v>
       </c>
       <c r="C27" t="str">
-        <v>Bulletin Type</v>
+        <v>Disabled Successfully!</v>
       </c>
       <c r="D27" t="str">
-        <v>公告类型</v>
+        <v>停用成功！</v>
       </c>
     </row>
     <row r="28">
@@ -785,13 +785,13 @@
         <v>ann</v>
       </c>
       <c r="B28" t="str">
-        <v>type</v>
+        <v>bulletinType</v>
       </c>
       <c r="C28" t="str">
-        <v>Status</v>
+        <v>Bulletin Type</v>
       </c>
       <c r="D28" t="str">
-        <v>公告状态</v>
+        <v>公告类型</v>
       </c>
     </row>
     <row r="29">
@@ -799,13 +799,13 @@
         <v>ann</v>
       </c>
       <c r="B29" t="str">
-        <v>markRead</v>
+        <v>type</v>
       </c>
       <c r="C29" t="str">
-        <v>Mark as Read</v>
+        <v>Status</v>
       </c>
       <c r="D29" t="str">
-        <v>标记已读</v>
+        <v>公告状态</v>
       </c>
     </row>
     <row r="30">
@@ -813,13 +813,13 @@
         <v>ann</v>
       </c>
       <c r="B30" t="str">
-        <v>markAllRead</v>
+        <v>markRead</v>
       </c>
       <c r="C30" t="str">
-        <v>Mark All as Read</v>
+        <v>Mark as Read</v>
       </c>
       <c r="D30" t="str">
-        <v>全部已读</v>
+        <v>标记已读</v>
       </c>
     </row>
     <row r="31">
@@ -827,13 +827,13 @@
         <v>ann</v>
       </c>
       <c r="B31" t="str">
-        <v>bulletinTitle</v>
+        <v>markAllRead</v>
       </c>
       <c r="C31" t="str">
-        <v>Bulletin Title</v>
+        <v>Mark All as Read</v>
       </c>
       <c r="D31" t="str">
-        <v>公告标题</v>
+        <v>全部已读</v>
       </c>
     </row>
     <row r="32">
@@ -841,13 +841,13 @@
         <v>ann</v>
       </c>
       <c r="B32" t="str">
-        <v>bulletinTypeDefault</v>
+        <v>bulletinTitle</v>
       </c>
       <c r="C32" t="str">
-        <v>Corporate Bulletin</v>
+        <v>Bulletin Title</v>
       </c>
       <c r="D32" t="str">
-        <v>企业公告</v>
+        <v>公告标题</v>
       </c>
     </row>
     <row r="33">
@@ -855,13 +855,13 @@
         <v>ann</v>
       </c>
       <c r="B33" t="str">
-        <v>publishDate</v>
+        <v>bulletinTypeDefault</v>
       </c>
       <c r="C33" t="str">
-        <v>Effective Date</v>
+        <v>Corporate Bulletin</v>
       </c>
       <c r="D33" t="str">
-        <v>生效时间</v>
+        <v>企业公告</v>
       </c>
     </row>
     <row r="34">
@@ -869,13 +869,13 @@
         <v>ann</v>
       </c>
       <c r="B34" t="str">
-        <v>expDate</v>
+        <v>publishDate</v>
       </c>
       <c r="C34" t="str">
-        <v>Expiration Date</v>
+        <v>Effective Date</v>
       </c>
       <c r="D34" t="str">
-        <v>失效时间</v>
+        <v>生效时间</v>
       </c>
     </row>
     <row r="35">
@@ -883,13 +883,13 @@
         <v>ann</v>
       </c>
       <c r="B35" t="str">
-        <v>read</v>
+        <v>expDate</v>
       </c>
       <c r="C35" t="str">
-        <v>Read</v>
+        <v>Expiration Date</v>
       </c>
       <c r="D35" t="str">
-        <v>已读</v>
+        <v>失效时间</v>
       </c>
     </row>
     <row r="36">
@@ -897,13 +897,13 @@
         <v>ann</v>
       </c>
       <c r="B36" t="str">
-        <v>unread</v>
+        <v>read</v>
       </c>
       <c r="C36" t="str">
-        <v>Unread</v>
+        <v>Read</v>
       </c>
       <c r="D36" t="str">
-        <v>未读</v>
+        <v>已读</v>
       </c>
     </row>
     <row r="37">
@@ -911,13 +911,13 @@
         <v>ann</v>
       </c>
       <c r="B37" t="str">
-        <v>unknown</v>
+        <v>unread</v>
       </c>
       <c r="C37" t="str">
-        <v>Unknown</v>
+        <v>Unread</v>
       </c>
       <c r="D37" t="str">
-        <v>未知</v>
+        <v>未读</v>
       </c>
     </row>
     <row r="38">
@@ -925,13 +925,13 @@
         <v>ann</v>
       </c>
       <c r="B38" t="str">
-        <v>detail</v>
+        <v>unknown</v>
       </c>
       <c r="C38" t="str">
-        <v>Bulletin Detail</v>
+        <v>Unknown</v>
       </c>
       <c r="D38" t="str">
-        <v>公告详情</v>
+        <v>未知</v>
       </c>
     </row>
     <row r="39">
@@ -939,13 +939,13 @@
         <v>ann</v>
       </c>
       <c r="B39" t="str">
-        <v>createDate</v>
+        <v>detail</v>
       </c>
       <c r="C39" t="str">
-        <v xml:space="preserve">Publication Date: </v>
+        <v>Bulletin Detail</v>
       </c>
       <c r="D39" t="str">
-        <v>发布日期：</v>
+        <v>公告详情</v>
       </c>
     </row>
     <row r="40">
@@ -953,13 +953,13 @@
         <v>ann</v>
       </c>
       <c r="B40" t="str">
-        <v>updateDate</v>
+        <v>createDate</v>
       </c>
       <c r="C40" t="str">
-        <v xml:space="preserve">Modification Date: </v>
+        <v xml:space="preserve">Publication Date: </v>
       </c>
       <c r="D40" t="str">
-        <v>修改日期：</v>
+        <v>发布日期：</v>
       </c>
     </row>
     <row r="41">
@@ -967,41 +967,41 @@
         <v>ann</v>
       </c>
       <c r="B41" t="str">
-        <v>back</v>
+        <v>updateDate</v>
       </c>
       <c r="C41" t="str">
-        <v>Back</v>
+        <v xml:space="preserve">Modification Date: </v>
       </c>
       <c r="D41" t="str">
-        <v>返 回</v>
+        <v>修改日期：</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>api</v>
+        <v>ann</v>
       </c>
       <c r="B42" t="str">
-        <v>intro</v>
+        <v>back</v>
       </c>
       <c r="C42" t="str">
-        <v>API Introduction</v>
+        <v>Back</v>
       </c>
       <c r="D42" t="str">
-        <v>API介绍</v>
+        <v>返 回</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>api</v>
+        <v>ann</v>
       </c>
       <c r="B43" t="str">
-        <v>introDes1</v>
+        <v>setSuccess</v>
       </c>
       <c r="C43" t="str">
-        <v>The international CMP platform integrates self-operated numbers and resale numbers from international carriers, providing a unified API capability interface. IoT customers can use their own application platforms to call the API interface to retrieve information related to data traffic of Internet of Things cards, SMS usage, card lifecycle status, etc.</v>
+        <v>Set Successful!</v>
       </c>
       <c r="D43" t="str">
-        <v>国际CMP平台融合自营号码、国际运营商转售号码，提供统一的API能力接口，物联网客户可以通过自己的应用平台调用API接口，获取物联卡数据流量、短信使用、卡生命周期状态等相关信息。</v>
+        <v>设置成功！</v>
       </c>
     </row>
     <row r="44">
@@ -1009,13 +1009,13 @@
         <v>api</v>
       </c>
       <c r="B44" t="str">
-        <v>introDes2</v>
+        <v>intro</v>
       </c>
       <c r="C44" t="str">
-        <v>To obtain the API specification, please download it under [System Management] - [Knowledge Base].</v>
+        <v>API Introduction</v>
       </c>
       <c r="D44" t="str">
-        <v>如需获取 API 规范，请到【系统管理】- 【知识库】下载</v>
+        <v>API介绍</v>
       </c>
     </row>
     <row r="45">
@@ -1023,13 +1023,13 @@
         <v>api</v>
       </c>
       <c r="B45" t="str">
-        <v>basicInfo</v>
+        <v>introDes1</v>
       </c>
       <c r="C45" t="str">
-        <v>Basic Information</v>
+        <v>The international CMP platform integrates self-operated numbers and resale numbers from international carriers, providing a unified API capability interface. IoT customers can use their own application platforms to call the API interface to retrieve information related to data traffic of Internet of Things cards, SMS usage, card lifecycle status, etc.</v>
       </c>
       <c r="D45" t="str">
-        <v>基础信息</v>
+        <v>国际CMP平台融合自营号码、国际运营商转售号码，提供统一的API能力接口，物联网客户可以通过自己的应用平台调用API接口，获取物联卡数据流量、短信使用、卡生命周期状态等相关信息。</v>
       </c>
     </row>
     <row r="46">
@@ -1037,13 +1037,13 @@
         <v>api</v>
       </c>
       <c r="B46" t="str">
-        <v>gwUserName</v>
+        <v>introDes2</v>
       </c>
       <c r="C46" t="str">
-        <v>Gateway Account Name</v>
+        <v>To obtain the API specification, please download it under [System Management] - [Knowledge Base].</v>
       </c>
       <c r="D46" t="str">
-        <v>网关账号名称</v>
+        <v>如需获取 API 规范，请到【系统管理】- 【知识库】下载</v>
       </c>
     </row>
     <row r="47">
@@ -1051,13 +1051,13 @@
         <v>api</v>
       </c>
       <c r="B47" t="str">
-        <v>cmpUserCode</v>
+        <v>basicInfo</v>
       </c>
       <c r="C47" t="str">
-        <v>CMP Account</v>
+        <v>Basic Information</v>
       </c>
       <c r="D47" t="str">
-        <v>CMP账号</v>
+        <v>基础信息</v>
       </c>
     </row>
     <row r="48">
@@ -1065,13 +1065,13 @@
         <v>api</v>
       </c>
       <c r="B48" t="str">
-        <v>cmpUserName</v>
+        <v>gwUserName</v>
       </c>
       <c r="C48" t="str">
-        <v>CMP Account Name</v>
+        <v>Gateway Account Name</v>
       </c>
       <c r="D48" t="str">
-        <v>CMP账号名称</v>
+        <v>网关账号名称</v>
       </c>
     </row>
     <row r="49">
@@ -1079,13 +1079,13 @@
         <v>api</v>
       </c>
       <c r="B49" t="str">
-        <v>appKey</v>
+        <v>cmpUserCode</v>
       </c>
       <c r="C49" t="str">
-        <v>APP_Key</v>
+        <v>CMP Account</v>
       </c>
       <c r="D49" t="str">
-        <v>APP_Key</v>
+        <v>CMP账号</v>
       </c>
     </row>
     <row r="50">
@@ -1093,13 +1093,13 @@
         <v>api</v>
       </c>
       <c r="B50" t="str">
-        <v>secretKey</v>
+        <v>cmpUserName</v>
       </c>
       <c r="C50" t="str">
-        <v>Secret_Key</v>
+        <v>CMP Account Name</v>
       </c>
       <c r="D50" t="str">
-        <v>Secret_Key</v>
+        <v>CMP账号名称</v>
       </c>
     </row>
     <row r="51">
@@ -1107,13 +1107,13 @@
         <v>api</v>
       </c>
       <c r="B51" t="str">
-        <v>createUserCode</v>
+        <v>appKey</v>
       </c>
       <c r="C51" t="str">
-        <v>Created By</v>
+        <v>APP_Key</v>
       </c>
       <c r="D51" t="str">
-        <v>创建人</v>
+        <v>APP_Key</v>
       </c>
     </row>
     <row r="52">
@@ -1121,13 +1121,13 @@
         <v>api</v>
       </c>
       <c r="B52" t="str">
-        <v>createDate</v>
+        <v>secretKey</v>
       </c>
       <c r="C52" t="str">
-        <v>Creation Date</v>
+        <v>Secret_Key</v>
       </c>
       <c r="D52" t="str">
-        <v>创建时间</v>
+        <v>Secret_Key</v>
       </c>
     </row>
     <row r="53">
@@ -1135,13 +1135,13 @@
         <v>api</v>
       </c>
       <c r="B53" t="str">
-        <v>updateUserCode</v>
+        <v>createUserCode</v>
       </c>
       <c r="C53" t="str">
-        <v>Updated By</v>
+        <v>Created By</v>
       </c>
       <c r="D53" t="str">
-        <v>修改人</v>
+        <v>创建人</v>
       </c>
     </row>
     <row r="54">
@@ -1149,13 +1149,13 @@
         <v>api</v>
       </c>
       <c r="B54" t="str">
-        <v>updateDate</v>
+        <v>createDate</v>
       </c>
       <c r="C54" t="str">
-        <v>Update Date</v>
+        <v>Creation Date</v>
       </c>
       <c r="D54" t="str">
-        <v>修改时间</v>
+        <v>创建时间</v>
       </c>
     </row>
     <row r="55">
@@ -1163,13 +1163,13 @@
         <v>api</v>
       </c>
       <c r="B55" t="str">
-        <v>viewPlain</v>
+        <v>updateUserCode</v>
       </c>
       <c r="C55" t="str">
-        <v>View Plain Text</v>
+        <v>Updated By</v>
       </c>
       <c r="D55" t="str">
-        <v>查看明文</v>
+        <v>修改人</v>
       </c>
     </row>
     <row r="56">
@@ -1177,13 +1177,13 @@
         <v>api</v>
       </c>
       <c r="B56" t="str">
-        <v>currentEmail</v>
+        <v>updateDate</v>
       </c>
       <c r="C56" t="str">
-        <v>Email bound to the current account</v>
+        <v>Update Date</v>
       </c>
       <c r="D56" t="str">
-        <v>当前账号绑定的邮箱</v>
+        <v>修改时间</v>
       </c>
     </row>
     <row r="57">
@@ -1191,13 +1191,13 @@
         <v>api</v>
       </c>
       <c r="B57" t="str">
-        <v>checkCode</v>
+        <v>viewPlain</v>
       </c>
       <c r="C57" t="str">
-        <v>Verification Code</v>
+        <v>View Plain Text</v>
       </c>
       <c r="D57" t="str">
-        <v>验证码</v>
+        <v>查看明文</v>
       </c>
     </row>
     <row r="58">
@@ -1205,13 +1205,13 @@
         <v>api</v>
       </c>
       <c r="B58" t="str">
-        <v>sendCode</v>
+        <v>currentEmail</v>
       </c>
       <c r="C58" t="str">
-        <v>Send</v>
+        <v>Email bound to the current account</v>
       </c>
       <c r="D58" t="str">
-        <v>发送验证码</v>
+        <v>当前账号绑定的邮箱</v>
       </c>
     </row>
     <row r="59">
@@ -1219,13 +1219,13 @@
         <v>api</v>
       </c>
       <c r="B59" t="str">
-        <v>apiEdit</v>
+        <v>checkCode</v>
       </c>
       <c r="C59" t="str">
-        <v>API Key Modification</v>
+        <v>Verification Code</v>
       </c>
       <c r="D59" t="str">
-        <v>API密钥修改</v>
+        <v>验证码</v>
       </c>
     </row>
     <row r="60">
@@ -1233,13 +1233,13 @@
         <v>api</v>
       </c>
       <c r="B60" t="str">
-        <v>oldSecret</v>
+        <v>sendCode</v>
       </c>
       <c r="C60" t="str">
-        <v>Old Secret</v>
+        <v>Send</v>
       </c>
       <c r="D60" t="str">
-        <v>旧密钥</v>
+        <v>发送验证码</v>
       </c>
     </row>
     <row r="61">
@@ -1247,13 +1247,13 @@
         <v>api</v>
       </c>
       <c r="B61" t="str">
-        <v>newSecret</v>
+        <v>apiEdit</v>
       </c>
       <c r="C61" t="str">
-        <v>New Secret</v>
+        <v>API Key Modification</v>
       </c>
       <c r="D61" t="str">
-        <v>新密钥</v>
+        <v>API密钥修改</v>
       </c>
     </row>
     <row r="62">
@@ -1261,41 +1261,41 @@
         <v>api</v>
       </c>
       <c r="B62" t="str">
-        <v>secretTip</v>
+        <v>oldSecret</v>
       </c>
       <c r="C62" t="str">
-        <v>To ensure the normal use of the encryption algorithm, the key length is fixed at 9 characters. The key must contain uppercase and lowercase English letters and numbers. The key must not be consecutive numbers or passwords.</v>
+        <v>Old Secret</v>
       </c>
       <c r="D62" t="str">
-        <v>为确保加密算法正常使用，密钥长度固定为 9 位，密钥必须包含大小写英文和数字，密钥不得是连续数字或者密码</v>
+        <v>旧密钥</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>batchUpload</v>
+        <v>api</v>
       </c>
       <c r="B63" t="str">
-        <v>uploading</v>
+        <v>newSecret</v>
       </c>
       <c r="C63" t="str">
-        <v>File is uploading, please wait</v>
+        <v>New Secret</v>
       </c>
       <c r="D63" t="str">
-        <v>文件上传中，请稍候</v>
+        <v>新密钥</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>batchUpload</v>
+        <v>api</v>
       </c>
       <c r="B64" t="str">
-        <v>please</v>
+        <v>secretTip</v>
       </c>
       <c r="C64" t="str">
-        <v>Please</v>
+        <v>To ensure the normal use of the encryption algorithm, the key length is fixed at 9 characters. The key must contain uppercase and lowercase English letters and numbers. The key must not be consecutive numbers or passwords.</v>
       </c>
       <c r="D64" t="str">
-        <v>请</v>
+        <v>为确保加密算法正常使用，密钥长度固定为 9 位，密钥必须包含大小写英文和数字，密钥不得是连续数字或者密码</v>
       </c>
     </row>
     <row r="65">
@@ -1303,13 +1303,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B65" t="str">
-        <v>downloadTpl</v>
+        <v>uploading</v>
       </c>
       <c r="C65" t="str">
-        <v>Download Template</v>
+        <v>File is uploading, please wait</v>
       </c>
       <c r="D65" t="str">
-        <v>下载模板</v>
+        <v>文件上传中，请稍候</v>
       </c>
     </row>
     <row r="66">
@@ -1317,13 +1317,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B66" t="str">
-        <v>please2</v>
+        <v>please</v>
       </c>
       <c r="C66" t="str">
-        <v>, and after entering data according to the template instructions, upload it</v>
+        <v>Please</v>
       </c>
       <c r="D66" t="str">
-        <v>，并按照模板提示输入数据后上传</v>
+        <v>请</v>
       </c>
     </row>
     <row r="67">
@@ -1331,13 +1331,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B67" t="str">
-        <v>warmTip</v>
+        <v>downloadTpl</v>
       </c>
       <c r="C67" t="str">
-        <v>Warm Reminder: Please select template download;</v>
+        <v>Download Template</v>
       </c>
       <c r="D67" t="str">
-        <v>温馨提示：请选择模板下载；</v>
+        <v>下载模板</v>
       </c>
     </row>
     <row r="68">
@@ -1345,13 +1345,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B68" t="str">
-        <v>drag1</v>
+        <v>please2</v>
       </c>
       <c r="C68" t="str">
-        <v>Drag the file here, or</v>
+        <v>, and after entering data according to the template instructions, upload it</v>
       </c>
       <c r="D68" t="str">
-        <v>将文件拖到此处，或</v>
+        <v>，并按照模板提示输入数据后上传</v>
       </c>
     </row>
     <row r="69">
@@ -1359,13 +1359,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B69" t="str">
-        <v>drag2</v>
+        <v>warmTip</v>
       </c>
       <c r="C69" t="str">
-        <v>choose to upload the file</v>
+        <v>Warm Reminder: Please select template download;</v>
       </c>
       <c r="D69" t="str">
-        <v>选择文件上传</v>
+        <v>温馨提示：请选择模板下载；</v>
       </c>
     </row>
     <row r="70">
@@ -1373,13 +1373,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B70" t="str">
-        <v>drag3</v>
+        <v>drag1</v>
       </c>
       <c r="C70" t="str">
-        <v>Only single Excel files are supported for upload, supported formats: .xlsx</v>
+        <v>Drag the file here, or</v>
       </c>
       <c r="D70" t="str">
-        <v>仅支持单个Excel文件上传，支持格式：.xlsx</v>
+        <v>将文件拖到此处，或</v>
       </c>
     </row>
     <row r="71">
@@ -1387,13 +1387,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B71" t="str">
-        <v>submit</v>
+        <v>drag2</v>
       </c>
       <c r="C71" t="str">
-        <v>Confirm</v>
+        <v>choose to upload the file</v>
       </c>
       <c r="D71" t="str">
-        <v>确认提交</v>
+        <v>选择文件上传</v>
       </c>
     </row>
     <row r="72">
@@ -1401,13 +1401,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B72" t="str">
-        <v>uploadTip1</v>
+        <v>drag3</v>
       </c>
       <c r="C72" t="str">
-        <v>1. Import must be an xlsx file;</v>
+        <v>Only single Excel files are supported for upload, supported formats: .xlsx</v>
       </c>
       <c r="D72" t="str">
-        <v>1、导入必须是xlsx文件；</v>
+        <v>仅支持单个Excel文件上传，支持格式：.xlsx</v>
       </c>
     </row>
     <row r="73">
@@ -1415,13 +1415,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B73" t="str">
-        <v>uploadTip2</v>
+        <v>submit</v>
       </c>
       <c r="C73" t="str">
-        <v>2. Only import the first tab of the EXCEL file;</v>
+        <v>Confirm</v>
       </c>
       <c r="D73" t="str">
-        <v>2、只导入EXCEL文件的第一个标签页；</v>
+        <v>确认提交</v>
       </c>
     </row>
     <row r="74">
@@ -1429,13 +1429,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B74" t="str">
-        <v>uploadTip3</v>
+        <v>uploadTip1</v>
       </c>
       <c r="C74" t="str">
-        <v>3. The maximum file size is 10MB;</v>
+        <v>1. Import must be an xlsx file;</v>
       </c>
       <c r="D74" t="str">
-        <v>3、文件大小最大为10MB；</v>
+        <v>1、导入必须是xlsx文件；</v>
       </c>
     </row>
     <row r="75">
@@ -1443,13 +1443,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B75" t="str">
-        <v>uploadTip4</v>
+        <v>uploadTip2</v>
       </c>
       <c r="C75" t="str">
-        <v>4. The maximum number of numbers is 10,000, which must include the international area code;</v>
+        <v>2. Only import the first tab of the EXCEL file;</v>
       </c>
       <c r="D75" t="str">
-        <v>4、号码最多10000个，需包含国际区号；</v>
+        <v>2、只导入EXCEL文件的第一个标签页；</v>
       </c>
     </row>
     <row r="76">
@@ -1457,13 +1457,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B76" t="str">
-        <v>uploadTipSimMag</v>
+        <v>uploadTip3</v>
       </c>
       <c r="C76" t="str">
-        <v>4. The maximum number of numbers is {maxNum}, which must include the international area code;</v>
+        <v>3. The maximum file size is 10MB;</v>
       </c>
       <c r="D76" t="str">
-        <v>4、号码最多{maxNum}个，需包含国际区号；</v>
+        <v>3、文件大小最大为10MB；</v>
       </c>
     </row>
     <row r="77">
@@ -1471,13 +1471,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B77" t="str">
-        <v>subtmitSuccess</v>
+        <v>uploadTip4</v>
       </c>
       <c r="C77" t="str">
-        <v>Upload successful</v>
+        <v>4. The maximum number of numbers is 10,000, which must include the international area code;</v>
       </c>
       <c r="D77" t="str">
-        <v>上传成功</v>
+        <v>4、号码最多10000个，需包含国际区号；</v>
       </c>
     </row>
     <row r="78">
@@ -1485,13 +1485,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B78" t="str">
-        <v>subtmitFail</v>
+        <v>uploadTipSimMag</v>
       </c>
       <c r="C78" t="str">
-        <v>Upload failed</v>
+        <v>4. The maximum number of numbers is {maxNum}, which must include the international area code;</v>
       </c>
       <c r="D78" t="str">
-        <v>上传失败</v>
+        <v>4、号码最多{maxNum}个，需包含国际区号；</v>
       </c>
     </row>
     <row r="79">
@@ -1499,13 +1499,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B79" t="str">
-        <v>task</v>
+        <v>subtmitSuccess</v>
       </c>
       <c r="C79" t="str">
-        <v>The file download task has been created, please go to the download task page</v>
+        <v>Upload successful</v>
       </c>
       <c r="D79" t="str">
-        <v>文件下载任务已生成，请到下载任务页面</v>
+        <v>上传成功</v>
       </c>
     </row>
     <row r="80">
@@ -1513,13 +1513,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B80" t="str">
-        <v>process</v>
+        <v>subtmitFail</v>
       </c>
       <c r="C80" t="str">
-        <v>to check the task progress</v>
+        <v>Upload failed</v>
       </c>
       <c r="D80" t="str">
-        <v>查看任务进度</v>
+        <v>上传失败</v>
       </c>
     </row>
     <row r="81">
@@ -1527,13 +1527,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B81" t="str">
-        <v>know</v>
+        <v>task</v>
       </c>
       <c r="C81" t="str">
-        <v>Understood</v>
+        <v>The file download task has been created, please go to the download task page</v>
       </c>
       <c r="D81" t="str">
-        <v>知道了</v>
+        <v>文件下载任务已生成，请到下载任务页面</v>
       </c>
     </row>
     <row r="82">
@@ -1541,13 +1541,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B82" t="str">
-        <v>systemError</v>
+        <v>process</v>
       </c>
       <c r="C82" t="str">
-        <v>System exception</v>
+        <v>to check the task progress</v>
       </c>
       <c r="D82" t="str">
-        <v>系统异常</v>
+        <v>查看任务进度</v>
       </c>
     </row>
     <row r="83">
@@ -1555,13 +1555,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B83" t="str">
-        <v>fileSize</v>
+        <v>know</v>
       </c>
       <c r="C83" t="str">
-        <v>The uploaded file cannot exceed</v>
+        <v>Understood</v>
       </c>
       <c r="D83" t="str">
-        <v>上传文件不能超过</v>
+        <v>知道了</v>
       </c>
     </row>
     <row r="84">
@@ -1569,41 +1569,41 @@
         <v>batchUpload</v>
       </c>
       <c r="B84" t="str">
-        <v>fileType</v>
+        <v>systemError</v>
       </c>
       <c r="C84" t="str">
-        <v>Incorrect file type, please confirm</v>
+        <v>System exception</v>
       </c>
       <c r="D84" t="str">
-        <v>文件类型错误，请确认</v>
+        <v>系统异常</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>common</v>
+        <v>batchUpload</v>
       </c>
       <c r="B85" t="str">
-        <v>action</v>
+        <v>fileSize</v>
       </c>
       <c r="C85" t="str">
-        <v>Action</v>
+        <v>The uploaded file cannot exceed</v>
       </c>
       <c r="D85" t="str">
-        <v>操作</v>
+        <v>上传文件不能超过</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>common</v>
+        <v>batchUpload</v>
       </c>
       <c r="B86" t="str">
-        <v>download</v>
+        <v>fileType</v>
       </c>
       <c r="C86" t="str">
-        <v>Download</v>
+        <v>Incorrect file type, please confirm</v>
       </c>
       <c r="D86" t="str">
-        <v>下载</v>
+        <v>文件类型错误，请确认</v>
       </c>
     </row>
     <row r="87">
@@ -1611,13 +1611,13 @@
         <v>common</v>
       </c>
       <c r="B87" t="str">
-        <v>edit</v>
+        <v>action</v>
       </c>
       <c r="C87" t="str">
-        <v>Edit</v>
+        <v>Action</v>
       </c>
       <c r="D87" t="str">
-        <v>编辑</v>
+        <v>操作</v>
       </c>
     </row>
     <row r="88">
@@ -1625,13 +1625,13 @@
         <v>common</v>
       </c>
       <c r="B88" t="str">
-        <v>delete</v>
+        <v>download</v>
       </c>
       <c r="C88" t="str">
-        <v>Delete</v>
+        <v>Download</v>
       </c>
       <c r="D88" t="str">
-        <v>删除</v>
+        <v>下载</v>
       </c>
     </row>
     <row r="89">
@@ -1639,13 +1639,13 @@
         <v>common</v>
       </c>
       <c r="B89" t="str">
-        <v>query</v>
+        <v>edit</v>
       </c>
       <c r="C89" t="str">
-        <v>Query</v>
+        <v>Edit</v>
       </c>
       <c r="D89" t="str">
-        <v>查询</v>
+        <v>编辑</v>
       </c>
     </row>
     <row r="90">
@@ -1653,13 +1653,13 @@
         <v>common</v>
       </c>
       <c r="B90" t="str">
-        <v>reset</v>
+        <v>delete</v>
       </c>
       <c r="C90" t="str">
-        <v>Reset</v>
+        <v>Delete</v>
       </c>
       <c r="D90" t="str">
-        <v>重置</v>
+        <v>删除</v>
       </c>
     </row>
     <row r="91">
@@ -1667,13 +1667,13 @@
         <v>common</v>
       </c>
       <c r="B91" t="str">
-        <v>status</v>
+        <v>query</v>
       </c>
       <c r="C91" t="str">
-        <v>Status</v>
+        <v>Query</v>
       </c>
       <c r="D91" t="str">
-        <v>状态</v>
+        <v>查询</v>
       </c>
     </row>
     <row r="92">
@@ -1681,13 +1681,13 @@
         <v>common</v>
       </c>
       <c r="B92" t="str">
-        <v>remark</v>
+        <v>reset</v>
       </c>
       <c r="C92" t="str">
-        <v>Remark</v>
+        <v>Reset</v>
       </c>
       <c r="D92" t="str">
-        <v>备注</v>
+        <v>重置</v>
       </c>
     </row>
     <row r="93">
@@ -1695,13 +1695,13 @@
         <v>common</v>
       </c>
       <c r="B93" t="str">
-        <v>downloadMag</v>
+        <v>status</v>
       </c>
       <c r="C93" t="str">
-        <v>Download Manage</v>
+        <v>Status</v>
       </c>
       <c r="D93" t="str">
-        <v>下载管理</v>
+        <v>状态</v>
       </c>
     </row>
     <row r="94">
@@ -1709,13 +1709,13 @@
         <v>common</v>
       </c>
       <c r="B94" t="str">
-        <v>basicInfo</v>
+        <v>remark</v>
       </c>
       <c r="C94" t="str">
-        <v>Basic Info</v>
+        <v>Remark</v>
       </c>
       <c r="D94" t="str">
-        <v>基本信息</v>
+        <v>备注</v>
       </c>
     </row>
     <row r="95">
@@ -1723,13 +1723,13 @@
         <v>common</v>
       </c>
       <c r="B95" t="str">
-        <v>logout</v>
+        <v>downloadMag</v>
       </c>
       <c r="C95" t="str">
-        <v>Logout</v>
+        <v>Download Manage</v>
       </c>
       <c r="D95" t="str">
-        <v>退出登录</v>
+        <v>下载管理</v>
       </c>
     </row>
     <row r="96">
@@ -1737,13 +1737,13 @@
         <v>common</v>
       </c>
       <c r="B96" t="str">
-        <v>batchQuery</v>
+        <v>basicInfo</v>
       </c>
       <c r="C96" t="str">
-        <v>Batch Query</v>
+        <v>Basic Info</v>
       </c>
       <c r="D96" t="str">
-        <v>批量查询</v>
+        <v>基本信息</v>
       </c>
     </row>
     <row r="97">
@@ -1751,13 +1751,13 @@
         <v>common</v>
       </c>
       <c r="B97" t="str">
-        <v>batchImport</v>
+        <v>logout</v>
       </c>
       <c r="C97" t="str">
-        <v>Batch Import</v>
+        <v>Logout</v>
       </c>
       <c r="D97" t="str">
-        <v>批量导入</v>
+        <v>退出登录</v>
       </c>
     </row>
     <row r="98">
@@ -1765,13 +1765,13 @@
         <v>common</v>
       </c>
       <c r="B98" t="str">
-        <v>batchDelete</v>
+        <v>batchQuery</v>
       </c>
       <c r="C98" t="str">
-        <v>Batch Delete</v>
+        <v>Batch Query</v>
       </c>
       <c r="D98" t="str">
-        <v>批量删除</v>
+        <v>批量查询</v>
       </c>
     </row>
     <row r="99">
@@ -1779,13 +1779,13 @@
         <v>common</v>
       </c>
       <c r="B99" t="str">
-        <v>export</v>
+        <v>batchImport</v>
       </c>
       <c r="C99" t="str">
-        <v>Export</v>
+        <v>Batch Import</v>
       </c>
       <c r="D99" t="str">
-        <v>导出</v>
+        <v>批量导入</v>
       </c>
     </row>
     <row r="100">
@@ -1793,13 +1793,13 @@
         <v>common</v>
       </c>
       <c r="B100" t="str">
-        <v>beginTime</v>
+        <v>batchDelete</v>
       </c>
       <c r="C100" t="str">
-        <v>Begin</v>
+        <v>Batch Delete</v>
       </c>
       <c r="D100" t="str">
-        <v>开始时间</v>
+        <v>批量删除</v>
       </c>
     </row>
     <row r="101">
@@ -1807,13 +1807,13 @@
         <v>common</v>
       </c>
       <c r="B101" t="str">
-        <v>endTime</v>
+        <v>export</v>
       </c>
       <c r="C101" t="str">
-        <v>End</v>
+        <v>Export</v>
       </c>
       <c r="D101" t="str">
-        <v>结束时间</v>
+        <v>导出</v>
       </c>
     </row>
     <row r="102">
@@ -1821,13 +1821,13 @@
         <v>common</v>
       </c>
       <c r="B102" t="str">
-        <v>showMoreBtn</v>
+        <v>beginTime</v>
       </c>
       <c r="C102" t="str">
-        <v>More</v>
+        <v>Begin</v>
       </c>
       <c r="D102" t="str">
-        <v>高级搜索</v>
+        <v>开始时间</v>
       </c>
     </row>
     <row r="103">
@@ -1835,13 +1835,13 @@
         <v>common</v>
       </c>
       <c r="B103" t="str">
-        <v>ok</v>
+        <v>endTime</v>
       </c>
       <c r="C103" t="str">
-        <v>Ok</v>
+        <v>End</v>
       </c>
       <c r="D103" t="str">
-        <v>确 定</v>
+        <v>结束时间</v>
       </c>
     </row>
     <row r="104">
@@ -1849,13 +1849,13 @@
         <v>common</v>
       </c>
       <c r="B104" t="str">
-        <v>cancel</v>
+        <v>showMoreBtn</v>
       </c>
       <c r="C104" t="str">
-        <v>Cancel</v>
+        <v>More</v>
       </c>
       <c r="D104" t="str">
-        <v>取 消</v>
+        <v>高级搜索</v>
       </c>
     </row>
     <row r="105">
@@ -1863,13 +1863,13 @@
         <v>common</v>
       </c>
       <c r="B105" t="str">
-        <v>deleteSuccess</v>
+        <v>ok</v>
       </c>
       <c r="C105" t="str">
-        <v>Deleted successfully!</v>
+        <v>Ok</v>
       </c>
       <c r="D105" t="str">
-        <v>删除成功！</v>
+        <v>确 定</v>
       </c>
     </row>
     <row r="106">
@@ -1877,13 +1877,13 @@
         <v>common</v>
       </c>
       <c r="B106" t="str">
-        <v>yes</v>
+        <v>cancel</v>
       </c>
       <c r="C106" t="str">
-        <v>YES</v>
+        <v>Cancel</v>
       </c>
       <c r="D106" t="str">
-        <v>是</v>
+        <v>取 消</v>
       </c>
     </row>
     <row r="107">
@@ -1891,13 +1891,13 @@
         <v>common</v>
       </c>
       <c r="B107" t="str">
-        <v>no</v>
+        <v>deleteSuccess</v>
       </c>
       <c r="C107" t="str">
-        <v>NO</v>
+        <v>Deleted successfully!</v>
       </c>
       <c r="D107" t="str">
-        <v>否</v>
+        <v>删除成功！</v>
       </c>
     </row>
     <row r="108">
@@ -1905,41 +1905,41 @@
         <v>common</v>
       </c>
       <c r="B108" t="str">
-        <v>save</v>
+        <v>yes</v>
       </c>
       <c r="C108" t="str">
-        <v>Save</v>
+        <v>YES</v>
       </c>
       <c r="D108" t="str">
-        <v>保 存</v>
+        <v>是</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>dataUsage</v>
+        <v>common</v>
       </c>
       <c r="B109" t="str">
-        <v>offerUsage</v>
+        <v>no</v>
       </c>
       <c r="C109" t="str">
-        <v>Package Usage</v>
+        <v>NO</v>
       </c>
       <c r="D109" t="str">
-        <v>套餐使用量</v>
+        <v>否</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>dataUsage</v>
+        <v>common</v>
       </c>
       <c r="B110" t="str">
-        <v>custUsage</v>
+        <v>save</v>
       </c>
       <c r="C110" t="str">
-        <v>Total Customer Usage</v>
+        <v>Save</v>
       </c>
       <c r="D110" t="str">
-        <v>用户总使用量</v>
+        <v>保 存</v>
       </c>
     </row>
     <row r="111">
@@ -1947,13 +1947,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B111" t="str">
-        <v>billCycle</v>
+        <v>offerUsage</v>
       </c>
       <c r="C111" t="str">
-        <v>Payment Period</v>
+        <v>Package Usage</v>
       </c>
       <c r="D111" t="str">
-        <v>账期</v>
+        <v>套餐使用量</v>
       </c>
     </row>
     <row r="112">
@@ -1961,13 +1961,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B112" t="str">
-        <v>usageType</v>
+        <v>custUsage</v>
       </c>
       <c r="C112" t="str">
-        <v>Usage Category</v>
+        <v>Total Customer Usage</v>
       </c>
       <c r="D112" t="str">
-        <v>用量分类</v>
+        <v>用户总使用量</v>
       </c>
     </row>
     <row r="113">
@@ -1975,13 +1975,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B113" t="str">
-        <v>offerName</v>
+        <v>billCycle</v>
       </c>
       <c r="C113" t="str">
-        <v>Offer Name</v>
+        <v>Payment Period</v>
       </c>
       <c r="D113" t="str">
-        <v>套餐名称</v>
+        <v>账期</v>
       </c>
     </row>
     <row r="114">
@@ -1989,13 +1989,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B114" t="str">
-        <v>totalUsage</v>
+        <v>usageType</v>
       </c>
       <c r="C114" t="str">
-        <v>Total Offer Usage</v>
+        <v>Usage Category</v>
       </c>
       <c r="D114" t="str">
-        <v>套餐总使用量</v>
+        <v>用量分类</v>
       </c>
     </row>
     <row r="115">
@@ -2003,13 +2003,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B115" t="str">
-        <v>usage</v>
+        <v>offerName</v>
       </c>
       <c r="C115" t="str">
-        <v>Used Amount</v>
+        <v>Offer Name</v>
       </c>
       <c r="D115" t="str">
-        <v>已使用量</v>
+        <v>套餐名称</v>
       </c>
     </row>
     <row r="116">
@@ -2017,13 +2017,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B116" t="str">
-        <v>remain</v>
+        <v>totalUsage</v>
       </c>
       <c r="C116" t="str">
-        <v>Remaining Amount</v>
+        <v>Total Offer Usage</v>
       </c>
       <c r="D116" t="str">
-        <v>剩余量</v>
+        <v>套餐总使用量</v>
       </c>
     </row>
     <row r="117">
@@ -2031,13 +2031,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B117" t="str">
-        <v>data</v>
+        <v>usage</v>
       </c>
       <c r="C117" t="str">
-        <v>Data Usage</v>
+        <v>Used Amount</v>
       </c>
       <c r="D117" t="str">
-        <v>数据</v>
+        <v>已使用量</v>
       </c>
     </row>
     <row r="118">
@@ -2045,13 +2045,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B118" t="str">
-        <v>voice</v>
+        <v>remain</v>
       </c>
       <c r="C118" t="str">
-        <v>Voice Usage</v>
+        <v>Remaining Amount</v>
       </c>
       <c r="D118" t="str">
-        <v>语音</v>
+        <v>剩余量</v>
       </c>
     </row>
     <row r="119">
@@ -2059,13 +2059,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B119" t="str">
-        <v>sms</v>
+        <v>data</v>
       </c>
       <c r="C119" t="str">
-        <v>SMS Usage</v>
+        <v>Data Usage</v>
       </c>
       <c r="D119" t="str">
-        <v>短信</v>
+        <v>数据</v>
       </c>
     </row>
     <row r="120">
@@ -2073,13 +2073,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B120" t="str">
-        <v>all</v>
+        <v>voice</v>
       </c>
       <c r="C120" t="str">
-        <v>All</v>
+        <v>Voice Usage</v>
       </c>
       <c r="D120" t="str">
-        <v>全部</v>
+        <v>语音</v>
       </c>
     </row>
     <row r="121">
@@ -2087,13 +2087,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B121" t="str">
-        <v>flowMbDesc</v>
+        <v>sms</v>
       </c>
       <c r="C121" t="str">
-        <v>Total Data (MB)</v>
+        <v>SMS Usage</v>
       </c>
       <c r="D121" t="str">
-        <v>总流量（MB)</v>
+        <v>短信</v>
       </c>
     </row>
     <row r="122">
@@ -2101,13 +2101,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B122" t="str">
-        <v>voiceMinsDesc</v>
+        <v>all</v>
       </c>
       <c r="C122" t="str">
-        <v>Voice Duration (Minutes)</v>
+        <v>All</v>
       </c>
       <c r="D122" t="str">
-        <v>语音时长（分钟）</v>
+        <v>全部</v>
       </c>
     </row>
     <row r="123">
@@ -2115,13 +2115,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B123" t="str">
-        <v>smsDesc</v>
+        <v>flowMbDesc</v>
       </c>
       <c r="C123" t="str">
-        <v>SMS (Messages)</v>
+        <v>Total Data (MB)</v>
       </c>
       <c r="D123" t="str">
-        <v>短信（条）</v>
+        <v>总流量（MB)</v>
       </c>
     </row>
     <row r="124">
@@ -2129,13 +2129,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B124" t="str">
-        <v>batchTitle1</v>
+        <v>voiceMinsDesc</v>
       </c>
       <c r="C124" t="str">
-        <v>Batch Package Usage Inquiry</v>
+        <v>Voice Duration (Minutes)</v>
       </c>
       <c r="D124" t="str">
-        <v>批量套餐使用量查询</v>
+        <v>语音时长（分钟）</v>
       </c>
     </row>
     <row r="125">
@@ -2143,41 +2143,41 @@
         <v>dataUsage</v>
       </c>
       <c r="B125" t="str">
-        <v>batchTitle2</v>
+        <v>smsDesc</v>
       </c>
       <c r="C125" t="str">
-        <v>Total Customer Usage Inquiry</v>
+        <v>SMS (Messages)</v>
       </c>
       <c r="D125" t="str">
-        <v>用户总使用使用量查询</v>
+        <v>短信（条）</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>forgetPassword</v>
+        <v>dataUsage</v>
       </c>
       <c r="B126" t="str">
-        <v>validProfile</v>
+        <v>batchTitle1</v>
       </c>
       <c r="C126" t="str">
-        <v>Validate Profile</v>
+        <v>Batch Package Usage Inquiry</v>
       </c>
       <c r="D126" t="str">
-        <v>验证身份</v>
+        <v>批量套餐使用量查询</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>forgetPassword</v>
+        <v>dataUsage</v>
       </c>
       <c r="B127" t="str">
-        <v>resetPassword</v>
+        <v>batchTitle2</v>
       </c>
       <c r="C127" t="str">
-        <v>Reset Password</v>
+        <v>Total Customer Usage Inquiry</v>
       </c>
       <c r="D127" t="str">
-        <v>重置密码</v>
+        <v>用户总使用使用量查询</v>
       </c>
     </row>
     <row r="128">
@@ -2185,13 +2185,13 @@
         <v>forgetPassword</v>
       </c>
       <c r="B128" t="str">
-        <v>finished</v>
+        <v>validProfile</v>
       </c>
       <c r="C128" t="str">
-        <v>Finished</v>
+        <v>Validate Profile</v>
       </c>
       <c r="D128" t="str">
-        <v>完成</v>
+        <v>验证身份</v>
       </c>
     </row>
     <row r="129">
@@ -2199,13 +2199,13 @@
         <v>forgetPassword</v>
       </c>
       <c r="B129" t="str">
-        <v>hasAccount</v>
+        <v>resetPassword</v>
       </c>
       <c r="C129" t="str">
-        <v>already have account,</v>
+        <v>Reset Password</v>
       </c>
       <c r="D129" t="str">
-        <v>已有账号，</v>
+        <v>重置密码</v>
       </c>
     </row>
     <row r="130">
@@ -2213,13 +2213,13 @@
         <v>forgetPassword</v>
       </c>
       <c r="B130" t="str">
-        <v>imediateLogin</v>
+        <v>finished</v>
       </c>
       <c r="C130" t="str">
-        <v>login immediately</v>
+        <v>Finished</v>
       </c>
       <c r="D130" t="str">
-        <v>立即登录</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="131">
@@ -2227,13 +2227,13 @@
         <v>forgetPassword</v>
       </c>
       <c r="B131" t="str">
-        <v>next</v>
+        <v>hasAccount</v>
       </c>
       <c r="C131" t="str">
-        <v>next</v>
+        <v>already have account,</v>
       </c>
       <c r="D131" t="str">
-        <v>下一步</v>
+        <v>已有账号，</v>
       </c>
     </row>
     <row r="132">
@@ -2241,13 +2241,13 @@
         <v>forgetPassword</v>
       </c>
       <c r="B132" t="str">
-        <v>passwordPh</v>
+        <v>imediateLogin</v>
       </c>
       <c r="C132" t="str">
-        <v>Please input password</v>
+        <v>login immediately</v>
       </c>
       <c r="D132" t="str">
-        <v>请输入新密码</v>
+        <v>立即登录</v>
       </c>
     </row>
     <row r="133">
@@ -2255,13 +2255,13 @@
         <v>forgetPassword</v>
       </c>
       <c r="B133" t="str">
-        <v>password2Ph</v>
+        <v>next</v>
       </c>
       <c r="C133" t="str">
-        <v>Please confirm password</v>
+        <v>next</v>
       </c>
       <c r="D133" t="str">
-        <v>请输入确认新密码</v>
+        <v>下一步</v>
       </c>
     </row>
     <row r="134">
@@ -2269,13 +2269,13 @@
         <v>forgetPassword</v>
       </c>
       <c r="B134" t="str">
-        <v>successTitle</v>
+        <v>passwordPh</v>
       </c>
       <c r="C134" t="str">
-        <v>Modify Successfully, Please Save Carefully</v>
+        <v>Please input password</v>
       </c>
       <c r="D134" t="str">
-        <v>修改成功，请妥善保存</v>
+        <v>请输入新密码</v>
       </c>
     </row>
     <row r="135">
@@ -2283,13 +2283,13 @@
         <v>forgetPassword</v>
       </c>
       <c r="B135" t="str">
-        <v>passwordError1</v>
+        <v>password2Ph</v>
       </c>
       <c r="C135" t="str">
-        <v>Password length must be between 8 and 16 characters</v>
+        <v>Please confirm password</v>
       </c>
       <c r="D135" t="str">
-        <v>密码长度 8-16位</v>
+        <v>请输入确认新密码</v>
       </c>
     </row>
     <row r="136">
@@ -2297,13 +2297,13 @@
         <v>forgetPassword</v>
       </c>
       <c r="B136" t="str">
-        <v>passwordError2</v>
+        <v>successTitle</v>
       </c>
       <c r="C136" t="str">
-        <v>The password must include at least three types of the following: uppercase letters, lowercase letters, numbers, and special characters</v>
+        <v>Modify Successfully, Please Save Carefully</v>
       </c>
       <c r="D136" t="str">
-        <v>密码至少要包括大写字母、小写字母、数字、特殊字符中的三种</v>
+        <v>修改成功，请妥善保存</v>
       </c>
     </row>
     <row r="137">
@@ -2311,13 +2311,13 @@
         <v>forgetPassword</v>
       </c>
       <c r="B137" t="str">
-        <v>passwordError3</v>
+        <v>passwordError1</v>
       </c>
       <c r="C137" t="str">
-        <v>The password cannot contain three or more consecutive digits or letters on the keyboard</v>
+        <v>Password length must be between 8 and 16 characters</v>
       </c>
       <c r="D137" t="str">
-        <v>密码不能出现键盘上三位及以上连续数字、字母</v>
+        <v>密码长度 8-16位</v>
       </c>
     </row>
     <row r="138">
@@ -2325,13 +2325,13 @@
         <v>forgetPassword</v>
       </c>
       <c r="B138" t="str">
-        <v>passwordError4</v>
+        <v>passwordError2</v>
       </c>
       <c r="C138" t="str">
-        <v>The password must not include the full username string, variations in case, or similar transformations</v>
+        <v>The password must include at least three types of the following: uppercase letters, lowercase letters, numbers, and special characters</v>
       </c>
       <c r="D138" t="str">
-        <v>密码中不得包含用户名的完整字符串、大小写变位或形似变换的字符串</v>
+        <v>密码至少要包括大写字母、小写字母、数字、特殊字符中的三种</v>
       </c>
     </row>
     <row r="139">
@@ -2339,13 +2339,13 @@
         <v>forgetPassword</v>
       </c>
       <c r="B139" t="str">
-        <v>notSame</v>
+        <v>passwordError3</v>
       </c>
       <c r="C139" t="str">
-        <v>The two entered passwords do not match</v>
+        <v>The password cannot contain three or more consecutive digits or letters on the keyboard</v>
       </c>
       <c r="D139" t="str">
-        <v>两次输入的密码不一致</v>
+        <v>密码不能出现键盘上三位及以上连续数字、字母</v>
       </c>
     </row>
     <row r="140">
@@ -2353,41 +2353,41 @@
         <v>forgetPassword</v>
       </c>
       <c r="B140" t="str">
-        <v>sendSuccess</v>
+        <v>passwordError4</v>
       </c>
       <c r="C140" t="str">
-        <v>Sent successfully!</v>
+        <v>The password must not include the full username string, variations in case, or similar transformations</v>
       </c>
       <c r="D140" t="str">
-        <v>发送成功！</v>
+        <v>密码中不得包含用户名的完整字符串、大小写变位或形似变换的字符串</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>know</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B141" t="str">
-        <v>docName</v>
+        <v>notSame</v>
       </c>
       <c r="C141" t="str">
-        <v>Document Name</v>
+        <v>The two entered passwords do not match</v>
       </c>
       <c r="D141" t="str">
-        <v>文档名称</v>
+        <v>两次输入的密码不一致</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>know</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B142" t="str">
-        <v>docDesc</v>
+        <v>sendSuccess</v>
       </c>
       <c r="C142" t="str">
-        <v>Document Description</v>
+        <v>Sent successfully!</v>
       </c>
       <c r="D142" t="str">
-        <v>文档描述</v>
+        <v>发送成功！</v>
       </c>
     </row>
     <row r="143">
@@ -2395,13 +2395,13 @@
         <v>know</v>
       </c>
       <c r="B143" t="str">
-        <v>docTypeName</v>
+        <v>docName</v>
       </c>
       <c r="C143" t="str">
-        <v>Document Type</v>
+        <v>Document Name</v>
       </c>
       <c r="D143" t="str">
-        <v>文档类型</v>
+        <v>文档名称</v>
       </c>
     </row>
     <row r="144">
@@ -2409,13 +2409,13 @@
         <v>know</v>
       </c>
       <c r="B144" t="str">
-        <v>createStaffName</v>
+        <v>docDesc</v>
       </c>
       <c r="C144" t="str">
-        <v>Created By</v>
+        <v>Document Description</v>
       </c>
       <c r="D144" t="str">
-        <v>创建人</v>
+        <v>文档描述</v>
       </c>
     </row>
     <row r="145">
@@ -2423,41 +2423,41 @@
         <v>know</v>
       </c>
       <c r="B145" t="str">
-        <v>createTime</v>
+        <v>docTypeName</v>
       </c>
       <c r="C145" t="str">
-        <v>Creation Time</v>
+        <v>Document Type</v>
       </c>
       <c r="D145" t="str">
-        <v>创建时间</v>
+        <v>文档类型</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>linkD</v>
+        <v>know</v>
       </c>
       <c r="B146" t="str">
-        <v>oneClick</v>
+        <v>createStaffName</v>
       </c>
       <c r="C146" t="str">
-        <v>One-click Diagnosis</v>
+        <v>Created By</v>
       </c>
       <c r="D146" t="str">
-        <v>一键诊断</v>
+        <v>创建人</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>linkD</v>
+        <v>know</v>
       </c>
       <c r="B147" t="str">
-        <v>oneClickDes</v>
+        <v>createTime</v>
       </c>
       <c r="C147" t="str">
-        <v>Query the status of a single card, the opening status of the card network, the binding situation of the machine and the card, the detailed data list, and the recent online and offline records of the card</v>
+        <v>Creation Time</v>
       </c>
       <c r="D147" t="str">
-        <v>查询单张卡状态、卡网络开通情况、机卡绑定情况、数据详单、卡近期上下线记录</v>
+        <v>创建时间</v>
       </c>
     </row>
     <row r="148">
@@ -2465,13 +2465,13 @@
         <v>linkD</v>
       </c>
       <c r="B148" t="str">
-        <v>resultTitle</v>
+        <v>oneClick</v>
       </c>
       <c r="C148" t="str">
-        <v>Card diagnosis completed. The results are as follows:</v>
+        <v>One-click Diagnosis</v>
       </c>
       <c r="D148" t="str">
-        <v>卡诊断完成，结果如下</v>
+        <v>一键诊断</v>
       </c>
     </row>
     <row r="149">
@@ -2479,13 +2479,13 @@
         <v>linkD</v>
       </c>
       <c r="B149" t="str">
-        <v>basicInfo</v>
+        <v>oneClickDes</v>
       </c>
       <c r="C149" t="str">
-        <v>Basic Information</v>
+        <v>Query the status of a single card, the opening status of the card network, the binding situation of the machine and the card, the detailed data list, and the recent online and offline records of the card</v>
       </c>
       <c r="D149" t="str">
-        <v>基础信息</v>
+        <v>查询单张卡状态、卡网络开通情况、机卡绑定情况、数据详单、卡近期上下线记录</v>
       </c>
     </row>
     <row r="150">
@@ -2493,13 +2493,13 @@
         <v>linkD</v>
       </c>
       <c r="B150" t="str">
-        <v>resultDetailTitle</v>
+        <v>resultTitle</v>
       </c>
       <c r="C150" t="str">
-        <v>Diagnosis Result</v>
+        <v>Card diagnosis completed. The results are as follows:</v>
       </c>
       <c r="D150" t="str">
-        <v>诊断结果</v>
+        <v>卡诊断完成，结果如下</v>
       </c>
     </row>
     <row r="151">
@@ -2507,13 +2507,13 @@
         <v>linkD</v>
       </c>
       <c r="B151" t="str">
-        <v>resutlItemLabel1</v>
+        <v>basicInfo</v>
       </c>
       <c r="C151" t="str">
-        <v>SIM Card Status</v>
+        <v>Basic Information</v>
       </c>
       <c r="D151" t="str">
-        <v>SIM卡状态</v>
+        <v>基础信息</v>
       </c>
     </row>
     <row r="152">
@@ -2521,13 +2521,13 @@
         <v>linkD</v>
       </c>
       <c r="B152" t="str">
-        <v>resutlItemContent1</v>
+        <v>resultDetailTitle</v>
       </c>
       <c r="C152" t="str">
-        <v>Displays the SIM card status</v>
+        <v>Diagnosis Result</v>
       </c>
       <c r="D152" t="str">
-        <v>展示 SIM 卡状态</v>
+        <v>诊断结果</v>
       </c>
     </row>
     <row r="153">
@@ -2535,13 +2535,13 @@
         <v>linkD</v>
       </c>
       <c r="B153" t="str">
-        <v>resutlItemLabel2</v>
+        <v>resutlItemLabel1</v>
       </c>
       <c r="C153" t="str">
-        <v>SIM Card Connection</v>
+        <v>SIM Card Status</v>
       </c>
       <c r="D153" t="str">
-        <v>SIM卡连接</v>
+        <v>SIM卡状态</v>
       </c>
     </row>
     <row r="154">
@@ -2549,41 +2549,41 @@
         <v>linkD</v>
       </c>
       <c r="B154" t="str">
-        <v>resutlItemContent2</v>
+        <v>resutlItemContent1</v>
       </c>
       <c r="C154" t="str">
-        <v>Determines the SIM card connection attributes through the SIM card product information</v>
+        <v>Displays the SIM card status</v>
       </c>
       <c r="D154" t="str">
-        <v>通过 SIM 卡产品资料，判断 SIM 卡连接属性</v>
+        <v>展示 SIM 卡状态</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>login</v>
+        <v>linkD</v>
       </c>
       <c r="B155" t="str">
-        <v>loginBoxTitle</v>
+        <v>resutlItemLabel2</v>
       </c>
       <c r="C155" t="str">
-        <v>Welcome to the International CMP Portal</v>
+        <v>SIM Card Connection</v>
       </c>
       <c r="D155" t="str">
-        <v>欢迎来到国际CMP门户</v>
+        <v>SIM卡连接</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>login</v>
+        <v>linkD</v>
       </c>
       <c r="B156" t="str">
-        <v>loginButton</v>
+        <v>resutlItemContent2</v>
       </c>
       <c r="C156" t="str">
-        <v>login</v>
+        <v>Determines the SIM card connection attributes through the SIM card product information</v>
       </c>
       <c r="D156" t="str">
-        <v>登录</v>
+        <v>通过 SIM 卡产品资料，判断 SIM 卡连接属性</v>
       </c>
     </row>
     <row r="157">
@@ -2591,13 +2591,13 @@
         <v>login</v>
       </c>
       <c r="B157" t="str">
-        <v>loginType1EmailPh</v>
+        <v>loginBoxTitle</v>
       </c>
       <c r="C157" t="str">
-        <v xml:space="preserve">Please enter the user account or email address </v>
+        <v>Welcome to the International CMP Portal</v>
       </c>
       <c r="D157" t="str">
-        <v>请输入账号/邮箱</v>
+        <v>欢迎来到国际CMP门户</v>
       </c>
     </row>
     <row r="158">
@@ -2605,13 +2605,13 @@
         <v>login</v>
       </c>
       <c r="B158" t="str">
-        <v>loginType2EmailPh</v>
+        <v>loginButton</v>
       </c>
       <c r="C158" t="str">
-        <v>Please enter the email address</v>
+        <v>login</v>
       </c>
       <c r="D158" t="str">
-        <v>请输入邮箱</v>
+        <v>登录</v>
       </c>
     </row>
     <row r="159">
@@ -2619,13 +2619,13 @@
         <v>login</v>
       </c>
       <c r="B159" t="str">
-        <v>passwordPh</v>
+        <v>loginType1EmailPh</v>
       </c>
       <c r="C159" t="str">
-        <v>Please enter the password</v>
+        <v xml:space="preserve">Please enter the user account or email address </v>
       </c>
       <c r="D159" t="str">
-        <v>请输入密码</v>
+        <v>请输入账号/邮箱</v>
       </c>
     </row>
     <row r="160">
@@ -2633,13 +2633,13 @@
         <v>login</v>
       </c>
       <c r="B160" t="str">
-        <v>imageCodePh</v>
+        <v>loginType2EmailPh</v>
       </c>
       <c r="C160" t="str">
-        <v>Please enter the verification code</v>
+        <v>Please enter the email address</v>
       </c>
       <c r="D160" t="str">
-        <v>请输入图形验证码</v>
+        <v>请输入邮箱</v>
       </c>
     </row>
     <row r="161">
@@ -2647,13 +2647,13 @@
         <v>login</v>
       </c>
       <c r="B161" t="str">
-        <v>emailCodePh</v>
+        <v>passwordPh</v>
       </c>
       <c r="C161" t="str">
-        <v>Please enter the email verification code</v>
+        <v>Please enter the password</v>
       </c>
       <c r="D161" t="str">
-        <v>请输入邮箱验证码</v>
+        <v>请输入密码</v>
       </c>
     </row>
     <row r="162">
@@ -2661,13 +2661,13 @@
         <v>login</v>
       </c>
       <c r="B162" t="str">
-        <v>checkPrivacyPh</v>
+        <v>imageCodePh</v>
       </c>
       <c r="C162" t="str">
-        <v xml:space="preserve">Please read and confirm the relevant agreements and policies </v>
+        <v>Please enter the verification code</v>
       </c>
       <c r="D162" t="str">
-        <v>登录前请先阅读和确认平台相关协议和政策</v>
+        <v>请输入图形验证码</v>
       </c>
     </row>
     <row r="163">
@@ -2675,13 +2675,13 @@
         <v>login</v>
       </c>
       <c r="B163" t="str">
-        <v>getCode</v>
+        <v>emailCodePh</v>
       </c>
       <c r="C163" t="str">
-        <v>Get Code</v>
+        <v>Please enter the email verification code</v>
       </c>
       <c r="D163" t="str">
-        <v>获取验证码</v>
+        <v>请输入邮箱验证码</v>
       </c>
     </row>
     <row r="164">
@@ -2689,13 +2689,13 @@
         <v>login</v>
       </c>
       <c r="B164" t="str">
-        <v>reSend</v>
+        <v>checkPrivacyPh</v>
       </c>
       <c r="C164" t="str">
-        <v>Resend</v>
+        <v xml:space="preserve">Please read and confirm the relevant agreements and policies </v>
       </c>
       <c r="D164" t="str">
-        <v>重新发送</v>
+        <v>登录前请先阅读和确认平台相关协议和政策</v>
       </c>
     </row>
     <row r="165">
@@ -2703,13 +2703,13 @@
         <v>login</v>
       </c>
       <c r="B165" t="str">
-        <v>countDown</v>
+        <v>getCode</v>
       </c>
       <c r="C165" t="str">
-        <v>resend {countDownNum}</v>
+        <v>Get Code</v>
       </c>
       <c r="D165" t="str">
-        <v>重新发送 {countDownNum}</v>
+        <v>获取验证码</v>
       </c>
     </row>
     <row r="166">
@@ -2717,13 +2717,13 @@
         <v>login</v>
       </c>
       <c r="B166" t="str">
-        <v>privacyDesPart1</v>
+        <v>reSend</v>
       </c>
       <c r="C166" t="str">
-        <v>l confirm that l have read, consent and agree to</v>
+        <v>Resend</v>
       </c>
       <c r="D166" t="str">
-        <v>我确认已阅读、许可并同意中国电信国际有限公司</v>
+        <v>重新发送</v>
       </c>
     </row>
     <row r="167">
@@ -2731,13 +2731,13 @@
         <v>login</v>
       </c>
       <c r="B167" t="str">
-        <v>privacyDesPart2</v>
+        <v>countDown</v>
       </c>
       <c r="C167" t="str">
-        <v xml:space="preserve"> the Privacy Policy Statement. </v>
+        <v>resend {countDownNum}</v>
       </c>
       <c r="D167" t="str">
-        <v>《隐私政策声明》</v>
+        <v>重新发送 {countDownNum}</v>
       </c>
     </row>
     <row r="168">
@@ -2745,13 +2745,13 @@
         <v>login</v>
       </c>
       <c r="B168" t="str">
-        <v>privacyDesPart3</v>
+        <v>privacyDesPart1</v>
       </c>
       <c r="C168" t="str">
-        <v>If l am a user situated within the European Economic Area or the United Kingdom, l confirm that l have read, consent and agree to the</v>
+        <v>l confirm that l have read, consent and agree to</v>
       </c>
       <c r="D168" t="str">
-        <v>如果我是欧洲经济区或英国境内的用户,我确认我已阅读、许可并同意中国电信国际有限公司</v>
+        <v>我确认已阅读、许可并同意中国电信国际有限公司</v>
       </c>
     </row>
     <row r="169">
@@ -2759,13 +2759,13 @@
         <v>login</v>
       </c>
       <c r="B169" t="str">
-        <v>privacyDesPart4</v>
+        <v>privacyDesPart2</v>
       </c>
       <c r="C169" t="str">
-        <v>GDPR Privacy Policy Statement.</v>
+        <v xml:space="preserve"> the Privacy Policy Statement. </v>
       </c>
       <c r="D169" t="str">
-        <v>《GDPR 隐私政策声明》</v>
+        <v>《隐私政策声明》</v>
       </c>
     </row>
     <row r="170">
@@ -2773,13 +2773,13 @@
         <v>login</v>
       </c>
       <c r="B170" t="str">
-        <v>forgetPassword</v>
+        <v>privacyDesPart3</v>
       </c>
       <c r="C170" t="str">
-        <v>Forget Account/Password</v>
+        <v>If l am a user situated within the European Economic Area or the United Kingdom, l confirm that l have read, consent and agree to the</v>
       </c>
       <c r="D170" t="str">
-        <v>忘记密码？</v>
+        <v>如果我是欧洲经济区或英国境内的用户,我确认我已阅读、许可并同意中国电信国际有限公司</v>
       </c>
     </row>
     <row r="171">
@@ -2787,13 +2787,13 @@
         <v>login</v>
       </c>
       <c r="B171" t="str">
-        <v>loginTypePassword</v>
+        <v>privacyDesPart4</v>
       </c>
       <c r="C171" t="str">
-        <v>Password Login</v>
+        <v>GDPR Privacy Policy Statement.</v>
       </c>
       <c r="D171" t="str">
-        <v>密码登录</v>
+        <v>《GDPR 隐私政策声明》</v>
       </c>
     </row>
     <row r="172">
@@ -2801,13 +2801,13 @@
         <v>login</v>
       </c>
       <c r="B172" t="str">
-        <v>loginTypeEmail</v>
+        <v>forgetPassword</v>
       </c>
       <c r="C172" t="str">
-        <v>Verification Code Login</v>
+        <v>Forget Account/Password</v>
       </c>
       <c r="D172" t="str">
-        <v>邮箱验证码登录</v>
+        <v>忘记密码？</v>
       </c>
     </row>
     <row r="173">
@@ -2815,13 +2815,13 @@
         <v>login</v>
       </c>
       <c r="B173" t="str">
-        <v>headerTitle</v>
+        <v>loginTypePassword</v>
       </c>
       <c r="C173" t="str">
-        <v xml:space="preserve">International IoT CMP </v>
+        <v>Password Login</v>
       </c>
       <c r="D173" t="str">
-        <v>国际物联网CMP平台</v>
+        <v>密码登录</v>
       </c>
     </row>
     <row r="174">
@@ -2829,13 +2829,13 @@
         <v>login</v>
       </c>
       <c r="B174" t="str">
-        <v>leftTextPart1</v>
+        <v>loginTypeEmail</v>
       </c>
       <c r="C174" t="str">
-        <v/>
+        <v>Verification Code Login</v>
       </c>
       <c r="D174" t="str">
-        <v>面向</v>
+        <v>邮箱验证码登录</v>
       </c>
     </row>
     <row r="175">
@@ -2843,13 +2843,13 @@
         <v>login</v>
       </c>
       <c r="B175" t="str">
-        <v>leftTextPart2</v>
+        <v>headerTitle</v>
       </c>
       <c r="C175" t="str">
-        <v>Global</v>
+        <v xml:space="preserve">International IoT CMP </v>
       </c>
       <c r="D175" t="str">
-        <v>全球</v>
+        <v>国际物联网CMP平台</v>
       </c>
     </row>
     <row r="176">
@@ -2857,13 +2857,13 @@
         <v>login</v>
       </c>
       <c r="B176" t="str">
-        <v>leftTextPart3</v>
+        <v>leftTextPart1</v>
       </c>
       <c r="C176" t="str">
-        <v>· Seamless</v>
+        <v/>
       </c>
       <c r="D176" t="str">
-        <v>· 无缝链接</v>
+        <v>面向</v>
       </c>
     </row>
     <row r="177">
@@ -2871,13 +2871,13 @@
         <v>login</v>
       </c>
       <c r="B177" t="str">
-        <v>leftTextPart4</v>
+        <v>leftTextPart2</v>
       </c>
       <c r="C177" t="str">
-        <v>Connection Management</v>
+        <v>Global</v>
       </c>
       <c r="D177" t="str">
-        <v>连接管理</v>
+        <v>全球</v>
       </c>
     </row>
     <row r="178">
@@ -2885,13 +2885,13 @@
         <v>login</v>
       </c>
       <c r="B178" t="str">
-        <v>leftTextPart5</v>
+        <v>leftTextPart3</v>
       </c>
       <c r="C178" t="str">
-        <v>Join us and start building</v>
+        <v>· Seamless</v>
       </c>
       <c r="D178" t="str">
-        <v>加入我们，然后开始构建</v>
+        <v>· 无缝链接</v>
       </c>
     </row>
     <row r="179">
@@ -2899,41 +2899,41 @@
         <v>login</v>
       </c>
       <c r="B179" t="str">
-        <v>copyRight</v>
+        <v>leftTextPart4</v>
       </c>
       <c r="C179" t="str">
-        <v>© 2024 Tianyi IoT Technology Co., Ltd. All rights reserved.Su ICP No. 19042642-1 Value-added Telecommunications Business License A2.B1.B2-2009000</v>
+        <v>Connection Management</v>
       </c>
       <c r="D179" t="str">
-        <v>@2024天翼物联科技有限公司版权所有苏ICP备19042642号-1增值电信业务经营许可证A2.B1.B2-2009000</v>
+        <v>连接管理</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>oper</v>
+        <v>login</v>
       </c>
       <c r="B180" t="str">
-        <v>operName</v>
+        <v>leftTextPart5</v>
       </c>
       <c r="C180" t="str">
-        <v>Operation Name</v>
+        <v>Join us and start building</v>
       </c>
       <c r="D180" t="str">
-        <v>操作名称</v>
+        <v>加入我们，然后开始构建</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>oper</v>
+        <v>login</v>
       </c>
       <c r="B181" t="str">
-        <v>operDate</v>
+        <v>copyRight</v>
       </c>
       <c r="C181" t="str">
-        <v>Operation Date</v>
+        <v>© 2024 Tianyi IoT Technology Co., Ltd. All rights reserved.Su ICP No. 19042642-1 Value-added Telecommunications Business License A2.B1.B2-2009000</v>
       </c>
       <c r="D181" t="str">
-        <v>操作日期</v>
+        <v>@2024天翼物联科技有限公司版权所有苏ICP备19042642号-1增值电信业务经营许可证A2.B1.B2-2009000</v>
       </c>
     </row>
     <row r="182">
@@ -2941,13 +2941,13 @@
         <v>oper</v>
       </c>
       <c r="B182" t="str">
-        <v>resultCode</v>
+        <v>operName</v>
       </c>
       <c r="C182" t="str">
-        <v>Result Code</v>
+        <v>Operation Name</v>
       </c>
       <c r="D182" t="str">
-        <v>操作结果</v>
+        <v>操作名称</v>
       </c>
     </row>
     <row r="183">
@@ -2955,13 +2955,13 @@
         <v>oper</v>
       </c>
       <c r="B183" t="str">
-        <v>clientIp</v>
+        <v>operDate</v>
       </c>
       <c r="C183" t="str">
-        <v>Client IP</v>
+        <v>Operation Date</v>
       </c>
       <c r="D183" t="str">
-        <v>客户端IP</v>
+        <v>操作日期</v>
       </c>
     </row>
     <row r="184">
@@ -2969,13 +2969,13 @@
         <v>oper</v>
       </c>
       <c r="B184" t="str">
-        <v>userCode</v>
+        <v>resultCode</v>
       </c>
       <c r="C184" t="str">
-        <v>User Account</v>
+        <v>Result Code</v>
       </c>
       <c r="D184" t="str">
-        <v>操作账号</v>
+        <v>操作结果</v>
       </c>
     </row>
     <row r="185">
@@ -2983,13 +2983,13 @@
         <v>oper</v>
       </c>
       <c r="B185" t="str">
-        <v>traceId</v>
+        <v>clientIp</v>
       </c>
       <c r="C185" t="str">
-        <v>Trace Id</v>
+        <v>Client IP</v>
       </c>
       <c r="D185" t="str">
-        <v>唯一请求标识</v>
+        <v>客户端IP</v>
       </c>
     </row>
     <row r="186">
@@ -2997,13 +2997,13 @@
         <v>oper</v>
       </c>
       <c r="B186" t="str">
-        <v>success</v>
+        <v>userCode</v>
       </c>
       <c r="C186" t="str">
-        <v>Success</v>
+        <v>User Account</v>
       </c>
       <c r="D186" t="str">
-        <v>成功</v>
+        <v>操作账号</v>
       </c>
     </row>
     <row r="187">
@@ -3011,13 +3011,13 @@
         <v>oper</v>
       </c>
       <c r="B187" t="str">
-        <v>fail</v>
+        <v>traceId</v>
       </c>
       <c r="C187" t="str">
-        <v>Fail</v>
+        <v>Trace Id</v>
       </c>
       <c r="D187" t="str">
-        <v>失败</v>
+        <v>唯一请求标识</v>
       </c>
     </row>
     <row r="188">
@@ -3025,41 +3025,41 @@
         <v>oper</v>
       </c>
       <c r="B188" t="str">
-        <v>all</v>
+        <v>success</v>
       </c>
       <c r="C188" t="str">
-        <v>All</v>
+        <v>Success</v>
       </c>
       <c r="D188" t="str">
-        <v>全部</v>
+        <v>成功</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>order</v>
+        <v>oper</v>
       </c>
       <c r="B189" t="str">
-        <v>orderCode</v>
+        <v>fail</v>
       </c>
       <c r="C189" t="str">
-        <v>Order Code</v>
+        <v>Fail</v>
       </c>
       <c r="D189" t="str">
-        <v>订单编码</v>
+        <v>失败</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>order</v>
+        <v>oper</v>
       </c>
       <c r="B190" t="str">
-        <v>number</v>
+        <v>all</v>
       </c>
       <c r="C190" t="str">
-        <v>Code</v>
+        <v>All</v>
       </c>
       <c r="D190" t="str">
-        <v>号码</v>
+        <v>全部</v>
       </c>
     </row>
     <row r="191">
@@ -3067,13 +3067,13 @@
         <v>order</v>
       </c>
       <c r="B191" t="str">
-        <v>busType</v>
+        <v>orderCode</v>
       </c>
       <c r="C191" t="str">
-        <v>Account</v>
+        <v>Order Code</v>
       </c>
       <c r="D191" t="str">
-        <v>业务类型</v>
+        <v>订单编码</v>
       </c>
     </row>
     <row r="192">
@@ -3081,13 +3081,13 @@
         <v>order</v>
       </c>
       <c r="B192" t="str">
-        <v>orderStatus</v>
+        <v>number</v>
       </c>
       <c r="C192" t="str">
-        <v>Order Status</v>
+        <v>Code</v>
       </c>
       <c r="D192" t="str">
-        <v>订单状态</v>
+        <v>号码</v>
       </c>
     </row>
     <row r="193">
@@ -3095,13 +3095,13 @@
         <v>order</v>
       </c>
       <c r="B193" t="str">
-        <v>account</v>
+        <v>busType</v>
       </c>
       <c r="C193" t="str">
-        <v>Account Status</v>
+        <v>Bussiness Type</v>
       </c>
       <c r="D193" t="str">
-        <v>账号</v>
+        <v>业务类型</v>
       </c>
     </row>
     <row r="194">
@@ -3109,13 +3109,13 @@
         <v>order</v>
       </c>
       <c r="B194" t="str">
-        <v>serviceTime</v>
+        <v>orderStatus</v>
       </c>
       <c r="C194" t="str">
-        <v>Service Time</v>
+        <v>Order Status</v>
       </c>
       <c r="D194" t="str">
-        <v>受理时间</v>
+        <v>订单状态</v>
       </c>
     </row>
     <row r="195">
@@ -3123,13 +3123,13 @@
         <v>order</v>
       </c>
       <c r="B195" t="str">
-        <v>cust</v>
+        <v>account</v>
       </c>
       <c r="C195" t="str">
-        <v>Cust</v>
+        <v>Account Status</v>
       </c>
       <c r="D195" t="str">
-        <v>客户</v>
+        <v>账号</v>
       </c>
     </row>
     <row r="196">
@@ -3137,13 +3137,13 @@
         <v>order</v>
       </c>
       <c r="B196" t="str">
-        <v>access</v>
+        <v>serviceTime</v>
       </c>
       <c r="C196" t="str">
-        <v>Access Number</v>
+        <v>Service Time</v>
       </c>
       <c r="D196" t="str">
-        <v>接入号</v>
+        <v>受理时间</v>
       </c>
     </row>
     <row r="197">
@@ -3151,433 +3151,433 @@
         <v>order</v>
       </c>
       <c r="B197" t="str">
-        <v>source</v>
+        <v>cust</v>
       </c>
       <c r="C197" t="str">
-        <v>Order Source</v>
+        <v>Cust</v>
       </c>
       <c r="D197" t="str">
-        <v>订单来源</v>
+        <v>客户</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B198" t="str">
-        <v>roleCode</v>
+        <v>access</v>
       </c>
       <c r="C198" t="str">
-        <v>Role Code</v>
+        <v>Access Number</v>
       </c>
       <c r="D198" t="str">
-        <v>角色编码</v>
+        <v>接入号</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B199" t="str">
-        <v>roleName</v>
+        <v>source</v>
       </c>
       <c r="C199" t="str">
-        <v>Role Name</v>
+        <v>Order Source</v>
       </c>
       <c r="D199" t="str">
-        <v>角色名称</v>
+        <v>订单来源</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B200" t="str">
-        <v>qryTime</v>
+        <v>createStaffName</v>
       </c>
       <c r="C200" t="str">
-        <v>Activation Time</v>
+        <v>Operator</v>
       </c>
       <c r="D200" t="str">
-        <v>激活时间</v>
+        <v>操作员</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B201" t="str">
-        <v>createBtn</v>
+        <v>offerInfo</v>
       </c>
       <c r="C201" t="str">
-        <v>Create Member</v>
+        <v>Package Information</v>
       </c>
       <c r="D201" t="str">
-        <v>新建成员</v>
+        <v>套餐信息</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B202" t="str">
-        <v>createStaffName</v>
+        <v>offerName</v>
       </c>
       <c r="C202" t="str">
-        <v>Created By</v>
+        <v>Package Name</v>
       </c>
       <c r="D202" t="str">
-        <v>创建人</v>
+        <v>套餐名称</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B203" t="str">
-        <v>createTime</v>
+        <v>operType</v>
       </c>
       <c r="C203" t="str">
-        <v>Creation Time</v>
+        <v>Operation Type</v>
       </c>
       <c r="D203" t="str">
-        <v>创建时间</v>
+        <v>操作类型</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B204" t="str">
-        <v>remark</v>
+        <v>fucName</v>
       </c>
       <c r="C204" t="str">
-        <v>Remarks</v>
+        <v>Function Attribute</v>
       </c>
       <c r="D204" t="str">
-        <v>备注</v>
+        <v>功能属性</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B205" t="str">
-        <v>modifyRoleCreate</v>
+        <v>objName</v>
       </c>
       <c r="C205" t="str">
-        <v>Create Role</v>
+        <v>Name</v>
       </c>
       <c r="D205" t="str">
-        <v>新建角色</v>
+        <v>名称</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B206" t="str">
-        <v>modifyRoleEdit</v>
+        <v>objType</v>
       </c>
       <c r="C206" t="str">
-        <v>Edit Role</v>
+        <v>Type</v>
       </c>
       <c r="D206" t="str">
-        <v>修改角色</v>
+        <v>类型</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B207" t="str">
-        <v>deleteAsk</v>
+        <v>originValue</v>
       </c>
       <c r="C207" t="str">
-        <v>Are you sure you want to delete the selected role(s)?</v>
+        <v>Original Value</v>
       </c>
       <c r="D207" t="str">
-        <v>确定要删除已选中的角色吗？</v>
+        <v>原值</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B208" t="str">
-        <v>menuName</v>
+        <v>newValue</v>
       </c>
       <c r="C208" t="str">
-        <v>Menu Name</v>
+        <v>New Value</v>
       </c>
       <c r="D208" t="str">
-        <v>菜单名称</v>
+        <v>新值</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B209" t="str">
-        <v>menuPriv</v>
+        <v>orderCodeTitle</v>
       </c>
       <c r="C209" t="str">
-        <v>Menu Privilege</v>
+        <v>Order Code：</v>
       </c>
       <c r="D209" t="str">
-        <v>菜单权限</v>
+        <v>订单编号：</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B210" t="str">
-        <v>privAction</v>
+        <v>operTypeAdd</v>
       </c>
       <c r="C210" t="str">
-        <v>Action Privilege</v>
+        <v>Add</v>
       </c>
       <c r="D210" t="str">
-        <v>操作权限</v>
+        <v>新增</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B211" t="str">
-        <v>checkAll</v>
+        <v>operTypeDelete</v>
       </c>
       <c r="C211" t="str">
-        <v>Select All</v>
+        <v>Delete</v>
       </c>
       <c r="D211" t="str">
-        <v>全选</v>
+        <v>删除</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B212" t="str">
-        <v>selectRule</v>
+        <v>operTypeChange</v>
       </c>
       <c r="C212" t="str">
-        <v>Set Rule</v>
+        <v>Change</v>
       </c>
       <c r="D212" t="str">
-        <v>选择规则类型</v>
+        <v>变更</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B213" t="str">
-        <v>setRule</v>
+        <v>operTypeRemain</v>
       </c>
       <c r="C213" t="str">
-        <v/>
+        <v>Remain</v>
       </c>
       <c r="D213" t="str">
-        <v>设置规则</v>
+        <v>保持</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B214" t="str">
-        <v>ruleName</v>
+        <v>roleCode</v>
       </c>
       <c r="C214" t="str">
-        <v>Rule Name</v>
+        <v>Role Code</v>
       </c>
       <c r="D214" t="str">
-        <v>规则名称</v>
+        <v>角色编码</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B215" t="str">
-        <v>supplier</v>
+        <v>roleName</v>
       </c>
       <c r="C215" t="str">
-        <v>Supplier</v>
+        <v>Role Name</v>
       </c>
       <c r="D215" t="str">
-        <v>供应商</v>
+        <v>角色名称</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B216" t="str">
-        <v>ruleType</v>
+        <v>qryTime</v>
       </c>
       <c r="C216" t="str">
-        <v>Rule Type</v>
+        <v>Activation Time</v>
       </c>
       <c r="D216" t="str">
-        <v>规则类型</v>
+        <v>激活时间</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B217" t="str">
-        <v>ruleCategory</v>
+        <v>createBtn</v>
       </c>
       <c r="C217" t="str">
-        <v>Rule Category</v>
+        <v>Create Member</v>
       </c>
       <c r="D217" t="str">
-        <v>规则类别</v>
+        <v>新建成员</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B218" t="str">
-        <v>createTime</v>
+        <v>createStaffName</v>
       </c>
       <c r="C218" t="str">
-        <v>Creation Time</v>
+        <v>Created By</v>
       </c>
       <c r="D218" t="str">
-        <v>创建时间</v>
+        <v>创建人</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B219" t="str">
-        <v>createUser</v>
+        <v>createTime</v>
       </c>
       <c r="C219" t="str">
-        <v>Creation User</v>
+        <v>Creation Time</v>
       </c>
       <c r="D219" t="str">
-        <v>创建用户</v>
+        <v>创建时间</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B220" t="str">
-        <v>query</v>
+        <v>remark</v>
       </c>
       <c r="C220" t="str">
-        <v>Query</v>
+        <v>Remarks</v>
       </c>
       <c r="D220" t="str">
-        <v>查询</v>
+        <v>备注</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B221" t="str">
-        <v>resetting</v>
+        <v>modifyRoleCreate</v>
       </c>
       <c r="C221" t="str">
-        <v>Reset</v>
+        <v>Create Role</v>
       </c>
       <c r="D221" t="str">
-        <v>重置</v>
+        <v>新建角色</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B222" t="str">
-        <v>addRule</v>
+        <v>modifyRoleEdit</v>
       </c>
       <c r="C222" t="str">
-        <v>New Rule</v>
+        <v>Edit Role</v>
       </c>
       <c r="D222" t="str">
-        <v>新建规则</v>
+        <v>修改角色</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B223" t="str">
-        <v>increase</v>
+        <v>deleteAsk</v>
       </c>
       <c r="C223" t="str">
-        <v>Add</v>
+        <v>Are you sure you want to delete the selected role(s)?</v>
       </c>
       <c r="D223" t="str">
-        <v>添加</v>
+        <v>确定要删除已选中的角色吗？</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B224" t="str">
-        <v>prev</v>
+        <v>menuName</v>
       </c>
       <c r="C224" t="str">
-        <v>Previous Step</v>
+        <v>Menu Name</v>
       </c>
       <c r="D224" t="str">
-        <v>上一步</v>
+        <v>菜单名称</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B225" t="str">
-        <v>complete</v>
+        <v>menuPriv</v>
       </c>
       <c r="C225" t="str">
-        <v>Complete</v>
+        <v>Menu Privilege</v>
       </c>
       <c r="D225" t="str">
-        <v>完成</v>
+        <v>菜单权限</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B226" t="str">
-        <v>monitorObjectType</v>
+        <v>privAction</v>
       </c>
       <c r="C226" t="str">
-        <v>Monitoring Object Type</v>
+        <v>Action Privilege</v>
       </c>
       <c r="D226" t="str">
-        <v>监控对象类型</v>
+        <v>操作权限</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B227" t="str">
-        <v>objectType</v>
+        <v>checkAll</v>
       </c>
       <c r="C227" t="str">
-        <v>Object Type</v>
+        <v>Select All</v>
       </c>
       <c r="D227" t="str">
-        <v>对象类型</v>
+        <v>全选</v>
       </c>
     </row>
     <row r="228">
@@ -3585,13 +3585,13 @@
         <v>rule</v>
       </c>
       <c r="B228" t="str">
-        <v>operate</v>
+        <v>selectRule</v>
       </c>
       <c r="C228" t="str">
-        <v>Operation</v>
+        <v>Set Rule</v>
       </c>
       <c r="D228" t="str">
-        <v>操作</v>
+        <v>选择规则类型</v>
       </c>
     </row>
     <row r="229">
@@ -3599,13 +3599,13 @@
         <v>rule</v>
       </c>
       <c r="B229" t="str">
-        <v>enter</v>
+        <v>setRule</v>
       </c>
       <c r="C229" t="str">
-        <v>Please Enter</v>
+        <v/>
       </c>
       <c r="D229" t="str">
-        <v>请输入</v>
+        <v>设置规则</v>
       </c>
     </row>
     <row r="230">
@@ -3613,13 +3613,13 @@
         <v>rule</v>
       </c>
       <c r="B230" t="str">
-        <v>pleaseSelect</v>
+        <v>ruleName</v>
       </c>
       <c r="C230" t="str">
-        <v>Please Select</v>
+        <v>Rule Name</v>
       </c>
       <c r="D230" t="str">
-        <v>请选择</v>
+        <v>规则名称</v>
       </c>
     </row>
     <row r="231">
@@ -3627,13 +3627,13 @@
         <v>rule</v>
       </c>
       <c r="B231" t="str">
-        <v>loading</v>
+        <v>supplier</v>
       </c>
       <c r="C231" t="str">
-        <v>Loading</v>
+        <v>Supplier</v>
       </c>
       <c r="D231" t="str">
-        <v/>
+        <v>供应商</v>
       </c>
     </row>
     <row r="232">
@@ -3641,13 +3641,13 @@
         <v>rule</v>
       </c>
       <c r="B232" t="str">
-        <v>modify</v>
+        <v>ruleType</v>
       </c>
       <c r="C232" t="str">
-        <v>Edit</v>
+        <v>Rule Type</v>
       </c>
       <c r="D232" t="str">
-        <v>修改</v>
+        <v>规则类型</v>
       </c>
     </row>
     <row r="233">
@@ -3655,13 +3655,13 @@
         <v>rule</v>
       </c>
       <c r="B233" t="str">
-        <v>delete</v>
+        <v>ruleCategory</v>
       </c>
       <c r="C233" t="str">
-        <v>Delete</v>
+        <v>Rule Category</v>
       </c>
       <c r="D233" t="str">
-        <v>删除</v>
+        <v>规则类别</v>
       </c>
     </row>
     <row r="234">
@@ -3669,13 +3669,13 @@
         <v>rule</v>
       </c>
       <c r="B234" t="str">
-        <v>cancellation</v>
+        <v>createTime</v>
       </c>
       <c r="C234" t="str">
-        <v>Cancel</v>
+        <v>Creation Time</v>
       </c>
       <c r="D234" t="str">
-        <v>取消</v>
+        <v>创建时间</v>
       </c>
     </row>
     <row r="235">
@@ -3683,13 +3683,13 @@
         <v>rule</v>
       </c>
       <c r="B235" t="str">
-        <v>effective</v>
+        <v>createUser</v>
       </c>
       <c r="C235" t="str">
-        <v>Valid</v>
+        <v>Creation User</v>
       </c>
       <c r="D235" t="str">
-        <v>有效</v>
+        <v>创建用户</v>
       </c>
     </row>
     <row r="236">
@@ -3697,13 +3697,13 @@
         <v>rule</v>
       </c>
       <c r="B236" t="str">
-        <v>invalid</v>
+        <v>query</v>
       </c>
       <c r="C236" t="str">
-        <v>Invalid</v>
+        <v>Query</v>
       </c>
       <c r="D236" t="str">
-        <v>无效</v>
+        <v>查询</v>
       </c>
     </row>
     <row r="237">
@@ -3711,13 +3711,13 @@
         <v>rule</v>
       </c>
       <c r="B237" t="str">
-        <v>delectRule</v>
+        <v>resetting</v>
       </c>
       <c r="C237" t="str">
-        <v>Delete Rule</v>
+        <v>Reset</v>
       </c>
       <c r="D237" t="str">
-        <v>删除规则</v>
+        <v>重置</v>
       </c>
     </row>
     <row r="238">
@@ -3725,13 +3725,13 @@
         <v>rule</v>
       </c>
       <c r="B238" t="str">
-        <v>delectAction</v>
+        <v>addRule</v>
       </c>
       <c r="C238" t="str">
-        <v>A deletion operation will be performed. Do you wish to continue?</v>
+        <v>New Rule</v>
       </c>
       <c r="D238" t="str">
-        <v>将进行删除操作，是否继续</v>
+        <v>新建规则</v>
       </c>
     </row>
     <row r="239">
@@ -3739,13 +3739,13 @@
         <v>rule</v>
       </c>
       <c r="B239" t="str">
-        <v>delectSuccess</v>
+        <v>increase</v>
       </c>
       <c r="C239" t="str">
-        <v>Deleted Successfully</v>
+        <v>Add</v>
       </c>
       <c r="D239" t="str">
-        <v>删除成功</v>
+        <v>添加</v>
       </c>
     </row>
     <row r="240">
@@ -3753,13 +3753,13 @@
         <v>rule</v>
       </c>
       <c r="B240" t="str">
-        <v>usageMonitor</v>
+        <v>prev</v>
       </c>
       <c r="C240" t="str">
-        <v>Usage Monitoring</v>
+        <v>Previous Step</v>
       </c>
       <c r="D240" t="str">
-        <v>用量监控</v>
+        <v>上一步</v>
       </c>
     </row>
     <row r="241">
@@ -3767,13 +3767,13 @@
         <v>rule</v>
       </c>
       <c r="B241" t="str">
-        <v>selfSupport</v>
+        <v>complete</v>
       </c>
       <c r="C241" t="str">
-        <v>Self-operated</v>
+        <v>Complete</v>
       </c>
       <c r="D241" t="str">
-        <v>自营</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="242">
@@ -3781,13 +3781,13 @@
         <v>rule</v>
       </c>
       <c r="B242" t="str">
-        <v>monthDataUsage</v>
+        <v>monitorObjectType</v>
       </c>
       <c r="C242" t="str">
-        <v>Monthly Data Usage</v>
+        <v>Monitoring Object Type</v>
       </c>
       <c r="D242" t="str">
-        <v>月数据用量</v>
+        <v>监控对象类型</v>
       </c>
     </row>
     <row r="243">
@@ -3795,13 +3795,13 @@
         <v>rule</v>
       </c>
       <c r="B243" t="str">
-        <v>monthSmsUsage</v>
+        <v>objectType</v>
       </c>
       <c r="C243" t="str">
-        <v>Monthly SMS Usage</v>
+        <v>Object Type</v>
       </c>
       <c r="D243" t="str">
-        <v>月短信用量</v>
+        <v>对象类型</v>
       </c>
     </row>
     <row r="244">
@@ -3809,13 +3809,13 @@
         <v>rule</v>
       </c>
       <c r="B244" t="str">
-        <v>monthVoiceUsage</v>
+        <v>operate</v>
       </c>
       <c r="C244" t="str">
-        <v>Monthly Voice Usage</v>
+        <v>Operation</v>
       </c>
       <c r="D244" t="str">
-        <v>月语音用量</v>
+        <v>操作</v>
       </c>
     </row>
     <row r="245">
@@ -3823,13 +3823,13 @@
         <v>rule</v>
       </c>
       <c r="B245" t="str">
-        <v>monthDataPrompt</v>
+        <v>enter</v>
       </c>
       <c r="C245" t="str">
-        <v>Triggered when the monthly network usage traffic of the SIM card in the current billing cycle reaches **MB</v>
+        <v>Please Enter</v>
       </c>
       <c r="D245" t="str">
-        <v>当SIM卡在当前计费周期月网络使用流量 达到**MB时触发</v>
+        <v>请输入</v>
       </c>
     </row>
     <row r="246">
@@ -3837,13 +3837,13 @@
         <v>rule</v>
       </c>
       <c r="B246" t="str">
-        <v>monthSmsPrompt</v>
+        <v>pleaseSelect</v>
       </c>
       <c r="C246" t="str">
-        <v>Triggered when the monthly SMS usage of the SIM card in the current billing cycle reaches **messages</v>
+        <v>Please Select</v>
       </c>
       <c r="D246" t="str">
-        <v>当SIM卡在当前计费周期月短信使用量达 到**条时触发</v>
+        <v>请选择</v>
       </c>
     </row>
     <row r="247">
@@ -3851,13 +3851,13 @@
         <v>rule</v>
       </c>
       <c r="B247" t="str">
-        <v>monthVoicePrompt</v>
+        <v>loading</v>
       </c>
       <c r="C247" t="str">
-        <v xml:space="preserve">Triggered when the monthly SMS usage of the SIM card in the current billing cycle reaches **messages  </v>
+        <v>Loading</v>
       </c>
       <c r="D247" t="str">
-        <v>当SIM卡在当前计费周期月短信使用量达 到**条时触发</v>
+        <v/>
       </c>
     </row>
     <row r="248">
@@ -3865,13 +3865,13 @@
         <v>rule</v>
       </c>
       <c r="B248" t="str">
-        <v>selectManufacturer</v>
+        <v>modify</v>
       </c>
       <c r="C248" t="str">
-        <v>Select Manufacturer</v>
+        <v>Edit</v>
       </c>
       <c r="D248" t="str">
-        <v>选择厂商</v>
+        <v>修改</v>
       </c>
     </row>
     <row r="249">
@@ -3879,13 +3879,13 @@
         <v>rule</v>
       </c>
       <c r="B249" t="str">
-        <v>package</v>
+        <v>delete</v>
       </c>
       <c r="C249" t="str">
-        <v>Package</v>
+        <v>Delete</v>
       </c>
       <c r="D249" t="str">
-        <v>套餐</v>
+        <v>删除</v>
       </c>
     </row>
     <row r="250">
@@ -3893,13 +3893,13 @@
         <v>rule</v>
       </c>
       <c r="B250" t="str">
-        <v>packageName</v>
+        <v>cancellation</v>
       </c>
       <c r="C250" t="str">
-        <v>Offer Name</v>
+        <v>Cancel</v>
       </c>
       <c r="D250" t="str">
-        <v>套餐名称</v>
+        <v>取消</v>
       </c>
     </row>
     <row r="251">
@@ -3907,13 +3907,13 @@
         <v>rule</v>
       </c>
       <c r="B251" t="str">
-        <v>packageInfo</v>
+        <v>effective</v>
       </c>
       <c r="C251" t="str">
-        <v>Offer Info</v>
+        <v>Valid</v>
       </c>
       <c r="D251" t="str">
-        <v>套餐信息</v>
+        <v>有效</v>
       </c>
     </row>
     <row r="252">
@@ -3921,13 +3921,13 @@
         <v>rule</v>
       </c>
       <c r="B252" t="str">
-        <v>determine</v>
+        <v>invalid</v>
       </c>
       <c r="C252" t="str">
-        <v>Confirm</v>
+        <v>Invalid</v>
       </c>
       <c r="D252" t="str">
-        <v>确定</v>
+        <v>无效</v>
       </c>
     </row>
     <row r="253">
@@ -3935,13 +3935,13 @@
         <v>rule</v>
       </c>
       <c r="B253" t="str">
-        <v>defineRule</v>
+        <v>delectRule</v>
       </c>
       <c r="C253" t="str">
-        <v>Define Rule</v>
+        <v>Delete Rule</v>
       </c>
       <c r="D253" t="str">
-        <v>定义规则</v>
+        <v>删除规则</v>
       </c>
     </row>
     <row r="254">
@@ -3949,13 +3949,13 @@
         <v>rule</v>
       </c>
       <c r="B254" t="str">
-        <v>ruleDefine</v>
+        <v>delectAction</v>
       </c>
       <c r="C254" t="str">
-        <v>Rule Definition</v>
+        <v>A deletion operation will be performed. Do you wish to continue?</v>
       </c>
       <c r="D254" t="str">
-        <v>规则定义</v>
+        <v>将进行删除操作，是否继续</v>
       </c>
     </row>
     <row r="255">
@@ -3963,13 +3963,13 @@
         <v>rule</v>
       </c>
       <c r="B255" t="str">
-        <v>selected</v>
+        <v>delectSuccess</v>
       </c>
       <c r="C255" t="str">
-        <v>Current Selection</v>
+        <v>Deleted Successfully</v>
       </c>
       <c r="D255" t="str">
-        <v>当前选择</v>
+        <v>删除成功</v>
       </c>
     </row>
     <row r="256">
@@ -3977,13 +3977,13 @@
         <v>rule</v>
       </c>
       <c r="B256" t="str">
-        <v>ruleConfiguration</v>
+        <v>usageMonitor</v>
       </c>
       <c r="C256" t="str">
-        <v>Rule Configuration</v>
+        <v>Usage Monitoring</v>
       </c>
       <c r="D256" t="str">
-        <v>规则配置</v>
+        <v>用量监控</v>
       </c>
     </row>
     <row r="257">
@@ -3991,13 +3991,13 @@
         <v>rule</v>
       </c>
       <c r="B257" t="str">
-        <v>threshold</v>
+        <v>selfSupport</v>
       </c>
       <c r="C257" t="str">
-        <v>Threshold</v>
+        <v>Self-operated</v>
       </c>
       <c r="D257" t="str">
-        <v>阈值</v>
+        <v>自营</v>
       </c>
     </row>
     <row r="258">
@@ -4005,13 +4005,13 @@
         <v>rule</v>
       </c>
       <c r="B258" t="str">
-        <v>thresholdCannotEmpty</v>
+        <v>monthDataUsage</v>
       </c>
       <c r="C258" t="str">
-        <v>The threshold cannot be empty</v>
+        <v>Monthly Data Usage</v>
       </c>
       <c r="D258" t="str">
-        <v>阈值不能为空</v>
+        <v>月数据用量</v>
       </c>
     </row>
     <row r="259">
@@ -4019,13 +4019,13 @@
         <v>rule</v>
       </c>
       <c r="B259" t="str">
-        <v>pushURL</v>
+        <v>monthSmsUsage</v>
       </c>
       <c r="C259" t="str">
-        <v>Push URL</v>
+        <v>Monthly SMS Usage</v>
       </c>
       <c r="D259" t="str">
-        <v>推送URL</v>
+        <v>月短信用量</v>
       </c>
     </row>
     <row r="260">
@@ -4033,13 +4033,13 @@
         <v>rule</v>
       </c>
       <c r="B260" t="str">
-        <v>testAddress</v>
+        <v>monthVoiceUsage</v>
       </c>
       <c r="C260" t="str">
-        <v>Test Address</v>
+        <v>Monthly Voice Usage</v>
       </c>
       <c r="D260" t="str">
-        <v>测试地址</v>
+        <v>月语音用量</v>
       </c>
     </row>
     <row r="261">
@@ -4047,13 +4047,13 @@
         <v>rule</v>
       </c>
       <c r="B261" t="str">
-        <v>uploadCertificate</v>
+        <v>monthDataPrompt</v>
       </c>
       <c r="C261" t="str">
-        <v>Upload Certificate</v>
+        <v>Triggered when the monthly network usage traffic of the SIM card in the current billing cycle reaches **MB</v>
       </c>
       <c r="D261" t="str">
-        <v>上传证书</v>
+        <v>当SIM卡在当前计费周期月网络使用流量 达到**MB时触发</v>
       </c>
     </row>
     <row r="262">
@@ -4061,13 +4061,13 @@
         <v>rule</v>
       </c>
       <c r="B262" t="str">
-        <v>httpPrompt</v>
+        <v>monthSmsPrompt</v>
       </c>
       <c r="C262" t="str">
-        <v>Note: No certificate needs to be uploaded for HTTP requests; in the HTTPS docking scenario, the server certificate can be uploaded (it needs to be re-uploaded after the certificate's validity period expires); if there is no port in the push URL, add the default port 80.</v>
+        <v>Triggered when the monthly SMS usage of the SIM card in the current billing cycle reaches **messages</v>
       </c>
       <c r="D262" t="str">
-        <v>注意:http请求不需要上传证书;https对接场景下，可上传服务器证书(证书有效期到期后需重传);如果推送url中没有端口，请在url中添加默认端口80。</v>
+        <v>当SIM卡在当前计费周期月短信使用量达 到**条时触发</v>
       </c>
     </row>
     <row r="263">
@@ -4075,13 +4075,13 @@
         <v>rule</v>
       </c>
       <c r="B263" t="str">
-        <v>ruleObject</v>
+        <v>monthVoicePrompt</v>
       </c>
       <c r="C263" t="str">
-        <v>Note: No certificate needs to be uploaded for HTTP requests; in the HTTPS docking scenario, the server certificate can be uploaded (it needs to be re-uploaded after the certificate's validity period expires); if there is no port in the push URL, add the default port 80.</v>
+        <v xml:space="preserve">Triggered when the monthly SMS usage of the SIM card in the current billing cycle reaches **messages  </v>
       </c>
       <c r="D263" t="str">
-        <v>规则对象</v>
+        <v>当SIM卡在当前计费周期月短信使用量达 到**条时触发</v>
       </c>
     </row>
     <row r="264">
@@ -4089,13 +4089,13 @@
         <v>rule</v>
       </c>
       <c r="B264" t="str">
-        <v>batchImport</v>
+        <v>selectManufacturer</v>
       </c>
       <c r="C264" t="str">
-        <v>Rule Object</v>
+        <v>Select Manufacturer</v>
       </c>
       <c r="D264" t="str">
-        <v>批量导入</v>
+        <v>选择厂商</v>
       </c>
     </row>
     <row r="265">
@@ -4103,13 +4103,13 @@
         <v>rule</v>
       </c>
       <c r="B265" t="str">
-        <v>batchDelete</v>
+        <v>package</v>
       </c>
       <c r="C265" t="str">
-        <v>Batch Import</v>
+        <v>Package</v>
       </c>
       <c r="D265" t="str">
-        <v>批量删除</v>
+        <v>套餐</v>
       </c>
     </row>
     <row r="266">
@@ -4117,13 +4117,13 @@
         <v>rule</v>
       </c>
       <c r="B266" t="str">
-        <v>accNumber</v>
+        <v>packageName</v>
       </c>
       <c r="C266" t="str">
-        <v>Batch Delete</v>
+        <v>Offer Name</v>
       </c>
       <c r="D266" t="str">
-        <v>接入号码</v>
+        <v>套餐名称</v>
       </c>
     </row>
     <row r="267">
@@ -4131,13 +4131,13 @@
         <v>rule</v>
       </c>
       <c r="B267" t="str">
-        <v>batchImportNumber</v>
+        <v>packageInfo</v>
       </c>
       <c r="C267" t="str">
-        <v>Access Number</v>
+        <v>Offer Info</v>
       </c>
       <c r="D267" t="str">
-        <v>批量导入号码</v>
+        <v>套餐信息</v>
       </c>
     </row>
     <row r="268">
@@ -4145,13 +4145,13 @@
         <v>rule</v>
       </c>
       <c r="B268" t="str">
-        <v>batchDeleteNumber</v>
+        <v>determine</v>
       </c>
       <c r="C268" t="str">
-        <v>Batch Import Numbers</v>
+        <v>Confirm</v>
       </c>
       <c r="D268" t="str">
-        <v>批量删除号码</v>
+        <v>确定</v>
       </c>
     </row>
     <row r="269">
@@ -4159,13 +4159,13 @@
         <v>rule</v>
       </c>
       <c r="B269" t="str">
-        <v>enterprise</v>
+        <v>defineRule</v>
       </c>
       <c r="C269" t="str">
-        <v>Batch Delete Numbers</v>
+        <v>Define Rule</v>
       </c>
       <c r="D269" t="str">
-        <v>企业</v>
+        <v>定义规则</v>
       </c>
     </row>
     <row r="270">
@@ -4173,13 +4173,13 @@
         <v>rule</v>
       </c>
       <c r="B270" t="str">
-        <v>simCard</v>
+        <v>ruleDefine</v>
       </c>
       <c r="C270" t="str">
-        <v>Enterprise</v>
+        <v>Rule Definition</v>
       </c>
       <c r="D270" t="str">
-        <v>SIM卡</v>
+        <v>规则定义</v>
       </c>
     </row>
     <row r="271">
@@ -4187,13 +4187,13 @@
         <v>rule</v>
       </c>
       <c r="B271" t="str">
-        <v>category</v>
+        <v>selected</v>
       </c>
       <c r="C271" t="str">
-        <v>SIM Card</v>
+        <v>Current Selection</v>
       </c>
       <c r="D271" t="str">
-        <v>类别</v>
+        <v>当前选择</v>
       </c>
     </row>
     <row r="272">
@@ -4201,13 +4201,13 @@
         <v>rule</v>
       </c>
       <c r="B272" t="str">
-        <v>triggerFlip</v>
+        <v>ruleConfiguration</v>
       </c>
       <c r="C272" t="str">
-        <v>Trigger</v>
+        <v>Rule Configuration</v>
       </c>
       <c r="D272" t="str">
-        <v>触发器</v>
+        <v>规则配置</v>
       </c>
     </row>
     <row r="273">
@@ -4215,13 +4215,13 @@
         <v>rule</v>
       </c>
       <c r="B273" t="str">
-        <v>actionDestMessage</v>
+        <v>threshold</v>
       </c>
       <c r="C273" t="str">
-        <v>The push URL cannot be empty</v>
+        <v>Threshold</v>
       </c>
       <c r="D273" t="str">
-        <v>推送URL不能为空</v>
+        <v>阈值</v>
       </c>
     </row>
     <row r="274">
@@ -4229,13 +4229,13 @@
         <v>rule</v>
       </c>
       <c r="B274" t="str">
-        <v>ruleNameMessage</v>
+        <v>thresholdCannotEmpty</v>
       </c>
       <c r="C274" t="str">
-        <v>The rule name cannot be empty</v>
+        <v>The threshold cannot be empty</v>
       </c>
       <c r="D274" t="str">
-        <v>规则名称不能为空</v>
+        <v>阈值不能为空</v>
       </c>
     </row>
     <row r="275">
@@ -4243,13 +4243,13 @@
         <v>rule</v>
       </c>
       <c r="B275" t="str">
-        <v>objTypeMessage</v>
+        <v>pushURL</v>
       </c>
       <c r="C275" t="str">
-        <v>The object type cannot be empty</v>
+        <v>Push URL</v>
       </c>
       <c r="D275" t="str">
-        <v>对象类型不能为空</v>
+        <v>推送URL</v>
       </c>
     </row>
     <row r="276">
@@ -4257,13 +4257,13 @@
         <v>rule</v>
       </c>
       <c r="B276" t="str">
-        <v>ruleId</v>
+        <v>testAddress</v>
       </c>
       <c r="C276" t="str">
-        <v>Rule ID</v>
+        <v>Test Address</v>
       </c>
       <c r="D276" t="str">
-        <v>规则ID</v>
+        <v>测试地址</v>
       </c>
     </row>
     <row r="277">
@@ -4271,13 +4271,13 @@
         <v>rule</v>
       </c>
       <c r="B277" t="str">
-        <v>triggerDate</v>
+        <v>uploadCertificate</v>
       </c>
       <c r="C277" t="str">
-        <v>Trigger Date</v>
+        <v>Upload Certificate</v>
       </c>
       <c r="D277" t="str">
-        <v>触发日期</v>
+        <v>上传证书</v>
       </c>
     </row>
     <row r="278">
@@ -4285,13 +4285,13 @@
         <v>rule</v>
       </c>
       <c r="B278" t="str">
-        <v>iotNetworkCard</v>
+        <v>httpPrompt</v>
       </c>
       <c r="C278" t="str">
-        <v>Internet of Things Card</v>
+        <v>Note: No certificate needs to be uploaded for HTTP requests; in the HTTPS docking scenario, the server certificate can be uploaded (it needs to be re-uploaded after the certificate's validity period expires); if there is no port in the push URL, add the default port 80.</v>
       </c>
       <c r="D278" t="str">
-        <v>物联网卡</v>
+        <v>注意:http请求不需要上传证书;https对接场景下，可上传服务器证书(证书有效期到期后需重传);如果推送url中没有端口，请在url中添加默认端口80。</v>
       </c>
     </row>
     <row r="279">
@@ -4299,13 +4299,13 @@
         <v>rule</v>
       </c>
       <c r="B279" t="str">
-        <v>sendMessageUrl</v>
+        <v>ruleObject</v>
       </c>
       <c r="C279" t="str">
-        <v>Send an API message to the URL</v>
+        <v>Rule Object</v>
       </c>
       <c r="D279" t="str">
-        <v>发送一条API消息,至URL</v>
+        <v>规则对象</v>
       </c>
     </row>
     <row r="280">
@@ -4313,13 +4313,13 @@
         <v>rule</v>
       </c>
       <c r="B280" t="str">
-        <v>pushContent</v>
+        <v>batchImport</v>
       </c>
       <c r="C280" t="str">
-        <v>Push Content</v>
+        <v>Batch Import</v>
       </c>
       <c r="D280" t="str">
-        <v>推送内容</v>
+        <v>批量导入</v>
       </c>
     </row>
     <row r="281">
@@ -4327,13 +4327,13 @@
         <v>rule</v>
       </c>
       <c r="B281" t="str">
-        <v>operationRes</v>
+        <v>batchDelete</v>
       </c>
       <c r="C281" t="str">
-        <v>Operation Result</v>
+        <v>Batch Import</v>
       </c>
       <c r="D281" t="str">
-        <v>操作结果</v>
+        <v>批量删除</v>
       </c>
     </row>
     <row r="282">
@@ -4341,13 +4341,13 @@
         <v>rule</v>
       </c>
       <c r="B282" t="str">
-        <v>operationResInfo</v>
+        <v>accNumber</v>
       </c>
       <c r="C282" t="str">
-        <v>Operation Result Information</v>
+        <v>Access Number</v>
       </c>
       <c r="D282" t="str">
-        <v>操作结果信息</v>
+        <v>接入号码</v>
       </c>
     </row>
     <row r="283">
@@ -4355,237 +4355,237 @@
         <v>rule</v>
       </c>
       <c r="B283" t="str">
-        <v>failureReason</v>
+        <v>batchImportNumber</v>
       </c>
       <c r="C283" t="str">
-        <v>Failure Reason</v>
+        <v>Batch Import Numbers</v>
       </c>
       <c r="D283" t="str">
-        <v>失败原因</v>
+        <v>批量导入号码</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B284" t="str">
-        <v>simStatus</v>
+        <v>batchDeleteNumber</v>
       </c>
       <c r="C284" t="str">
-        <v>SIM Status</v>
+        <v>Batch Delete Numbers</v>
       </c>
       <c r="D284" t="str">
-        <v>卡状态</v>
+        <v>批量删除号码</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B285" t="str">
-        <v>addressId</v>
+        <v>enterprise</v>
       </c>
       <c r="C285" t="str">
-        <v>Supplier</v>
+        <v>Enterprise</v>
       </c>
       <c r="D285" t="str">
-        <v>供应商</v>
+        <v>企业</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B286" t="str">
-        <v>actDate</v>
+        <v>simCard</v>
       </c>
       <c r="C286" t="str">
-        <v>Activate Time</v>
+        <v>SIM Card</v>
       </c>
       <c r="D286" t="str">
-        <v>激活时间</v>
+        <v>SIM卡</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B287" t="str">
-        <v>package</v>
+        <v>category</v>
       </c>
       <c r="C287" t="str">
-        <v>Package</v>
+        <v>Category</v>
       </c>
       <c r="D287" t="str">
-        <v>套餐</v>
+        <v>类别</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B288" t="str">
-        <v>cust</v>
+        <v>triggerFlip</v>
       </c>
       <c r="C288" t="str">
-        <v>enterprise</v>
+        <v>Trigger</v>
       </c>
       <c r="D288" t="str">
-        <v>企业</v>
+        <v>触发器</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B289" t="str">
-        <v>monthUsage</v>
+        <v>actionDestMessage</v>
       </c>
       <c r="C289" t="str">
-        <v>Monthly Usage(MB)</v>
+        <v>The push URL cannot be empty</v>
       </c>
       <c r="D289" t="str">
-        <v>当月使用量（MB）</v>
+        <v>推送URL不能为空</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B290" t="str">
-        <v>use</v>
+        <v>ruleNameMessage</v>
       </c>
       <c r="C290" t="str">
-        <v>online</v>
+        <v>The rule name cannot be empty</v>
       </c>
       <c r="D290" t="str">
-        <v>在用</v>
+        <v>规则名称不能为空</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B291" t="str">
-        <v>stop</v>
+        <v>objTypeMessage</v>
       </c>
       <c r="C291" t="str">
-        <v>offline</v>
+        <v>The object type cannot be empty</v>
       </c>
       <c r="D291" t="str">
-        <v>停机</v>
+        <v>对象类型不能为空</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B292" t="str">
-        <v>destroy</v>
+        <v>ruleId</v>
       </c>
       <c r="C292" t="str">
-        <v>destroy</v>
+        <v>Rule ID</v>
       </c>
       <c r="D292" t="str">
-        <v>拆机</v>
+        <v>规则ID</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B293" t="str">
-        <v>batchImportTitle</v>
+        <v>triggerDate</v>
       </c>
       <c r="C293" t="str">
-        <v xml:space="preserve">Bulk SIM Card Inquiry </v>
+        <v>Trigger Date</v>
       </c>
       <c r="D293" t="str">
-        <v>SIM卡批量查询</v>
+        <v>触发日期</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B294" t="str">
-        <v>unactivated</v>
+        <v>iotNetworkCard</v>
       </c>
       <c r="C294" t="str">
-        <v>Not Activated</v>
+        <v>Internet of Things Card</v>
       </c>
       <c r="D294" t="str">
-        <v>未激活</v>
+        <v>物联网卡</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B295" t="str">
-        <v>unactivated_test</v>
+        <v>sendMessageUrl</v>
       </c>
       <c r="C295" t="str">
-        <v>Not Activated (Test Period)</v>
+        <v>Send an API message to the URL</v>
       </c>
       <c r="D295" t="str">
-        <v>未激活(测试期)</v>
+        <v>发送一条API消息,至URL</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B296" t="str">
-        <v>activated_test</v>
+        <v>pushContent</v>
       </c>
       <c r="C296" t="str">
-        <v>Activated (Test Period)</v>
+        <v>Push Content</v>
       </c>
       <c r="D296" t="str">
-        <v>已激活(测试期)</v>
+        <v>推送内容</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B297" t="str">
-        <v>basicInfo</v>
+        <v>operationRes</v>
       </c>
       <c r="C297" t="str">
-        <v>Basic Information</v>
+        <v>Operation Result</v>
       </c>
       <c r="D297" t="str">
-        <v>基本信息</v>
+        <v>操作结果</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B298" t="str">
-        <v>offerInfo</v>
+        <v>operationResInfo</v>
       </c>
       <c r="C298" t="str">
-        <v>Package Information</v>
+        <v>Operation Result Information</v>
       </c>
       <c r="D298" t="str">
-        <v>套餐信息</v>
+        <v>操作结果信息</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B299" t="str">
-        <v>basicInfoTitle</v>
+        <v>failureReason</v>
       </c>
       <c r="C299" t="str">
-        <v>Functional Products</v>
+        <v>Failure Reason</v>
       </c>
       <c r="D299" t="str">
-        <v>功能产品</v>
+        <v>失败原因</v>
       </c>
     </row>
     <row r="300">
@@ -4593,13 +4593,13 @@
         <v>simMag</v>
       </c>
       <c r="B300" t="str">
-        <v>openDate</v>
+        <v>simStatus</v>
       </c>
       <c r="C300" t="str">
-        <v>Card Opening Date</v>
+        <v>SIM Status</v>
       </c>
       <c r="D300" t="str">
-        <v>开卡时间</v>
+        <v>卡状态</v>
       </c>
     </row>
     <row r="301">
@@ -4607,13 +4607,13 @@
         <v>simMag</v>
       </c>
       <c r="B301" t="str">
-        <v>prodName</v>
+        <v>addressId</v>
       </c>
       <c r="C301" t="str">
-        <v>Product Name</v>
+        <v>Supplier</v>
       </c>
       <c r="D301" t="str">
-        <v>产品名称</v>
+        <v>供应商</v>
       </c>
     </row>
     <row r="302">
@@ -4621,13 +4621,13 @@
         <v>simMag</v>
       </c>
       <c r="B302" t="str">
-        <v>prodNbr</v>
+        <v>actDate</v>
       </c>
       <c r="C302" t="str">
-        <v>Product Code</v>
+        <v>Activate Time</v>
       </c>
       <c r="D302" t="str">
-        <v>产品编码</v>
+        <v>激活时间</v>
       </c>
     </row>
     <row r="303">
@@ -4635,13 +4635,13 @@
         <v>simMag</v>
       </c>
       <c r="B303" t="str">
-        <v>effDate</v>
+        <v>package</v>
       </c>
       <c r="C303" t="str">
-        <v>Effective Date</v>
+        <v>Package</v>
       </c>
       <c r="D303" t="str">
-        <v>生效时间</v>
+        <v>套餐</v>
       </c>
     </row>
     <row r="304">
@@ -4649,13 +4649,13 @@
         <v>simMag</v>
       </c>
       <c r="B304" t="str">
-        <v>packageInfoTitle</v>
+        <v>cust</v>
       </c>
       <c r="C304" t="str">
-        <v>Main Package Information</v>
+        <v>Enterprise</v>
       </c>
       <c r="D304" t="str">
-        <v>主套餐信息</v>
+        <v>企业</v>
       </c>
     </row>
     <row r="305">
@@ -4663,13 +4663,13 @@
         <v>simMag</v>
       </c>
       <c r="B305" t="str">
-        <v>totalUsage</v>
+        <v>monthUsage</v>
       </c>
       <c r="C305" t="str">
-        <v>Total Usage (MB)</v>
+        <v>Monthly Usage(MB)</v>
       </c>
       <c r="D305" t="str">
-        <v>总使用量(MB)</v>
+        <v>当月使用量（MB）</v>
       </c>
     </row>
     <row r="306">
@@ -4677,13 +4677,13 @@
         <v>simMag</v>
       </c>
       <c r="B306" t="str">
-        <v>mainOfferUsage</v>
+        <v>use</v>
       </c>
       <c r="C306" t="str">
-        <v>Main Package Usage</v>
+        <v>Online</v>
       </c>
       <c r="D306" t="str">
-        <v>主套餐使用量</v>
+        <v>在用</v>
       </c>
     </row>
     <row r="307">
@@ -4691,13 +4691,13 @@
         <v>simMag</v>
       </c>
       <c r="B307" t="str">
-        <v>selectOfferUsage</v>
+        <v>stop</v>
       </c>
       <c r="C307" t="str">
-        <v>Optional Package Usage</v>
+        <v>Offline</v>
       </c>
       <c r="D307" t="str">
-        <v>可选包使用量</v>
+        <v>停机</v>
       </c>
     </row>
     <row r="308">
@@ -4705,13 +4705,13 @@
         <v>simMag</v>
       </c>
       <c r="B308" t="str">
-        <v>selectOffer</v>
+        <v>destroy</v>
       </c>
       <c r="C308" t="str">
-        <v>Optional Packages</v>
+        <v>Destroy</v>
       </c>
       <c r="D308" t="str">
-        <v>可选包</v>
+        <v>拆机</v>
       </c>
     </row>
     <row r="309">
@@ -4719,13 +4719,13 @@
         <v>simMag</v>
       </c>
       <c r="B309" t="str">
-        <v>selectOfferName</v>
+        <v>batchImportTitle</v>
       </c>
       <c r="C309" t="str">
-        <v>Optional Package Name</v>
+        <v xml:space="preserve">Bulk SIM Card Inquiry </v>
       </c>
       <c r="D309" t="str">
-        <v>可选包名称</v>
+        <v>SIM卡批量查询</v>
       </c>
     </row>
     <row r="310">
@@ -4733,13 +4733,13 @@
         <v>simMag</v>
       </c>
       <c r="B310" t="str">
-        <v>offerName</v>
+        <v>unactivated</v>
       </c>
       <c r="C310" t="str">
-        <v>Package Name</v>
+        <v>Not Activated</v>
       </c>
       <c r="D310" t="str">
-        <v>套餐名称</v>
+        <v>未激活</v>
       </c>
     </row>
     <row r="311">
@@ -4747,13 +4747,13 @@
         <v>simMag</v>
       </c>
       <c r="B311" t="str">
-        <v>offerNbr</v>
+        <v>unactivated_test</v>
       </c>
       <c r="C311" t="str">
-        <v>Package Number</v>
+        <v>Not Activated (Test Period)</v>
       </c>
       <c r="D311" t="str">
-        <v>套餐编号</v>
+        <v>未激活(测试期)</v>
       </c>
     </row>
     <row r="312">
@@ -4761,13 +4761,13 @@
         <v>simMag</v>
       </c>
       <c r="B312" t="str">
-        <v>expDate</v>
+        <v>activated_test</v>
       </c>
       <c r="C312" t="str">
-        <v>Expiration Date</v>
+        <v>Activated (Test Period)</v>
       </c>
       <c r="D312" t="str">
-        <v>失效时间</v>
+        <v>已激活(测试期)</v>
       </c>
     </row>
     <row r="313">
@@ -4775,13 +4775,13 @@
         <v>simMag</v>
       </c>
       <c r="B313" t="str">
-        <v>statusCd</v>
+        <v>basicInfo</v>
       </c>
       <c r="C313" t="str">
-        <v>Status</v>
+        <v>Basic Information</v>
       </c>
       <c r="D313" t="str">
-        <v>状态</v>
+        <v>基本信息</v>
       </c>
     </row>
     <row r="314">
@@ -4789,13 +4789,13 @@
         <v>simMag</v>
       </c>
       <c r="B314" t="str">
-        <v>statusCdGood</v>
+        <v>offerInfo</v>
       </c>
       <c r="C314" t="str">
-        <v>Valid</v>
+        <v>Package Information</v>
       </c>
       <c r="D314" t="str">
-        <v>有效</v>
+        <v>套餐信息</v>
       </c>
     </row>
     <row r="315">
@@ -4803,18 +4803,242 @@
         <v>simMag</v>
       </c>
       <c r="B315" t="str">
+        <v>basicInfoTitle</v>
+      </c>
+      <c r="C315" t="str">
+        <v>Functional Products</v>
+      </c>
+      <c r="D315" t="str">
+        <v>功能产品</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B316" t="str">
+        <v>openDate</v>
+      </c>
+      <c r="C316" t="str">
+        <v>Card Opening Date</v>
+      </c>
+      <c r="D316" t="str">
+        <v>开卡时间</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B317" t="str">
+        <v>prodName</v>
+      </c>
+      <c r="C317" t="str">
+        <v>Product Name</v>
+      </c>
+      <c r="D317" t="str">
+        <v>产品名称</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B318" t="str">
+        <v>prodNbr</v>
+      </c>
+      <c r="C318" t="str">
+        <v>Product Code</v>
+      </c>
+      <c r="D318" t="str">
+        <v>产品编码</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B319" t="str">
+        <v>effDate</v>
+      </c>
+      <c r="C319" t="str">
+        <v>Effective Date</v>
+      </c>
+      <c r="D319" t="str">
+        <v>生效时间</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B320" t="str">
+        <v>packageInfoTitle</v>
+      </c>
+      <c r="C320" t="str">
+        <v>Main Package Information</v>
+      </c>
+      <c r="D320" t="str">
+        <v>主套餐信息</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B321" t="str">
+        <v>totalUsage</v>
+      </c>
+      <c r="C321" t="str">
+        <v>Total Usage (MB)</v>
+      </c>
+      <c r="D321" t="str">
+        <v>总使用量(MB)</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B322" t="str">
+        <v>mainOfferUsage</v>
+      </c>
+      <c r="C322" t="str">
+        <v>Main Package Usage</v>
+      </c>
+      <c r="D322" t="str">
+        <v>主套餐使用量</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B323" t="str">
+        <v>selectOfferUsage</v>
+      </c>
+      <c r="C323" t="str">
+        <v>Optional Package Usage</v>
+      </c>
+      <c r="D323" t="str">
+        <v>可选包使用量</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B324" t="str">
+        <v>selectOffer</v>
+      </c>
+      <c r="C324" t="str">
+        <v>Optional Packages</v>
+      </c>
+      <c r="D324" t="str">
+        <v>可选包</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B325" t="str">
+        <v>selectOfferName</v>
+      </c>
+      <c r="C325" t="str">
+        <v>Optional Package Name</v>
+      </c>
+      <c r="D325" t="str">
+        <v>可选包名称</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B326" t="str">
+        <v>offerName</v>
+      </c>
+      <c r="C326" t="str">
+        <v>Package Name</v>
+      </c>
+      <c r="D326" t="str">
+        <v>套餐名称</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B327" t="str">
+        <v>offerNbr</v>
+      </c>
+      <c r="C327" t="str">
+        <v>Package Number</v>
+      </c>
+      <c r="D327" t="str">
+        <v>套餐编号</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B328" t="str">
+        <v>expDate</v>
+      </c>
+      <c r="C328" t="str">
+        <v>Expiration Date</v>
+      </c>
+      <c r="D328" t="str">
+        <v>失效时间</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B329" t="str">
+        <v>statusCd</v>
+      </c>
+      <c r="C329" t="str">
+        <v>Status</v>
+      </c>
+      <c r="D329" t="str">
+        <v>状态</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B330" t="str">
+        <v>statusCdGood</v>
+      </c>
+      <c r="C330" t="str">
+        <v>Valid</v>
+      </c>
+      <c r="D330" t="str">
+        <v>有效</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B331" t="str">
         <v>statusCdBad</v>
       </c>
-      <c r="C315" t="str">
+      <c r="C331" t="str">
         <v>Invalid</v>
       </c>
-      <c r="D315" t="str">
+      <c r="D331" t="str">
         <v>无效</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D315"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D331"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/json_to_excel/i18n_from_json.xlsx
+++ b/json_to_excel/i18n_from_json.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D331"/>
+  <dimension ref="A1:D371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1026,7 +1026,7 @@
         <v>introDes1</v>
       </c>
       <c r="C45" t="str">
-        <v>The international CMP platform integrates self-operated numbers and resale numbers from international carriers, providing a unified API capability interface. IoT customers can use their own application platforms to call the API interface to retrieve information related to data traffic of Internet of Things cards, SMS usage, card lifecycle status, etc.</v>
+        <v>The global CMP platform integrates self-operated numbers and resale numbers from international carriers, providing a unified API capability interface. IoT customers can use their own application platforms to call the API interface to retrieve information related to data traffic of Internet of Things cards, SMS usage, card lifecycle status, etc.</v>
       </c>
       <c r="D45" t="str">
         <v>国际CMP平台融合自营号码、国际运营商转售号码，提供统一的API能力接口，物联网客户可以通过自己的应用平台调用API接口，获取物联卡数据流量、短信使用、卡生命周期状态等相关信息。</v>
@@ -1054,7 +1054,7 @@
         <v>basicInfo</v>
       </c>
       <c r="C47" t="str">
-        <v>Basic Information</v>
+        <v>Account Info</v>
       </c>
       <c r="D47" t="str">
         <v>基础信息</v>
@@ -1474,10 +1474,10 @@
         <v>uploadTip4</v>
       </c>
       <c r="C77" t="str">
-        <v>4. The maximum number of numbers is 10,000, which must include the international area code;</v>
+        <v>4. The maximum number of numbers is 1000, which must include the international area code;</v>
       </c>
       <c r="D77" t="str">
-        <v>4、号码最多10000个，需包含国际区号；</v>
+        <v>4、号码最多1000个，需包含国际区号；</v>
       </c>
     </row>
     <row r="78">
@@ -1608,30 +1608,30 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>common</v>
+        <v>batchUpload</v>
       </c>
       <c r="B87" t="str">
-        <v>action</v>
+        <v>actionSuccess</v>
       </c>
       <c r="C87" t="str">
-        <v>Action</v>
+        <v>Operation Successful</v>
       </c>
       <c r="D87" t="str">
-        <v>操作</v>
+        <v>操作成功</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>common</v>
+        <v>batchUpload</v>
       </c>
       <c r="B88" t="str">
-        <v>download</v>
+        <v>exportFail</v>
       </c>
       <c r="C88" t="str">
-        <v>Download</v>
+        <v>Export Failed</v>
       </c>
       <c r="D88" t="str">
-        <v>下载</v>
+        <v>导出失败</v>
       </c>
     </row>
     <row r="89">
@@ -1639,13 +1639,13 @@
         <v>common</v>
       </c>
       <c r="B89" t="str">
-        <v>edit</v>
+        <v>action</v>
       </c>
       <c r="C89" t="str">
-        <v>Edit</v>
+        <v>Action</v>
       </c>
       <c r="D89" t="str">
-        <v>编辑</v>
+        <v>操作</v>
       </c>
     </row>
     <row r="90">
@@ -1653,13 +1653,13 @@
         <v>common</v>
       </c>
       <c r="B90" t="str">
-        <v>delete</v>
+        <v>download</v>
       </c>
       <c r="C90" t="str">
-        <v>Delete</v>
+        <v>Download</v>
       </c>
       <c r="D90" t="str">
-        <v>删除</v>
+        <v>下载</v>
       </c>
     </row>
     <row r="91">
@@ -1667,13 +1667,13 @@
         <v>common</v>
       </c>
       <c r="B91" t="str">
-        <v>query</v>
+        <v>edit</v>
       </c>
       <c r="C91" t="str">
-        <v>Query</v>
+        <v>Edit</v>
       </c>
       <c r="D91" t="str">
-        <v>查询</v>
+        <v>编辑</v>
       </c>
     </row>
     <row r="92">
@@ -1681,13 +1681,13 @@
         <v>common</v>
       </c>
       <c r="B92" t="str">
-        <v>reset</v>
+        <v>delete</v>
       </c>
       <c r="C92" t="str">
-        <v>Reset</v>
+        <v>Delete</v>
       </c>
       <c r="D92" t="str">
-        <v>重置</v>
+        <v>删除</v>
       </c>
     </row>
     <row r="93">
@@ -1695,13 +1695,13 @@
         <v>common</v>
       </c>
       <c r="B93" t="str">
-        <v>status</v>
+        <v>query</v>
       </c>
       <c r="C93" t="str">
-        <v>Status</v>
+        <v>Query</v>
       </c>
       <c r="D93" t="str">
-        <v>状态</v>
+        <v>查询</v>
       </c>
     </row>
     <row r="94">
@@ -1709,13 +1709,13 @@
         <v>common</v>
       </c>
       <c r="B94" t="str">
-        <v>remark</v>
+        <v>reset</v>
       </c>
       <c r="C94" t="str">
-        <v>Remark</v>
+        <v>Reset</v>
       </c>
       <c r="D94" t="str">
-        <v>备注</v>
+        <v>重置</v>
       </c>
     </row>
     <row r="95">
@@ -1723,13 +1723,13 @@
         <v>common</v>
       </c>
       <c r="B95" t="str">
-        <v>downloadMag</v>
+        <v>status</v>
       </c>
       <c r="C95" t="str">
-        <v>Download Manage</v>
+        <v>Status</v>
       </c>
       <c r="D95" t="str">
-        <v>下载管理</v>
+        <v>状态</v>
       </c>
     </row>
     <row r="96">
@@ -1737,13 +1737,13 @@
         <v>common</v>
       </c>
       <c r="B96" t="str">
-        <v>basicInfo</v>
+        <v>remark</v>
       </c>
       <c r="C96" t="str">
-        <v>Basic Info</v>
+        <v>Remark</v>
       </c>
       <c r="D96" t="str">
-        <v>基本信息</v>
+        <v>备注</v>
       </c>
     </row>
     <row r="97">
@@ -1751,13 +1751,13 @@
         <v>common</v>
       </c>
       <c r="B97" t="str">
-        <v>logout</v>
+        <v>downloadMag</v>
       </c>
       <c r="C97" t="str">
-        <v>Logout</v>
+        <v>Download</v>
       </c>
       <c r="D97" t="str">
-        <v>退出登录</v>
+        <v>下载管理</v>
       </c>
     </row>
     <row r="98">
@@ -1765,13 +1765,13 @@
         <v>common</v>
       </c>
       <c r="B98" t="str">
-        <v>batchQuery</v>
+        <v>basicInfo</v>
       </c>
       <c r="C98" t="str">
-        <v>Batch Query</v>
+        <v>Account</v>
       </c>
       <c r="D98" t="str">
-        <v>批量查询</v>
+        <v>基本信息</v>
       </c>
     </row>
     <row r="99">
@@ -1779,13 +1779,13 @@
         <v>common</v>
       </c>
       <c r="B99" t="str">
-        <v>batchImport</v>
+        <v>logout</v>
       </c>
       <c r="C99" t="str">
-        <v>Batch Import</v>
+        <v>Logout</v>
       </c>
       <c r="D99" t="str">
-        <v>批量导入</v>
+        <v>退出登录</v>
       </c>
     </row>
     <row r="100">
@@ -1793,13 +1793,13 @@
         <v>common</v>
       </c>
       <c r="B100" t="str">
-        <v>batchDelete</v>
+        <v>batchQuery</v>
       </c>
       <c r="C100" t="str">
-        <v>Batch Delete</v>
+        <v>Batch Query</v>
       </c>
       <c r="D100" t="str">
-        <v>批量删除</v>
+        <v>批量查询</v>
       </c>
     </row>
     <row r="101">
@@ -1807,13 +1807,13 @@
         <v>common</v>
       </c>
       <c r="B101" t="str">
-        <v>export</v>
+        <v>batchImport</v>
       </c>
       <c r="C101" t="str">
-        <v>Export</v>
+        <v>Batch Import</v>
       </c>
       <c r="D101" t="str">
-        <v>导出</v>
+        <v>批量导入</v>
       </c>
     </row>
     <row r="102">
@@ -1821,13 +1821,13 @@
         <v>common</v>
       </c>
       <c r="B102" t="str">
-        <v>beginTime</v>
+        <v>batchDelete</v>
       </c>
       <c r="C102" t="str">
-        <v>Begin</v>
+        <v>Batch Delete</v>
       </c>
       <c r="D102" t="str">
-        <v>开始时间</v>
+        <v>批量删除</v>
       </c>
     </row>
     <row r="103">
@@ -1835,13 +1835,13 @@
         <v>common</v>
       </c>
       <c r="B103" t="str">
-        <v>endTime</v>
+        <v>export</v>
       </c>
       <c r="C103" t="str">
-        <v>End</v>
+        <v>Export</v>
       </c>
       <c r="D103" t="str">
-        <v>结束时间</v>
+        <v>导出</v>
       </c>
     </row>
     <row r="104">
@@ -1849,13 +1849,13 @@
         <v>common</v>
       </c>
       <c r="B104" t="str">
-        <v>showMoreBtn</v>
+        <v>beginTime</v>
       </c>
       <c r="C104" t="str">
-        <v>More</v>
+        <v>Begin</v>
       </c>
       <c r="D104" t="str">
-        <v>高级搜索</v>
+        <v>开始时间</v>
       </c>
     </row>
     <row r="105">
@@ -1863,13 +1863,13 @@
         <v>common</v>
       </c>
       <c r="B105" t="str">
-        <v>ok</v>
+        <v>endTime</v>
       </c>
       <c r="C105" t="str">
-        <v>Ok</v>
+        <v>End</v>
       </c>
       <c r="D105" t="str">
-        <v>确 定</v>
+        <v>结束时间</v>
       </c>
     </row>
     <row r="106">
@@ -1877,13 +1877,13 @@
         <v>common</v>
       </c>
       <c r="B106" t="str">
-        <v>cancel</v>
+        <v>showMoreBtn</v>
       </c>
       <c r="C106" t="str">
-        <v>Cancel</v>
+        <v>More</v>
       </c>
       <c r="D106" t="str">
-        <v>取 消</v>
+        <v>高级搜索</v>
       </c>
     </row>
     <row r="107">
@@ -1891,13 +1891,13 @@
         <v>common</v>
       </c>
       <c r="B107" t="str">
-        <v>deleteSuccess</v>
+        <v>ok</v>
       </c>
       <c r="C107" t="str">
-        <v>Deleted successfully!</v>
+        <v>Ok</v>
       </c>
       <c r="D107" t="str">
-        <v>删除成功！</v>
+        <v>确 定</v>
       </c>
     </row>
     <row r="108">
@@ -1905,13 +1905,13 @@
         <v>common</v>
       </c>
       <c r="B108" t="str">
-        <v>yes</v>
+        <v>cancel</v>
       </c>
       <c r="C108" t="str">
-        <v>YES</v>
+        <v>Cancel</v>
       </c>
       <c r="D108" t="str">
-        <v>是</v>
+        <v>取 消</v>
       </c>
     </row>
     <row r="109">
@@ -1919,13 +1919,13 @@
         <v>common</v>
       </c>
       <c r="B109" t="str">
-        <v>no</v>
+        <v>deleteSuccess</v>
       </c>
       <c r="C109" t="str">
-        <v>NO</v>
+        <v>Deleted successfully!</v>
       </c>
       <c r="D109" t="str">
-        <v>否</v>
+        <v>删除成功！</v>
       </c>
     </row>
     <row r="110">
@@ -1933,41 +1933,41 @@
         <v>common</v>
       </c>
       <c r="B110" t="str">
-        <v>save</v>
+        <v>yes</v>
       </c>
       <c r="C110" t="str">
-        <v>Save</v>
+        <v>YES</v>
       </c>
       <c r="D110" t="str">
-        <v>保 存</v>
+        <v>是</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>dataUsage</v>
+        <v>common</v>
       </c>
       <c r="B111" t="str">
-        <v>offerUsage</v>
+        <v>no</v>
       </c>
       <c r="C111" t="str">
-        <v>Package Usage</v>
+        <v>NO</v>
       </c>
       <c r="D111" t="str">
-        <v>套餐使用量</v>
+        <v>否</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>dataUsage</v>
+        <v>common</v>
       </c>
       <c r="B112" t="str">
-        <v>custUsage</v>
+        <v>save</v>
       </c>
       <c r="C112" t="str">
-        <v>Total Customer Usage</v>
+        <v>Save</v>
       </c>
       <c r="D112" t="str">
-        <v>用户总使用量</v>
+        <v>保 存</v>
       </c>
     </row>
     <row r="113">
@@ -1975,13 +1975,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B113" t="str">
-        <v>billCycle</v>
+        <v>offerUsage</v>
       </c>
       <c r="C113" t="str">
-        <v>Payment Period</v>
+        <v>Package Usage</v>
       </c>
       <c r="D113" t="str">
-        <v>账期</v>
+        <v>套餐使用量</v>
       </c>
     </row>
     <row r="114">
@@ -1989,13 +1989,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B114" t="str">
-        <v>usageType</v>
+        <v>custUsage</v>
       </c>
       <c r="C114" t="str">
-        <v>Usage Category</v>
+        <v>Total Customer Usage</v>
       </c>
       <c r="D114" t="str">
-        <v>用量分类</v>
+        <v>用户总使用量</v>
       </c>
     </row>
     <row r="115">
@@ -2003,13 +2003,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B115" t="str">
-        <v>offerName</v>
+        <v>billCycle</v>
       </c>
       <c r="C115" t="str">
-        <v>Offer Name</v>
+        <v>Payment Period</v>
       </c>
       <c r="D115" t="str">
-        <v>套餐名称</v>
+        <v>账期</v>
       </c>
     </row>
     <row r="116">
@@ -2017,13 +2017,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B116" t="str">
-        <v>totalUsage</v>
+        <v>usageType</v>
       </c>
       <c r="C116" t="str">
-        <v>Total Offer Usage</v>
+        <v>Usage Category</v>
       </c>
       <c r="D116" t="str">
-        <v>套餐总使用量</v>
+        <v>用量分类</v>
       </c>
     </row>
     <row r="117">
@@ -2031,13 +2031,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B117" t="str">
-        <v>usage</v>
+        <v>offerName</v>
       </c>
       <c r="C117" t="str">
-        <v>Used Amount</v>
+        <v>Offer Name</v>
       </c>
       <c r="D117" t="str">
-        <v>已使用量</v>
+        <v>套餐名称</v>
       </c>
     </row>
     <row r="118">
@@ -2045,13 +2045,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B118" t="str">
-        <v>remain</v>
+        <v>totalUsage</v>
       </c>
       <c r="C118" t="str">
-        <v>Remaining Amount</v>
+        <v>Total Offer Usage</v>
       </c>
       <c r="D118" t="str">
-        <v>剩余量</v>
+        <v>套餐总使用量</v>
       </c>
     </row>
     <row r="119">
@@ -2059,13 +2059,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B119" t="str">
-        <v>data</v>
+        <v>usage</v>
       </c>
       <c r="C119" t="str">
-        <v>Data Usage</v>
+        <v>Used Amount</v>
       </c>
       <c r="D119" t="str">
-        <v>数据</v>
+        <v>已使用量</v>
       </c>
     </row>
     <row r="120">
@@ -2073,13 +2073,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B120" t="str">
-        <v>voice</v>
+        <v>remain</v>
       </c>
       <c r="C120" t="str">
-        <v>Voice Usage</v>
+        <v>Remaining Amount</v>
       </c>
       <c r="D120" t="str">
-        <v>语音</v>
+        <v>剩余量</v>
       </c>
     </row>
     <row r="121">
@@ -2087,13 +2087,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B121" t="str">
-        <v>sms</v>
+        <v>data</v>
       </c>
       <c r="C121" t="str">
-        <v>SMS Usage</v>
+        <v>Data Usage</v>
       </c>
       <c r="D121" t="str">
-        <v>短信</v>
+        <v>数据</v>
       </c>
     </row>
     <row r="122">
@@ -2101,13 +2101,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B122" t="str">
-        <v>all</v>
+        <v>voice</v>
       </c>
       <c r="C122" t="str">
-        <v>All</v>
+        <v>Voice Usage</v>
       </c>
       <c r="D122" t="str">
-        <v>全部</v>
+        <v>语音</v>
       </c>
     </row>
     <row r="123">
@@ -2115,13 +2115,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B123" t="str">
-        <v>flowMbDesc</v>
+        <v>sms</v>
       </c>
       <c r="C123" t="str">
-        <v>Total Data (MB)</v>
+        <v>SMS Usage</v>
       </c>
       <c r="D123" t="str">
-        <v>总流量（MB)</v>
+        <v>短信</v>
       </c>
     </row>
     <row r="124">
@@ -2129,13 +2129,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B124" t="str">
-        <v>voiceMinsDesc</v>
+        <v>all</v>
       </c>
       <c r="C124" t="str">
-        <v>Voice Duration (Minutes)</v>
+        <v>All</v>
       </c>
       <c r="D124" t="str">
-        <v>语音时长（分钟）</v>
+        <v>全部</v>
       </c>
     </row>
     <row r="125">
@@ -2143,13 +2143,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B125" t="str">
-        <v>smsDesc</v>
+        <v>flowMbDesc</v>
       </c>
       <c r="C125" t="str">
-        <v>SMS (Messages)</v>
+        <v>Total Data (MB)</v>
       </c>
       <c r="D125" t="str">
-        <v>短信（条）</v>
+        <v>总流量（MB)</v>
       </c>
     </row>
     <row r="126">
@@ -2157,13 +2157,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B126" t="str">
-        <v>batchTitle1</v>
+        <v>voiceMinsDesc</v>
       </c>
       <c r="C126" t="str">
-        <v>Batch Package Usage Inquiry</v>
+        <v>Voice Duration (Minutes)</v>
       </c>
       <c r="D126" t="str">
-        <v>批量套餐使用量查询</v>
+        <v>语音时长（分钟）</v>
       </c>
     </row>
     <row r="127">
@@ -2171,41 +2171,41 @@
         <v>dataUsage</v>
       </c>
       <c r="B127" t="str">
-        <v>batchTitle2</v>
+        <v>smsDesc</v>
       </c>
       <c r="C127" t="str">
-        <v>Total Customer Usage Inquiry</v>
+        <v>SMS (Messages)</v>
       </c>
       <c r="D127" t="str">
-        <v>用户总使用使用量查询</v>
+        <v>短信（条）</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>forgetPassword</v>
+        <v>dataUsage</v>
       </c>
       <c r="B128" t="str">
-        <v>validProfile</v>
+        <v>batchTitle1</v>
       </c>
       <c r="C128" t="str">
-        <v>Validate Profile</v>
+        <v>Batch Package Usage Inquiry</v>
       </c>
       <c r="D128" t="str">
-        <v>验证身份</v>
+        <v>批量套餐使用量查询</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>forgetPassword</v>
+        <v>dataUsage</v>
       </c>
       <c r="B129" t="str">
-        <v>resetPassword</v>
+        <v>batchTitle2</v>
       </c>
       <c r="C129" t="str">
-        <v>Reset Password</v>
+        <v>Total Customer Usage Inquiry</v>
       </c>
       <c r="D129" t="str">
-        <v>重置密码</v>
+        <v>用户总使用使用量查询</v>
       </c>
     </row>
     <row r="130">
@@ -2213,13 +2213,13 @@
         <v>forgetPassword</v>
       </c>
       <c r="B130" t="str">
-        <v>finished</v>
+        <v>validProfile</v>
       </c>
       <c r="C130" t="str">
-        <v>Finished</v>
+        <v>Validate Profile</v>
       </c>
       <c r="D130" t="str">
-        <v>完成</v>
+        <v>验证身份</v>
       </c>
     </row>
     <row r="131">
@@ -2227,13 +2227,13 @@
         <v>forgetPassword</v>
       </c>
       <c r="B131" t="str">
-        <v>hasAccount</v>
+        <v>resetPassword</v>
       </c>
       <c r="C131" t="str">
-        <v>already have account,</v>
+        <v>Reset Password</v>
       </c>
       <c r="D131" t="str">
-        <v>已有账号，</v>
+        <v>重置密码</v>
       </c>
     </row>
     <row r="132">
@@ -2241,13 +2241,13 @@
         <v>forgetPassword</v>
       </c>
       <c r="B132" t="str">
-        <v>imediateLogin</v>
+        <v>finished</v>
       </c>
       <c r="C132" t="str">
-        <v>login immediately</v>
+        <v>Finished</v>
       </c>
       <c r="D132" t="str">
-        <v>立即登录</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="133">
@@ -2255,13 +2255,13 @@
         <v>forgetPassword</v>
       </c>
       <c r="B133" t="str">
-        <v>next</v>
+        <v>hasAccount</v>
       </c>
       <c r="C133" t="str">
-        <v>next</v>
+        <v>already have account,</v>
       </c>
       <c r="D133" t="str">
-        <v>下一步</v>
+        <v>已有账号，</v>
       </c>
     </row>
     <row r="134">
@@ -2269,13 +2269,13 @@
         <v>forgetPassword</v>
       </c>
       <c r="B134" t="str">
-        <v>passwordPh</v>
+        <v>imediateLogin</v>
       </c>
       <c r="C134" t="str">
-        <v>Please input password</v>
+        <v>login immediately</v>
       </c>
       <c r="D134" t="str">
-        <v>请输入新密码</v>
+        <v>立即登录</v>
       </c>
     </row>
     <row r="135">
@@ -2283,13 +2283,13 @@
         <v>forgetPassword</v>
       </c>
       <c r="B135" t="str">
-        <v>password2Ph</v>
+        <v>next</v>
       </c>
       <c r="C135" t="str">
-        <v>Please confirm password</v>
+        <v>next</v>
       </c>
       <c r="D135" t="str">
-        <v>请输入确认新密码</v>
+        <v>下一步</v>
       </c>
     </row>
     <row r="136">
@@ -2297,13 +2297,13 @@
         <v>forgetPassword</v>
       </c>
       <c r="B136" t="str">
-        <v>successTitle</v>
+        <v>passwordPh</v>
       </c>
       <c r="C136" t="str">
-        <v>Modify Successfully, Please Save Carefully</v>
+        <v>Please input password</v>
       </c>
       <c r="D136" t="str">
-        <v>修改成功，请妥善保存</v>
+        <v>请输入新密码</v>
       </c>
     </row>
     <row r="137">
@@ -2311,13 +2311,13 @@
         <v>forgetPassword</v>
       </c>
       <c r="B137" t="str">
-        <v>passwordError1</v>
+        <v>password2Ph</v>
       </c>
       <c r="C137" t="str">
-        <v>Password length must be between 8 and 16 characters</v>
+        <v>Please confirm password</v>
       </c>
       <c r="D137" t="str">
-        <v>密码长度 8-16位</v>
+        <v>请输入确认新密码</v>
       </c>
     </row>
     <row r="138">
@@ -2325,13 +2325,13 @@
         <v>forgetPassword</v>
       </c>
       <c r="B138" t="str">
-        <v>passwordError2</v>
+        <v>successTitle</v>
       </c>
       <c r="C138" t="str">
-        <v>The password must include at least three types of the following: uppercase letters, lowercase letters, numbers, and special characters</v>
+        <v>Modify Successfully, Please Save Carefully</v>
       </c>
       <c r="D138" t="str">
-        <v>密码至少要包括大写字母、小写字母、数字、特殊字符中的三种</v>
+        <v>修改成功，请妥善保存</v>
       </c>
     </row>
     <row r="139">
@@ -2339,13 +2339,13 @@
         <v>forgetPassword</v>
       </c>
       <c r="B139" t="str">
-        <v>passwordError3</v>
+        <v>passwordError1</v>
       </c>
       <c r="C139" t="str">
-        <v>The password cannot contain three or more consecutive digits or letters on the keyboard</v>
+        <v>Password length must be between 8 and 16 characters</v>
       </c>
       <c r="D139" t="str">
-        <v>密码不能出现键盘上三位及以上连续数字、字母</v>
+        <v>密码长度 8-16位</v>
       </c>
     </row>
     <row r="140">
@@ -2353,13 +2353,13 @@
         <v>forgetPassword</v>
       </c>
       <c r="B140" t="str">
-        <v>passwordError4</v>
+        <v>passwordError2</v>
       </c>
       <c r="C140" t="str">
-        <v>The password must not include the full username string, variations in case, or similar transformations</v>
+        <v>The password must include at least three types of the following: uppercase letters, lowercase letters, numbers, and special characters</v>
       </c>
       <c r="D140" t="str">
-        <v>密码中不得包含用户名的完整字符串、大小写变位或形似变换的字符串</v>
+        <v>密码至少要包括大写字母、小写字母、数字、特殊字符中的三种</v>
       </c>
     </row>
     <row r="141">
@@ -2367,13 +2367,13 @@
         <v>forgetPassword</v>
       </c>
       <c r="B141" t="str">
-        <v>notSame</v>
+        <v>passwordError3</v>
       </c>
       <c r="C141" t="str">
-        <v>The two entered passwords do not match</v>
+        <v>The password cannot contain three or more consecutive digits or letters on the keyboard</v>
       </c>
       <c r="D141" t="str">
-        <v>两次输入的密码不一致</v>
+        <v>密码不能出现键盘上三位及以上连续数字、字母</v>
       </c>
     </row>
     <row r="142">
@@ -2381,41 +2381,41 @@
         <v>forgetPassword</v>
       </c>
       <c r="B142" t="str">
-        <v>sendSuccess</v>
+        <v>passwordError4</v>
       </c>
       <c r="C142" t="str">
-        <v>Sent successfully!</v>
+        <v>The password must not include the full username string, variations in case, or similar transformations</v>
       </c>
       <c r="D142" t="str">
-        <v>发送成功！</v>
+        <v>密码中不得包含用户名的完整字符串、大小写变位或形似变换的字符串</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>know</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B143" t="str">
-        <v>docName</v>
+        <v>notSame</v>
       </c>
       <c r="C143" t="str">
-        <v>Document Name</v>
+        <v>The two entered passwords do not match</v>
       </c>
       <c r="D143" t="str">
-        <v>文档名称</v>
+        <v>两次输入的密码不一致</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>know</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B144" t="str">
-        <v>docDesc</v>
+        <v>sendSuccess</v>
       </c>
       <c r="C144" t="str">
-        <v>Document Description</v>
+        <v>Sent successfully!</v>
       </c>
       <c r="D144" t="str">
-        <v>文档描述</v>
+        <v>发送成功！</v>
       </c>
     </row>
     <row r="145">
@@ -2423,13 +2423,13 @@
         <v>know</v>
       </c>
       <c r="B145" t="str">
-        <v>docTypeName</v>
+        <v>docName</v>
       </c>
       <c r="C145" t="str">
-        <v>Document Type</v>
+        <v>Document Name</v>
       </c>
       <c r="D145" t="str">
-        <v>文档类型</v>
+        <v>文档名称</v>
       </c>
     </row>
     <row r="146">
@@ -2437,13 +2437,13 @@
         <v>know</v>
       </c>
       <c r="B146" t="str">
-        <v>createStaffName</v>
+        <v>docDesc</v>
       </c>
       <c r="C146" t="str">
-        <v>Created By</v>
+        <v>Document Description</v>
       </c>
       <c r="D146" t="str">
-        <v>创建人</v>
+        <v>文档描述</v>
       </c>
     </row>
     <row r="147">
@@ -2451,41 +2451,41 @@
         <v>know</v>
       </c>
       <c r="B147" t="str">
-        <v>createTime</v>
+        <v>docTypeName</v>
       </c>
       <c r="C147" t="str">
-        <v>Creation Time</v>
+        <v>Document Type</v>
       </c>
       <c r="D147" t="str">
-        <v>创建时间</v>
+        <v>文档类型</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>linkD</v>
+        <v>know</v>
       </c>
       <c r="B148" t="str">
-        <v>oneClick</v>
+        <v>createStaffName</v>
       </c>
       <c r="C148" t="str">
-        <v>One-click Diagnosis</v>
+        <v>Created By</v>
       </c>
       <c r="D148" t="str">
-        <v>一键诊断</v>
+        <v>创建人</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>linkD</v>
+        <v>know</v>
       </c>
       <c r="B149" t="str">
-        <v>oneClickDes</v>
+        <v>createTime</v>
       </c>
       <c r="C149" t="str">
-        <v>Query the status of a single card, the opening status of the card network, the binding situation of the machine and the card, the detailed data list, and the recent online and offline records of the card</v>
+        <v>Creation Time</v>
       </c>
       <c r="D149" t="str">
-        <v>查询单张卡状态、卡网络开通情况、机卡绑定情况、数据详单、卡近期上下线记录</v>
+        <v>创建时间</v>
       </c>
     </row>
     <row r="150">
@@ -2493,13 +2493,13 @@
         <v>linkD</v>
       </c>
       <c r="B150" t="str">
-        <v>resultTitle</v>
+        <v>oneClick</v>
       </c>
       <c r="C150" t="str">
-        <v>Card diagnosis completed. The results are as follows:</v>
+        <v>One-click Diagnosis</v>
       </c>
       <c r="D150" t="str">
-        <v>卡诊断完成，结果如下</v>
+        <v>一键诊断</v>
       </c>
     </row>
     <row r="151">
@@ -2507,13 +2507,13 @@
         <v>linkD</v>
       </c>
       <c r="B151" t="str">
-        <v>basicInfo</v>
+        <v>oneClickDes</v>
       </c>
       <c r="C151" t="str">
-        <v>Basic Information</v>
+        <v>Query the status of a single card, the opening status of the card network, the binding situation of the machine and the card, the detailed data list, and the recent online and offline records of the card</v>
       </c>
       <c r="D151" t="str">
-        <v>基础信息</v>
+        <v>查询单张卡状态、卡网络开通情况、机卡绑定情况、数据详单、卡近期上下线记录</v>
       </c>
     </row>
     <row r="152">
@@ -2521,13 +2521,13 @@
         <v>linkD</v>
       </c>
       <c r="B152" t="str">
-        <v>resultDetailTitle</v>
+        <v>resultTitle</v>
       </c>
       <c r="C152" t="str">
-        <v>Diagnosis Result</v>
+        <v>Card diagnosis completed. The results are as follows:</v>
       </c>
       <c r="D152" t="str">
-        <v>诊断结果</v>
+        <v>卡诊断完成，结果如下</v>
       </c>
     </row>
     <row r="153">
@@ -2535,13 +2535,13 @@
         <v>linkD</v>
       </c>
       <c r="B153" t="str">
-        <v>resutlItemLabel1</v>
+        <v>basicInfo</v>
       </c>
       <c r="C153" t="str">
-        <v>SIM Card Status</v>
+        <v>Basic Information</v>
       </c>
       <c r="D153" t="str">
-        <v>SIM卡状态</v>
+        <v>基础信息</v>
       </c>
     </row>
     <row r="154">
@@ -2549,13 +2549,13 @@
         <v>linkD</v>
       </c>
       <c r="B154" t="str">
-        <v>resutlItemContent1</v>
+        <v>resultDetailTitle</v>
       </c>
       <c r="C154" t="str">
-        <v>Displays the SIM card status</v>
+        <v>Diagnosis Result</v>
       </c>
       <c r="D154" t="str">
-        <v>展示 SIM 卡状态</v>
+        <v>诊断结果</v>
       </c>
     </row>
     <row r="155">
@@ -2563,13 +2563,13 @@
         <v>linkD</v>
       </c>
       <c r="B155" t="str">
-        <v>resutlItemLabel2</v>
+        <v>resutlItemLabel1</v>
       </c>
       <c r="C155" t="str">
-        <v>SIM Card Connection</v>
+        <v>SIM Card Status</v>
       </c>
       <c r="D155" t="str">
-        <v>SIM卡连接</v>
+        <v>SIM卡状态</v>
       </c>
     </row>
     <row r="156">
@@ -2577,41 +2577,41 @@
         <v>linkD</v>
       </c>
       <c r="B156" t="str">
-        <v>resutlItemContent2</v>
+        <v>resutlItemContent1</v>
       </c>
       <c r="C156" t="str">
-        <v>Determines the SIM card connection attributes through the SIM card product information</v>
+        <v>Displays the SIM card status</v>
       </c>
       <c r="D156" t="str">
-        <v>通过 SIM 卡产品资料，判断 SIM 卡连接属性</v>
+        <v>展示 SIM 卡状态</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>login</v>
+        <v>linkD</v>
       </c>
       <c r="B157" t="str">
-        <v>loginBoxTitle</v>
+        <v>resutlItemLabel2</v>
       </c>
       <c r="C157" t="str">
-        <v>Welcome to the International CMP Portal</v>
+        <v>SIM Card Connection</v>
       </c>
       <c r="D157" t="str">
-        <v>欢迎来到国际CMP门户</v>
+        <v>SIM卡连接</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>login</v>
+        <v>linkD</v>
       </c>
       <c r="B158" t="str">
-        <v>loginButton</v>
+        <v>resutlItemContent2</v>
       </c>
       <c r="C158" t="str">
-        <v>login</v>
+        <v>Determines the SIM card connection attributes through the SIM card product information</v>
       </c>
       <c r="D158" t="str">
-        <v>登录</v>
+        <v>通过 SIM 卡产品资料，判断 SIM 卡连接属性</v>
       </c>
     </row>
     <row r="159">
@@ -2619,13 +2619,13 @@
         <v>login</v>
       </c>
       <c r="B159" t="str">
-        <v>loginType1EmailPh</v>
+        <v>loginBoxTitle</v>
       </c>
       <c r="C159" t="str">
-        <v xml:space="preserve">Please enter the user account or email address </v>
+        <v>Welcome to the Global CMP Portal</v>
       </c>
       <c r="D159" t="str">
-        <v>请输入账号/邮箱</v>
+        <v>欢迎来到国际CMP门户</v>
       </c>
     </row>
     <row r="160">
@@ -2633,13 +2633,13 @@
         <v>login</v>
       </c>
       <c r="B160" t="str">
-        <v>loginType2EmailPh</v>
+        <v>loginButton</v>
       </c>
       <c r="C160" t="str">
-        <v>Please enter the email address</v>
+        <v>login</v>
       </c>
       <c r="D160" t="str">
-        <v>请输入邮箱</v>
+        <v>登录</v>
       </c>
     </row>
     <row r="161">
@@ -2647,13 +2647,13 @@
         <v>login</v>
       </c>
       <c r="B161" t="str">
-        <v>passwordPh</v>
+        <v>loginType1EmailPh</v>
       </c>
       <c r="C161" t="str">
-        <v>Please enter the password</v>
+        <v>Please enter the user account or email address</v>
       </c>
       <c r="D161" t="str">
-        <v>请输入密码</v>
+        <v>请输入账号/邮箱</v>
       </c>
     </row>
     <row r="162">
@@ -2661,13 +2661,13 @@
         <v>login</v>
       </c>
       <c r="B162" t="str">
-        <v>imageCodePh</v>
+        <v>loginType2EmailPh</v>
       </c>
       <c r="C162" t="str">
-        <v>Please enter the verification code</v>
+        <v>Please enter the email address</v>
       </c>
       <c r="D162" t="str">
-        <v>请输入图形验证码</v>
+        <v>请输入邮箱</v>
       </c>
     </row>
     <row r="163">
@@ -2675,13 +2675,13 @@
         <v>login</v>
       </c>
       <c r="B163" t="str">
-        <v>emailCodePh</v>
+        <v>passwordPh</v>
       </c>
       <c r="C163" t="str">
-        <v>Please enter the email verification code</v>
+        <v>Please enter the password</v>
       </c>
       <c r="D163" t="str">
-        <v>请输入邮箱验证码</v>
+        <v>请输入密码</v>
       </c>
     </row>
     <row r="164">
@@ -2689,13 +2689,13 @@
         <v>login</v>
       </c>
       <c r="B164" t="str">
-        <v>checkPrivacyPh</v>
+        <v>imageCodePh</v>
       </c>
       <c r="C164" t="str">
-        <v xml:space="preserve">Please read and confirm the relevant agreements and policies </v>
+        <v>Please enter the verification code</v>
       </c>
       <c r="D164" t="str">
-        <v>登录前请先阅读和确认平台相关协议和政策</v>
+        <v>请输入图形验证码</v>
       </c>
     </row>
     <row r="165">
@@ -2703,13 +2703,13 @@
         <v>login</v>
       </c>
       <c r="B165" t="str">
-        <v>getCode</v>
+        <v>emailCodePh</v>
       </c>
       <c r="C165" t="str">
-        <v>Get Code</v>
+        <v>Please enter the email verification code</v>
       </c>
       <c r="D165" t="str">
-        <v>获取验证码</v>
+        <v>请输入邮箱验证码</v>
       </c>
     </row>
     <row r="166">
@@ -2717,13 +2717,13 @@
         <v>login</v>
       </c>
       <c r="B166" t="str">
-        <v>reSend</v>
+        <v>checkPrivacyPh</v>
       </c>
       <c r="C166" t="str">
-        <v>Resend</v>
+        <v>Please read and confirm the relevant agreements and policies</v>
       </c>
       <c r="D166" t="str">
-        <v>重新发送</v>
+        <v>登录前请先阅读和确认平台相关协议和政策</v>
       </c>
     </row>
     <row r="167">
@@ -2731,13 +2731,13 @@
         <v>login</v>
       </c>
       <c r="B167" t="str">
-        <v>countDown</v>
+        <v>getCode</v>
       </c>
       <c r="C167" t="str">
-        <v>resend {countDownNum}</v>
+        <v>Get Code</v>
       </c>
       <c r="D167" t="str">
-        <v>重新发送 {countDownNum}</v>
+        <v>获取验证码</v>
       </c>
     </row>
     <row r="168">
@@ -2745,13 +2745,13 @@
         <v>login</v>
       </c>
       <c r="B168" t="str">
-        <v>privacyDesPart1</v>
+        <v>reSend</v>
       </c>
       <c r="C168" t="str">
-        <v>l confirm that l have read, consent and agree to</v>
+        <v>Resend</v>
       </c>
       <c r="D168" t="str">
-        <v>我确认已阅读、许可并同意中国电信国际有限公司</v>
+        <v>重新发送</v>
       </c>
     </row>
     <row r="169">
@@ -2759,13 +2759,13 @@
         <v>login</v>
       </c>
       <c r="B169" t="str">
-        <v>privacyDesPart2</v>
+        <v>countDown</v>
       </c>
       <c r="C169" t="str">
-        <v xml:space="preserve"> the Privacy Policy Statement. </v>
+        <v>resend {countDownNum}</v>
       </c>
       <c r="D169" t="str">
-        <v>《隐私政策声明》</v>
+        <v>重新发送 {countDownNum}</v>
       </c>
     </row>
     <row r="170">
@@ -2773,13 +2773,13 @@
         <v>login</v>
       </c>
       <c r="B170" t="str">
-        <v>privacyDesPart3</v>
+        <v>privacyDesPart1</v>
       </c>
       <c r="C170" t="str">
-        <v>If l am a user situated within the European Economic Area or the United Kingdom, l confirm that l have read, consent and agree to the</v>
+        <v>l confirm that l have read, consent and agree to</v>
       </c>
       <c r="D170" t="str">
-        <v>如果我是欧洲经济区或英国境内的用户,我确认我已阅读、许可并同意中国电信国际有限公司</v>
+        <v>我确认已阅读、许可并同意中国电信国际有限公司</v>
       </c>
     </row>
     <row r="171">
@@ -2787,13 +2787,13 @@
         <v>login</v>
       </c>
       <c r="B171" t="str">
-        <v>privacyDesPart4</v>
+        <v>privacyDesPart2</v>
       </c>
       <c r="C171" t="str">
-        <v>GDPR Privacy Policy Statement.</v>
+        <v>the Privacy Policy Statement.</v>
       </c>
       <c r="D171" t="str">
-        <v>《GDPR 隐私政策声明》</v>
+        <v>《隐私政策声明》</v>
       </c>
     </row>
     <row r="172">
@@ -2801,13 +2801,13 @@
         <v>login</v>
       </c>
       <c r="B172" t="str">
-        <v>forgetPassword</v>
+        <v>privacyDesPart3</v>
       </c>
       <c r="C172" t="str">
-        <v>Forget Account/Password</v>
+        <v>If l am a user situated within the European Economic Area or the United Kingdom, l confirm that l have read, consent and agree to the</v>
       </c>
       <c r="D172" t="str">
-        <v>忘记密码？</v>
+        <v>如果我是欧洲经济区或英国境内的用户,我确认我已阅读、许可并同意中国电信国际有限公司</v>
       </c>
     </row>
     <row r="173">
@@ -2815,13 +2815,13 @@
         <v>login</v>
       </c>
       <c r="B173" t="str">
-        <v>loginTypePassword</v>
+        <v>privacyDesPart4</v>
       </c>
       <c r="C173" t="str">
-        <v>Password Login</v>
+        <v>GDPR Privacy Policy Statement.</v>
       </c>
       <c r="D173" t="str">
-        <v>密码登录</v>
+        <v>《GDPR 隐私政策声明》</v>
       </c>
     </row>
     <row r="174">
@@ -2829,13 +2829,13 @@
         <v>login</v>
       </c>
       <c r="B174" t="str">
-        <v>loginTypeEmail</v>
+        <v>forgetPassword</v>
       </c>
       <c r="C174" t="str">
-        <v>Verification Code Login</v>
+        <v>Forget Account/Password</v>
       </c>
       <c r="D174" t="str">
-        <v>邮箱验证码登录</v>
+        <v>忘记密码？</v>
       </c>
     </row>
     <row r="175">
@@ -2843,13 +2843,13 @@
         <v>login</v>
       </c>
       <c r="B175" t="str">
-        <v>headerTitle</v>
+        <v>loginTypePassword</v>
       </c>
       <c r="C175" t="str">
-        <v xml:space="preserve">International IoT CMP </v>
+        <v>Password Login</v>
       </c>
       <c r="D175" t="str">
-        <v>国际物联网CMP平台</v>
+        <v>密码登录</v>
       </c>
     </row>
     <row r="176">
@@ -2857,13 +2857,13 @@
         <v>login</v>
       </c>
       <c r="B176" t="str">
-        <v>leftTextPart1</v>
+        <v>loginTypeEmail</v>
       </c>
       <c r="C176" t="str">
-        <v/>
+        <v>Verification Code Login</v>
       </c>
       <c r="D176" t="str">
-        <v>面向</v>
+        <v>邮箱验证码登录</v>
       </c>
     </row>
     <row r="177">
@@ -2871,13 +2871,13 @@
         <v>login</v>
       </c>
       <c r="B177" t="str">
-        <v>leftTextPart2</v>
+        <v>headerTitle</v>
       </c>
       <c r="C177" t="str">
-        <v>Global</v>
+        <v>Global IoT CMP</v>
       </c>
       <c r="D177" t="str">
-        <v>全球</v>
+        <v>国际物联网CMP平台</v>
       </c>
     </row>
     <row r="178">
@@ -2885,13 +2885,13 @@
         <v>login</v>
       </c>
       <c r="B178" t="str">
-        <v>leftTextPart3</v>
+        <v>leftTextPart1</v>
       </c>
       <c r="C178" t="str">
-        <v>· Seamless</v>
+        <v/>
       </c>
       <c r="D178" t="str">
-        <v>· 无缝链接</v>
+        <v>面向</v>
       </c>
     </row>
     <row r="179">
@@ -2899,13 +2899,13 @@
         <v>login</v>
       </c>
       <c r="B179" t="str">
-        <v>leftTextPart4</v>
+        <v>leftTextPart2</v>
       </c>
       <c r="C179" t="str">
-        <v>Connection Management</v>
+        <v>Global</v>
       </c>
       <c r="D179" t="str">
-        <v>连接管理</v>
+        <v>全球</v>
       </c>
     </row>
     <row r="180">
@@ -2913,13 +2913,13 @@
         <v>login</v>
       </c>
       <c r="B180" t="str">
-        <v>leftTextPart5</v>
+        <v>leftTextPart3</v>
       </c>
       <c r="C180" t="str">
-        <v>Join us and start building</v>
+        <v>· Seamless</v>
       </c>
       <c r="D180" t="str">
-        <v>加入我们，然后开始构建</v>
+        <v>· 无缝链接</v>
       </c>
     </row>
     <row r="181">
@@ -2927,41 +2927,41 @@
         <v>login</v>
       </c>
       <c r="B181" t="str">
-        <v>copyRight</v>
+        <v>leftTextPart4</v>
       </c>
       <c r="C181" t="str">
-        <v>© 2024 Tianyi IoT Technology Co., Ltd. All rights reserved.Su ICP No. 19042642-1 Value-added Telecommunications Business License A2.B1.B2-2009000</v>
+        <v>Connection Management</v>
       </c>
       <c r="D181" t="str">
-        <v>@2024天翼物联科技有限公司版权所有苏ICP备19042642号-1增值电信业务经营许可证A2.B1.B2-2009000</v>
+        <v>连接管理</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>oper</v>
+        <v>login</v>
       </c>
       <c r="B182" t="str">
-        <v>operName</v>
+        <v>leftTextPart5</v>
       </c>
       <c r="C182" t="str">
-        <v>Operation Name</v>
+        <v>Join us and start building</v>
       </c>
       <c r="D182" t="str">
-        <v>操作名称</v>
+        <v>加入我们，然后开始构建</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>oper</v>
+        <v>login</v>
       </c>
       <c r="B183" t="str">
-        <v>operDate</v>
+        <v>copyRight</v>
       </c>
       <c r="C183" t="str">
-        <v>Operation Date</v>
+        <v>© 2024 Tianyi IoT Technology Co., Ltd. All rights reserved.Su ICP No. 19042642-1 Value-added Telecommunications Business License A2.B1.B2-2009000</v>
       </c>
       <c r="D183" t="str">
-        <v>操作日期</v>
+        <v>@2024天翼物联科技有限公司版权所有苏ICP备19042642号-1增值电信业务经营许可证A2.B1.B2-2009000</v>
       </c>
     </row>
     <row r="184">
@@ -2969,13 +2969,13 @@
         <v>oper</v>
       </c>
       <c r="B184" t="str">
-        <v>resultCode</v>
+        <v>operName</v>
       </c>
       <c r="C184" t="str">
-        <v>Result Code</v>
+        <v>Operation Name</v>
       </c>
       <c r="D184" t="str">
-        <v>操作结果</v>
+        <v>操作名称</v>
       </c>
     </row>
     <row r="185">
@@ -2983,13 +2983,13 @@
         <v>oper</v>
       </c>
       <c r="B185" t="str">
-        <v>clientIp</v>
+        <v>operDate</v>
       </c>
       <c r="C185" t="str">
-        <v>Client IP</v>
+        <v>Operation Date</v>
       </c>
       <c r="D185" t="str">
-        <v>客户端IP</v>
+        <v>操作日期</v>
       </c>
     </row>
     <row r="186">
@@ -2997,13 +2997,13 @@
         <v>oper</v>
       </c>
       <c r="B186" t="str">
-        <v>userCode</v>
+        <v>resultCode</v>
       </c>
       <c r="C186" t="str">
-        <v>User Account</v>
+        <v>Result Code</v>
       </c>
       <c r="D186" t="str">
-        <v>操作账号</v>
+        <v>操作结果</v>
       </c>
     </row>
     <row r="187">
@@ -3011,13 +3011,13 @@
         <v>oper</v>
       </c>
       <c r="B187" t="str">
-        <v>traceId</v>
+        <v>clientIp</v>
       </c>
       <c r="C187" t="str">
-        <v>Trace Id</v>
+        <v>Client IP</v>
       </c>
       <c r="D187" t="str">
-        <v>唯一请求标识</v>
+        <v>客户端IP</v>
       </c>
     </row>
     <row r="188">
@@ -3025,13 +3025,13 @@
         <v>oper</v>
       </c>
       <c r="B188" t="str">
-        <v>success</v>
+        <v>userCode</v>
       </c>
       <c r="C188" t="str">
-        <v>Success</v>
+        <v>User Account</v>
       </c>
       <c r="D188" t="str">
-        <v>成功</v>
+        <v>操作账号</v>
       </c>
     </row>
     <row r="189">
@@ -3039,13 +3039,13 @@
         <v>oper</v>
       </c>
       <c r="B189" t="str">
-        <v>fail</v>
+        <v>traceId</v>
       </c>
       <c r="C189" t="str">
-        <v>Fail</v>
+        <v>Trace Id</v>
       </c>
       <c r="D189" t="str">
-        <v>失败</v>
+        <v>唯一请求标识</v>
       </c>
     </row>
     <row r="190">
@@ -3053,41 +3053,41 @@
         <v>oper</v>
       </c>
       <c r="B190" t="str">
-        <v>all</v>
+        <v>success</v>
       </c>
       <c r="C190" t="str">
-        <v>All</v>
+        <v>Success</v>
       </c>
       <c r="D190" t="str">
-        <v>全部</v>
+        <v>成功</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>order</v>
+        <v>oper</v>
       </c>
       <c r="B191" t="str">
-        <v>orderCode</v>
+        <v>fail</v>
       </c>
       <c r="C191" t="str">
-        <v>Order Code</v>
+        <v>Fail</v>
       </c>
       <c r="D191" t="str">
-        <v>订单编码</v>
+        <v>失败</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>order</v>
+        <v>oper</v>
       </c>
       <c r="B192" t="str">
-        <v>number</v>
+        <v>all</v>
       </c>
       <c r="C192" t="str">
-        <v>Code</v>
+        <v>All</v>
       </c>
       <c r="D192" t="str">
-        <v>号码</v>
+        <v>全部</v>
       </c>
     </row>
     <row r="193">
@@ -3095,13 +3095,13 @@
         <v>order</v>
       </c>
       <c r="B193" t="str">
-        <v>busType</v>
+        <v>orderCode</v>
       </c>
       <c r="C193" t="str">
-        <v>Bussiness Type</v>
+        <v>Order Code</v>
       </c>
       <c r="D193" t="str">
-        <v>业务类型</v>
+        <v>订单编码</v>
       </c>
     </row>
     <row r="194">
@@ -3109,13 +3109,13 @@
         <v>order</v>
       </c>
       <c r="B194" t="str">
-        <v>orderStatus</v>
+        <v>number</v>
       </c>
       <c r="C194" t="str">
-        <v>Order Status</v>
+        <v>Code</v>
       </c>
       <c r="D194" t="str">
-        <v>订单状态</v>
+        <v>号码</v>
       </c>
     </row>
     <row r="195">
@@ -3123,13 +3123,13 @@
         <v>order</v>
       </c>
       <c r="B195" t="str">
-        <v>account</v>
+        <v>busType</v>
       </c>
       <c r="C195" t="str">
-        <v>Account Status</v>
+        <v>Bussiness Type</v>
       </c>
       <c r="D195" t="str">
-        <v>账号</v>
+        <v>业务类型</v>
       </c>
     </row>
     <row r="196">
@@ -3137,13 +3137,13 @@
         <v>order</v>
       </c>
       <c r="B196" t="str">
-        <v>serviceTime</v>
+        <v>orderStatus</v>
       </c>
       <c r="C196" t="str">
-        <v>Service Time</v>
+        <v>Order Status</v>
       </c>
       <c r="D196" t="str">
-        <v>受理时间</v>
+        <v>订单状态</v>
       </c>
     </row>
     <row r="197">
@@ -3151,13 +3151,13 @@
         <v>order</v>
       </c>
       <c r="B197" t="str">
-        <v>cust</v>
+        <v>account</v>
       </c>
       <c r="C197" t="str">
-        <v>Cust</v>
+        <v>Account</v>
       </c>
       <c r="D197" t="str">
-        <v>客户</v>
+        <v>账号</v>
       </c>
     </row>
     <row r="198">
@@ -3165,13 +3165,13 @@
         <v>order</v>
       </c>
       <c r="B198" t="str">
-        <v>access</v>
+        <v>serviceTime</v>
       </c>
       <c r="C198" t="str">
-        <v>Access Number</v>
+        <v>Service Time</v>
       </c>
       <c r="D198" t="str">
-        <v>接入号</v>
+        <v>受理时间</v>
       </c>
     </row>
     <row r="199">
@@ -3179,13 +3179,13 @@
         <v>order</v>
       </c>
       <c r="B199" t="str">
-        <v>source</v>
+        <v>cust</v>
       </c>
       <c r="C199" t="str">
-        <v>Order Source</v>
+        <v>Cust</v>
       </c>
       <c r="D199" t="str">
-        <v>订单来源</v>
+        <v>客户</v>
       </c>
     </row>
     <row r="200">
@@ -3193,13 +3193,13 @@
         <v>order</v>
       </c>
       <c r="B200" t="str">
-        <v>createStaffName</v>
+        <v>accNum</v>
       </c>
       <c r="C200" t="str">
-        <v>Operator</v>
+        <v>Access Number</v>
       </c>
       <c r="D200" t="str">
-        <v>操作员</v>
+        <v>接入号</v>
       </c>
     </row>
     <row r="201">
@@ -3207,13 +3207,13 @@
         <v>order</v>
       </c>
       <c r="B201" t="str">
-        <v>offerInfo</v>
+        <v>source</v>
       </c>
       <c r="C201" t="str">
-        <v>Package Information</v>
+        <v>Order Source</v>
       </c>
       <c r="D201" t="str">
-        <v>套餐信息</v>
+        <v>订单来源</v>
       </c>
     </row>
     <row r="202">
@@ -3221,13 +3221,13 @@
         <v>order</v>
       </c>
       <c r="B202" t="str">
-        <v>offerName</v>
+        <v>createStaffName</v>
       </c>
       <c r="C202" t="str">
-        <v>Package Name</v>
+        <v>Operator</v>
       </c>
       <c r="D202" t="str">
-        <v>套餐名称</v>
+        <v>操作员</v>
       </c>
     </row>
     <row r="203">
@@ -3235,13 +3235,13 @@
         <v>order</v>
       </c>
       <c r="B203" t="str">
-        <v>operType</v>
+        <v>offerInfo</v>
       </c>
       <c r="C203" t="str">
-        <v>Operation Type</v>
+        <v>Package Information</v>
       </c>
       <c r="D203" t="str">
-        <v>操作类型</v>
+        <v>套餐信息</v>
       </c>
     </row>
     <row r="204">
@@ -3249,13 +3249,13 @@
         <v>order</v>
       </c>
       <c r="B204" t="str">
-        <v>fucName</v>
+        <v>offerName</v>
       </c>
       <c r="C204" t="str">
-        <v>Function Attribute</v>
+        <v>Package Name</v>
       </c>
       <c r="D204" t="str">
-        <v>功能属性</v>
+        <v>套餐名称</v>
       </c>
     </row>
     <row r="205">
@@ -3263,13 +3263,13 @@
         <v>order</v>
       </c>
       <c r="B205" t="str">
-        <v>objName</v>
+        <v>operType</v>
       </c>
       <c r="C205" t="str">
-        <v>Name</v>
+        <v>Operation Type</v>
       </c>
       <c r="D205" t="str">
-        <v>名称</v>
+        <v>操作类型</v>
       </c>
     </row>
     <row r="206">
@@ -3277,13 +3277,13 @@
         <v>order</v>
       </c>
       <c r="B206" t="str">
-        <v>objType</v>
+        <v>fucName</v>
       </c>
       <c r="C206" t="str">
-        <v>Type</v>
+        <v>Function Attribute</v>
       </c>
       <c r="D206" t="str">
-        <v>类型</v>
+        <v>功能属性</v>
       </c>
     </row>
     <row r="207">
@@ -3291,13 +3291,13 @@
         <v>order</v>
       </c>
       <c r="B207" t="str">
-        <v>originValue</v>
+        <v>objName</v>
       </c>
       <c r="C207" t="str">
-        <v>Original Value</v>
+        <v>Name</v>
       </c>
       <c r="D207" t="str">
-        <v>原值</v>
+        <v>名称</v>
       </c>
     </row>
     <row r="208">
@@ -3305,13 +3305,13 @@
         <v>order</v>
       </c>
       <c r="B208" t="str">
-        <v>newValue</v>
+        <v>objType</v>
       </c>
       <c r="C208" t="str">
-        <v>New Value</v>
+        <v>Type</v>
       </c>
       <c r="D208" t="str">
-        <v>新值</v>
+        <v>类型</v>
       </c>
     </row>
     <row r="209">
@@ -3319,13 +3319,13 @@
         <v>order</v>
       </c>
       <c r="B209" t="str">
-        <v>orderCodeTitle</v>
+        <v>originValue</v>
       </c>
       <c r="C209" t="str">
-        <v>Order Code：</v>
+        <v>Original Value</v>
       </c>
       <c r="D209" t="str">
-        <v>订单编号：</v>
+        <v>原值</v>
       </c>
     </row>
     <row r="210">
@@ -3333,13 +3333,13 @@
         <v>order</v>
       </c>
       <c r="B210" t="str">
-        <v>operTypeAdd</v>
+        <v>newValue</v>
       </c>
       <c r="C210" t="str">
-        <v>Add</v>
+        <v>New Value</v>
       </c>
       <c r="D210" t="str">
-        <v>新增</v>
+        <v>新值</v>
       </c>
     </row>
     <row r="211">
@@ -3347,13 +3347,13 @@
         <v>order</v>
       </c>
       <c r="B211" t="str">
-        <v>operTypeDelete</v>
+        <v>orderCodeTitle</v>
       </c>
       <c r="C211" t="str">
-        <v>Delete</v>
+        <v>Order Code：</v>
       </c>
       <c r="D211" t="str">
-        <v>删除</v>
+        <v>订单编号：</v>
       </c>
     </row>
     <row r="212">
@@ -3361,13 +3361,13 @@
         <v>order</v>
       </c>
       <c r="B212" t="str">
-        <v>operTypeChange</v>
+        <v>operTypeAdd</v>
       </c>
       <c r="C212" t="str">
-        <v>Change</v>
+        <v>Add</v>
       </c>
       <c r="D212" t="str">
-        <v>变更</v>
+        <v>新增</v>
       </c>
     </row>
     <row r="213">
@@ -3375,433 +3375,433 @@
         <v>order</v>
       </c>
       <c r="B213" t="str">
-        <v>operTypeRemain</v>
+        <v>operTypeDelete</v>
       </c>
       <c r="C213" t="str">
-        <v>Remain</v>
+        <v>Delete</v>
       </c>
       <c r="D213" t="str">
-        <v>保持</v>
+        <v>删除</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B214" t="str">
-        <v>roleCode</v>
+        <v>operTypeChange</v>
       </c>
       <c r="C214" t="str">
-        <v>Role Code</v>
+        <v>Change</v>
       </c>
       <c r="D214" t="str">
-        <v>角色编码</v>
+        <v>变更</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B215" t="str">
-        <v>roleName</v>
+        <v>operTypeRemain</v>
       </c>
       <c r="C215" t="str">
-        <v>Role Name</v>
+        <v>Remain</v>
       </c>
       <c r="D215" t="str">
-        <v>角色名称</v>
+        <v>保持</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B216" t="str">
-        <v>qryTime</v>
+        <v>batchTask</v>
       </c>
       <c r="C216" t="str">
-        <v>Activation Time</v>
+        <v>Batch Task</v>
       </c>
       <c r="D216" t="str">
-        <v>激活时间</v>
+        <v>批量任务</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B217" t="str">
-        <v>createBtn</v>
+        <v>batchTaskQuery</v>
       </c>
       <c r="C217" t="str">
-        <v>Create Member</v>
+        <v>Batch Task Query</v>
       </c>
       <c r="D217" t="str">
-        <v>新建成员</v>
+        <v>批量任务查询</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B218" t="str">
-        <v>createStaffName</v>
+        <v>createDate</v>
       </c>
       <c r="C218" t="str">
-        <v>Created By</v>
+        <v>Creation Date</v>
       </c>
       <c r="D218" t="str">
-        <v>创建人</v>
+        <v>创建时间</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B219" t="str">
-        <v>createTime</v>
+        <v>finishDate</v>
       </c>
       <c r="C219" t="str">
-        <v>Creation Time</v>
+        <v>Completion Date</v>
       </c>
       <c r="D219" t="str">
-        <v>创建时间</v>
+        <v>结束时间</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B220" t="str">
-        <v>remark</v>
+        <v>batchStatus</v>
       </c>
       <c r="C220" t="str">
-        <v>Remarks</v>
+        <v>Batch Status</v>
       </c>
       <c r="D220" t="str">
-        <v>备注</v>
+        <v>任务状态</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B221" t="str">
-        <v>modifyRoleCreate</v>
+        <v>batchTaskId</v>
       </c>
       <c r="C221" t="str">
-        <v>Create Role</v>
+        <v>Batch Number</v>
       </c>
       <c r="D221" t="str">
-        <v>新建角色</v>
+        <v>批次号</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B222" t="str">
-        <v>modifyRoleEdit</v>
+        <v>statusResult</v>
       </c>
       <c r="C222" t="str">
-        <v>Edit Role</v>
+        <v>Processing Result</v>
       </c>
       <c r="D222" t="str">
-        <v>修改角色</v>
+        <v>处理结果</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B223" t="str">
-        <v>deleteAsk</v>
+        <v>success</v>
       </c>
       <c r="C223" t="str">
-        <v>Are you sure you want to delete the selected role(s)?</v>
+        <v xml:space="preserve">Success: </v>
       </c>
       <c r="D223" t="str">
-        <v>确定要删除已选中的角色吗？</v>
+        <v>成功：</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B224" t="str">
-        <v>menuName</v>
+        <v>fail</v>
       </c>
       <c r="C224" t="str">
-        <v>Menu Name</v>
+        <v xml:space="preserve">Failure: </v>
       </c>
       <c r="D224" t="str">
-        <v>菜单名称</v>
+        <v>失败：</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B225" t="str">
-        <v>menuPriv</v>
+        <v>doing</v>
       </c>
       <c r="C225" t="str">
-        <v>Menu Privilege</v>
+        <v xml:space="preserve">In Progress: </v>
       </c>
       <c r="D225" t="str">
-        <v>菜单权限</v>
+        <v>处理中：</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B226" t="str">
-        <v>privAction</v>
+        <v>wait</v>
       </c>
       <c r="C226" t="str">
-        <v>Action Privilege</v>
+        <v xml:space="preserve">Pending: </v>
       </c>
       <c r="D226" t="str">
-        <v>操作权限</v>
+        <v>待处理：</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B227" t="str">
-        <v>checkAll</v>
+        <v>doTitle</v>
       </c>
       <c r="C227" t="str">
-        <v>Select All</v>
+        <v>Processing List</v>
       </c>
       <c r="D227" t="str">
-        <v>全选</v>
+        <v>处理清单</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B228" t="str">
-        <v>selectRule</v>
+        <v>statusName</v>
       </c>
       <c r="C228" t="str">
-        <v>Set Rule</v>
+        <v>Status</v>
       </c>
       <c r="D228" t="str">
-        <v>选择规则类型</v>
+        <v>处理状态</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B229" t="str">
-        <v>setRule</v>
+        <v>listId</v>
       </c>
       <c r="C229" t="str">
-        <v/>
+        <v>List Sequence Number</v>
       </c>
       <c r="D229" t="str">
-        <v>设置规则</v>
+        <v>清单序号</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B230" t="str">
-        <v>ruleName</v>
+        <v>roleCode</v>
       </c>
       <c r="C230" t="str">
-        <v>Rule Name</v>
+        <v>Role Code</v>
       </c>
       <c r="D230" t="str">
-        <v>规则名称</v>
+        <v>角色编码</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B231" t="str">
-        <v>supplier</v>
+        <v>roleName</v>
       </c>
       <c r="C231" t="str">
-        <v>Supplier</v>
+        <v>Role Name</v>
       </c>
       <c r="D231" t="str">
-        <v>供应商</v>
+        <v>角色名称</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B232" t="str">
-        <v>ruleType</v>
+        <v>qryTime</v>
       </c>
       <c r="C232" t="str">
-        <v>Rule Type</v>
+        <v>Activation Time</v>
       </c>
       <c r="D232" t="str">
-        <v>规则类型</v>
+        <v>激活时间</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B233" t="str">
-        <v>ruleCategory</v>
+        <v>createBtn</v>
       </c>
       <c r="C233" t="str">
-        <v>Rule Category</v>
+        <v>Create Member</v>
       </c>
       <c r="D233" t="str">
-        <v>规则类别</v>
+        <v>新建成员</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B234" t="str">
-        <v>createTime</v>
+        <v>createStaffName</v>
       </c>
       <c r="C234" t="str">
-        <v>Creation Time</v>
+        <v>Created By</v>
       </c>
       <c r="D234" t="str">
-        <v>创建时间</v>
+        <v>创建人</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B235" t="str">
-        <v>createUser</v>
+        <v>createTime</v>
       </c>
       <c r="C235" t="str">
-        <v>Creation User</v>
+        <v>Creation Time</v>
       </c>
       <c r="D235" t="str">
-        <v>创建用户</v>
+        <v>创建时间</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B236" t="str">
-        <v>query</v>
+        <v>remark</v>
       </c>
       <c r="C236" t="str">
-        <v>Query</v>
+        <v>Remarks</v>
       </c>
       <c r="D236" t="str">
-        <v>查询</v>
+        <v>备注</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B237" t="str">
-        <v>resetting</v>
+        <v>modifyRoleCreate</v>
       </c>
       <c r="C237" t="str">
-        <v>Reset</v>
+        <v>Create Role</v>
       </c>
       <c r="D237" t="str">
-        <v>重置</v>
+        <v>新建角色</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B238" t="str">
-        <v>addRule</v>
+        <v>modifyRoleEdit</v>
       </c>
       <c r="C238" t="str">
-        <v>New Rule</v>
+        <v>Edit Role</v>
       </c>
       <c r="D238" t="str">
-        <v>新建规则</v>
+        <v>修改角色</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B239" t="str">
-        <v>increase</v>
+        <v>deleteAsk</v>
       </c>
       <c r="C239" t="str">
-        <v>Add</v>
+        <v>Are you sure you want to delete the selected role(s)?</v>
       </c>
       <c r="D239" t="str">
-        <v>添加</v>
+        <v>确定要删除已选中的角色吗？</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B240" t="str">
-        <v>prev</v>
+        <v>menuName</v>
       </c>
       <c r="C240" t="str">
-        <v>Previous Step</v>
+        <v>Menu Name</v>
       </c>
       <c r="D240" t="str">
-        <v>上一步</v>
+        <v>菜单名称</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B241" t="str">
-        <v>complete</v>
+        <v>menuPriv</v>
       </c>
       <c r="C241" t="str">
-        <v>Complete</v>
+        <v>Menu Privilege</v>
       </c>
       <c r="D241" t="str">
-        <v>完成</v>
+        <v>菜单权限</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B242" t="str">
-        <v>monitorObjectType</v>
+        <v>privAction</v>
       </c>
       <c r="C242" t="str">
-        <v>Monitoring Object Type</v>
+        <v>Action Privilege</v>
       </c>
       <c r="D242" t="str">
-        <v>监控对象类型</v>
+        <v>操作权限</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B243" t="str">
-        <v>objectType</v>
+        <v>checkAll</v>
       </c>
       <c r="C243" t="str">
-        <v>Object Type</v>
+        <v>Select All</v>
       </c>
       <c r="D243" t="str">
-        <v>对象类型</v>
+        <v>全选</v>
       </c>
     </row>
     <row r="244">
@@ -3809,13 +3809,13 @@
         <v>rule</v>
       </c>
       <c r="B244" t="str">
-        <v>operate</v>
+        <v>selectRule</v>
       </c>
       <c r="C244" t="str">
-        <v>Operation</v>
+        <v>Set Rule</v>
       </c>
       <c r="D244" t="str">
-        <v>操作</v>
+        <v>选择规则类型</v>
       </c>
     </row>
     <row r="245">
@@ -3823,13 +3823,13 @@
         <v>rule</v>
       </c>
       <c r="B245" t="str">
-        <v>enter</v>
+        <v>setRule</v>
       </c>
       <c r="C245" t="str">
-        <v>Please Enter</v>
+        <v/>
       </c>
       <c r="D245" t="str">
-        <v>请输入</v>
+        <v>设置规则</v>
       </c>
     </row>
     <row r="246">
@@ -3837,13 +3837,13 @@
         <v>rule</v>
       </c>
       <c r="B246" t="str">
-        <v>pleaseSelect</v>
+        <v>ruleName</v>
       </c>
       <c r="C246" t="str">
-        <v>Please Select</v>
+        <v>Rule Name</v>
       </c>
       <c r="D246" t="str">
-        <v>请选择</v>
+        <v>规则名称</v>
       </c>
     </row>
     <row r="247">
@@ -3851,13 +3851,13 @@
         <v>rule</v>
       </c>
       <c r="B247" t="str">
-        <v>loading</v>
+        <v>supplier</v>
       </c>
       <c r="C247" t="str">
-        <v>Loading</v>
+        <v>Supplier</v>
       </c>
       <c r="D247" t="str">
-        <v/>
+        <v>供应商</v>
       </c>
     </row>
     <row r="248">
@@ -3865,13 +3865,13 @@
         <v>rule</v>
       </c>
       <c r="B248" t="str">
-        <v>modify</v>
+        <v>ruleType</v>
       </c>
       <c r="C248" t="str">
-        <v>Edit</v>
+        <v>Rule Type</v>
       </c>
       <c r="D248" t="str">
-        <v>修改</v>
+        <v>规则类型</v>
       </c>
     </row>
     <row r="249">
@@ -3879,13 +3879,13 @@
         <v>rule</v>
       </c>
       <c r="B249" t="str">
-        <v>delete</v>
+        <v>ruleCategory</v>
       </c>
       <c r="C249" t="str">
-        <v>Delete</v>
+        <v>Rule Category</v>
       </c>
       <c r="D249" t="str">
-        <v>删除</v>
+        <v>规则类别</v>
       </c>
     </row>
     <row r="250">
@@ -3893,13 +3893,13 @@
         <v>rule</v>
       </c>
       <c r="B250" t="str">
-        <v>cancellation</v>
+        <v>createTime</v>
       </c>
       <c r="C250" t="str">
-        <v>Cancel</v>
+        <v>Creation Time</v>
       </c>
       <c r="D250" t="str">
-        <v>取消</v>
+        <v>创建时间</v>
       </c>
     </row>
     <row r="251">
@@ -3907,13 +3907,13 @@
         <v>rule</v>
       </c>
       <c r="B251" t="str">
-        <v>effective</v>
+        <v>createUser</v>
       </c>
       <c r="C251" t="str">
-        <v>Valid</v>
+        <v>Creation User</v>
       </c>
       <c r="D251" t="str">
-        <v>有效</v>
+        <v>创建用户</v>
       </c>
     </row>
     <row r="252">
@@ -3921,13 +3921,13 @@
         <v>rule</v>
       </c>
       <c r="B252" t="str">
-        <v>invalid</v>
+        <v>query</v>
       </c>
       <c r="C252" t="str">
-        <v>Invalid</v>
+        <v>Query</v>
       </c>
       <c r="D252" t="str">
-        <v>无效</v>
+        <v>查询</v>
       </c>
     </row>
     <row r="253">
@@ -3935,13 +3935,13 @@
         <v>rule</v>
       </c>
       <c r="B253" t="str">
-        <v>delectRule</v>
+        <v>resetting</v>
       </c>
       <c r="C253" t="str">
-        <v>Delete Rule</v>
+        <v>Reset</v>
       </c>
       <c r="D253" t="str">
-        <v>删除规则</v>
+        <v>重置</v>
       </c>
     </row>
     <row r="254">
@@ -3949,13 +3949,13 @@
         <v>rule</v>
       </c>
       <c r="B254" t="str">
-        <v>delectAction</v>
+        <v>addRule</v>
       </c>
       <c r="C254" t="str">
-        <v>A deletion operation will be performed. Do you wish to continue?</v>
+        <v>New Rule</v>
       </c>
       <c r="D254" t="str">
-        <v>将进行删除操作，是否继续</v>
+        <v>新建规则</v>
       </c>
     </row>
     <row r="255">
@@ -3963,13 +3963,13 @@
         <v>rule</v>
       </c>
       <c r="B255" t="str">
-        <v>delectSuccess</v>
+        <v>increase</v>
       </c>
       <c r="C255" t="str">
-        <v>Deleted Successfully</v>
+        <v>Add</v>
       </c>
       <c r="D255" t="str">
-        <v>删除成功</v>
+        <v>添加</v>
       </c>
     </row>
     <row r="256">
@@ -3977,13 +3977,13 @@
         <v>rule</v>
       </c>
       <c r="B256" t="str">
-        <v>usageMonitor</v>
+        <v>prev</v>
       </c>
       <c r="C256" t="str">
-        <v>Usage Monitoring</v>
+        <v>Previous Step</v>
       </c>
       <c r="D256" t="str">
-        <v>用量监控</v>
+        <v>上一步</v>
       </c>
     </row>
     <row r="257">
@@ -3991,13 +3991,13 @@
         <v>rule</v>
       </c>
       <c r="B257" t="str">
-        <v>selfSupport</v>
+        <v>complete</v>
       </c>
       <c r="C257" t="str">
-        <v>Self-operated</v>
+        <v>Complete</v>
       </c>
       <c r="D257" t="str">
-        <v>自营</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="258">
@@ -4005,13 +4005,13 @@
         <v>rule</v>
       </c>
       <c r="B258" t="str">
-        <v>monthDataUsage</v>
+        <v>monitorObjectType</v>
       </c>
       <c r="C258" t="str">
-        <v>Monthly Data Usage</v>
+        <v>Monitoring Object Type</v>
       </c>
       <c r="D258" t="str">
-        <v>月数据用量</v>
+        <v>监控对象类型</v>
       </c>
     </row>
     <row r="259">
@@ -4019,13 +4019,13 @@
         <v>rule</v>
       </c>
       <c r="B259" t="str">
-        <v>monthSmsUsage</v>
+        <v>objectType</v>
       </c>
       <c r="C259" t="str">
-        <v>Monthly SMS Usage</v>
+        <v>Object Type</v>
       </c>
       <c r="D259" t="str">
-        <v>月短信用量</v>
+        <v>对象类型</v>
       </c>
     </row>
     <row r="260">
@@ -4033,13 +4033,13 @@
         <v>rule</v>
       </c>
       <c r="B260" t="str">
-        <v>monthVoiceUsage</v>
+        <v>operate</v>
       </c>
       <c r="C260" t="str">
-        <v>Monthly Voice Usage</v>
+        <v>Operation</v>
       </c>
       <c r="D260" t="str">
-        <v>月语音用量</v>
+        <v>操作</v>
       </c>
     </row>
     <row r="261">
@@ -4047,13 +4047,13 @@
         <v>rule</v>
       </c>
       <c r="B261" t="str">
-        <v>monthDataPrompt</v>
+        <v>enter</v>
       </c>
       <c r="C261" t="str">
-        <v>Triggered when the monthly network usage traffic of the SIM card in the current billing cycle reaches **MB</v>
+        <v>Please Enter</v>
       </c>
       <c r="D261" t="str">
-        <v>当SIM卡在当前计费周期月网络使用流量 达到**MB时触发</v>
+        <v>请输入</v>
       </c>
     </row>
     <row r="262">
@@ -4061,13 +4061,13 @@
         <v>rule</v>
       </c>
       <c r="B262" t="str">
-        <v>monthSmsPrompt</v>
+        <v>pleaseSelect</v>
       </c>
       <c r="C262" t="str">
-        <v>Triggered when the monthly SMS usage of the SIM card in the current billing cycle reaches **messages</v>
+        <v>Please Select</v>
       </c>
       <c r="D262" t="str">
-        <v>当SIM卡在当前计费周期月短信使用量达 到**条时触发</v>
+        <v>请选择</v>
       </c>
     </row>
     <row r="263">
@@ -4075,13 +4075,13 @@
         <v>rule</v>
       </c>
       <c r="B263" t="str">
-        <v>monthVoicePrompt</v>
+        <v>loading</v>
       </c>
       <c r="C263" t="str">
-        <v xml:space="preserve">Triggered when the monthly SMS usage of the SIM card in the current billing cycle reaches **messages  </v>
+        <v>Loading</v>
       </c>
       <c r="D263" t="str">
-        <v>当SIM卡在当前计费周期月短信使用量达 到**条时触发</v>
+        <v/>
       </c>
     </row>
     <row r="264">
@@ -4089,13 +4089,13 @@
         <v>rule</v>
       </c>
       <c r="B264" t="str">
-        <v>selectManufacturer</v>
+        <v>modify</v>
       </c>
       <c r="C264" t="str">
-        <v>Select Manufacturer</v>
+        <v>Edit</v>
       </c>
       <c r="D264" t="str">
-        <v>选择厂商</v>
+        <v>修改</v>
       </c>
     </row>
     <row r="265">
@@ -4103,13 +4103,13 @@
         <v>rule</v>
       </c>
       <c r="B265" t="str">
-        <v>package</v>
+        <v>delete</v>
       </c>
       <c r="C265" t="str">
-        <v>Package</v>
+        <v>Delete</v>
       </c>
       <c r="D265" t="str">
-        <v>套餐</v>
+        <v>删除</v>
       </c>
     </row>
     <row r="266">
@@ -4117,13 +4117,13 @@
         <v>rule</v>
       </c>
       <c r="B266" t="str">
-        <v>packageName</v>
+        <v>cancellation</v>
       </c>
       <c r="C266" t="str">
-        <v>Offer Name</v>
+        <v>Cancel</v>
       </c>
       <c r="D266" t="str">
-        <v>套餐名称</v>
+        <v>取消</v>
       </c>
     </row>
     <row r="267">
@@ -4131,13 +4131,13 @@
         <v>rule</v>
       </c>
       <c r="B267" t="str">
-        <v>packageInfo</v>
+        <v>effective</v>
       </c>
       <c r="C267" t="str">
-        <v>Offer Info</v>
+        <v>Valid</v>
       </c>
       <c r="D267" t="str">
-        <v>套餐信息</v>
+        <v>有效</v>
       </c>
     </row>
     <row r="268">
@@ -4145,13 +4145,13 @@
         <v>rule</v>
       </c>
       <c r="B268" t="str">
-        <v>determine</v>
+        <v>invalid</v>
       </c>
       <c r="C268" t="str">
-        <v>Confirm</v>
+        <v>Invalid</v>
       </c>
       <c r="D268" t="str">
-        <v>确定</v>
+        <v>无效</v>
       </c>
     </row>
     <row r="269">
@@ -4159,13 +4159,13 @@
         <v>rule</v>
       </c>
       <c r="B269" t="str">
-        <v>defineRule</v>
+        <v>delectRule</v>
       </c>
       <c r="C269" t="str">
-        <v>Define Rule</v>
+        <v>Delete Rule</v>
       </c>
       <c r="D269" t="str">
-        <v>定义规则</v>
+        <v>删除规则</v>
       </c>
     </row>
     <row r="270">
@@ -4173,13 +4173,13 @@
         <v>rule</v>
       </c>
       <c r="B270" t="str">
-        <v>ruleDefine</v>
+        <v>delectAction</v>
       </c>
       <c r="C270" t="str">
-        <v>Rule Definition</v>
+        <v>A deletion operation will be performed. Do you wish to continue?</v>
       </c>
       <c r="D270" t="str">
-        <v>规则定义</v>
+        <v>将进行删除操作，是否继续</v>
       </c>
     </row>
     <row r="271">
@@ -4187,13 +4187,13 @@
         <v>rule</v>
       </c>
       <c r="B271" t="str">
-        <v>selected</v>
+        <v>delectSuccess</v>
       </c>
       <c r="C271" t="str">
-        <v>Current Selection</v>
+        <v>Deleted Successfully</v>
       </c>
       <c r="D271" t="str">
-        <v>当前选择</v>
+        <v>删除成功</v>
       </c>
     </row>
     <row r="272">
@@ -4201,13 +4201,13 @@
         <v>rule</v>
       </c>
       <c r="B272" t="str">
-        <v>ruleConfiguration</v>
+        <v>usageMonitor</v>
       </c>
       <c r="C272" t="str">
-        <v>Rule Configuration</v>
+        <v>Usage Monitoring</v>
       </c>
       <c r="D272" t="str">
-        <v>规则配置</v>
+        <v>用量监控</v>
       </c>
     </row>
     <row r="273">
@@ -4215,13 +4215,13 @@
         <v>rule</v>
       </c>
       <c r="B273" t="str">
-        <v>threshold</v>
+        <v>selfSupport</v>
       </c>
       <c r="C273" t="str">
-        <v>Threshold</v>
+        <v>Self-operated</v>
       </c>
       <c r="D273" t="str">
-        <v>阈值</v>
+        <v>自营</v>
       </c>
     </row>
     <row r="274">
@@ -4229,13 +4229,13 @@
         <v>rule</v>
       </c>
       <c r="B274" t="str">
-        <v>thresholdCannotEmpty</v>
+        <v>monthDataUsage</v>
       </c>
       <c r="C274" t="str">
-        <v>The threshold cannot be empty</v>
+        <v>Monthly Data Usage</v>
       </c>
       <c r="D274" t="str">
-        <v>阈值不能为空</v>
+        <v>月数据用量</v>
       </c>
     </row>
     <row r="275">
@@ -4243,13 +4243,13 @@
         <v>rule</v>
       </c>
       <c r="B275" t="str">
-        <v>pushURL</v>
+        <v>monthSmsUsage</v>
       </c>
       <c r="C275" t="str">
-        <v>Push URL</v>
+        <v>Monthly SMS Usage</v>
       </c>
       <c r="D275" t="str">
-        <v>推送URL</v>
+        <v>月短信用量</v>
       </c>
     </row>
     <row r="276">
@@ -4257,13 +4257,13 @@
         <v>rule</v>
       </c>
       <c r="B276" t="str">
-        <v>testAddress</v>
+        <v>monthVoiceUsage</v>
       </c>
       <c r="C276" t="str">
-        <v>Test Address</v>
+        <v>Monthly Voice Usage</v>
       </c>
       <c r="D276" t="str">
-        <v>测试地址</v>
+        <v>月语音用量</v>
       </c>
     </row>
     <row r="277">
@@ -4271,13 +4271,13 @@
         <v>rule</v>
       </c>
       <c r="B277" t="str">
-        <v>uploadCertificate</v>
+        <v>monthDataPrompt</v>
       </c>
       <c r="C277" t="str">
-        <v>Upload Certificate</v>
+        <v>Triggered when the monthly network usage traffic of the SIM card in the current billing cycle reaches **MB</v>
       </c>
       <c r="D277" t="str">
-        <v>上传证书</v>
+        <v>当SIM卡在当前计费周期月网络使用流量 达到**MB时触发</v>
       </c>
     </row>
     <row r="278">
@@ -4285,13 +4285,13 @@
         <v>rule</v>
       </c>
       <c r="B278" t="str">
-        <v>httpPrompt</v>
+        <v>monthSmsPrompt</v>
       </c>
       <c r="C278" t="str">
-        <v>Note: No certificate needs to be uploaded for HTTP requests; in the HTTPS docking scenario, the server certificate can be uploaded (it needs to be re-uploaded after the certificate's validity period expires); if there is no port in the push URL, add the default port 80.</v>
+        <v>Triggered when the monthly SMS usage of the SIM card in the current billing cycle reaches **messages</v>
       </c>
       <c r="D278" t="str">
-        <v>注意:http请求不需要上传证书;https对接场景下，可上传服务器证书(证书有效期到期后需重传);如果推送url中没有端口，请在url中添加默认端口80。</v>
+        <v>当SIM卡在当前计费周期月短信使用量达 到**条时触发</v>
       </c>
     </row>
     <row r="279">
@@ -4299,13 +4299,13 @@
         <v>rule</v>
       </c>
       <c r="B279" t="str">
-        <v>ruleObject</v>
+        <v>monthVoicePrompt</v>
       </c>
       <c r="C279" t="str">
-        <v>Rule Object</v>
+        <v xml:space="preserve">Triggered when the monthly SMS usage of the SIM card in the current billing cycle reaches **messages  </v>
       </c>
       <c r="D279" t="str">
-        <v>规则对象</v>
+        <v>当SIM卡在当前计费周期月短信使用量达 到**条时触发</v>
       </c>
     </row>
     <row r="280">
@@ -4313,13 +4313,13 @@
         <v>rule</v>
       </c>
       <c r="B280" t="str">
-        <v>batchImport</v>
+        <v>selectManufacturer</v>
       </c>
       <c r="C280" t="str">
-        <v>Batch Import</v>
+        <v>Select Manufacturer</v>
       </c>
       <c r="D280" t="str">
-        <v>批量导入</v>
+        <v>选择厂商</v>
       </c>
     </row>
     <row r="281">
@@ -4327,13 +4327,13 @@
         <v>rule</v>
       </c>
       <c r="B281" t="str">
-        <v>batchDelete</v>
+        <v>package</v>
       </c>
       <c r="C281" t="str">
-        <v>Batch Import</v>
+        <v>Package</v>
       </c>
       <c r="D281" t="str">
-        <v>批量删除</v>
+        <v>套餐</v>
       </c>
     </row>
     <row r="282">
@@ -4341,13 +4341,13 @@
         <v>rule</v>
       </c>
       <c r="B282" t="str">
-        <v>accNumber</v>
+        <v>packageName</v>
       </c>
       <c r="C282" t="str">
-        <v>Access Number</v>
+        <v>Offer Name</v>
       </c>
       <c r="D282" t="str">
-        <v>接入号码</v>
+        <v>套餐名称</v>
       </c>
     </row>
     <row r="283">
@@ -4355,13 +4355,13 @@
         <v>rule</v>
       </c>
       <c r="B283" t="str">
-        <v>batchImportNumber</v>
+        <v>packageInfo</v>
       </c>
       <c r="C283" t="str">
-        <v>Batch Import Numbers</v>
+        <v>Offer Info</v>
       </c>
       <c r="D283" t="str">
-        <v>批量导入号码</v>
+        <v>套餐信息</v>
       </c>
     </row>
     <row r="284">
@@ -4369,13 +4369,13 @@
         <v>rule</v>
       </c>
       <c r="B284" t="str">
-        <v>batchDeleteNumber</v>
+        <v>determine</v>
       </c>
       <c r="C284" t="str">
-        <v>Batch Delete Numbers</v>
+        <v>Confirm</v>
       </c>
       <c r="D284" t="str">
-        <v>批量删除号码</v>
+        <v>确定</v>
       </c>
     </row>
     <row r="285">
@@ -4383,13 +4383,13 @@
         <v>rule</v>
       </c>
       <c r="B285" t="str">
-        <v>enterprise</v>
+        <v>defineRule</v>
       </c>
       <c r="C285" t="str">
-        <v>Enterprise</v>
+        <v>Define Rule</v>
       </c>
       <c r="D285" t="str">
-        <v>企业</v>
+        <v>定义规则</v>
       </c>
     </row>
     <row r="286">
@@ -4397,13 +4397,13 @@
         <v>rule</v>
       </c>
       <c r="B286" t="str">
-        <v>simCard</v>
+        <v>ruleDefine</v>
       </c>
       <c r="C286" t="str">
-        <v>SIM Card</v>
+        <v>Rule Definition</v>
       </c>
       <c r="D286" t="str">
-        <v>SIM卡</v>
+        <v>规则定义</v>
       </c>
     </row>
     <row r="287">
@@ -4411,13 +4411,13 @@
         <v>rule</v>
       </c>
       <c r="B287" t="str">
-        <v>category</v>
+        <v>selected</v>
       </c>
       <c r="C287" t="str">
-        <v>Category</v>
+        <v>Current Selection</v>
       </c>
       <c r="D287" t="str">
-        <v>类别</v>
+        <v>当前选择</v>
       </c>
     </row>
     <row r="288">
@@ -4425,13 +4425,13 @@
         <v>rule</v>
       </c>
       <c r="B288" t="str">
-        <v>triggerFlip</v>
+        <v>ruleConfiguration</v>
       </c>
       <c r="C288" t="str">
-        <v>Trigger</v>
+        <v>Rule Configuration</v>
       </c>
       <c r="D288" t="str">
-        <v>触发器</v>
+        <v>规则配置</v>
       </c>
     </row>
     <row r="289">
@@ -4439,13 +4439,13 @@
         <v>rule</v>
       </c>
       <c r="B289" t="str">
-        <v>actionDestMessage</v>
+        <v>threshold</v>
       </c>
       <c r="C289" t="str">
-        <v>The push URL cannot be empty</v>
+        <v>Threshold</v>
       </c>
       <c r="D289" t="str">
-        <v>推送URL不能为空</v>
+        <v>阈值</v>
       </c>
     </row>
     <row r="290">
@@ -4453,13 +4453,13 @@
         <v>rule</v>
       </c>
       <c r="B290" t="str">
-        <v>ruleNameMessage</v>
+        <v>thresholdCannotEmpty</v>
       </c>
       <c r="C290" t="str">
-        <v>The rule name cannot be empty</v>
+        <v>The threshold cannot be empty</v>
       </c>
       <c r="D290" t="str">
-        <v>规则名称不能为空</v>
+        <v>阈值不能为空</v>
       </c>
     </row>
     <row r="291">
@@ -4467,13 +4467,13 @@
         <v>rule</v>
       </c>
       <c r="B291" t="str">
-        <v>objTypeMessage</v>
+        <v>pushURL</v>
       </c>
       <c r="C291" t="str">
-        <v>The object type cannot be empty</v>
+        <v>Push URL</v>
       </c>
       <c r="D291" t="str">
-        <v>对象类型不能为空</v>
+        <v>推送URL</v>
       </c>
     </row>
     <row r="292">
@@ -4481,13 +4481,13 @@
         <v>rule</v>
       </c>
       <c r="B292" t="str">
-        <v>ruleId</v>
+        <v>testAddress</v>
       </c>
       <c r="C292" t="str">
-        <v>Rule ID</v>
+        <v>Test Address</v>
       </c>
       <c r="D292" t="str">
-        <v>规则ID</v>
+        <v>测试地址</v>
       </c>
     </row>
     <row r="293">
@@ -4495,13 +4495,13 @@
         <v>rule</v>
       </c>
       <c r="B293" t="str">
-        <v>triggerDate</v>
+        <v>uploadCertificate</v>
       </c>
       <c r="C293" t="str">
-        <v>Trigger Date</v>
+        <v>Upload Certificate</v>
       </c>
       <c r="D293" t="str">
-        <v>触发日期</v>
+        <v>上传证书</v>
       </c>
     </row>
     <row r="294">
@@ -4509,13 +4509,13 @@
         <v>rule</v>
       </c>
       <c r="B294" t="str">
-        <v>iotNetworkCard</v>
+        <v>httpPrompt</v>
       </c>
       <c r="C294" t="str">
-        <v>Internet of Things Card</v>
+        <v>Note: No certificate needs to be uploaded for HTTP requests; in the HTTPS docking scenario, the server certificate can be uploaded (it needs to be re-uploaded after the certificate's validity period expires); if there is no port in the push URL, add the default port 80.</v>
       </c>
       <c r="D294" t="str">
-        <v>物联网卡</v>
+        <v>注意:http请求不需要上传证书;https对接场景下，可上传服务器证书(证书有效期到期后需重传);如果推送url中没有端口，请在url中添加默认端口80。</v>
       </c>
     </row>
     <row r="295">
@@ -4523,13 +4523,13 @@
         <v>rule</v>
       </c>
       <c r="B295" t="str">
-        <v>sendMessageUrl</v>
+        <v>ruleObject</v>
       </c>
       <c r="C295" t="str">
-        <v>Send an API message to the URL</v>
+        <v>Rule Object</v>
       </c>
       <c r="D295" t="str">
-        <v>发送一条API消息,至URL</v>
+        <v>规则对象</v>
       </c>
     </row>
     <row r="296">
@@ -4537,13 +4537,13 @@
         <v>rule</v>
       </c>
       <c r="B296" t="str">
-        <v>pushContent</v>
+        <v>batchImport</v>
       </c>
       <c r="C296" t="str">
-        <v>Push Content</v>
+        <v>Batch Import</v>
       </c>
       <c r="D296" t="str">
-        <v>推送内容</v>
+        <v>批量导入</v>
       </c>
     </row>
     <row r="297">
@@ -4551,13 +4551,13 @@
         <v>rule</v>
       </c>
       <c r="B297" t="str">
-        <v>operationRes</v>
+        <v>batchDelete</v>
       </c>
       <c r="C297" t="str">
-        <v>Operation Result</v>
+        <v>Batch Import</v>
       </c>
       <c r="D297" t="str">
-        <v>操作结果</v>
+        <v>批量删除</v>
       </c>
     </row>
     <row r="298">
@@ -4565,13 +4565,13 @@
         <v>rule</v>
       </c>
       <c r="B298" t="str">
-        <v>operationResInfo</v>
+        <v>accNumber</v>
       </c>
       <c r="C298" t="str">
-        <v>Operation Result Information</v>
+        <v>Access Number</v>
       </c>
       <c r="D298" t="str">
-        <v>操作结果信息</v>
+        <v>接入号码</v>
       </c>
     </row>
     <row r="299">
@@ -4579,237 +4579,237 @@
         <v>rule</v>
       </c>
       <c r="B299" t="str">
-        <v>failureReason</v>
+        <v>batchImportNumber</v>
       </c>
       <c r="C299" t="str">
-        <v>Failure Reason</v>
+        <v>Batch Import Numbers</v>
       </c>
       <c r="D299" t="str">
-        <v>失败原因</v>
+        <v>批量导入号码</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B300" t="str">
-        <v>simStatus</v>
+        <v>batchDeleteNumber</v>
       </c>
       <c r="C300" t="str">
-        <v>SIM Status</v>
+        <v>Batch Delete Numbers</v>
       </c>
       <c r="D300" t="str">
-        <v>卡状态</v>
+        <v>批量删除号码</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B301" t="str">
-        <v>addressId</v>
+        <v>enterprise</v>
       </c>
       <c r="C301" t="str">
-        <v>Supplier</v>
+        <v>Enterprise</v>
       </c>
       <c r="D301" t="str">
-        <v>供应商</v>
+        <v>企业</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B302" t="str">
-        <v>actDate</v>
+        <v>simCard</v>
       </c>
       <c r="C302" t="str">
-        <v>Activate Time</v>
+        <v>SIM Card</v>
       </c>
       <c r="D302" t="str">
-        <v>激活时间</v>
+        <v>SIM卡</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B303" t="str">
-        <v>package</v>
+        <v>category</v>
       </c>
       <c r="C303" t="str">
-        <v>Package</v>
+        <v>Category</v>
       </c>
       <c r="D303" t="str">
-        <v>套餐</v>
+        <v>类别</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B304" t="str">
-        <v>cust</v>
+        <v>triggerFlip</v>
       </c>
       <c r="C304" t="str">
-        <v>Enterprise</v>
+        <v>Trigger</v>
       </c>
       <c r="D304" t="str">
-        <v>企业</v>
+        <v>触发器</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B305" t="str">
-        <v>monthUsage</v>
+        <v>actionDestMessage</v>
       </c>
       <c r="C305" t="str">
-        <v>Monthly Usage(MB)</v>
+        <v>The push URL cannot be empty</v>
       </c>
       <c r="D305" t="str">
-        <v>当月使用量（MB）</v>
+        <v>推送URL不能为空</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B306" t="str">
-        <v>use</v>
+        <v>ruleNameMessage</v>
       </c>
       <c r="C306" t="str">
-        <v>Online</v>
+        <v>The rule name cannot be empty</v>
       </c>
       <c r="D306" t="str">
-        <v>在用</v>
+        <v>规则名称不能为空</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B307" t="str">
-        <v>stop</v>
+        <v>objTypeMessage</v>
       </c>
       <c r="C307" t="str">
-        <v>Offline</v>
+        <v>The object type cannot be empty</v>
       </c>
       <c r="D307" t="str">
-        <v>停机</v>
+        <v>对象类型不能为空</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B308" t="str">
-        <v>destroy</v>
+        <v>ruleId</v>
       </c>
       <c r="C308" t="str">
-        <v>Destroy</v>
+        <v>Rule ID</v>
       </c>
       <c r="D308" t="str">
-        <v>拆机</v>
+        <v>规则ID</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B309" t="str">
-        <v>batchImportTitle</v>
+        <v>triggerDate</v>
       </c>
       <c r="C309" t="str">
-        <v xml:space="preserve">Bulk SIM Card Inquiry </v>
+        <v>Trigger Date</v>
       </c>
       <c r="D309" t="str">
-        <v>SIM卡批量查询</v>
+        <v>触发日期</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B310" t="str">
-        <v>unactivated</v>
+        <v>iotNetworkCard</v>
       </c>
       <c r="C310" t="str">
-        <v>Not Activated</v>
+        <v>Internet of Things Card</v>
       </c>
       <c r="D310" t="str">
-        <v>未激活</v>
+        <v>物联网卡</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B311" t="str">
-        <v>unactivated_test</v>
+        <v>sendMessageUrl</v>
       </c>
       <c r="C311" t="str">
-        <v>Not Activated (Test Period)</v>
+        <v>Send an API message to the URL</v>
       </c>
       <c r="D311" t="str">
-        <v>未激活(测试期)</v>
+        <v>发送一条API消息,至URL</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B312" t="str">
-        <v>activated_test</v>
+        <v>pushContent</v>
       </c>
       <c r="C312" t="str">
-        <v>Activated (Test Period)</v>
+        <v>Push Content</v>
       </c>
       <c r="D312" t="str">
-        <v>已激活(测试期)</v>
+        <v>推送内容</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B313" t="str">
-        <v>basicInfo</v>
+        <v>operationRes</v>
       </c>
       <c r="C313" t="str">
-        <v>Basic Information</v>
+        <v>Operation Result</v>
       </c>
       <c r="D313" t="str">
-        <v>基本信息</v>
+        <v>操作结果</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B314" t="str">
-        <v>offerInfo</v>
+        <v>operationResInfo</v>
       </c>
       <c r="C314" t="str">
-        <v>Package Information</v>
+        <v>Operation Result Information</v>
       </c>
       <c r="D314" t="str">
-        <v>套餐信息</v>
+        <v>操作结果信息</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B315" t="str">
-        <v>basicInfoTitle</v>
+        <v>failureReason</v>
       </c>
       <c r="C315" t="str">
-        <v>Functional Products</v>
+        <v>Failure Reason</v>
       </c>
       <c r="D315" t="str">
-        <v>功能产品</v>
+        <v>失败原因</v>
       </c>
     </row>
     <row r="316">
@@ -4817,13 +4817,13 @@
         <v>simMag</v>
       </c>
       <c r="B316" t="str">
-        <v>openDate</v>
+        <v>simStatus</v>
       </c>
       <c r="C316" t="str">
-        <v>Card Opening Date</v>
+        <v>SIM Status</v>
       </c>
       <c r="D316" t="str">
-        <v>开卡时间</v>
+        <v>卡状态</v>
       </c>
     </row>
     <row r="317">
@@ -4831,13 +4831,13 @@
         <v>simMag</v>
       </c>
       <c r="B317" t="str">
-        <v>prodName</v>
+        <v>addressId</v>
       </c>
       <c r="C317" t="str">
-        <v>Product Name</v>
+        <v>Supplier</v>
       </c>
       <c r="D317" t="str">
-        <v>产品名称</v>
+        <v>供应商</v>
       </c>
     </row>
     <row r="318">
@@ -4845,13 +4845,13 @@
         <v>simMag</v>
       </c>
       <c r="B318" t="str">
-        <v>prodNbr</v>
+        <v>actDate</v>
       </c>
       <c r="C318" t="str">
-        <v>Product Code</v>
+        <v>Activate Time</v>
       </c>
       <c r="D318" t="str">
-        <v>产品编码</v>
+        <v>激活时间</v>
       </c>
     </row>
     <row r="319">
@@ -4859,13 +4859,13 @@
         <v>simMag</v>
       </c>
       <c r="B319" t="str">
-        <v>effDate</v>
+        <v>package</v>
       </c>
       <c r="C319" t="str">
-        <v>Effective Date</v>
+        <v>Package</v>
       </c>
       <c r="D319" t="str">
-        <v>生效时间</v>
+        <v>套餐</v>
       </c>
     </row>
     <row r="320">
@@ -4873,13 +4873,13 @@
         <v>simMag</v>
       </c>
       <c r="B320" t="str">
-        <v>packageInfoTitle</v>
+        <v>cust</v>
       </c>
       <c r="C320" t="str">
-        <v>Main Package Information</v>
+        <v>Enterprise</v>
       </c>
       <c r="D320" t="str">
-        <v>主套餐信息</v>
+        <v>企业</v>
       </c>
     </row>
     <row r="321">
@@ -4887,13 +4887,13 @@
         <v>simMag</v>
       </c>
       <c r="B321" t="str">
-        <v>totalUsage</v>
+        <v>monthUsage</v>
       </c>
       <c r="C321" t="str">
-        <v>Total Usage (MB)</v>
+        <v>Monthly Usage(MB)</v>
       </c>
       <c r="D321" t="str">
-        <v>总使用量(MB)</v>
+        <v>当月使用量（MB）</v>
       </c>
     </row>
     <row r="322">
@@ -4901,13 +4901,13 @@
         <v>simMag</v>
       </c>
       <c r="B322" t="str">
-        <v>mainOfferUsage</v>
+        <v>use</v>
       </c>
       <c r="C322" t="str">
-        <v>Main Package Usage</v>
+        <v>Online</v>
       </c>
       <c r="D322" t="str">
-        <v>主套餐使用量</v>
+        <v>在用</v>
       </c>
     </row>
     <row r="323">
@@ -4915,13 +4915,13 @@
         <v>simMag</v>
       </c>
       <c r="B323" t="str">
-        <v>selectOfferUsage</v>
+        <v>stop</v>
       </c>
       <c r="C323" t="str">
-        <v>Optional Package Usage</v>
+        <v>Offline</v>
       </c>
       <c r="D323" t="str">
-        <v>可选包使用量</v>
+        <v>停机</v>
       </c>
     </row>
     <row r="324">
@@ -4929,13 +4929,13 @@
         <v>simMag</v>
       </c>
       <c r="B324" t="str">
-        <v>selectOffer</v>
+        <v>destroy</v>
       </c>
       <c r="C324" t="str">
-        <v>Optional Packages</v>
+        <v>Destroy</v>
       </c>
       <c r="D324" t="str">
-        <v>可选包</v>
+        <v>拆机</v>
       </c>
     </row>
     <row r="325">
@@ -4943,13 +4943,13 @@
         <v>simMag</v>
       </c>
       <c r="B325" t="str">
-        <v>selectOfferName</v>
+        <v>batchImportTitle</v>
       </c>
       <c r="C325" t="str">
-        <v>Optional Package Name</v>
+        <v xml:space="preserve">Bulk SIM Card Inquiry </v>
       </c>
       <c r="D325" t="str">
-        <v>可选包名称</v>
+        <v>SIM卡批量查询</v>
       </c>
     </row>
     <row r="326">
@@ -4957,13 +4957,13 @@
         <v>simMag</v>
       </c>
       <c r="B326" t="str">
-        <v>offerName</v>
+        <v>unactivated</v>
       </c>
       <c r="C326" t="str">
-        <v>Package Name</v>
+        <v>Not Activated</v>
       </c>
       <c r="D326" t="str">
-        <v>套餐名称</v>
+        <v>未激活</v>
       </c>
     </row>
     <row r="327">
@@ -4971,13 +4971,13 @@
         <v>simMag</v>
       </c>
       <c r="B327" t="str">
-        <v>offerNbr</v>
+        <v>unactivated_test</v>
       </c>
       <c r="C327" t="str">
-        <v>Package Number</v>
+        <v>Not Activated (Test Period)</v>
       </c>
       <c r="D327" t="str">
-        <v>套餐编号</v>
+        <v>未激活(测试期)</v>
       </c>
     </row>
     <row r="328">
@@ -4985,13 +4985,13 @@
         <v>simMag</v>
       </c>
       <c r="B328" t="str">
-        <v>expDate</v>
+        <v>activated_test</v>
       </c>
       <c r="C328" t="str">
-        <v>Expiration Date</v>
+        <v>Activated (Test Period)</v>
       </c>
       <c r="D328" t="str">
-        <v>失效时间</v>
+        <v>已激活(测试期)</v>
       </c>
     </row>
     <row r="329">
@@ -4999,13 +4999,13 @@
         <v>simMag</v>
       </c>
       <c r="B329" t="str">
-        <v>statusCd</v>
+        <v>basicInfo</v>
       </c>
       <c r="C329" t="str">
-        <v>Status</v>
+        <v>Basic Information</v>
       </c>
       <c r="D329" t="str">
-        <v>状态</v>
+        <v>基本信息</v>
       </c>
     </row>
     <row r="330">
@@ -5013,13 +5013,13 @@
         <v>simMag</v>
       </c>
       <c r="B330" t="str">
-        <v>statusCdGood</v>
+        <v>offerInfo</v>
       </c>
       <c r="C330" t="str">
-        <v>Valid</v>
+        <v>Package Information</v>
       </c>
       <c r="D330" t="str">
-        <v>有效</v>
+        <v>套餐信息</v>
       </c>
     </row>
     <row r="331">
@@ -5027,18 +5027,578 @@
         <v>simMag</v>
       </c>
       <c r="B331" t="str">
+        <v>basicInfoTitle</v>
+      </c>
+      <c r="C331" t="str">
+        <v>Functional Products</v>
+      </c>
+      <c r="D331" t="str">
+        <v>功能产品</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B332" t="str">
+        <v>openDate</v>
+      </c>
+      <c r="C332" t="str">
+        <v>Card Opening Date</v>
+      </c>
+      <c r="D332" t="str">
+        <v>开卡时间</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B333" t="str">
+        <v>prodName</v>
+      </c>
+      <c r="C333" t="str">
+        <v>Product Name</v>
+      </c>
+      <c r="D333" t="str">
+        <v>产品名称</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B334" t="str">
+        <v>prodNbr</v>
+      </c>
+      <c r="C334" t="str">
+        <v>Product Code</v>
+      </c>
+      <c r="D334" t="str">
+        <v>产品编码</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B335" t="str">
+        <v>effDate</v>
+      </c>
+      <c r="C335" t="str">
+        <v>Effective Date</v>
+      </c>
+      <c r="D335" t="str">
+        <v>生效时间</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B336" t="str">
+        <v>packageInfoTitle</v>
+      </c>
+      <c r="C336" t="str">
+        <v>Main Package Information</v>
+      </c>
+      <c r="D336" t="str">
+        <v>主套餐信息</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B337" t="str">
+        <v>totalUsage</v>
+      </c>
+      <c r="C337" t="str">
+        <v>Total Usage (MB)</v>
+      </c>
+      <c r="D337" t="str">
+        <v>总使用量(MB)</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B338" t="str">
+        <v>mainOfferUsage</v>
+      </c>
+      <c r="C338" t="str">
+        <v>Main Package Usage</v>
+      </c>
+      <c r="D338" t="str">
+        <v>主套餐使用量</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B339" t="str">
+        <v>selectOfferUsage</v>
+      </c>
+      <c r="C339" t="str">
+        <v>Optional Package Usage</v>
+      </c>
+      <c r="D339" t="str">
+        <v>可选包使用量</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B340" t="str">
+        <v>selectOffer</v>
+      </c>
+      <c r="C340" t="str">
+        <v>Optional Packages</v>
+      </c>
+      <c r="D340" t="str">
+        <v>可选包</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B341" t="str">
+        <v>selectOfferName</v>
+      </c>
+      <c r="C341" t="str">
+        <v>Optional Package Name</v>
+      </c>
+      <c r="D341" t="str">
+        <v>可选包名称</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B342" t="str">
+        <v>offerName</v>
+      </c>
+      <c r="C342" t="str">
+        <v>Package Name</v>
+      </c>
+      <c r="D342" t="str">
+        <v>套餐名称</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B343" t="str">
+        <v>offerNbr</v>
+      </c>
+      <c r="C343" t="str">
+        <v>Package Number</v>
+      </c>
+      <c r="D343" t="str">
+        <v>套餐编号</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B344" t="str">
+        <v>expDate</v>
+      </c>
+      <c r="C344" t="str">
+        <v>Expiration Date</v>
+      </c>
+      <c r="D344" t="str">
+        <v>失效时间</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B345" t="str">
+        <v>statusCd</v>
+      </c>
+      <c r="C345" t="str">
+        <v>Status</v>
+      </c>
+      <c r="D345" t="str">
+        <v>状态</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B346" t="str">
+        <v>statusCdGood</v>
+      </c>
+      <c r="C346" t="str">
+        <v>Valid</v>
+      </c>
+      <c r="D346" t="str">
+        <v>有效</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B347" t="str">
         <v>statusCdBad</v>
       </c>
-      <c r="C331" t="str">
+      <c r="C347" t="str">
         <v>Invalid</v>
       </c>
-      <c r="D331" t="str">
+      <c r="D347" t="str">
         <v>无效</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B348" t="str">
+        <v>groupId</v>
+      </c>
+      <c r="C348" t="str">
+        <v>Group ID</v>
+      </c>
+      <c r="D348" t="str">
+        <v>群号</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B349" t="str">
+        <v>useCustName</v>
+      </c>
+      <c r="C349" t="str">
+        <v>Customer Name</v>
+      </c>
+      <c r="D349" t="str">
+        <v>客户名称</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B350" t="str">
+        <v>memberMag</v>
+      </c>
+      <c r="C350" t="str">
+        <v>Member Management</v>
+      </c>
+      <c r="D350" t="str">
+        <v>成员管理</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B351" t="str">
+        <v>billCycle</v>
+      </c>
+      <c r="C351" t="str">
+        <v>Billing Cycle</v>
+      </c>
+      <c r="D351" t="str">
+        <v>账期</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B352" t="str">
+        <v>usageAvaMonth</v>
+      </c>
+      <c r="C352" t="str">
+        <v>Monthly Available Pool Usage (MB)</v>
+      </c>
+      <c r="D352" t="str">
+        <v>量池当月可用量（MB)</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B353" t="str">
+        <v>usageUsedMonth</v>
+      </c>
+      <c r="C353" t="str">
+        <v>Monthly Used Pool Usage (MB)</v>
+      </c>
+      <c r="D353" t="str">
+        <v>量池当月已用量（MB)</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B354" t="str">
+        <v>usageRemainMonth</v>
+      </c>
+      <c r="C354" t="str">
+        <v>Monthly Remaining Pool Usage (MB)</v>
+      </c>
+      <c r="D354" t="str">
+        <v>量池当月剩余用量（MB)</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B355" t="str">
+        <v>effDate</v>
+      </c>
+      <c r="C355" t="str">
+        <v>Effective Date</v>
+      </c>
+      <c r="D355" t="str">
+        <v>生效时间</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B356" t="str">
+        <v>expDate</v>
+      </c>
+      <c r="C356" t="str">
+        <v>Expiration Date</v>
+      </c>
+      <c r="D356" t="str">
+        <v>失效时间</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B357" t="str">
+        <v>memberNumber</v>
+      </c>
+      <c r="C357" t="str">
+        <v>Member Number</v>
+      </c>
+      <c r="D357" t="str">
+        <v>成员号码</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B358" t="str">
+        <v>statusCdName</v>
+      </c>
+      <c r="C358" t="str">
+        <v>SIM Card Status</v>
+      </c>
+      <c r="D358" t="str">
+        <v>SIM卡状态</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B359" t="str">
+        <v>usageRemain</v>
+      </c>
+      <c r="C359" t="str">
+        <v>Remaining Usage (MB)</v>
+      </c>
+      <c r="D359" t="str">
+        <v>已使用量（MB）</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B360" t="str">
+        <v>enterGroupDate</v>
+      </c>
+      <c r="C360" t="str">
+        <v>Join Group Date</v>
+      </c>
+      <c r="D360" t="str">
+        <v>入群时间</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B361" t="str">
+        <v>usageQuery</v>
+      </c>
+      <c r="C361" t="str">
+        <v>Usage Inquiry</v>
+      </c>
+      <c r="D361" t="str">
+        <v>用量查询</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B362" t="str">
+        <v>poolSize</v>
+      </c>
+      <c r="C362" t="str">
+        <v>Pool Size (MB)</v>
+      </c>
+      <c r="D362" t="str">
+        <v>池容量（MB)</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B363" t="str">
+        <v>avaMonth</v>
+      </c>
+      <c r="C363" t="str">
+        <v>Monthly Used (MB)</v>
+      </c>
+      <c r="D363" t="str">
+        <v>当月已用量（MB)</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B364" t="str">
+        <v>remainMonth</v>
+      </c>
+      <c r="C364" t="str">
+        <v>Monthly Remaining (MB)</v>
+      </c>
+      <c r="D364" t="str">
+        <v>当月剩余量（MB)</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B365" t="str">
+        <v>accessNum</v>
+      </c>
+      <c r="C365" t="str">
+        <v>Access Number</v>
+      </c>
+      <c r="D365" t="str">
+        <v>接入号码</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B366" t="str">
+        <v>memberSize</v>
+      </c>
+      <c r="C366" t="str">
+        <v>Member Allocation Quota (MB)</v>
+      </c>
+      <c r="D366" t="str">
+        <v>成员分配额度（MB)</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B367" t="str">
+        <v>usedSize</v>
+      </c>
+      <c r="C367" t="str">
+        <v>Used Quota</v>
+      </c>
+      <c r="D367" t="str">
+        <v>已使用额度</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B368" t="str">
+        <v>rpNum</v>
+      </c>
+      <c r="C368" t="str">
+        <v>Representative Number</v>
+      </c>
+      <c r="D368" t="str">
+        <v>代表号码</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B369" t="str">
+        <v>package</v>
+      </c>
+      <c r="C369" t="str">
+        <v>Package</v>
+      </c>
+      <c r="D369" t="str">
+        <v>套餐</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B370" t="str">
+        <v>product</v>
+      </c>
+      <c r="C370" t="str">
+        <v>Product</v>
+      </c>
+      <c r="D370" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B371" t="str">
+        <v>prodDes</v>
+      </c>
+      <c r="C371" t="str">
+        <v>Product Description</v>
+      </c>
+      <c r="D371" t="str">
+        <v>产品描述</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D331"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D371"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/json_to_excel/i18n_from_json.xlsx
+++ b/json_to_excel/i18n_from_json.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D371"/>
+  <dimension ref="A1:D398"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -480,7 +480,7 @@
         <v>createTime</v>
       </c>
       <c r="C6" t="str">
-        <v>Create Time</v>
+        <v>Creation Time</v>
       </c>
       <c r="D6" t="str">
         <v>创建时间</v>
@@ -1320,7 +1320,7 @@
         <v>please</v>
       </c>
       <c r="C66" t="str">
-        <v>Please</v>
+        <v xml:space="preserve">Please </v>
       </c>
       <c r="D66" t="str">
         <v>请</v>
@@ -1485,13 +1485,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B78" t="str">
-        <v>uploadTipSimMag</v>
+        <v>uploadTip5</v>
       </c>
       <c r="C78" t="str">
-        <v>4. The maximum number of numbers is {maxNum}, which must include the international area code;</v>
+        <v>5. The batch operation requires some time, you can view the information by refreshing the device list later；</v>
       </c>
       <c r="D78" t="str">
-        <v>4、号码最多{maxNum}个，需包含国际区号；</v>
+        <v>5、批量操作需要一定时间，稍后可通过刷新设备列表查看信息；</v>
       </c>
     </row>
     <row r="79">
@@ -1499,13 +1499,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B79" t="str">
-        <v>subtmitSuccess</v>
+        <v>uploadTipSimMag</v>
       </c>
       <c r="C79" t="str">
-        <v>Upload successful</v>
+        <v>4. The maximum number of numbers is {maxNum}, which must include the international area code;</v>
       </c>
       <c r="D79" t="str">
-        <v>上传成功</v>
+        <v>4、号码最多{maxNum}个，需包含国际区号；</v>
       </c>
     </row>
     <row r="80">
@@ -1513,13 +1513,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B80" t="str">
-        <v>subtmitFail</v>
+        <v>subtmitSuccess</v>
       </c>
       <c r="C80" t="str">
-        <v>Upload failed</v>
+        <v>Upload successful</v>
       </c>
       <c r="D80" t="str">
-        <v>上传失败</v>
+        <v>上传成功</v>
       </c>
     </row>
     <row r="81">
@@ -1527,13 +1527,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B81" t="str">
-        <v>task</v>
+        <v>subtmitFail</v>
       </c>
       <c r="C81" t="str">
-        <v>The file download task has been created, please go to the download task page</v>
+        <v>Upload failed</v>
       </c>
       <c r="D81" t="str">
-        <v>文件下载任务已生成，请到下载任务页面</v>
+        <v>上传失败</v>
       </c>
     </row>
     <row r="82">
@@ -1541,13 +1541,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B82" t="str">
-        <v>process</v>
+        <v>task</v>
       </c>
       <c r="C82" t="str">
-        <v>to check the task progress</v>
+        <v>The file download task has been created, please go to the download task page</v>
       </c>
       <c r="D82" t="str">
-        <v>查看任务进度</v>
+        <v>文件下载任务已生成，请到下载任务页面</v>
       </c>
     </row>
     <row r="83">
@@ -1555,13 +1555,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B83" t="str">
-        <v>know</v>
+        <v>process</v>
       </c>
       <c r="C83" t="str">
-        <v>Understood</v>
+        <v>to check the task progress</v>
       </c>
       <c r="D83" t="str">
-        <v>知道了</v>
+        <v>查看任务进度</v>
       </c>
     </row>
     <row r="84">
@@ -1569,13 +1569,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B84" t="str">
-        <v>systemError</v>
+        <v>know</v>
       </c>
       <c r="C84" t="str">
-        <v>System exception</v>
+        <v>Understood</v>
       </c>
       <c r="D84" t="str">
-        <v>系统异常</v>
+        <v>知道了</v>
       </c>
     </row>
     <row r="85">
@@ -1583,13 +1583,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B85" t="str">
-        <v>fileSize</v>
+        <v>systemError</v>
       </c>
       <c r="C85" t="str">
-        <v>The uploaded file cannot exceed</v>
+        <v>System exception</v>
       </c>
       <c r="D85" t="str">
-        <v>上传文件不能超过</v>
+        <v>系统异常</v>
       </c>
     </row>
     <row r="86">
@@ -1597,13 +1597,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B86" t="str">
-        <v>fileType</v>
+        <v>fileSize</v>
       </c>
       <c r="C86" t="str">
-        <v>Incorrect file type, please confirm</v>
+        <v>The uploaded file cannot exceed</v>
       </c>
       <c r="D86" t="str">
-        <v>文件类型错误，请确认</v>
+        <v>上传文件不能超过</v>
       </c>
     </row>
     <row r="87">
@@ -1611,13 +1611,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B87" t="str">
-        <v>actionSuccess</v>
+        <v>fileType</v>
       </c>
       <c r="C87" t="str">
-        <v>Operation Successful</v>
+        <v>Incorrect file type, please confirm</v>
       </c>
       <c r="D87" t="str">
-        <v>操作成功</v>
+        <v>文件类型错误，请确认</v>
       </c>
     </row>
     <row r="88">
@@ -1625,27 +1625,27 @@
         <v>batchUpload</v>
       </c>
       <c r="B88" t="str">
-        <v>exportFail</v>
+        <v>actionSuccess</v>
       </c>
       <c r="C88" t="str">
-        <v>Export Failed</v>
+        <v>Operation Successful</v>
       </c>
       <c r="D88" t="str">
-        <v>导出失败</v>
+        <v>操作成功</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>common</v>
+        <v>batchUpload</v>
       </c>
       <c r="B89" t="str">
-        <v>action</v>
+        <v>exportFail</v>
       </c>
       <c r="C89" t="str">
-        <v>Action</v>
+        <v>Export Failed</v>
       </c>
       <c r="D89" t="str">
-        <v>操作</v>
+        <v>导出失败</v>
       </c>
     </row>
     <row r="90">
@@ -1653,13 +1653,13 @@
         <v>common</v>
       </c>
       <c r="B90" t="str">
-        <v>download</v>
+        <v>action</v>
       </c>
       <c r="C90" t="str">
-        <v>Download</v>
+        <v>Action</v>
       </c>
       <c r="D90" t="str">
-        <v>下载</v>
+        <v>操作</v>
       </c>
     </row>
     <row r="91">
@@ -1667,13 +1667,13 @@
         <v>common</v>
       </c>
       <c r="B91" t="str">
-        <v>edit</v>
+        <v>download</v>
       </c>
       <c r="C91" t="str">
-        <v>Edit</v>
+        <v>Download</v>
       </c>
       <c r="D91" t="str">
-        <v>编辑</v>
+        <v>下载</v>
       </c>
     </row>
     <row r="92">
@@ -1681,13 +1681,13 @@
         <v>common</v>
       </c>
       <c r="B92" t="str">
-        <v>delete</v>
+        <v>edit</v>
       </c>
       <c r="C92" t="str">
-        <v>Delete</v>
+        <v>Edit</v>
       </c>
       <c r="D92" t="str">
-        <v>删除</v>
+        <v>编辑</v>
       </c>
     </row>
     <row r="93">
@@ -1695,13 +1695,13 @@
         <v>common</v>
       </c>
       <c r="B93" t="str">
-        <v>query</v>
+        <v>delete</v>
       </c>
       <c r="C93" t="str">
-        <v>Query</v>
+        <v>Delete</v>
       </c>
       <c r="D93" t="str">
-        <v>查询</v>
+        <v>删除</v>
       </c>
     </row>
     <row r="94">
@@ -1709,13 +1709,13 @@
         <v>common</v>
       </c>
       <c r="B94" t="str">
-        <v>reset</v>
+        <v>query</v>
       </c>
       <c r="C94" t="str">
-        <v>Reset</v>
+        <v>Query</v>
       </c>
       <c r="D94" t="str">
-        <v>重置</v>
+        <v>查询</v>
       </c>
     </row>
     <row r="95">
@@ -1723,13 +1723,13 @@
         <v>common</v>
       </c>
       <c r="B95" t="str">
-        <v>status</v>
+        <v>reset</v>
       </c>
       <c r="C95" t="str">
-        <v>Status</v>
+        <v>Reset</v>
       </c>
       <c r="D95" t="str">
-        <v>状态</v>
+        <v>重置</v>
       </c>
     </row>
     <row r="96">
@@ -1737,13 +1737,13 @@
         <v>common</v>
       </c>
       <c r="B96" t="str">
-        <v>remark</v>
+        <v>status</v>
       </c>
       <c r="C96" t="str">
-        <v>Remark</v>
+        <v>Status</v>
       </c>
       <c r="D96" t="str">
-        <v>备注</v>
+        <v>状态</v>
       </c>
     </row>
     <row r="97">
@@ -1751,13 +1751,13 @@
         <v>common</v>
       </c>
       <c r="B97" t="str">
-        <v>downloadMag</v>
+        <v>remark</v>
       </c>
       <c r="C97" t="str">
-        <v>Download</v>
+        <v>Remark</v>
       </c>
       <c r="D97" t="str">
-        <v>下载管理</v>
+        <v>备注</v>
       </c>
     </row>
     <row r="98">
@@ -1765,13 +1765,13 @@
         <v>common</v>
       </c>
       <c r="B98" t="str">
-        <v>basicInfo</v>
+        <v>downloadMag</v>
       </c>
       <c r="C98" t="str">
-        <v>Account</v>
+        <v>Download</v>
       </c>
       <c r="D98" t="str">
-        <v>基本信息</v>
+        <v>下载管理</v>
       </c>
     </row>
     <row r="99">
@@ -1779,13 +1779,13 @@
         <v>common</v>
       </c>
       <c r="B99" t="str">
-        <v>logout</v>
+        <v>basicInfo</v>
       </c>
       <c r="C99" t="str">
-        <v>Logout</v>
+        <v>Account Info</v>
       </c>
       <c r="D99" t="str">
-        <v>退出登录</v>
+        <v>基本信息</v>
       </c>
     </row>
     <row r="100">
@@ -1793,13 +1793,13 @@
         <v>common</v>
       </c>
       <c r="B100" t="str">
-        <v>batchQuery</v>
+        <v>logout</v>
       </c>
       <c r="C100" t="str">
-        <v>Batch Query</v>
+        <v>Logout</v>
       </c>
       <c r="D100" t="str">
-        <v>批量查询</v>
+        <v>退出登录</v>
       </c>
     </row>
     <row r="101">
@@ -1807,13 +1807,13 @@
         <v>common</v>
       </c>
       <c r="B101" t="str">
-        <v>batchImport</v>
+        <v>batchQuery</v>
       </c>
       <c r="C101" t="str">
-        <v>Batch Import</v>
+        <v>Batch Query</v>
       </c>
       <c r="D101" t="str">
-        <v>批量导入</v>
+        <v>批量查询</v>
       </c>
     </row>
     <row r="102">
@@ -1821,13 +1821,13 @@
         <v>common</v>
       </c>
       <c r="B102" t="str">
-        <v>batchDelete</v>
+        <v>batchImport</v>
       </c>
       <c r="C102" t="str">
-        <v>Batch Delete</v>
+        <v>Batch Import</v>
       </c>
       <c r="D102" t="str">
-        <v>批量删除</v>
+        <v>批量导入</v>
       </c>
     </row>
     <row r="103">
@@ -1835,13 +1835,13 @@
         <v>common</v>
       </c>
       <c r="B103" t="str">
-        <v>export</v>
+        <v>batchDelete</v>
       </c>
       <c r="C103" t="str">
-        <v>Export</v>
+        <v>Batch Delete</v>
       </c>
       <c r="D103" t="str">
-        <v>导出</v>
+        <v>批量删除</v>
       </c>
     </row>
     <row r="104">
@@ -1849,13 +1849,13 @@
         <v>common</v>
       </c>
       <c r="B104" t="str">
-        <v>beginTime</v>
+        <v>export</v>
       </c>
       <c r="C104" t="str">
-        <v>Begin</v>
+        <v>Export</v>
       </c>
       <c r="D104" t="str">
-        <v>开始时间</v>
+        <v>导出</v>
       </c>
     </row>
     <row r="105">
@@ -1863,13 +1863,13 @@
         <v>common</v>
       </c>
       <c r="B105" t="str">
-        <v>endTime</v>
+        <v>beginTime</v>
       </c>
       <c r="C105" t="str">
-        <v>End</v>
+        <v>Begin</v>
       </c>
       <c r="D105" t="str">
-        <v>结束时间</v>
+        <v>开始时间</v>
       </c>
     </row>
     <row r="106">
@@ -1877,13 +1877,13 @@
         <v>common</v>
       </c>
       <c r="B106" t="str">
-        <v>showMoreBtn</v>
+        <v>endTime</v>
       </c>
       <c r="C106" t="str">
-        <v>More</v>
+        <v>End</v>
       </c>
       <c r="D106" t="str">
-        <v>高级搜索</v>
+        <v>结束时间</v>
       </c>
     </row>
     <row r="107">
@@ -1891,13 +1891,13 @@
         <v>common</v>
       </c>
       <c r="B107" t="str">
-        <v>ok</v>
+        <v>showMoreBtn</v>
       </c>
       <c r="C107" t="str">
-        <v>Ok</v>
+        <v>More</v>
       </c>
       <c r="D107" t="str">
-        <v>确 定</v>
+        <v>高级搜索</v>
       </c>
     </row>
     <row r="108">
@@ -1905,13 +1905,13 @@
         <v>common</v>
       </c>
       <c r="B108" t="str">
-        <v>cancel</v>
+        <v>ok</v>
       </c>
       <c r="C108" t="str">
-        <v>Cancel</v>
+        <v>Ok</v>
       </c>
       <c r="D108" t="str">
-        <v>取 消</v>
+        <v>确 定</v>
       </c>
     </row>
     <row r="109">
@@ -1919,13 +1919,13 @@
         <v>common</v>
       </c>
       <c r="B109" t="str">
-        <v>deleteSuccess</v>
+        <v>cancel</v>
       </c>
       <c r="C109" t="str">
-        <v>Deleted successfully!</v>
+        <v>Cancel</v>
       </c>
       <c r="D109" t="str">
-        <v>删除成功！</v>
+        <v>取 消</v>
       </c>
     </row>
     <row r="110">
@@ -1933,13 +1933,13 @@
         <v>common</v>
       </c>
       <c r="B110" t="str">
-        <v>yes</v>
+        <v>deleteSuccess</v>
       </c>
       <c r="C110" t="str">
-        <v>YES</v>
+        <v>Deleted successfully!</v>
       </c>
       <c r="D110" t="str">
-        <v>是</v>
+        <v>删除成功！</v>
       </c>
     </row>
     <row r="111">
@@ -1947,13 +1947,13 @@
         <v>common</v>
       </c>
       <c r="B111" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="C111" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="D111" t="str">
-        <v>否</v>
+        <v>是</v>
       </c>
     </row>
     <row r="112">
@@ -1961,27 +1961,27 @@
         <v>common</v>
       </c>
       <c r="B112" t="str">
-        <v>save</v>
+        <v>no</v>
       </c>
       <c r="C112" t="str">
-        <v>Save</v>
+        <v>NO</v>
       </c>
       <c r="D112" t="str">
-        <v>保 存</v>
+        <v>否</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>dataUsage</v>
+        <v>common</v>
       </c>
       <c r="B113" t="str">
-        <v>offerUsage</v>
+        <v>save</v>
       </c>
       <c r="C113" t="str">
-        <v>Package Usage</v>
+        <v>Save</v>
       </c>
       <c r="D113" t="str">
-        <v>套餐使用量</v>
+        <v>保 存</v>
       </c>
     </row>
     <row r="114">
@@ -1989,13 +1989,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B114" t="str">
-        <v>custUsage</v>
+        <v>offerUsage</v>
       </c>
       <c r="C114" t="str">
-        <v>Total Customer Usage</v>
+        <v>Package Usage</v>
       </c>
       <c r="D114" t="str">
-        <v>用户总使用量</v>
+        <v>套餐使用量</v>
       </c>
     </row>
     <row r="115">
@@ -2003,13 +2003,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B115" t="str">
-        <v>billCycle</v>
+        <v>custUsage</v>
       </c>
       <c r="C115" t="str">
-        <v>Payment Period</v>
+        <v>Total Customer Usage</v>
       </c>
       <c r="D115" t="str">
-        <v>账期</v>
+        <v>用户总使用量</v>
       </c>
     </row>
     <row r="116">
@@ -2017,13 +2017,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B116" t="str">
-        <v>usageType</v>
+        <v>billCycle</v>
       </c>
       <c r="C116" t="str">
-        <v>Usage Category</v>
+        <v>Payment Period</v>
       </c>
       <c r="D116" t="str">
-        <v>用量分类</v>
+        <v>账期</v>
       </c>
     </row>
     <row r="117">
@@ -2031,13 +2031,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B117" t="str">
-        <v>offerName</v>
+        <v>usageType</v>
       </c>
       <c r="C117" t="str">
-        <v>Offer Name</v>
+        <v>Usage Category</v>
       </c>
       <c r="D117" t="str">
-        <v>套餐名称</v>
+        <v>用量分类</v>
       </c>
     </row>
     <row r="118">
@@ -2045,13 +2045,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B118" t="str">
-        <v>totalUsage</v>
+        <v>offerName</v>
       </c>
       <c r="C118" t="str">
-        <v>Total Offer Usage</v>
+        <v>Offer Name</v>
       </c>
       <c r="D118" t="str">
-        <v>套餐总使用量</v>
+        <v>套餐名称</v>
       </c>
     </row>
     <row r="119">
@@ -2059,13 +2059,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B119" t="str">
-        <v>usage</v>
+        <v>totalUsage</v>
       </c>
       <c r="C119" t="str">
-        <v>Used Amount</v>
+        <v>Total Offer Usage</v>
       </c>
       <c r="D119" t="str">
-        <v>已使用量</v>
+        <v>套餐总使用量</v>
       </c>
     </row>
     <row r="120">
@@ -2073,13 +2073,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B120" t="str">
-        <v>remain</v>
+        <v>usage</v>
       </c>
       <c r="C120" t="str">
-        <v>Remaining Amount</v>
+        <v>Used Amount</v>
       </c>
       <c r="D120" t="str">
-        <v>剩余量</v>
+        <v>已使用量</v>
       </c>
     </row>
     <row r="121">
@@ -2087,13 +2087,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B121" t="str">
-        <v>data</v>
+        <v>remain</v>
       </c>
       <c r="C121" t="str">
-        <v>Data Usage</v>
+        <v>Remaining Amount</v>
       </c>
       <c r="D121" t="str">
-        <v>数据</v>
+        <v>剩余量</v>
       </c>
     </row>
     <row r="122">
@@ -2101,13 +2101,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B122" t="str">
-        <v>voice</v>
+        <v>data</v>
       </c>
       <c r="C122" t="str">
-        <v>Voice Usage</v>
+        <v>Data Usage</v>
       </c>
       <c r="D122" t="str">
-        <v>语音</v>
+        <v>数据</v>
       </c>
     </row>
     <row r="123">
@@ -2115,13 +2115,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B123" t="str">
-        <v>sms</v>
+        <v>voice</v>
       </c>
       <c r="C123" t="str">
-        <v>SMS Usage</v>
+        <v>Voice Usage</v>
       </c>
       <c r="D123" t="str">
-        <v>短信</v>
+        <v>语音</v>
       </c>
     </row>
     <row r="124">
@@ -2129,13 +2129,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B124" t="str">
-        <v>all</v>
+        <v>sms</v>
       </c>
       <c r="C124" t="str">
-        <v>All</v>
+        <v>SMS Usage</v>
       </c>
       <c r="D124" t="str">
-        <v>全部</v>
+        <v>短信</v>
       </c>
     </row>
     <row r="125">
@@ -2143,13 +2143,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B125" t="str">
-        <v>flowMbDesc</v>
+        <v>all</v>
       </c>
       <c r="C125" t="str">
-        <v>Total Data (MB)</v>
+        <v>All</v>
       </c>
       <c r="D125" t="str">
-        <v>总流量（MB)</v>
+        <v>全部</v>
       </c>
     </row>
     <row r="126">
@@ -2157,13 +2157,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B126" t="str">
-        <v>voiceMinsDesc</v>
+        <v>flowMbDesc</v>
       </c>
       <c r="C126" t="str">
-        <v>Voice Duration (Minutes)</v>
+        <v>Total Data (MB)</v>
       </c>
       <c r="D126" t="str">
-        <v>语音时长（分钟）</v>
+        <v>总流量（MB)</v>
       </c>
     </row>
     <row r="127">
@@ -2171,13 +2171,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B127" t="str">
-        <v>smsDesc</v>
+        <v>voiceMinsDesc</v>
       </c>
       <c r="C127" t="str">
-        <v>SMS (Messages)</v>
+        <v>Voice Duration (Minutes)</v>
       </c>
       <c r="D127" t="str">
-        <v>短信（条）</v>
+        <v>语音时长（分钟）</v>
       </c>
     </row>
     <row r="128">
@@ -2185,13 +2185,13 @@
         <v>dataUsage</v>
       </c>
       <c r="B128" t="str">
-        <v>batchTitle1</v>
+        <v>smsDesc</v>
       </c>
       <c r="C128" t="str">
-        <v>Batch Package Usage Inquiry</v>
+        <v>SMS (Messages)</v>
       </c>
       <c r="D128" t="str">
-        <v>批量套餐使用量查询</v>
+        <v>短信（条）</v>
       </c>
     </row>
     <row r="129">
@@ -2199,685 +2199,685 @@
         <v>dataUsage</v>
       </c>
       <c r="B129" t="str">
-        <v>batchTitle2</v>
+        <v>batchTitle1</v>
       </c>
       <c r="C129" t="str">
-        <v>Total Customer Usage Inquiry</v>
+        <v>Batch Package Usage Inquiry</v>
       </c>
       <c r="D129" t="str">
-        <v>用户总使用使用量查询</v>
+        <v>批量套餐使用量查询</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>forgetPassword</v>
+        <v>dataUsage</v>
       </c>
       <c r="B130" t="str">
-        <v>validProfile</v>
+        <v>batchTitle2</v>
       </c>
       <c r="C130" t="str">
-        <v>Validate Profile</v>
+        <v>Total Customer Usage Inquiry</v>
       </c>
       <c r="D130" t="str">
-        <v>验证身份</v>
+        <v>用户总使用使用量查询</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>forgetPassword</v>
+        <v>download</v>
       </c>
       <c r="B131" t="str">
-        <v>resetPassword</v>
+        <v>createTime</v>
       </c>
       <c r="C131" t="str">
-        <v>Reset Password</v>
+        <v>Creation Time</v>
       </c>
       <c r="D131" t="str">
-        <v>重置密码</v>
+        <v>创建时间</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>forgetPassword</v>
+        <v>download</v>
       </c>
       <c r="B132" t="str">
-        <v>finished</v>
+        <v>statusCd</v>
       </c>
       <c r="C132" t="str">
-        <v>Finished</v>
+        <v>Status Code</v>
       </c>
       <c r="D132" t="str">
-        <v>完成</v>
+        <v>处理状态</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>forgetPassword</v>
+        <v>download</v>
       </c>
       <c r="B133" t="str">
-        <v>hasAccount</v>
+        <v>busiType</v>
       </c>
       <c r="C133" t="str">
-        <v>already have account,</v>
+        <v>Business Type</v>
       </c>
       <c r="D133" t="str">
-        <v>已有账号，</v>
+        <v>业务类型</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>forgetPassword</v>
+        <v>download</v>
       </c>
       <c r="B134" t="str">
-        <v>imediateLogin</v>
+        <v>fileName</v>
       </c>
       <c r="C134" t="str">
-        <v>login immediately</v>
+        <v>File Name</v>
       </c>
       <c r="D134" t="str">
-        <v>立即登录</v>
+        <v>文件名称</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>forgetPassword</v>
+        <v>download</v>
       </c>
       <c r="B135" t="str">
-        <v>next</v>
+        <v>taskProgress</v>
       </c>
       <c r="C135" t="str">
-        <v>next</v>
+        <v>Task Progress</v>
       </c>
       <c r="D135" t="str">
-        <v>下一步</v>
+        <v>任务进度</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>forgetPassword</v>
+        <v>download</v>
       </c>
       <c r="B136" t="str">
-        <v>passwordPh</v>
+        <v>userCode</v>
       </c>
       <c r="C136" t="str">
-        <v>Please input password</v>
+        <v>Platform Account</v>
       </c>
       <c r="D136" t="str">
-        <v>请输入新密码</v>
+        <v>平台账号</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>forgetPassword</v>
+        <v>download</v>
       </c>
       <c r="B137" t="str">
-        <v>password2Ph</v>
+        <v>startDate</v>
       </c>
       <c r="C137" t="str">
-        <v>Please confirm password</v>
+        <v>Task Start Date</v>
       </c>
       <c r="D137" t="str">
-        <v>请输入确认新密码</v>
+        <v>任务开始时间</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>forgetPassword</v>
+        <v>download</v>
       </c>
       <c r="B138" t="str">
-        <v>successTitle</v>
+        <v>endDate</v>
       </c>
       <c r="C138" t="str">
-        <v>Modify Successfully, Please Save Carefully</v>
+        <v>Task End Date</v>
       </c>
       <c r="D138" t="str">
-        <v>修改成功，请妥善保存</v>
+        <v>任务结束时间</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>forgetPassword</v>
+        <v>download</v>
       </c>
       <c r="B139" t="str">
-        <v>passwordError1</v>
+        <v>remark</v>
       </c>
       <c r="C139" t="str">
-        <v>Password length must be between 8 and 16 characters</v>
+        <v>Remark</v>
       </c>
       <c r="D139" t="str">
-        <v>密码长度 8-16位</v>
+        <v>备注</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>forgetPassword</v>
+        <v>download</v>
       </c>
       <c r="B140" t="str">
-        <v>passwordError2</v>
+        <v>unfinishedTip</v>
       </c>
       <c r="C140" t="str">
-        <v>The password must include at least three types of the following: uppercase letters, lowercase letters, numbers, and special characters</v>
+        <v>This task is not fully processed and cannot be downloaded!</v>
       </c>
       <c r="D140" t="str">
-        <v>密码至少要包括大写字母、小写字母、数字、特殊字符中的三种</v>
+        <v>此任务未处理完成，无法下载！</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>forgetPassword</v>
+        <v>download</v>
       </c>
       <c r="B141" t="str">
-        <v>passwordError3</v>
+        <v>selectOne</v>
       </c>
       <c r="C141" t="str">
-        <v>The password cannot contain three or more consecutive digits or letters on the keyboard</v>
+        <v>Please select one data item!</v>
       </c>
       <c r="D141" t="str">
-        <v>密码不能出现键盘上三位及以上连续数字、字母</v>
+        <v>请选择一列数据！</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>forgetPassword</v>
+        <v>download</v>
       </c>
       <c r="B142" t="str">
-        <v>passwordError4</v>
+        <v>deleteOneAsk</v>
       </c>
       <c r="C142" t="str">
-        <v>The password must not include the full username string, variations in case, or similar transformations</v>
+        <v>Are you sure you want to delete the selected task?</v>
       </c>
       <c r="D142" t="str">
-        <v>密码中不得包含用户名的完整字符串、大小写变位或形似变换的字符串</v>
+        <v>确定要删除择的任务吗？</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>forgetPassword</v>
+        <v>download</v>
       </c>
       <c r="B143" t="str">
-        <v>notSame</v>
+        <v>batchDeleteAsk</v>
       </c>
       <c r="C143" t="str">
-        <v>The two entered passwords do not match</v>
+        <v>Are you sure you want to delete the selected tasks?</v>
       </c>
       <c r="D143" t="str">
-        <v>两次输入的密码不一致</v>
+        <v>确定要删除已选中任务吗？</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>forgetPassword</v>
+        <v>download</v>
       </c>
       <c r="B144" t="str">
-        <v>sendSuccess</v>
+        <v>statusCdAll</v>
       </c>
       <c r="C144" t="str">
-        <v>Sent successfully!</v>
+        <v>All</v>
       </c>
       <c r="D144" t="str">
-        <v>发送成功！</v>
+        <v>全部</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>know</v>
+        <v>download</v>
       </c>
       <c r="B145" t="str">
-        <v>docName</v>
+        <v>statusCd1000</v>
       </c>
       <c r="C145" t="str">
-        <v>Document Name</v>
+        <v>Preparing</v>
       </c>
       <c r="D145" t="str">
-        <v>文档名称</v>
+        <v>准备中</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>know</v>
+        <v>download</v>
       </c>
       <c r="B146" t="str">
-        <v>docDesc</v>
+        <v>statusCd1001</v>
       </c>
       <c r="C146" t="str">
-        <v>Document Description</v>
+        <v>Completed</v>
       </c>
       <c r="D146" t="str">
-        <v>文档描述</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>know</v>
+        <v>download</v>
       </c>
       <c r="B147" t="str">
-        <v>docTypeName</v>
+        <v>statusCd1002</v>
       </c>
       <c r="C147" t="str">
-        <v>Document Type</v>
+        <v>Processing</v>
       </c>
       <c r="D147" t="str">
-        <v>文档类型</v>
+        <v>处理中</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>know</v>
+        <v>download</v>
       </c>
       <c r="B148" t="str">
-        <v>createStaffName</v>
+        <v>statusCd9999</v>
       </c>
       <c r="C148" t="str">
-        <v>Created By</v>
+        <v>Failed</v>
       </c>
       <c r="D148" t="str">
-        <v>创建人</v>
+        <v>失败</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>know</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B149" t="str">
-        <v>createTime</v>
+        <v>validProfile</v>
       </c>
       <c r="C149" t="str">
-        <v>Creation Time</v>
+        <v>Validate Profile</v>
       </c>
       <c r="D149" t="str">
-        <v>创建时间</v>
+        <v>验证身份</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>linkD</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B150" t="str">
-        <v>oneClick</v>
+        <v>resetPassword</v>
       </c>
       <c r="C150" t="str">
-        <v>One-click Diagnosis</v>
+        <v>Reset Password</v>
       </c>
       <c r="D150" t="str">
-        <v>一键诊断</v>
+        <v>重置密码</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>linkD</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B151" t="str">
-        <v>oneClickDes</v>
+        <v>finished</v>
       </c>
       <c r="C151" t="str">
-        <v>Query the status of a single card, the opening status of the card network, the binding situation of the machine and the card, the detailed data list, and the recent online and offline records of the card</v>
+        <v>Finished</v>
       </c>
       <c r="D151" t="str">
-        <v>查询单张卡状态、卡网络开通情况、机卡绑定情况、数据详单、卡近期上下线记录</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>linkD</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B152" t="str">
-        <v>resultTitle</v>
+        <v>hasAccount</v>
       </c>
       <c r="C152" t="str">
-        <v>Card diagnosis completed. The results are as follows:</v>
+        <v>already have account,</v>
       </c>
       <c r="D152" t="str">
-        <v>卡诊断完成，结果如下</v>
+        <v>已有账号，</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>linkD</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B153" t="str">
-        <v>basicInfo</v>
+        <v>imediateLogin</v>
       </c>
       <c r="C153" t="str">
-        <v>Basic Information</v>
+        <v>login immediately</v>
       </c>
       <c r="D153" t="str">
-        <v>基础信息</v>
+        <v>立即登录</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>linkD</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B154" t="str">
-        <v>resultDetailTitle</v>
+        <v>next</v>
       </c>
       <c r="C154" t="str">
-        <v>Diagnosis Result</v>
+        <v>next</v>
       </c>
       <c r="D154" t="str">
-        <v>诊断结果</v>
+        <v>下一步</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>linkD</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B155" t="str">
-        <v>resutlItemLabel1</v>
+        <v>passwordPh</v>
       </c>
       <c r="C155" t="str">
-        <v>SIM Card Status</v>
+        <v>Please input password</v>
       </c>
       <c r="D155" t="str">
-        <v>SIM卡状态</v>
+        <v>请输入新密码</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>linkD</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B156" t="str">
-        <v>resutlItemContent1</v>
+        <v>password2Ph</v>
       </c>
       <c r="C156" t="str">
-        <v>Displays the SIM card status</v>
+        <v>Please confirm password</v>
       </c>
       <c r="D156" t="str">
-        <v>展示 SIM 卡状态</v>
+        <v>请输入确认新密码</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>linkD</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B157" t="str">
-        <v>resutlItemLabel2</v>
+        <v>successTitle</v>
       </c>
       <c r="C157" t="str">
-        <v>SIM Card Connection</v>
+        <v>Modify Successfully, Please Save Carefully</v>
       </c>
       <c r="D157" t="str">
-        <v>SIM卡连接</v>
+        <v>修改成功，请妥善保存</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>linkD</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B158" t="str">
-        <v>resutlItemContent2</v>
+        <v>passwordError1</v>
       </c>
       <c r="C158" t="str">
-        <v>Determines the SIM card connection attributes through the SIM card product information</v>
+        <v>Password length must be between 8 and 16 characters</v>
       </c>
       <c r="D158" t="str">
-        <v>通过 SIM 卡产品资料，判断 SIM 卡连接属性</v>
+        <v>密码长度 8-16位</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>login</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B159" t="str">
-        <v>loginBoxTitle</v>
+        <v>passwordError2</v>
       </c>
       <c r="C159" t="str">
-        <v>Welcome to the Global CMP Portal</v>
+        <v>The password must include at least three types of the following: uppercase letters, lowercase letters, numbers, and special characters</v>
       </c>
       <c r="D159" t="str">
-        <v>欢迎来到国际CMP门户</v>
+        <v>密码至少要包括大写字母、小写字母、数字、特殊字符中的三种</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>login</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B160" t="str">
-        <v>loginButton</v>
+        <v>passwordError3</v>
       </c>
       <c r="C160" t="str">
-        <v>login</v>
+        <v>The password cannot contain three or more consecutive digits or letters on the keyboard</v>
       </c>
       <c r="D160" t="str">
-        <v>登录</v>
+        <v>密码不能出现键盘上三位及以上连续数字、字母</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>login</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B161" t="str">
-        <v>loginType1EmailPh</v>
+        <v>passwordError4</v>
       </c>
       <c r="C161" t="str">
-        <v>Please enter the user account or email address</v>
+        <v>The password must not include the full username string, variations in case, or similar transformations</v>
       </c>
       <c r="D161" t="str">
-        <v>请输入账号/邮箱</v>
+        <v>密码中不得包含用户名的完整字符串、大小写变位或形似变换的字符串</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>login</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B162" t="str">
-        <v>loginType2EmailPh</v>
+        <v>notSame</v>
       </c>
       <c r="C162" t="str">
-        <v>Please enter the email address</v>
+        <v>The two entered passwords do not match</v>
       </c>
       <c r="D162" t="str">
-        <v>请输入邮箱</v>
+        <v>两次输入的密码不一致</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>login</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B163" t="str">
-        <v>passwordPh</v>
+        <v>sendSuccess</v>
       </c>
       <c r="C163" t="str">
-        <v>Please enter the password</v>
+        <v>Sent successfully!</v>
       </c>
       <c r="D163" t="str">
-        <v>请输入密码</v>
+        <v>发送成功！</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>login</v>
+        <v>know</v>
       </c>
       <c r="B164" t="str">
-        <v>imageCodePh</v>
+        <v>docName</v>
       </c>
       <c r="C164" t="str">
-        <v>Please enter the verification code</v>
+        <v>Document Name</v>
       </c>
       <c r="D164" t="str">
-        <v>请输入图形验证码</v>
+        <v>文档名称</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>login</v>
+        <v>know</v>
       </c>
       <c r="B165" t="str">
-        <v>emailCodePh</v>
+        <v>docDesc</v>
       </c>
       <c r="C165" t="str">
-        <v>Please enter the email verification code</v>
+        <v>Document Description</v>
       </c>
       <c r="D165" t="str">
-        <v>请输入邮箱验证码</v>
+        <v>文档描述</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>login</v>
+        <v>know</v>
       </c>
       <c r="B166" t="str">
-        <v>checkPrivacyPh</v>
+        <v>docTypeName</v>
       </c>
       <c r="C166" t="str">
-        <v>Please read and confirm the relevant agreements and policies</v>
+        <v>Document Type</v>
       </c>
       <c r="D166" t="str">
-        <v>登录前请先阅读和确认平台相关协议和政策</v>
+        <v>文档类型</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>login</v>
+        <v>know</v>
       </c>
       <c r="B167" t="str">
-        <v>getCode</v>
+        <v>createStaffName</v>
       </c>
       <c r="C167" t="str">
-        <v>Get Code</v>
+        <v>Created By</v>
       </c>
       <c r="D167" t="str">
-        <v>获取验证码</v>
+        <v>创建人</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>login</v>
+        <v>know</v>
       </c>
       <c r="B168" t="str">
-        <v>reSend</v>
+        <v>createTime</v>
       </c>
       <c r="C168" t="str">
-        <v>Resend</v>
+        <v>Creation Time</v>
       </c>
       <c r="D168" t="str">
-        <v>重新发送</v>
+        <v>创建时间</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>login</v>
+        <v>linkD</v>
       </c>
       <c r="B169" t="str">
-        <v>countDown</v>
+        <v>oneClick</v>
       </c>
       <c r="C169" t="str">
-        <v>resend {countDownNum}</v>
+        <v>One-click Diagnosis</v>
       </c>
       <c r="D169" t="str">
-        <v>重新发送 {countDownNum}</v>
+        <v>一键诊断</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>login</v>
+        <v>linkD</v>
       </c>
       <c r="B170" t="str">
-        <v>privacyDesPart1</v>
+        <v>oneClickDes</v>
       </c>
       <c r="C170" t="str">
-        <v>l confirm that l have read, consent and agree to</v>
+        <v>Query the status of a single card, the opening status of the card network, the binding situation of the machine and the card, the detailed data list, and the recent online and offline records of the card</v>
       </c>
       <c r="D170" t="str">
-        <v>我确认已阅读、许可并同意中国电信国际有限公司</v>
+        <v>查询单张卡状态、卡网络开通情况、机卡绑定情况、数据详单、卡近期上下线记录</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>login</v>
+        <v>linkD</v>
       </c>
       <c r="B171" t="str">
-        <v>privacyDesPart2</v>
+        <v>resultTitle</v>
       </c>
       <c r="C171" t="str">
-        <v>the Privacy Policy Statement.</v>
+        <v>Card diagnosis completed. The results are as follows:</v>
       </c>
       <c r="D171" t="str">
-        <v>《隐私政策声明》</v>
+        <v>卡诊断完成，结果如下</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>login</v>
+        <v>linkD</v>
       </c>
       <c r="B172" t="str">
-        <v>privacyDesPart3</v>
+        <v>basicInfo</v>
       </c>
       <c r="C172" t="str">
-        <v>If l am a user situated within the European Economic Area or the United Kingdom, l confirm that l have read, consent and agree to the</v>
+        <v>Basic Information</v>
       </c>
       <c r="D172" t="str">
-        <v>如果我是欧洲经济区或英国境内的用户,我确认我已阅读、许可并同意中国电信国际有限公司</v>
+        <v>基础信息</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>login</v>
+        <v>linkD</v>
       </c>
       <c r="B173" t="str">
-        <v>privacyDesPart4</v>
+        <v>resultDetailTitle</v>
       </c>
       <c r="C173" t="str">
-        <v>GDPR Privacy Policy Statement.</v>
+        <v>Diagnosis Result</v>
       </c>
       <c r="D173" t="str">
-        <v>《GDPR 隐私政策声明》</v>
+        <v>诊断结果</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>login</v>
+        <v>linkD</v>
       </c>
       <c r="B174" t="str">
-        <v>forgetPassword</v>
+        <v>resutlItemLabel1</v>
       </c>
       <c r="C174" t="str">
-        <v>Forget Account/Password</v>
+        <v>SIM Card Status</v>
       </c>
       <c r="D174" t="str">
-        <v>忘记密码？</v>
+        <v>SIM卡状态</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>login</v>
+        <v>linkD</v>
       </c>
       <c r="B175" t="str">
-        <v>loginTypePassword</v>
+        <v>resutlItemContent1</v>
       </c>
       <c r="C175" t="str">
-        <v>Password Login</v>
+        <v>Displays the SIM card status</v>
       </c>
       <c r="D175" t="str">
-        <v>密码登录</v>
+        <v>展示 SIM 卡状态</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>login</v>
+        <v>linkD</v>
       </c>
       <c r="B176" t="str">
-        <v>loginTypeEmail</v>
+        <v>resutlItemLabel2</v>
       </c>
       <c r="C176" t="str">
-        <v>Verification Code Login</v>
+        <v>SIM Card Connection</v>
       </c>
       <c r="D176" t="str">
-        <v>邮箱验证码登录</v>
+        <v>SIM卡连接</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>login</v>
+        <v>linkD</v>
       </c>
       <c r="B177" t="str">
-        <v>headerTitle</v>
+        <v>resutlItemContent2</v>
       </c>
       <c r="C177" t="str">
-        <v>Global IoT CMP</v>
+        <v>Determines the SIM card connection attributes through the SIM card product information</v>
       </c>
       <c r="D177" t="str">
-        <v>国际物联网CMP平台</v>
+        <v>通过 SIM 卡产品资料，判断 SIM 卡连接属性</v>
       </c>
     </row>
     <row r="178">
@@ -2885,13 +2885,13 @@
         <v>login</v>
       </c>
       <c r="B178" t="str">
-        <v>leftTextPart1</v>
+        <v>loginBoxTitle</v>
       </c>
       <c r="C178" t="str">
-        <v/>
+        <v>Welcome to the Global CMP Portal</v>
       </c>
       <c r="D178" t="str">
-        <v>面向</v>
+        <v>欢迎来到国际CMP门户</v>
       </c>
     </row>
     <row r="179">
@@ -2899,13 +2899,13 @@
         <v>login</v>
       </c>
       <c r="B179" t="str">
-        <v>leftTextPart2</v>
+        <v>loginButton</v>
       </c>
       <c r="C179" t="str">
-        <v>Global</v>
+        <v>login</v>
       </c>
       <c r="D179" t="str">
-        <v>全球</v>
+        <v>登录</v>
       </c>
     </row>
     <row r="180">
@@ -2913,13 +2913,13 @@
         <v>login</v>
       </c>
       <c r="B180" t="str">
-        <v>leftTextPart3</v>
+        <v>loginType1EmailPh</v>
       </c>
       <c r="C180" t="str">
-        <v>· Seamless</v>
+        <v>Please enter the user account or email address</v>
       </c>
       <c r="D180" t="str">
-        <v>· 无缝链接</v>
+        <v>请输入账号/邮箱</v>
       </c>
     </row>
     <row r="181">
@@ -2927,13 +2927,13 @@
         <v>login</v>
       </c>
       <c r="B181" t="str">
-        <v>leftTextPart4</v>
+        <v>loginType2EmailPh</v>
       </c>
       <c r="C181" t="str">
-        <v>Connection Management</v>
+        <v>Please enter the email address</v>
       </c>
       <c r="D181" t="str">
-        <v>连接管理</v>
+        <v>请输入邮箱</v>
       </c>
     </row>
     <row r="182">
@@ -2941,13 +2941,13 @@
         <v>login</v>
       </c>
       <c r="B182" t="str">
-        <v>leftTextPart5</v>
+        <v>passwordPh</v>
       </c>
       <c r="C182" t="str">
-        <v>Join us and start building</v>
+        <v>Please enter the password</v>
       </c>
       <c r="D182" t="str">
-        <v>加入我们，然后开始构建</v>
+        <v>请输入密码</v>
       </c>
     </row>
     <row r="183">
@@ -2955,405 +2955,405 @@
         <v>login</v>
       </c>
       <c r="B183" t="str">
-        <v>copyRight</v>
+        <v>imageCodePh</v>
       </c>
       <c r="C183" t="str">
-        <v>© 2024 Tianyi IoT Technology Co., Ltd. All rights reserved.Su ICP No. 19042642-1 Value-added Telecommunications Business License A2.B1.B2-2009000</v>
+        <v>Please enter the verification code</v>
       </c>
       <c r="D183" t="str">
-        <v>@2024天翼物联科技有限公司版权所有苏ICP备19042642号-1增值电信业务经营许可证A2.B1.B2-2009000</v>
+        <v>请输入图形验证码</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>oper</v>
+        <v>login</v>
       </c>
       <c r="B184" t="str">
-        <v>operName</v>
+        <v>emailCodePh</v>
       </c>
       <c r="C184" t="str">
-        <v>Operation Name</v>
+        <v>Please enter the email verification code</v>
       </c>
       <c r="D184" t="str">
-        <v>操作名称</v>
+        <v>请输入邮箱验证码</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>oper</v>
+        <v>login</v>
       </c>
       <c r="B185" t="str">
-        <v>operDate</v>
+        <v>checkPrivacyPh</v>
       </c>
       <c r="C185" t="str">
-        <v>Operation Date</v>
+        <v>Please read and confirm the relevant agreements and policies</v>
       </c>
       <c r="D185" t="str">
-        <v>操作日期</v>
+        <v>登录前请先阅读和确认平台相关协议和政策</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>oper</v>
+        <v>login</v>
       </c>
       <c r="B186" t="str">
-        <v>resultCode</v>
+        <v>getCode</v>
       </c>
       <c r="C186" t="str">
-        <v>Result Code</v>
+        <v>Get Code</v>
       </c>
       <c r="D186" t="str">
-        <v>操作结果</v>
+        <v>获取验证码</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>oper</v>
+        <v>login</v>
       </c>
       <c r="B187" t="str">
-        <v>clientIp</v>
+        <v>reSend</v>
       </c>
       <c r="C187" t="str">
-        <v>Client IP</v>
+        <v>Resend</v>
       </c>
       <c r="D187" t="str">
-        <v>客户端IP</v>
+        <v>重新发送</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>oper</v>
+        <v>login</v>
       </c>
       <c r="B188" t="str">
-        <v>userCode</v>
+        <v>countDown</v>
       </c>
       <c r="C188" t="str">
-        <v>User Account</v>
+        <v>resend {countDownNum}</v>
       </c>
       <c r="D188" t="str">
-        <v>操作账号</v>
+        <v>重新发送 {countDownNum}</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>oper</v>
+        <v>login</v>
       </c>
       <c r="B189" t="str">
-        <v>traceId</v>
+        <v>privacyDesPart1</v>
       </c>
       <c r="C189" t="str">
-        <v>Trace Id</v>
+        <v>l confirm that l have read, consent and agree to</v>
       </c>
       <c r="D189" t="str">
-        <v>唯一请求标识</v>
+        <v>我确认已阅读、许可并同意中国电信国际有限公司</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>oper</v>
+        <v>login</v>
       </c>
       <c r="B190" t="str">
-        <v>success</v>
+        <v>privacyDesPart2</v>
       </c>
       <c r="C190" t="str">
-        <v>Success</v>
+        <v>the Privacy Policy Statement.</v>
       </c>
       <c r="D190" t="str">
-        <v>成功</v>
+        <v>《隐私政策声明》</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>oper</v>
+        <v>login</v>
       </c>
       <c r="B191" t="str">
-        <v>fail</v>
+        <v>privacyDesPart3</v>
       </c>
       <c r="C191" t="str">
-        <v>Fail</v>
+        <v>If l am a user situated within the European Economic Area or the United Kingdom, l confirm that l have read, consent and agree to the</v>
       </c>
       <c r="D191" t="str">
-        <v>失败</v>
+        <v>如果我是欧洲经济区或英国境内的用户,我确认我已阅读、许可并同意中国电信国际有限公司</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>oper</v>
+        <v>login</v>
       </c>
       <c r="B192" t="str">
-        <v>all</v>
+        <v>privacyDesPart4</v>
       </c>
       <c r="C192" t="str">
-        <v>All</v>
+        <v>GDPR Privacy Policy Statement.</v>
       </c>
       <c r="D192" t="str">
-        <v>全部</v>
+        <v>《GDPR 隐私政策声明》</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B193" t="str">
-        <v>orderCode</v>
+        <v>forgetPassword</v>
       </c>
       <c r="C193" t="str">
-        <v>Order Code</v>
+        <v>Forget Account/Password</v>
       </c>
       <c r="D193" t="str">
-        <v>订单编码</v>
+        <v>忘记密码？</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B194" t="str">
-        <v>number</v>
+        <v>loginTypePassword</v>
       </c>
       <c r="C194" t="str">
-        <v>Code</v>
+        <v>Password Login</v>
       </c>
       <c r="D194" t="str">
-        <v>号码</v>
+        <v>密码登录</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B195" t="str">
-        <v>busType</v>
+        <v>loginTypeEmail</v>
       </c>
       <c r="C195" t="str">
-        <v>Bussiness Type</v>
+        <v>Verification Code Login</v>
       </c>
       <c r="D195" t="str">
-        <v>业务类型</v>
+        <v>邮箱验证码登录</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B196" t="str">
-        <v>orderStatus</v>
+        <v>headerTitle</v>
       </c>
       <c r="C196" t="str">
-        <v>Order Status</v>
+        <v>Global IoT CMP</v>
       </c>
       <c r="D196" t="str">
-        <v>订单状态</v>
+        <v>国际物联网CMP平台</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B197" t="str">
-        <v>account</v>
+        <v>leftTextPart1</v>
       </c>
       <c r="C197" t="str">
-        <v>Account</v>
+        <v/>
       </c>
       <c r="D197" t="str">
-        <v>账号</v>
+        <v>面向</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B198" t="str">
-        <v>serviceTime</v>
+        <v>leftTextPart2</v>
       </c>
       <c r="C198" t="str">
-        <v>Service Time</v>
+        <v>Global</v>
       </c>
       <c r="D198" t="str">
-        <v>受理时间</v>
+        <v>全球</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B199" t="str">
-        <v>cust</v>
+        <v>leftTextPart3</v>
       </c>
       <c r="C199" t="str">
-        <v>Cust</v>
+        <v>· Seamless</v>
       </c>
       <c r="D199" t="str">
-        <v>客户</v>
+        <v>· 无缝链接</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B200" t="str">
-        <v>accNum</v>
+        <v>leftTextPart4</v>
       </c>
       <c r="C200" t="str">
-        <v>Access Number</v>
+        <v>Connection Management</v>
       </c>
       <c r="D200" t="str">
-        <v>接入号</v>
+        <v>连接管理</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B201" t="str">
-        <v>source</v>
+        <v>leftTextPart5</v>
       </c>
       <c r="C201" t="str">
-        <v>Order Source</v>
+        <v>Join us and start building</v>
       </c>
       <c r="D201" t="str">
-        <v>订单来源</v>
+        <v>加入我们，然后开始构建</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B202" t="str">
-        <v>createStaffName</v>
+        <v>copyRight</v>
       </c>
       <c r="C202" t="str">
-        <v>Operator</v>
+        <v>© 2024 Tianyi IoT Technology Co., Ltd. All rights reserved.Su ICP No. 19042642-1 Value-added Telecommunications Business License A2.B1.B2-2009000</v>
       </c>
       <c r="D202" t="str">
-        <v>操作员</v>
+        <v>@2024天翼物联科技有限公司版权所有苏ICP备19042642号-1增值电信业务经营许可证A2.B1.B2-2009000</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>order</v>
+        <v>oper</v>
       </c>
       <c r="B203" t="str">
-        <v>offerInfo</v>
+        <v>operName</v>
       </c>
       <c r="C203" t="str">
-        <v>Package Information</v>
+        <v>Operation Name</v>
       </c>
       <c r="D203" t="str">
-        <v>套餐信息</v>
+        <v>操作名称</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>order</v>
+        <v>oper</v>
       </c>
       <c r="B204" t="str">
-        <v>offerName</v>
+        <v>operDate</v>
       </c>
       <c r="C204" t="str">
-        <v>Package Name</v>
+        <v>Operation Date</v>
       </c>
       <c r="D204" t="str">
-        <v>套餐名称</v>
+        <v>操作日期</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>order</v>
+        <v>oper</v>
       </c>
       <c r="B205" t="str">
-        <v>operType</v>
+        <v>resultCode</v>
       </c>
       <c r="C205" t="str">
-        <v>Operation Type</v>
+        <v>Result Code</v>
       </c>
       <c r="D205" t="str">
-        <v>操作类型</v>
+        <v>操作结果</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>order</v>
+        <v>oper</v>
       </c>
       <c r="B206" t="str">
-        <v>fucName</v>
+        <v>clientIp</v>
       </c>
       <c r="C206" t="str">
-        <v>Function Attribute</v>
+        <v>Client IP</v>
       </c>
       <c r="D206" t="str">
-        <v>功能属性</v>
+        <v>客户端IP</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>order</v>
+        <v>oper</v>
       </c>
       <c r="B207" t="str">
-        <v>objName</v>
+        <v>userCode</v>
       </c>
       <c r="C207" t="str">
-        <v>Name</v>
+        <v>User Account</v>
       </c>
       <c r="D207" t="str">
-        <v>名称</v>
+        <v>操作账号</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>order</v>
+        <v>oper</v>
       </c>
       <c r="B208" t="str">
-        <v>objType</v>
+        <v>traceId</v>
       </c>
       <c r="C208" t="str">
-        <v>Type</v>
+        <v>Trace Id</v>
       </c>
       <c r="D208" t="str">
-        <v>类型</v>
+        <v>唯一请求标识</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>order</v>
+        <v>oper</v>
       </c>
       <c r="B209" t="str">
-        <v>originValue</v>
+        <v>success</v>
       </c>
       <c r="C209" t="str">
-        <v>Original Value</v>
+        <v>Success</v>
       </c>
       <c r="D209" t="str">
-        <v>原值</v>
+        <v>成功</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>order</v>
+        <v>oper</v>
       </c>
       <c r="B210" t="str">
-        <v>newValue</v>
+        <v>fail</v>
       </c>
       <c r="C210" t="str">
-        <v>New Value</v>
+        <v>Fail</v>
       </c>
       <c r="D210" t="str">
-        <v>新值</v>
+        <v>失败</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>order</v>
+        <v>oper</v>
       </c>
       <c r="B211" t="str">
-        <v>orderCodeTitle</v>
+        <v>all</v>
       </c>
       <c r="C211" t="str">
-        <v>Order Code：</v>
+        <v>All</v>
       </c>
       <c r="D211" t="str">
-        <v>订单编号：</v>
+        <v>全部</v>
       </c>
     </row>
     <row r="212">
@@ -3361,13 +3361,13 @@
         <v>order</v>
       </c>
       <c r="B212" t="str">
-        <v>operTypeAdd</v>
+        <v>orderCode</v>
       </c>
       <c r="C212" t="str">
-        <v>Add</v>
+        <v>Order Code</v>
       </c>
       <c r="D212" t="str">
-        <v>新增</v>
+        <v>订单编码</v>
       </c>
     </row>
     <row r="213">
@@ -3375,13 +3375,13 @@
         <v>order</v>
       </c>
       <c r="B213" t="str">
-        <v>operTypeDelete</v>
+        <v>number</v>
       </c>
       <c r="C213" t="str">
-        <v>Delete</v>
+        <v>Code</v>
       </c>
       <c r="D213" t="str">
-        <v>删除</v>
+        <v>号码</v>
       </c>
     </row>
     <row r="214">
@@ -3389,13 +3389,13 @@
         <v>order</v>
       </c>
       <c r="B214" t="str">
-        <v>operTypeChange</v>
+        <v>busType</v>
       </c>
       <c r="C214" t="str">
-        <v>Change</v>
+        <v>Bussiness Type</v>
       </c>
       <c r="D214" t="str">
-        <v>变更</v>
+        <v>业务类型</v>
       </c>
     </row>
     <row r="215">
@@ -3403,13 +3403,13 @@
         <v>order</v>
       </c>
       <c r="B215" t="str">
-        <v>operTypeRemain</v>
+        <v>orderStatus</v>
       </c>
       <c r="C215" t="str">
-        <v>Remain</v>
+        <v>Order Status</v>
       </c>
       <c r="D215" t="str">
-        <v>保持</v>
+        <v>订单状态</v>
       </c>
     </row>
     <row r="216">
@@ -3417,13 +3417,13 @@
         <v>order</v>
       </c>
       <c r="B216" t="str">
-        <v>batchTask</v>
+        <v>account</v>
       </c>
       <c r="C216" t="str">
-        <v>Batch Task</v>
+        <v>Account</v>
       </c>
       <c r="D216" t="str">
-        <v>批量任务</v>
+        <v>账号</v>
       </c>
     </row>
     <row r="217">
@@ -3431,13 +3431,13 @@
         <v>order</v>
       </c>
       <c r="B217" t="str">
-        <v>batchTaskQuery</v>
+        <v>serviceTime</v>
       </c>
       <c r="C217" t="str">
-        <v>Batch Task Query</v>
+        <v>Service Time</v>
       </c>
       <c r="D217" t="str">
-        <v>批量任务查询</v>
+        <v>受理时间</v>
       </c>
     </row>
     <row r="218">
@@ -3445,13 +3445,13 @@
         <v>order</v>
       </c>
       <c r="B218" t="str">
-        <v>createDate</v>
+        <v>cust</v>
       </c>
       <c r="C218" t="str">
-        <v>Creation Date</v>
+        <v>Cust</v>
       </c>
       <c r="D218" t="str">
-        <v>创建时间</v>
+        <v>客户</v>
       </c>
     </row>
     <row r="219">
@@ -3459,13 +3459,13 @@
         <v>order</v>
       </c>
       <c r="B219" t="str">
-        <v>finishDate</v>
+        <v>accNum</v>
       </c>
       <c r="C219" t="str">
-        <v>Completion Date</v>
+        <v>Access Number</v>
       </c>
       <c r="D219" t="str">
-        <v>结束时间</v>
+        <v>接入号</v>
       </c>
     </row>
     <row r="220">
@@ -3473,13 +3473,13 @@
         <v>order</v>
       </c>
       <c r="B220" t="str">
-        <v>batchStatus</v>
+        <v>source</v>
       </c>
       <c r="C220" t="str">
-        <v>Batch Status</v>
+        <v>Order Source</v>
       </c>
       <c r="D220" t="str">
-        <v>任务状态</v>
+        <v>订单来源</v>
       </c>
     </row>
     <row r="221">
@@ -3487,13 +3487,13 @@
         <v>order</v>
       </c>
       <c r="B221" t="str">
-        <v>batchTaskId</v>
+        <v>createStaffName</v>
       </c>
       <c r="C221" t="str">
-        <v>Batch Number</v>
+        <v>Operator</v>
       </c>
       <c r="D221" t="str">
-        <v>批次号</v>
+        <v>操作员</v>
       </c>
     </row>
     <row r="222">
@@ -3501,13 +3501,13 @@
         <v>order</v>
       </c>
       <c r="B222" t="str">
-        <v>statusResult</v>
+        <v>offerInfo</v>
       </c>
       <c r="C222" t="str">
-        <v>Processing Result</v>
+        <v>Package Information</v>
       </c>
       <c r="D222" t="str">
-        <v>处理结果</v>
+        <v>套餐信息</v>
       </c>
     </row>
     <row r="223">
@@ -3515,13 +3515,13 @@
         <v>order</v>
       </c>
       <c r="B223" t="str">
-        <v>success</v>
+        <v>offerName</v>
       </c>
       <c r="C223" t="str">
-        <v xml:space="preserve">Success: </v>
+        <v>Package Name</v>
       </c>
       <c r="D223" t="str">
-        <v>成功：</v>
+        <v>套餐名称</v>
       </c>
     </row>
     <row r="224">
@@ -3529,13 +3529,13 @@
         <v>order</v>
       </c>
       <c r="B224" t="str">
-        <v>fail</v>
+        <v>operType</v>
       </c>
       <c r="C224" t="str">
-        <v xml:space="preserve">Failure: </v>
+        <v>Operation Type</v>
       </c>
       <c r="D224" t="str">
-        <v>失败：</v>
+        <v>操作类型</v>
       </c>
     </row>
     <row r="225">
@@ -3543,13 +3543,13 @@
         <v>order</v>
       </c>
       <c r="B225" t="str">
-        <v>doing</v>
+        <v>fucName</v>
       </c>
       <c r="C225" t="str">
-        <v xml:space="preserve">In Progress: </v>
+        <v>Function Attribute</v>
       </c>
       <c r="D225" t="str">
-        <v>处理中：</v>
+        <v>功能属性</v>
       </c>
     </row>
     <row r="226">
@@ -3557,13 +3557,13 @@
         <v>order</v>
       </c>
       <c r="B226" t="str">
-        <v>wait</v>
+        <v>objName</v>
       </c>
       <c r="C226" t="str">
-        <v xml:space="preserve">Pending: </v>
+        <v>Name</v>
       </c>
       <c r="D226" t="str">
-        <v>待处理：</v>
+        <v>名称</v>
       </c>
     </row>
     <row r="227">
@@ -3571,13 +3571,13 @@
         <v>order</v>
       </c>
       <c r="B227" t="str">
-        <v>doTitle</v>
+        <v>objType</v>
       </c>
       <c r="C227" t="str">
-        <v>Processing List</v>
+        <v>Type</v>
       </c>
       <c r="D227" t="str">
-        <v>处理清单</v>
+        <v>类型</v>
       </c>
     </row>
     <row r="228">
@@ -3585,13 +3585,13 @@
         <v>order</v>
       </c>
       <c r="B228" t="str">
-        <v>statusName</v>
+        <v>originValue</v>
       </c>
       <c r="C228" t="str">
-        <v>Status</v>
+        <v>Original Value</v>
       </c>
       <c r="D228" t="str">
-        <v>处理状态</v>
+        <v>原值</v>
       </c>
     </row>
     <row r="229">
@@ -3599,531 +3599,531 @@
         <v>order</v>
       </c>
       <c r="B229" t="str">
-        <v>listId</v>
+        <v>newValue</v>
       </c>
       <c r="C229" t="str">
-        <v>List Sequence Number</v>
+        <v>New Value</v>
       </c>
       <c r="D229" t="str">
-        <v>清单序号</v>
+        <v>新值</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B230" t="str">
-        <v>roleCode</v>
+        <v>orderCodeTitle</v>
       </c>
       <c r="C230" t="str">
-        <v>Role Code</v>
+        <v>Order Code：</v>
       </c>
       <c r="D230" t="str">
-        <v>角色编码</v>
+        <v>订单编号：</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B231" t="str">
-        <v>roleName</v>
+        <v>operTypeAdd</v>
       </c>
       <c r="C231" t="str">
-        <v>Role Name</v>
+        <v>Add</v>
       </c>
       <c r="D231" t="str">
-        <v>角色名称</v>
+        <v>新增</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B232" t="str">
-        <v>qryTime</v>
+        <v>operTypeDelete</v>
       </c>
       <c r="C232" t="str">
-        <v>Activation Time</v>
+        <v>Delete</v>
       </c>
       <c r="D232" t="str">
-        <v>激活时间</v>
+        <v>删除</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B233" t="str">
-        <v>createBtn</v>
+        <v>operTypeChange</v>
       </c>
       <c r="C233" t="str">
-        <v>Create Member</v>
+        <v>Change</v>
       </c>
       <c r="D233" t="str">
-        <v>新建成员</v>
+        <v>变更</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B234" t="str">
-        <v>createStaffName</v>
+        <v>operTypeRemain</v>
       </c>
       <c r="C234" t="str">
-        <v>Created By</v>
+        <v>Remain</v>
       </c>
       <c r="D234" t="str">
-        <v>创建人</v>
+        <v>保持</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B235" t="str">
-        <v>createTime</v>
+        <v>batchTask</v>
       </c>
       <c r="C235" t="str">
-        <v>Creation Time</v>
+        <v>Batch Task</v>
       </c>
       <c r="D235" t="str">
-        <v>创建时间</v>
+        <v>批量任务</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B236" t="str">
-        <v>remark</v>
+        <v>batchTaskQuery</v>
       </c>
       <c r="C236" t="str">
-        <v>Remarks</v>
+        <v>Batch Task Query</v>
       </c>
       <c r="D236" t="str">
-        <v>备注</v>
+        <v>批量任务查询</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B237" t="str">
-        <v>modifyRoleCreate</v>
+        <v>createDate</v>
       </c>
       <c r="C237" t="str">
-        <v>Create Role</v>
+        <v>Creation Date</v>
       </c>
       <c r="D237" t="str">
-        <v>新建角色</v>
+        <v>创建时间</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B238" t="str">
-        <v>modifyRoleEdit</v>
+        <v>finishDate</v>
       </c>
       <c r="C238" t="str">
-        <v>Edit Role</v>
+        <v>Completion Date</v>
       </c>
       <c r="D238" t="str">
-        <v>修改角色</v>
+        <v>结束时间</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B239" t="str">
-        <v>deleteAsk</v>
+        <v>batchStatus</v>
       </c>
       <c r="C239" t="str">
-        <v>Are you sure you want to delete the selected role(s)?</v>
+        <v>Batch Status</v>
       </c>
       <c r="D239" t="str">
-        <v>确定要删除已选中的角色吗？</v>
+        <v>任务状态</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B240" t="str">
-        <v>menuName</v>
+        <v>batchStatus1000</v>
       </c>
       <c r="C240" t="str">
-        <v>Menu Name</v>
+        <v>Accepted</v>
       </c>
       <c r="D240" t="str">
-        <v>菜单名称</v>
+        <v>已受理</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B241" t="str">
-        <v>menuPriv</v>
+        <v>batchStatus1100</v>
       </c>
       <c r="C241" t="str">
-        <v>Menu Privilege</v>
+        <v>In Progress</v>
       </c>
       <c r="D241" t="str">
-        <v>菜单权限</v>
+        <v>执行中</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B242" t="str">
-        <v>privAction</v>
+        <v>batchStatus1200</v>
       </c>
       <c r="C242" t="str">
-        <v>Action Privilege</v>
+        <v>Execution Exception</v>
       </c>
       <c r="D242" t="str">
-        <v>操作权限</v>
+        <v>执行异常</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B243" t="str">
-        <v>checkAll</v>
+        <v>batchStatus1300</v>
       </c>
       <c r="C243" t="str">
-        <v>Select All</v>
+        <v>Completed</v>
       </c>
       <c r="D243" t="str">
-        <v>全选</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B244" t="str">
-        <v>selectRule</v>
+        <v>batchTaskId</v>
       </c>
       <c r="C244" t="str">
-        <v>Set Rule</v>
+        <v>Batch Number</v>
       </c>
       <c r="D244" t="str">
-        <v>选择规则类型</v>
+        <v>批次号</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B245" t="str">
-        <v>setRule</v>
+        <v>statusResult</v>
       </c>
       <c r="C245" t="str">
-        <v/>
+        <v>Processing Result</v>
       </c>
       <c r="D245" t="str">
-        <v>设置规则</v>
+        <v>处理结果</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B246" t="str">
-        <v>ruleName</v>
+        <v>success</v>
       </c>
       <c r="C246" t="str">
-        <v>Rule Name</v>
+        <v xml:space="preserve">Success: </v>
       </c>
       <c r="D246" t="str">
-        <v>规则名称</v>
+        <v>成功：</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B247" t="str">
-        <v>supplier</v>
+        <v>fail</v>
       </c>
       <c r="C247" t="str">
-        <v>Supplier</v>
+        <v xml:space="preserve">Failure: </v>
       </c>
       <c r="D247" t="str">
-        <v>供应商</v>
+        <v>失败：</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B248" t="str">
-        <v>ruleType</v>
+        <v>doing</v>
       </c>
       <c r="C248" t="str">
-        <v>Rule Type</v>
+        <v xml:space="preserve">In Progress: </v>
       </c>
       <c r="D248" t="str">
-        <v>规则类型</v>
+        <v>处理中：</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B249" t="str">
-        <v>ruleCategory</v>
+        <v>wait</v>
       </c>
       <c r="C249" t="str">
-        <v>Rule Category</v>
+        <v xml:space="preserve">Pending: </v>
       </c>
       <c r="D249" t="str">
-        <v>规则类别</v>
+        <v>待处理：</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B250" t="str">
-        <v>createTime</v>
+        <v>doTitle</v>
       </c>
       <c r="C250" t="str">
-        <v>Creation Time</v>
+        <v>Processing List</v>
       </c>
       <c r="D250" t="str">
-        <v>创建时间</v>
+        <v>处理清单</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B251" t="str">
-        <v>createUser</v>
+        <v>statusName</v>
       </c>
       <c r="C251" t="str">
-        <v>Creation User</v>
+        <v>Status</v>
       </c>
       <c r="D251" t="str">
-        <v>创建用户</v>
+        <v>处理状态</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B252" t="str">
-        <v>query</v>
+        <v>listId</v>
       </c>
       <c r="C252" t="str">
-        <v>Query</v>
+        <v>List Sequence Number</v>
       </c>
       <c r="D252" t="str">
-        <v>查询</v>
+        <v>清单序号</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B253" t="str">
-        <v>resetting</v>
+        <v>roleCode</v>
       </c>
       <c r="C253" t="str">
-        <v>Reset</v>
+        <v>Role Code</v>
       </c>
       <c r="D253" t="str">
-        <v>重置</v>
+        <v>角色编码</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B254" t="str">
-        <v>addRule</v>
+        <v>roleName</v>
       </c>
       <c r="C254" t="str">
-        <v>New Rule</v>
+        <v>Role Name</v>
       </c>
       <c r="D254" t="str">
-        <v>新建规则</v>
+        <v>角色名称</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B255" t="str">
-        <v>increase</v>
+        <v>qryTime</v>
       </c>
       <c r="C255" t="str">
-        <v>Add</v>
+        <v>Activation Time</v>
       </c>
       <c r="D255" t="str">
-        <v>添加</v>
+        <v>激活时间</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B256" t="str">
-        <v>prev</v>
+        <v>createBtn</v>
       </c>
       <c r="C256" t="str">
-        <v>Previous Step</v>
+        <v>Create Member</v>
       </c>
       <c r="D256" t="str">
-        <v>上一步</v>
+        <v>新建成员</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B257" t="str">
-        <v>complete</v>
+        <v>createStaffName</v>
       </c>
       <c r="C257" t="str">
-        <v>Complete</v>
+        <v>Created By</v>
       </c>
       <c r="D257" t="str">
-        <v>完成</v>
+        <v>创建人</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B258" t="str">
-        <v>monitorObjectType</v>
+        <v>createTime</v>
       </c>
       <c r="C258" t="str">
-        <v>Monitoring Object Type</v>
+        <v>Creation Time</v>
       </c>
       <c r="D258" t="str">
-        <v>监控对象类型</v>
+        <v>创建时间</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B259" t="str">
-        <v>objectType</v>
+        <v>remark</v>
       </c>
       <c r="C259" t="str">
-        <v>Object Type</v>
+        <v>Remarks</v>
       </c>
       <c r="D259" t="str">
-        <v>对象类型</v>
+        <v>备注</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B260" t="str">
-        <v>operate</v>
+        <v>modifyRoleCreate</v>
       </c>
       <c r="C260" t="str">
-        <v>Operation</v>
+        <v>Create Role</v>
       </c>
       <c r="D260" t="str">
-        <v>操作</v>
+        <v>新建角色</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B261" t="str">
-        <v>enter</v>
+        <v>modifyRoleEdit</v>
       </c>
       <c r="C261" t="str">
-        <v>Please Enter</v>
+        <v>Edit Role</v>
       </c>
       <c r="D261" t="str">
-        <v>请输入</v>
+        <v>修改角色</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B262" t="str">
-        <v>pleaseSelect</v>
+        <v>deleteAsk</v>
       </c>
       <c r="C262" t="str">
-        <v>Please Select</v>
+        <v>Are you sure you want to delete the selected role(s)?</v>
       </c>
       <c r="D262" t="str">
-        <v>请选择</v>
+        <v>确定要删除已选中的角色吗？</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B263" t="str">
-        <v>loading</v>
+        <v>menuName</v>
       </c>
       <c r="C263" t="str">
-        <v>Loading</v>
+        <v>Menu Name</v>
       </c>
       <c r="D263" t="str">
-        <v/>
+        <v>菜单名称</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B264" t="str">
-        <v>modify</v>
+        <v>menuPriv</v>
       </c>
       <c r="C264" t="str">
-        <v>Edit</v>
+        <v>Menu Privilege</v>
       </c>
       <c r="D264" t="str">
-        <v>修改</v>
+        <v>菜单权限</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B265" t="str">
-        <v>delete</v>
+        <v>privAction</v>
       </c>
       <c r="C265" t="str">
-        <v>Delete</v>
+        <v>Action Privilege</v>
       </c>
       <c r="D265" t="str">
-        <v>删除</v>
+        <v>操作权限</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B266" t="str">
-        <v>cancellation</v>
+        <v>checkAll</v>
       </c>
       <c r="C266" t="str">
-        <v>Cancel</v>
+        <v>Select All</v>
       </c>
       <c r="D266" t="str">
-        <v>取消</v>
+        <v>全选</v>
       </c>
     </row>
     <row r="267">
@@ -4131,13 +4131,13 @@
         <v>rule</v>
       </c>
       <c r="B267" t="str">
-        <v>effective</v>
+        <v>selectRule</v>
       </c>
       <c r="C267" t="str">
-        <v>Valid</v>
+        <v>Set Rule</v>
       </c>
       <c r="D267" t="str">
-        <v>有效</v>
+        <v>选择规则类型</v>
       </c>
     </row>
     <row r="268">
@@ -4145,13 +4145,13 @@
         <v>rule</v>
       </c>
       <c r="B268" t="str">
-        <v>invalid</v>
+        <v>setRule</v>
       </c>
       <c r="C268" t="str">
-        <v>Invalid</v>
+        <v/>
       </c>
       <c r="D268" t="str">
-        <v>无效</v>
+        <v>设置规则</v>
       </c>
     </row>
     <row r="269">
@@ -4159,13 +4159,13 @@
         <v>rule</v>
       </c>
       <c r="B269" t="str">
-        <v>delectRule</v>
+        <v>ruleName</v>
       </c>
       <c r="C269" t="str">
-        <v>Delete Rule</v>
+        <v>Rule Name</v>
       </c>
       <c r="D269" t="str">
-        <v>删除规则</v>
+        <v>规则名称</v>
       </c>
     </row>
     <row r="270">
@@ -4173,13 +4173,13 @@
         <v>rule</v>
       </c>
       <c r="B270" t="str">
-        <v>delectAction</v>
+        <v>supplier</v>
       </c>
       <c r="C270" t="str">
-        <v>A deletion operation will be performed. Do you wish to continue?</v>
+        <v>Supplier</v>
       </c>
       <c r="D270" t="str">
-        <v>将进行删除操作，是否继续</v>
+        <v>供应商</v>
       </c>
     </row>
     <row r="271">
@@ -4187,13 +4187,13 @@
         <v>rule</v>
       </c>
       <c r="B271" t="str">
-        <v>delectSuccess</v>
+        <v>ruleType</v>
       </c>
       <c r="C271" t="str">
-        <v>Deleted Successfully</v>
+        <v>Rule Type</v>
       </c>
       <c r="D271" t="str">
-        <v>删除成功</v>
+        <v>规则类型</v>
       </c>
     </row>
     <row r="272">
@@ -4201,13 +4201,13 @@
         <v>rule</v>
       </c>
       <c r="B272" t="str">
-        <v>usageMonitor</v>
+        <v>ruleCategory</v>
       </c>
       <c r="C272" t="str">
-        <v>Usage Monitoring</v>
+        <v>Rule Category</v>
       </c>
       <c r="D272" t="str">
-        <v>用量监控</v>
+        <v>规则类别</v>
       </c>
     </row>
     <row r="273">
@@ -4215,13 +4215,13 @@
         <v>rule</v>
       </c>
       <c r="B273" t="str">
-        <v>selfSupport</v>
+        <v>createTime</v>
       </c>
       <c r="C273" t="str">
-        <v>Self-operated</v>
+        <v>Creation Time</v>
       </c>
       <c r="D273" t="str">
-        <v>自营</v>
+        <v>创建时间</v>
       </c>
     </row>
     <row r="274">
@@ -4229,13 +4229,13 @@
         <v>rule</v>
       </c>
       <c r="B274" t="str">
-        <v>monthDataUsage</v>
+        <v>createUser</v>
       </c>
       <c r="C274" t="str">
-        <v>Monthly Data Usage</v>
+        <v>Creation User</v>
       </c>
       <c r="D274" t="str">
-        <v>月数据用量</v>
+        <v>创建用户</v>
       </c>
     </row>
     <row r="275">
@@ -4243,13 +4243,13 @@
         <v>rule</v>
       </c>
       <c r="B275" t="str">
-        <v>monthSmsUsage</v>
+        <v>query</v>
       </c>
       <c r="C275" t="str">
-        <v>Monthly SMS Usage</v>
+        <v>Query</v>
       </c>
       <c r="D275" t="str">
-        <v>月短信用量</v>
+        <v>查询</v>
       </c>
     </row>
     <row r="276">
@@ -4257,13 +4257,13 @@
         <v>rule</v>
       </c>
       <c r="B276" t="str">
-        <v>monthVoiceUsage</v>
+        <v>resetting</v>
       </c>
       <c r="C276" t="str">
-        <v>Monthly Voice Usage</v>
+        <v>Reset</v>
       </c>
       <c r="D276" t="str">
-        <v>月语音用量</v>
+        <v>重置</v>
       </c>
     </row>
     <row r="277">
@@ -4271,13 +4271,13 @@
         <v>rule</v>
       </c>
       <c r="B277" t="str">
-        <v>monthDataPrompt</v>
+        <v>addRule</v>
       </c>
       <c r="C277" t="str">
-        <v>Triggered when the monthly network usage traffic of the SIM card in the current billing cycle reaches **MB</v>
+        <v>New Rule</v>
       </c>
       <c r="D277" t="str">
-        <v>当SIM卡在当前计费周期月网络使用流量 达到**MB时触发</v>
+        <v>新建规则</v>
       </c>
     </row>
     <row r="278">
@@ -4285,13 +4285,13 @@
         <v>rule</v>
       </c>
       <c r="B278" t="str">
-        <v>monthSmsPrompt</v>
+        <v>increase</v>
       </c>
       <c r="C278" t="str">
-        <v>Triggered when the monthly SMS usage of the SIM card in the current billing cycle reaches **messages</v>
+        <v>Add</v>
       </c>
       <c r="D278" t="str">
-        <v>当SIM卡在当前计费周期月短信使用量达 到**条时触发</v>
+        <v>添加</v>
       </c>
     </row>
     <row r="279">
@@ -4299,13 +4299,13 @@
         <v>rule</v>
       </c>
       <c r="B279" t="str">
-        <v>monthVoicePrompt</v>
+        <v>prev</v>
       </c>
       <c r="C279" t="str">
-        <v xml:space="preserve">Triggered when the monthly SMS usage of the SIM card in the current billing cycle reaches **messages  </v>
+        <v>Previous Step</v>
       </c>
       <c r="D279" t="str">
-        <v>当SIM卡在当前计费周期月短信使用量达 到**条时触发</v>
+        <v>上一步</v>
       </c>
     </row>
     <row r="280">
@@ -4313,13 +4313,13 @@
         <v>rule</v>
       </c>
       <c r="B280" t="str">
-        <v>selectManufacturer</v>
+        <v>complete</v>
       </c>
       <c r="C280" t="str">
-        <v>Select Manufacturer</v>
+        <v>Complete</v>
       </c>
       <c r="D280" t="str">
-        <v>选择厂商</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="281">
@@ -4327,13 +4327,13 @@
         <v>rule</v>
       </c>
       <c r="B281" t="str">
-        <v>package</v>
+        <v>monitorObjectType</v>
       </c>
       <c r="C281" t="str">
-        <v>Package</v>
+        <v>Monitoring Object Type</v>
       </c>
       <c r="D281" t="str">
-        <v>套餐</v>
+        <v>监控对象类型</v>
       </c>
     </row>
     <row r="282">
@@ -4341,13 +4341,13 @@
         <v>rule</v>
       </c>
       <c r="B282" t="str">
-        <v>packageName</v>
+        <v>objectType</v>
       </c>
       <c r="C282" t="str">
-        <v>Offer Name</v>
+        <v>Object Type</v>
       </c>
       <c r="D282" t="str">
-        <v>套餐名称</v>
+        <v>对象类型</v>
       </c>
     </row>
     <row r="283">
@@ -4355,13 +4355,13 @@
         <v>rule</v>
       </c>
       <c r="B283" t="str">
-        <v>packageInfo</v>
+        <v>operate</v>
       </c>
       <c r="C283" t="str">
-        <v>Offer Info</v>
+        <v>Operation</v>
       </c>
       <c r="D283" t="str">
-        <v>套餐信息</v>
+        <v>操作</v>
       </c>
     </row>
     <row r="284">
@@ -4369,13 +4369,13 @@
         <v>rule</v>
       </c>
       <c r="B284" t="str">
-        <v>determine</v>
+        <v>enter</v>
       </c>
       <c r="C284" t="str">
-        <v>Confirm</v>
+        <v>Please Enter</v>
       </c>
       <c r="D284" t="str">
-        <v>确定</v>
+        <v>请输入</v>
       </c>
     </row>
     <row r="285">
@@ -4383,13 +4383,13 @@
         <v>rule</v>
       </c>
       <c r="B285" t="str">
-        <v>defineRule</v>
+        <v>pleaseSelect</v>
       </c>
       <c r="C285" t="str">
-        <v>Define Rule</v>
+        <v>Please Select</v>
       </c>
       <c r="D285" t="str">
-        <v>定义规则</v>
+        <v>请选择</v>
       </c>
     </row>
     <row r="286">
@@ -4397,13 +4397,13 @@
         <v>rule</v>
       </c>
       <c r="B286" t="str">
-        <v>ruleDefine</v>
+        <v>loading</v>
       </c>
       <c r="C286" t="str">
-        <v>Rule Definition</v>
+        <v>Loading</v>
       </c>
       <c r="D286" t="str">
-        <v>规则定义</v>
+        <v/>
       </c>
     </row>
     <row r="287">
@@ -4411,13 +4411,13 @@
         <v>rule</v>
       </c>
       <c r="B287" t="str">
-        <v>selected</v>
+        <v>modify</v>
       </c>
       <c r="C287" t="str">
-        <v>Current Selection</v>
+        <v>Edit</v>
       </c>
       <c r="D287" t="str">
-        <v>当前选择</v>
+        <v>修改</v>
       </c>
     </row>
     <row r="288">
@@ -4425,13 +4425,13 @@
         <v>rule</v>
       </c>
       <c r="B288" t="str">
-        <v>ruleConfiguration</v>
+        <v>delete</v>
       </c>
       <c r="C288" t="str">
-        <v>Rule Configuration</v>
+        <v>Delete</v>
       </c>
       <c r="D288" t="str">
-        <v>规则配置</v>
+        <v>删除</v>
       </c>
     </row>
     <row r="289">
@@ -4439,13 +4439,13 @@
         <v>rule</v>
       </c>
       <c r="B289" t="str">
-        <v>threshold</v>
+        <v>cancellation</v>
       </c>
       <c r="C289" t="str">
-        <v>Threshold</v>
+        <v>Cancel</v>
       </c>
       <c r="D289" t="str">
-        <v>阈值</v>
+        <v>取消</v>
       </c>
     </row>
     <row r="290">
@@ -4453,13 +4453,13 @@
         <v>rule</v>
       </c>
       <c r="B290" t="str">
-        <v>thresholdCannotEmpty</v>
+        <v>effective</v>
       </c>
       <c r="C290" t="str">
-        <v>The threshold cannot be empty</v>
+        <v>Valid</v>
       </c>
       <c r="D290" t="str">
-        <v>阈值不能为空</v>
+        <v>有效</v>
       </c>
     </row>
     <row r="291">
@@ -4467,13 +4467,13 @@
         <v>rule</v>
       </c>
       <c r="B291" t="str">
-        <v>pushURL</v>
+        <v>invalid</v>
       </c>
       <c r="C291" t="str">
-        <v>Push URL</v>
+        <v>Invalid</v>
       </c>
       <c r="D291" t="str">
-        <v>推送URL</v>
+        <v>无效</v>
       </c>
     </row>
     <row r="292">
@@ -4481,13 +4481,13 @@
         <v>rule</v>
       </c>
       <c r="B292" t="str">
-        <v>testAddress</v>
+        <v>delectRule</v>
       </c>
       <c r="C292" t="str">
-        <v>Test Address</v>
+        <v>Delete Rule</v>
       </c>
       <c r="D292" t="str">
-        <v>测试地址</v>
+        <v>删除规则</v>
       </c>
     </row>
     <row r="293">
@@ -4495,13 +4495,13 @@
         <v>rule</v>
       </c>
       <c r="B293" t="str">
-        <v>uploadCertificate</v>
+        <v>delectAction</v>
       </c>
       <c r="C293" t="str">
-        <v>Upload Certificate</v>
+        <v>A deletion operation will be performed. Do you wish to continue?</v>
       </c>
       <c r="D293" t="str">
-        <v>上传证书</v>
+        <v>将进行删除操作，是否继续</v>
       </c>
     </row>
     <row r="294">
@@ -4509,13 +4509,13 @@
         <v>rule</v>
       </c>
       <c r="B294" t="str">
-        <v>httpPrompt</v>
+        <v>delectSuccess</v>
       </c>
       <c r="C294" t="str">
-        <v>Note: No certificate needs to be uploaded for HTTP requests; in the HTTPS docking scenario, the server certificate can be uploaded (it needs to be re-uploaded after the certificate's validity period expires); if there is no port in the push URL, add the default port 80.</v>
+        <v>Deleted Successfully</v>
       </c>
       <c r="D294" t="str">
-        <v>注意:http请求不需要上传证书;https对接场景下，可上传服务器证书(证书有效期到期后需重传);如果推送url中没有端口，请在url中添加默认端口80。</v>
+        <v>删除成功</v>
       </c>
     </row>
     <row r="295">
@@ -4523,13 +4523,13 @@
         <v>rule</v>
       </c>
       <c r="B295" t="str">
-        <v>ruleObject</v>
+        <v>usageMonitor</v>
       </c>
       <c r="C295" t="str">
-        <v>Rule Object</v>
+        <v>Usage Monitoring</v>
       </c>
       <c r="D295" t="str">
-        <v>规则对象</v>
+        <v>用量监控</v>
       </c>
     </row>
     <row r="296">
@@ -4537,13 +4537,13 @@
         <v>rule</v>
       </c>
       <c r="B296" t="str">
-        <v>batchImport</v>
+        <v>selfSupport</v>
       </c>
       <c r="C296" t="str">
-        <v>Batch Import</v>
+        <v>Self-operated</v>
       </c>
       <c r="D296" t="str">
-        <v>批量导入</v>
+        <v>自营</v>
       </c>
     </row>
     <row r="297">
@@ -4551,13 +4551,13 @@
         <v>rule</v>
       </c>
       <c r="B297" t="str">
-        <v>batchDelete</v>
+        <v>monthDataUsage</v>
       </c>
       <c r="C297" t="str">
-        <v>Batch Import</v>
+        <v>Monthly Data Usage</v>
       </c>
       <c r="D297" t="str">
-        <v>批量删除</v>
+        <v>月数据用量</v>
       </c>
     </row>
     <row r="298">
@@ -4565,13 +4565,13 @@
         <v>rule</v>
       </c>
       <c r="B298" t="str">
-        <v>accNumber</v>
+        <v>monthSmsUsage</v>
       </c>
       <c r="C298" t="str">
-        <v>Access Number</v>
+        <v>Monthly SMS Usage</v>
       </c>
       <c r="D298" t="str">
-        <v>接入号码</v>
+        <v>月短信用量</v>
       </c>
     </row>
     <row r="299">
@@ -4579,13 +4579,13 @@
         <v>rule</v>
       </c>
       <c r="B299" t="str">
-        <v>batchImportNumber</v>
+        <v>monthVoiceUsage</v>
       </c>
       <c r="C299" t="str">
-        <v>Batch Import Numbers</v>
+        <v>Monthly Voice Usage</v>
       </c>
       <c r="D299" t="str">
-        <v>批量导入号码</v>
+        <v>月语音用量</v>
       </c>
     </row>
     <row r="300">
@@ -4593,13 +4593,13 @@
         <v>rule</v>
       </c>
       <c r="B300" t="str">
-        <v>batchDeleteNumber</v>
+        <v>monthDataPrompt</v>
       </c>
       <c r="C300" t="str">
-        <v>Batch Delete Numbers</v>
+        <v>Triggered when the monthly network usage traffic of the SIM card in the current billing cycle reaches **MB</v>
       </c>
       <c r="D300" t="str">
-        <v>批量删除号码</v>
+        <v>当SIM卡在当前计费周期月网络使用流量 达到**MB时触发</v>
       </c>
     </row>
     <row r="301">
@@ -4607,13 +4607,13 @@
         <v>rule</v>
       </c>
       <c r="B301" t="str">
-        <v>enterprise</v>
+        <v>monthSmsPrompt</v>
       </c>
       <c r="C301" t="str">
-        <v>Enterprise</v>
+        <v>Triggered when the monthly SMS usage of the SIM card in the current billing cycle reaches **messages</v>
       </c>
       <c r="D301" t="str">
-        <v>企业</v>
+        <v>当SIM卡在当前计费周期月短信使用量达 到**条时触发</v>
       </c>
     </row>
     <row r="302">
@@ -4621,13 +4621,13 @@
         <v>rule</v>
       </c>
       <c r="B302" t="str">
-        <v>simCard</v>
+        <v>monthVoicePrompt</v>
       </c>
       <c r="C302" t="str">
-        <v>SIM Card</v>
+        <v xml:space="preserve">Triggered when the monthly SMS usage of the SIM card in the current billing cycle reaches **messages  </v>
       </c>
       <c r="D302" t="str">
-        <v>SIM卡</v>
+        <v>当SIM卡在当前计费周期月短信使用量达 到**条时触发</v>
       </c>
     </row>
     <row r="303">
@@ -4635,13 +4635,13 @@
         <v>rule</v>
       </c>
       <c r="B303" t="str">
-        <v>category</v>
+        <v>selectManufacturer</v>
       </c>
       <c r="C303" t="str">
-        <v>Category</v>
+        <v>Select Manufacturer</v>
       </c>
       <c r="D303" t="str">
-        <v>类别</v>
+        <v>选择厂商</v>
       </c>
     </row>
     <row r="304">
@@ -4649,13 +4649,13 @@
         <v>rule</v>
       </c>
       <c r="B304" t="str">
-        <v>triggerFlip</v>
+        <v>package</v>
       </c>
       <c r="C304" t="str">
-        <v>Trigger</v>
+        <v>Package</v>
       </c>
       <c r="D304" t="str">
-        <v>触发器</v>
+        <v>套餐</v>
       </c>
     </row>
     <row r="305">
@@ -4663,13 +4663,13 @@
         <v>rule</v>
       </c>
       <c r="B305" t="str">
-        <v>actionDestMessage</v>
+        <v>packageName</v>
       </c>
       <c r="C305" t="str">
-        <v>The push URL cannot be empty</v>
+        <v>Offer Name</v>
       </c>
       <c r="D305" t="str">
-        <v>推送URL不能为空</v>
+        <v>套餐名称</v>
       </c>
     </row>
     <row r="306">
@@ -4677,13 +4677,13 @@
         <v>rule</v>
       </c>
       <c r="B306" t="str">
-        <v>ruleNameMessage</v>
+        <v>packageInfo</v>
       </c>
       <c r="C306" t="str">
-        <v>The rule name cannot be empty</v>
+        <v>Offer Info</v>
       </c>
       <c r="D306" t="str">
-        <v>规则名称不能为空</v>
+        <v>套餐信息</v>
       </c>
     </row>
     <row r="307">
@@ -4691,13 +4691,13 @@
         <v>rule</v>
       </c>
       <c r="B307" t="str">
-        <v>objTypeMessage</v>
+        <v>determine</v>
       </c>
       <c r="C307" t="str">
-        <v>The object type cannot be empty</v>
+        <v>Confirm</v>
       </c>
       <c r="D307" t="str">
-        <v>对象类型不能为空</v>
+        <v>确定</v>
       </c>
     </row>
     <row r="308">
@@ -4705,13 +4705,13 @@
         <v>rule</v>
       </c>
       <c r="B308" t="str">
-        <v>ruleId</v>
+        <v>defineRule</v>
       </c>
       <c r="C308" t="str">
-        <v>Rule ID</v>
+        <v>Define Rule</v>
       </c>
       <c r="D308" t="str">
-        <v>规则ID</v>
+        <v>定义规则</v>
       </c>
     </row>
     <row r="309">
@@ -4719,13 +4719,13 @@
         <v>rule</v>
       </c>
       <c r="B309" t="str">
-        <v>triggerDate</v>
+        <v>ruleDefine</v>
       </c>
       <c r="C309" t="str">
-        <v>Trigger Date</v>
+        <v>Rule Definition</v>
       </c>
       <c r="D309" t="str">
-        <v>触发日期</v>
+        <v>规则定义</v>
       </c>
     </row>
     <row r="310">
@@ -4733,13 +4733,13 @@
         <v>rule</v>
       </c>
       <c r="B310" t="str">
-        <v>iotNetworkCard</v>
+        <v>selected</v>
       </c>
       <c r="C310" t="str">
-        <v>Internet of Things Card</v>
+        <v>Current Selection</v>
       </c>
       <c r="D310" t="str">
-        <v>物联网卡</v>
+        <v>当前选择</v>
       </c>
     </row>
     <row r="311">
@@ -4747,13 +4747,13 @@
         <v>rule</v>
       </c>
       <c r="B311" t="str">
-        <v>sendMessageUrl</v>
+        <v>ruleConfiguration</v>
       </c>
       <c r="C311" t="str">
-        <v>Send an API message to the URL</v>
+        <v>Rule Configuration</v>
       </c>
       <c r="D311" t="str">
-        <v>发送一条API消息,至URL</v>
+        <v>规则配置</v>
       </c>
     </row>
     <row r="312">
@@ -4761,13 +4761,13 @@
         <v>rule</v>
       </c>
       <c r="B312" t="str">
-        <v>pushContent</v>
+        <v>threshold</v>
       </c>
       <c r="C312" t="str">
-        <v>Push Content</v>
+        <v>Threshold</v>
       </c>
       <c r="D312" t="str">
-        <v>推送内容</v>
+        <v>阈值</v>
       </c>
     </row>
     <row r="313">
@@ -4775,13 +4775,13 @@
         <v>rule</v>
       </c>
       <c r="B313" t="str">
-        <v>operationRes</v>
+        <v>thresholdCannotEmpty</v>
       </c>
       <c r="C313" t="str">
-        <v>Operation Result</v>
+        <v>The threshold cannot be empty</v>
       </c>
       <c r="D313" t="str">
-        <v>操作结果</v>
+        <v>阈值不能为空</v>
       </c>
     </row>
     <row r="314">
@@ -4789,13 +4789,13 @@
         <v>rule</v>
       </c>
       <c r="B314" t="str">
-        <v>operationResInfo</v>
+        <v>pushURL</v>
       </c>
       <c r="C314" t="str">
-        <v>Operation Result Information</v>
+        <v>Push URL</v>
       </c>
       <c r="D314" t="str">
-        <v>操作结果信息</v>
+        <v>推送URL</v>
       </c>
     </row>
     <row r="315">
@@ -4803,335 +4803,335 @@
         <v>rule</v>
       </c>
       <c r="B315" t="str">
-        <v>failureReason</v>
+        <v>testAddress</v>
       </c>
       <c r="C315" t="str">
-        <v>Failure Reason</v>
+        <v>Test Address</v>
       </c>
       <c r="D315" t="str">
-        <v>失败原因</v>
+        <v>测试地址</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B316" t="str">
-        <v>simStatus</v>
+        <v>uploadCertificate</v>
       </c>
       <c r="C316" t="str">
-        <v>SIM Status</v>
+        <v>Upload Certificate</v>
       </c>
       <c r="D316" t="str">
-        <v>卡状态</v>
+        <v>上传证书</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B317" t="str">
-        <v>addressId</v>
+        <v>httpPrompt</v>
       </c>
       <c r="C317" t="str">
-        <v>Supplier</v>
+        <v>Note: No certificate needs to be uploaded for HTTP requests; in the HTTPS docking scenario, the server certificate can be uploaded (it needs to be re-uploaded after the certificate's validity period expires); if there is no port in the push URL, add the default port 80.</v>
       </c>
       <c r="D317" t="str">
-        <v>供应商</v>
+        <v>注意:http请求不需要上传证书;https对接场景下，可上传服务器证书(证书有效期到期后需重传);如果推送url中没有端口，请在url中添加默认端口80。</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B318" t="str">
-        <v>actDate</v>
+        <v>ruleObject</v>
       </c>
       <c r="C318" t="str">
-        <v>Activate Time</v>
+        <v>Rule Object</v>
       </c>
       <c r="D318" t="str">
-        <v>激活时间</v>
+        <v>规则对象</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B319" t="str">
-        <v>package</v>
+        <v>batchImport</v>
       </c>
       <c r="C319" t="str">
-        <v>Package</v>
+        <v>Batch Import</v>
       </c>
       <c r="D319" t="str">
-        <v>套餐</v>
+        <v>批量导入</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B320" t="str">
-        <v>cust</v>
+        <v>batchDelete</v>
       </c>
       <c r="C320" t="str">
-        <v>Enterprise</v>
+        <v>Batch Import</v>
       </c>
       <c r="D320" t="str">
-        <v>企业</v>
+        <v>批量删除</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B321" t="str">
-        <v>monthUsage</v>
+        <v>accNumber</v>
       </c>
       <c r="C321" t="str">
-        <v>Monthly Usage(MB)</v>
+        <v>Access Number</v>
       </c>
       <c r="D321" t="str">
-        <v>当月使用量（MB）</v>
+        <v>接入号码</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B322" t="str">
-        <v>use</v>
+        <v>batchImportNumber</v>
       </c>
       <c r="C322" t="str">
-        <v>Online</v>
+        <v>Batch Import Numbers</v>
       </c>
       <c r="D322" t="str">
-        <v>在用</v>
+        <v>批量导入号码</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B323" t="str">
-        <v>stop</v>
+        <v>batchDeleteNumber</v>
       </c>
       <c r="C323" t="str">
-        <v>Offline</v>
+        <v>Batch Delete Numbers</v>
       </c>
       <c r="D323" t="str">
-        <v>停机</v>
+        <v>批量删除号码</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B324" t="str">
-        <v>destroy</v>
+        <v>enterprise</v>
       </c>
       <c r="C324" t="str">
-        <v>Destroy</v>
+        <v>Enterprise</v>
       </c>
       <c r="D324" t="str">
-        <v>拆机</v>
+        <v>企业</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B325" t="str">
-        <v>batchImportTitle</v>
+        <v>simCard</v>
       </c>
       <c r="C325" t="str">
-        <v xml:space="preserve">Bulk SIM Card Inquiry </v>
+        <v>SIM Card</v>
       </c>
       <c r="D325" t="str">
-        <v>SIM卡批量查询</v>
+        <v>SIM卡</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B326" t="str">
-        <v>unactivated</v>
+        <v>category</v>
       </c>
       <c r="C326" t="str">
-        <v>Not Activated</v>
+        <v>Category</v>
       </c>
       <c r="D326" t="str">
-        <v>未激活</v>
+        <v>类别</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B327" t="str">
-        <v>unactivated_test</v>
+        <v>triggerFlip</v>
       </c>
       <c r="C327" t="str">
-        <v>Not Activated (Test Period)</v>
+        <v>Trigger</v>
       </c>
       <c r="D327" t="str">
-        <v>未激活(测试期)</v>
+        <v>触发器</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B328" t="str">
-        <v>activated_test</v>
+        <v>actionDestMessage</v>
       </c>
       <c r="C328" t="str">
-        <v>Activated (Test Period)</v>
+        <v>The push URL cannot be empty</v>
       </c>
       <c r="D328" t="str">
-        <v>已激活(测试期)</v>
+        <v>推送URL不能为空</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B329" t="str">
-        <v>basicInfo</v>
+        <v>ruleNameMessage</v>
       </c>
       <c r="C329" t="str">
-        <v>Basic Information</v>
+        <v>The rule name cannot be empty</v>
       </c>
       <c r="D329" t="str">
-        <v>基本信息</v>
+        <v>规则名称不能为空</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B330" t="str">
-        <v>offerInfo</v>
+        <v>objTypeMessage</v>
       </c>
       <c r="C330" t="str">
-        <v>Package Information</v>
+        <v>The object type cannot be empty</v>
       </c>
       <c r="D330" t="str">
-        <v>套餐信息</v>
+        <v>对象类型不能为空</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B331" t="str">
-        <v>basicInfoTitle</v>
+        <v>ruleId</v>
       </c>
       <c r="C331" t="str">
-        <v>Functional Products</v>
+        <v>Rule ID</v>
       </c>
       <c r="D331" t="str">
-        <v>功能产品</v>
+        <v>规则ID</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B332" t="str">
-        <v>openDate</v>
+        <v>triggerDate</v>
       </c>
       <c r="C332" t="str">
-        <v>Card Opening Date</v>
+        <v>Trigger Date</v>
       </c>
       <c r="D332" t="str">
-        <v>开卡时间</v>
+        <v>触发日期</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B333" t="str">
-        <v>prodName</v>
+        <v>iotNetworkCard</v>
       </c>
       <c r="C333" t="str">
-        <v>Product Name</v>
+        <v>Internet of Things Card</v>
       </c>
       <c r="D333" t="str">
-        <v>产品名称</v>
+        <v>物联网卡</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B334" t="str">
-        <v>prodNbr</v>
+        <v>sendMessageUrl</v>
       </c>
       <c r="C334" t="str">
-        <v>Product Code</v>
+        <v>Send an API message to the URL</v>
       </c>
       <c r="D334" t="str">
-        <v>产品编码</v>
+        <v>发送一条API消息,至URL</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B335" t="str">
-        <v>effDate</v>
+        <v>pushContent</v>
       </c>
       <c r="C335" t="str">
-        <v>Effective Date</v>
+        <v>Push Content</v>
       </c>
       <c r="D335" t="str">
-        <v>生效时间</v>
+        <v>推送内容</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B336" t="str">
-        <v>packageInfoTitle</v>
+        <v>operationRes</v>
       </c>
       <c r="C336" t="str">
-        <v>Main Package Information</v>
+        <v>Operation Result</v>
       </c>
       <c r="D336" t="str">
-        <v>主套餐信息</v>
+        <v>操作结果</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B337" t="str">
-        <v>totalUsage</v>
+        <v>operationResInfo</v>
       </c>
       <c r="C337" t="str">
-        <v>Total Usage (MB)</v>
+        <v>Operation Result Information</v>
       </c>
       <c r="D337" t="str">
-        <v>总使用量(MB)</v>
+        <v>操作结果信息</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B338" t="str">
-        <v>mainOfferUsage</v>
+        <v>failureReason</v>
       </c>
       <c r="C338" t="str">
-        <v>Main Package Usage</v>
+        <v>Failure Reason</v>
       </c>
       <c r="D338" t="str">
-        <v>主套餐使用量</v>
+        <v>失败原因</v>
       </c>
     </row>
     <row r="339">
@@ -5139,13 +5139,13 @@
         <v>simMag</v>
       </c>
       <c r="B339" t="str">
-        <v>selectOfferUsage</v>
+        <v>simStatus</v>
       </c>
       <c r="C339" t="str">
-        <v>Optional Package Usage</v>
+        <v>SIM Status</v>
       </c>
       <c r="D339" t="str">
-        <v>可选包使用量</v>
+        <v>卡状态</v>
       </c>
     </row>
     <row r="340">
@@ -5153,13 +5153,13 @@
         <v>simMag</v>
       </c>
       <c r="B340" t="str">
-        <v>selectOffer</v>
+        <v>addressId</v>
       </c>
       <c r="C340" t="str">
-        <v>Optional Packages</v>
+        <v>Supplier</v>
       </c>
       <c r="D340" t="str">
-        <v>可选包</v>
+        <v>供应商</v>
       </c>
     </row>
     <row r="341">
@@ -5167,13 +5167,13 @@
         <v>simMag</v>
       </c>
       <c r="B341" t="str">
-        <v>selectOfferName</v>
+        <v>actDate</v>
       </c>
       <c r="C341" t="str">
-        <v>Optional Package Name</v>
+        <v>Activate Time</v>
       </c>
       <c r="D341" t="str">
-        <v>可选包名称</v>
+        <v>激活时间</v>
       </c>
     </row>
     <row r="342">
@@ -5181,13 +5181,13 @@
         <v>simMag</v>
       </c>
       <c r="B342" t="str">
-        <v>offerName</v>
+        <v>package</v>
       </c>
       <c r="C342" t="str">
-        <v>Package Name</v>
+        <v>Package</v>
       </c>
       <c r="D342" t="str">
-        <v>套餐名称</v>
+        <v>套餐</v>
       </c>
     </row>
     <row r="343">
@@ -5195,13 +5195,13 @@
         <v>simMag</v>
       </c>
       <c r="B343" t="str">
-        <v>offerNbr</v>
+        <v>cust</v>
       </c>
       <c r="C343" t="str">
-        <v>Package Number</v>
+        <v>Enterprise</v>
       </c>
       <c r="D343" t="str">
-        <v>套餐编号</v>
+        <v>企业</v>
       </c>
     </row>
     <row r="344">
@@ -5209,13 +5209,13 @@
         <v>simMag</v>
       </c>
       <c r="B344" t="str">
-        <v>expDate</v>
+        <v>monthUsage</v>
       </c>
       <c r="C344" t="str">
-        <v>Expiration Date</v>
+        <v>Monthly Usage(MB)</v>
       </c>
       <c r="D344" t="str">
-        <v>失效时间</v>
+        <v>当月使用量（MB）</v>
       </c>
     </row>
     <row r="345">
@@ -5223,13 +5223,13 @@
         <v>simMag</v>
       </c>
       <c r="B345" t="str">
-        <v>statusCd</v>
+        <v>use</v>
       </c>
       <c r="C345" t="str">
-        <v>Status</v>
+        <v>Online</v>
       </c>
       <c r="D345" t="str">
-        <v>状态</v>
+        <v>在用</v>
       </c>
     </row>
     <row r="346">
@@ -5237,13 +5237,13 @@
         <v>simMag</v>
       </c>
       <c r="B346" t="str">
-        <v>statusCdGood</v>
+        <v>stop</v>
       </c>
       <c r="C346" t="str">
-        <v>Valid</v>
+        <v>Offline</v>
       </c>
       <c r="D346" t="str">
-        <v>有效</v>
+        <v>停机</v>
       </c>
     </row>
     <row r="347">
@@ -5251,354 +5251,732 @@
         <v>simMag</v>
       </c>
       <c r="B347" t="str">
-        <v>statusCdBad</v>
+        <v>destroy</v>
       </c>
       <c r="C347" t="str">
-        <v>Invalid</v>
+        <v>Destroy</v>
       </c>
       <c r="D347" t="str">
-        <v>无效</v>
+        <v>拆机</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B348" t="str">
-        <v>groupId</v>
+        <v>batchImportTitle</v>
       </c>
       <c r="C348" t="str">
-        <v>Group ID</v>
+        <v xml:space="preserve">Bulk SIM Card Inquiry </v>
       </c>
       <c r="D348" t="str">
-        <v>群号</v>
+        <v>SIM卡批量查询</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B349" t="str">
-        <v>useCustName</v>
+        <v>unactivated</v>
       </c>
       <c r="C349" t="str">
-        <v>Customer Name</v>
+        <v>Not Activated</v>
       </c>
       <c r="D349" t="str">
-        <v>客户名称</v>
+        <v>未激活</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B350" t="str">
-        <v>memberMag</v>
+        <v>unactivated_test</v>
       </c>
       <c r="C350" t="str">
-        <v>Member Management</v>
+        <v>Not Activated (Test Period)</v>
       </c>
       <c r="D350" t="str">
-        <v>成员管理</v>
+        <v>未激活(测试期)</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B351" t="str">
-        <v>billCycle</v>
+        <v>activated_test</v>
       </c>
       <c r="C351" t="str">
-        <v>Billing Cycle</v>
+        <v>Activated (Test Period)</v>
       </c>
       <c r="D351" t="str">
-        <v>账期</v>
+        <v>已激活(测试期)</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B352" t="str">
-        <v>usageAvaMonth</v>
+        <v>basicInfo</v>
       </c>
       <c r="C352" t="str">
-        <v>Monthly Available Pool Usage (MB)</v>
+        <v>Basic Information</v>
       </c>
       <c r="D352" t="str">
-        <v>量池当月可用量（MB)</v>
+        <v>基本信息</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B353" t="str">
-        <v>usageUsedMonth</v>
+        <v>offerInfo</v>
       </c>
       <c r="C353" t="str">
-        <v>Monthly Used Pool Usage (MB)</v>
+        <v>Package Information</v>
       </c>
       <c r="D353" t="str">
-        <v>量池当月已用量（MB)</v>
+        <v>套餐信息</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B354" t="str">
-        <v>usageRemainMonth</v>
+        <v>basicInfoTitle</v>
       </c>
       <c r="C354" t="str">
-        <v>Monthly Remaining Pool Usage (MB)</v>
+        <v>Functional Products</v>
       </c>
       <c r="D354" t="str">
-        <v>量池当月剩余用量（MB)</v>
+        <v>功能产品</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B355" t="str">
-        <v>effDate</v>
+        <v>openDate</v>
       </c>
       <c r="C355" t="str">
-        <v>Effective Date</v>
+        <v>Card Opening Date</v>
       </c>
       <c r="D355" t="str">
-        <v>生效时间</v>
+        <v>开卡时间</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B356" t="str">
-        <v>expDate</v>
+        <v>prodName</v>
       </c>
       <c r="C356" t="str">
-        <v>Expiration Date</v>
+        <v>Product Name</v>
       </c>
       <c r="D356" t="str">
-        <v>失效时间</v>
+        <v>产品名称</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B357" t="str">
-        <v>memberNumber</v>
+        <v>prodNbr</v>
       </c>
       <c r="C357" t="str">
-        <v>Member Number</v>
+        <v>Product Code</v>
       </c>
       <c r="D357" t="str">
-        <v>成员号码</v>
+        <v>产品编码</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B358" t="str">
-        <v>statusCdName</v>
+        <v>attrName</v>
       </c>
       <c r="C358" t="str">
-        <v>SIM Card Status</v>
+        <v>Configuration</v>
       </c>
       <c r="D358" t="str">
-        <v>SIM卡状态</v>
+        <v>配置信息</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B359" t="str">
-        <v>usageRemain</v>
+        <v>effDate</v>
       </c>
       <c r="C359" t="str">
-        <v>Remaining Usage (MB)</v>
+        <v>Effective Date</v>
       </c>
       <c r="D359" t="str">
-        <v>已使用量（MB）</v>
+        <v>生效时间</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B360" t="str">
-        <v>enterGroupDate</v>
+        <v>packageInfoTitle</v>
       </c>
       <c r="C360" t="str">
-        <v>Join Group Date</v>
+        <v>Main Package Information</v>
       </c>
       <c r="D360" t="str">
-        <v>入群时间</v>
+        <v>主套餐信息</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B361" t="str">
-        <v>usageQuery</v>
+        <v>totalUsage</v>
       </c>
       <c r="C361" t="str">
-        <v>Usage Inquiry</v>
+        <v>Total Usage (MB)</v>
       </c>
       <c r="D361" t="str">
-        <v>用量查询</v>
+        <v>总使用量(MB)</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B362" t="str">
-        <v>poolSize</v>
+        <v>mainOfferUsage</v>
       </c>
       <c r="C362" t="str">
-        <v>Pool Size (MB)</v>
+        <v>Main Package Usage</v>
       </c>
       <c r="D362" t="str">
-        <v>池容量（MB)</v>
+        <v>主套餐使用量</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B363" t="str">
-        <v>avaMonth</v>
+        <v>selectOfferUsage</v>
       </c>
       <c r="C363" t="str">
-        <v>Monthly Used (MB)</v>
+        <v>Optional Package Usage</v>
       </c>
       <c r="D363" t="str">
-        <v>当月已用量（MB)</v>
+        <v>可选包使用量</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B364" t="str">
-        <v>remainMonth</v>
+        <v>selectOffer</v>
       </c>
       <c r="C364" t="str">
-        <v>Monthly Remaining (MB)</v>
+        <v>Optional Packages</v>
       </c>
       <c r="D364" t="str">
-        <v>当月剩余量（MB)</v>
+        <v>可选包</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B365" t="str">
-        <v>accessNum</v>
+        <v>selectOfferName</v>
       </c>
       <c r="C365" t="str">
-        <v>Access Number</v>
+        <v>Optional Package Name</v>
       </c>
       <c r="D365" t="str">
-        <v>接入号码</v>
+        <v>可选包名称</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B366" t="str">
-        <v>memberSize</v>
+        <v>offerName</v>
       </c>
       <c r="C366" t="str">
-        <v>Member Allocation Quota (MB)</v>
+        <v>Package Name</v>
       </c>
       <c r="D366" t="str">
-        <v>成员分配额度（MB)</v>
+        <v>套餐名称</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B367" t="str">
-        <v>usedSize</v>
+        <v>offerNbr</v>
       </c>
       <c r="C367" t="str">
-        <v>Used Quota</v>
+        <v>Package Number</v>
       </c>
       <c r="D367" t="str">
-        <v>已使用额度</v>
+        <v>套餐编号</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B368" t="str">
-        <v>rpNum</v>
+        <v>expDate</v>
       </c>
       <c r="C368" t="str">
-        <v>Representative Number</v>
+        <v>Expiration Date</v>
       </c>
       <c r="D368" t="str">
-        <v>代表号码</v>
+        <v>失效时间</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B369" t="str">
-        <v>package</v>
+        <v>statusCd</v>
       </c>
       <c r="C369" t="str">
-        <v>Package</v>
+        <v>Status</v>
       </c>
       <c r="D369" t="str">
-        <v>套餐</v>
+        <v>状态</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B370" t="str">
-        <v>product</v>
+        <v>statusCdGood</v>
       </c>
       <c r="C370" t="str">
-        <v>Product</v>
+        <v>Valid</v>
       </c>
       <c r="D370" t="str">
-        <v>产品</v>
+        <v>有效</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B371" t="str">
+        <v>statusCdBad</v>
+      </c>
+      <c r="C371" t="str">
+        <v>Invalid</v>
+      </c>
+      <c r="D371" t="str">
+        <v>无效</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B372" t="str">
+        <v>totalUsageValue</v>
+      </c>
+      <c r="C372" t="str">
+        <v>Total Amount</v>
+      </c>
+      <c r="D372" t="str">
+        <v>总量</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B373" t="str">
+        <v>usageValue</v>
+      </c>
+      <c r="C373" t="str">
+        <v>Used Amount</v>
+      </c>
+      <c r="D373" t="str">
+        <v>已使用量</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B374" t="str">
+        <v>remainValue</v>
+      </c>
+      <c r="C374" t="str">
+        <v>Remaining Amount</v>
+      </c>
+      <c r="D374" t="str">
+        <v>剩余量</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
         <v>traffic</v>
       </c>
-      <c r="B371" t="str">
+      <c r="B375" t="str">
+        <v>groupId</v>
+      </c>
+      <c r="C375" t="str">
+        <v>Group ID</v>
+      </c>
+      <c r="D375" t="str">
+        <v>群号</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B376" t="str">
+        <v>useCustName</v>
+      </c>
+      <c r="C376" t="str">
+        <v>Customer Name</v>
+      </c>
+      <c r="D376" t="str">
+        <v>客户名称</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B377" t="str">
+        <v>memberMag</v>
+      </c>
+      <c r="C377" t="str">
+        <v>Member Management</v>
+      </c>
+      <c r="D377" t="str">
+        <v>成员管理</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B378" t="str">
+        <v>billCycle</v>
+      </c>
+      <c r="C378" t="str">
+        <v>Billing Cycle</v>
+      </c>
+      <c r="D378" t="str">
+        <v>账期</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B379" t="str">
+        <v>usageAvaMonth</v>
+      </c>
+      <c r="C379" t="str">
+        <v>Monthly Available Pool Usage (MB)</v>
+      </c>
+      <c r="D379" t="str">
+        <v>量池当月可用量（MB)</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B380" t="str">
+        <v>usageUsedMonth</v>
+      </c>
+      <c r="C380" t="str">
+        <v>Monthly Used Pool Usage (MB)</v>
+      </c>
+      <c r="D380" t="str">
+        <v>量池当月已用量（MB)</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B381" t="str">
+        <v>usageRemainMonth</v>
+      </c>
+      <c r="C381" t="str">
+        <v>Monthly Remaining Pool Usage (MB)</v>
+      </c>
+      <c r="D381" t="str">
+        <v>量池当月剩余用量（MB)</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B382" t="str">
+        <v>effDate</v>
+      </c>
+      <c r="C382" t="str">
+        <v>Effective Date</v>
+      </c>
+      <c r="D382" t="str">
+        <v>生效时间</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B383" t="str">
+        <v>expDate</v>
+      </c>
+      <c r="C383" t="str">
+        <v>Expiration Date</v>
+      </c>
+      <c r="D383" t="str">
+        <v>失效时间</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B384" t="str">
+        <v>memberNumber</v>
+      </c>
+      <c r="C384" t="str">
+        <v>Member Number</v>
+      </c>
+      <c r="D384" t="str">
+        <v>成员号码</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B385" t="str">
+        <v>statusCdName</v>
+      </c>
+      <c r="C385" t="str">
+        <v>SIM Card Status</v>
+      </c>
+      <c r="D385" t="str">
+        <v>SIM卡状态</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B386" t="str">
+        <v>usageRemain</v>
+      </c>
+      <c r="C386" t="str">
+        <v>Remaining Usage (MB)</v>
+      </c>
+      <c r="D386" t="str">
+        <v>已使用量（MB）</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B387" t="str">
+        <v>enterGroupDate</v>
+      </c>
+      <c r="C387" t="str">
+        <v>Join Group Date</v>
+      </c>
+      <c r="D387" t="str">
+        <v>入群时间</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B388" t="str">
+        <v>usageQuery</v>
+      </c>
+      <c r="C388" t="str">
+        <v>Usage Inquiry</v>
+      </c>
+      <c r="D388" t="str">
+        <v>用量查询</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B389" t="str">
+        <v>poolSize</v>
+      </c>
+      <c r="C389" t="str">
+        <v>Pool Size (MB)</v>
+      </c>
+      <c r="D389" t="str">
+        <v>池容量（MB)</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B390" t="str">
+        <v>avaMonth</v>
+      </c>
+      <c r="C390" t="str">
+        <v>Monthly Used (MB)</v>
+      </c>
+      <c r="D390" t="str">
+        <v>当月已用量（MB)</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B391" t="str">
+        <v>remainMonth</v>
+      </c>
+      <c r="C391" t="str">
+        <v>Monthly Remaining (MB)</v>
+      </c>
+      <c r="D391" t="str">
+        <v>当月剩余量（MB)</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B392" t="str">
+        <v>accessNum</v>
+      </c>
+      <c r="C392" t="str">
+        <v>Access Number</v>
+      </c>
+      <c r="D392" t="str">
+        <v>接入号码</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B393" t="str">
+        <v>memberSize</v>
+      </c>
+      <c r="C393" t="str">
+        <v>Member Allocation Quota (MB)</v>
+      </c>
+      <c r="D393" t="str">
+        <v>成员分配额度（MB)</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B394" t="str">
+        <v>usedSize</v>
+      </c>
+      <c r="C394" t="str">
+        <v>Used Quota</v>
+      </c>
+      <c r="D394" t="str">
+        <v>已使用额度</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B395" t="str">
+        <v>rpNum</v>
+      </c>
+      <c r="C395" t="str">
+        <v>Representative Number</v>
+      </c>
+      <c r="D395" t="str">
+        <v>代表号码</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B396" t="str">
+        <v>package</v>
+      </c>
+      <c r="C396" t="str">
+        <v>Package</v>
+      </c>
+      <c r="D396" t="str">
+        <v>套餐</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B397" t="str">
+        <v>product</v>
+      </c>
+      <c r="C397" t="str">
+        <v>Product</v>
+      </c>
+      <c r="D397" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B398" t="str">
         <v>prodDes</v>
       </c>
-      <c r="C371" t="str">
+      <c r="C398" t="str">
         <v>Product Description</v>
       </c>
-      <c r="D371" t="str">
+      <c r="D398" t="str">
         <v>产品描述</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D371"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D398"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/json_to_excel/i18n_from_json.xlsx
+++ b/json_to_excel/i18n_from_json.xlsx
@@ -956,7 +956,7 @@
         <v>createDate</v>
       </c>
       <c r="C40" t="str">
-        <v xml:space="preserve">Publication Date: </v>
+        <v>Publication Date</v>
       </c>
       <c r="D40" t="str">
         <v>发布日期：</v>
@@ -970,7 +970,7 @@
         <v>updateDate</v>
       </c>
       <c r="C41" t="str">
-        <v xml:space="preserve">Modification Date: </v>
+        <v>Modification Date</v>
       </c>
       <c r="D41" t="str">
         <v>修改日期：</v>
@@ -1320,7 +1320,7 @@
         <v>please</v>
       </c>
       <c r="C66" t="str">
-        <v xml:space="preserve">Please </v>
+        <v>Please</v>
       </c>
       <c r="D66" t="str">
         <v>请</v>
@@ -2006,7 +2006,7 @@
         <v>custUsage</v>
       </c>
       <c r="C115" t="str">
-        <v>Total Customer Usage</v>
+        <v>Total Usage</v>
       </c>
       <c r="D115" t="str">
         <v>用户总使用量</v>
@@ -3840,7 +3840,7 @@
         <v>success</v>
       </c>
       <c r="C246" t="str">
-        <v xml:space="preserve">Success: </v>
+        <v>Success:</v>
       </c>
       <c r="D246" t="str">
         <v>成功：</v>
@@ -3854,7 +3854,7 @@
         <v>fail</v>
       </c>
       <c r="C247" t="str">
-        <v xml:space="preserve">Failure: </v>
+        <v>Failure:</v>
       </c>
       <c r="D247" t="str">
         <v>失败：</v>
@@ -3868,7 +3868,7 @@
         <v>doing</v>
       </c>
       <c r="C248" t="str">
-        <v xml:space="preserve">In Progress: </v>
+        <v>In Progress:</v>
       </c>
       <c r="D248" t="str">
         <v>处理中：</v>
@@ -3882,7 +3882,7 @@
         <v>wait</v>
       </c>
       <c r="C249" t="str">
-        <v xml:space="preserve">Pending: </v>
+        <v>Pending:</v>
       </c>
       <c r="D249" t="str">
         <v>待处理：</v>
@@ -4134,7 +4134,7 @@
         <v>selectRule</v>
       </c>
       <c r="C267" t="str">
-        <v>Set Rule</v>
+        <v>Select Rule</v>
       </c>
       <c r="D267" t="str">
         <v>选择规则类型</v>
@@ -4148,7 +4148,7 @@
         <v>setRule</v>
       </c>
       <c r="C268" t="str">
-        <v/>
+        <v>Set Rule</v>
       </c>
       <c r="D268" t="str">
         <v>设置规则</v>
@@ -4403,7 +4403,7 @@
         <v>Loading</v>
       </c>
       <c r="D286" t="str">
-        <v/>
+        <v>加载中</v>
       </c>
     </row>
     <row r="287">
@@ -4624,7 +4624,7 @@
         <v>monthVoicePrompt</v>
       </c>
       <c r="C302" t="str">
-        <v xml:space="preserve">Triggered when the monthly SMS usage of the SIM card in the current billing cycle reaches **messages  </v>
+        <v>Triggered when the monthly SMS usage of the SIM card in the current billing cycle reaches **messages</v>
       </c>
       <c r="D302" t="str">
         <v>当SIM卡在当前计费周期月短信使用量达 到**条时触发</v>
@@ -4641,7 +4641,7 @@
         <v>Select Manufacturer</v>
       </c>
       <c r="D303" t="str">
-        <v>选择厂商</v>
+        <v>厂商</v>
       </c>
     </row>
     <row r="304">
@@ -5268,7 +5268,7 @@
         <v>batchImportTitle</v>
       </c>
       <c r="C348" t="str">
-        <v xml:space="preserve">Bulk SIM Card Inquiry </v>
+        <v>Bulk SIM Card Inquiry</v>
       </c>
       <c r="D348" t="str">
         <v>SIM卡批量查询</v>

--- a/json_to_excel/i18n_from_json.xlsx
+++ b/json_to_excel/i18n_from_json.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D398"/>
+  <dimension ref="A1:D455"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -463,13 +463,13 @@
         <v>accountMag</v>
       </c>
       <c r="B5" t="str">
-        <v>statusCd</v>
+        <v>createTime</v>
       </c>
       <c r="C5" t="str">
-        <v>Account Status</v>
+        <v>Creation Time</v>
       </c>
       <c r="D5" t="str">
-        <v>账号状态</v>
+        <v>创建时间</v>
       </c>
     </row>
     <row r="6">
@@ -477,13 +477,13 @@
         <v>accountMag</v>
       </c>
       <c r="B6" t="str">
-        <v>createTime</v>
+        <v>userCode</v>
       </c>
       <c r="C6" t="str">
-        <v>Creation Time</v>
+        <v>Account Code</v>
       </c>
       <c r="D6" t="str">
-        <v>创建时间</v>
+        <v>账号编码</v>
       </c>
     </row>
     <row r="7">
@@ -491,13 +491,13 @@
         <v>accountMag</v>
       </c>
       <c r="B7" t="str">
-        <v>userCode</v>
+        <v>roleName</v>
       </c>
       <c r="C7" t="str">
-        <v>Account Code</v>
+        <v>Role</v>
       </c>
       <c r="D7" t="str">
-        <v>账号编码</v>
+        <v>角色名称</v>
       </c>
     </row>
     <row r="8">
@@ -505,13 +505,13 @@
         <v>accountMag</v>
       </c>
       <c r="B8" t="str">
-        <v>roleName</v>
+        <v>areaCode</v>
       </c>
       <c r="C8" t="str">
-        <v>Role</v>
+        <v>Area Code</v>
       </c>
       <c r="D8" t="str">
-        <v>角色名称</v>
+        <v>区号</v>
       </c>
     </row>
     <row r="9">
@@ -519,13 +519,13 @@
         <v>accountMag</v>
       </c>
       <c r="B9" t="str">
-        <v>areaCode</v>
+        <v>mobile</v>
       </c>
       <c r="C9" t="str">
-        <v>Area Code</v>
+        <v>Mobile Phone</v>
       </c>
       <c r="D9" t="str">
-        <v>区号</v>
+        <v>手机号码</v>
       </c>
     </row>
     <row r="10">
@@ -533,13 +533,13 @@
         <v>accountMag</v>
       </c>
       <c r="B10" t="str">
-        <v>mobile</v>
+        <v>phone</v>
       </c>
       <c r="C10" t="str">
-        <v>Mobile Phone</v>
+        <v>TelePhone</v>
       </c>
       <c r="D10" t="str">
-        <v>手机号码</v>
+        <v>办公号码</v>
       </c>
     </row>
     <row r="11">
@@ -547,13 +547,13 @@
         <v>accountMag</v>
       </c>
       <c r="B11" t="str">
-        <v>phone</v>
+        <v>email</v>
       </c>
       <c r="C11" t="str">
-        <v>TelePhone</v>
+        <v>Email</v>
       </c>
       <c r="D11" t="str">
-        <v>办公号码</v>
+        <v>邮箱</v>
       </c>
     </row>
     <row r="12">
@@ -561,13 +561,13 @@
         <v>accountMag</v>
       </c>
       <c r="B12" t="str">
-        <v>email</v>
+        <v>fax</v>
       </c>
       <c r="C12" t="str">
-        <v>Email</v>
+        <v>Fax</v>
       </c>
       <c r="D12" t="str">
-        <v>邮箱</v>
+        <v>传真号码</v>
       </c>
     </row>
     <row r="13">
@@ -575,13 +575,13 @@
         <v>accountMag</v>
       </c>
       <c r="B13" t="str">
-        <v>fax</v>
+        <v>corp</v>
       </c>
       <c r="C13" t="str">
-        <v>Fax</v>
+        <v>Corp</v>
       </c>
       <c r="D13" t="str">
-        <v>传真号码</v>
+        <v>企业</v>
       </c>
     </row>
     <row r="14">
@@ -589,13 +589,13 @@
         <v>accountMag</v>
       </c>
       <c r="B14" t="str">
-        <v>corp</v>
+        <v>createAccount</v>
       </c>
       <c r="C14" t="str">
-        <v>Corp</v>
+        <v>Create Account</v>
       </c>
       <c r="D14" t="str">
-        <v>企业</v>
+        <v>新建账号</v>
       </c>
     </row>
     <row r="15">
@@ -603,13 +603,13 @@
         <v>accountMag</v>
       </c>
       <c r="B15" t="str">
-        <v>createAccount</v>
+        <v>editAccount</v>
       </c>
       <c r="C15" t="str">
-        <v>Create Account</v>
+        <v>Edit Account</v>
       </c>
       <c r="D15" t="str">
-        <v>新建账号</v>
+        <v>编辑账号</v>
       </c>
     </row>
     <row r="16">
@@ -617,13 +617,13 @@
         <v>accountMag</v>
       </c>
       <c r="B16" t="str">
-        <v>editAccount</v>
+        <v>viewPlain</v>
       </c>
       <c r="C16" t="str">
-        <v>Edit Account</v>
+        <v>View Plain</v>
       </c>
       <c r="D16" t="str">
-        <v>编辑账号</v>
+        <v>查看明文</v>
       </c>
     </row>
     <row r="17">
@@ -631,13 +631,13 @@
         <v>accountMag</v>
       </c>
       <c r="B17" t="str">
-        <v>viewPlain</v>
+        <v>stop</v>
       </c>
       <c r="C17" t="str">
-        <v>View Plain</v>
+        <v>Stop</v>
       </c>
       <c r="D17" t="str">
-        <v>查看明文</v>
+        <v>停用</v>
       </c>
     </row>
     <row r="18">
@@ -645,13 +645,13 @@
         <v>accountMag</v>
       </c>
       <c r="B18" t="str">
-        <v>stop</v>
+        <v>activate</v>
       </c>
       <c r="C18" t="str">
-        <v>Stop</v>
+        <v>Activate</v>
       </c>
       <c r="D18" t="str">
-        <v>停用</v>
+        <v>启用</v>
       </c>
     </row>
     <row r="19">
@@ -659,13 +659,13 @@
         <v>accountMag</v>
       </c>
       <c r="B19" t="str">
-        <v>activate</v>
+        <v>simStatus</v>
       </c>
       <c r="C19" t="str">
-        <v>Activate</v>
+        <v>SIM Card Status</v>
       </c>
       <c r="D19" t="str">
-        <v>启用</v>
+        <v>卡状态</v>
       </c>
     </row>
     <row r="20">
@@ -673,13 +673,13 @@
         <v>accountMag</v>
       </c>
       <c r="B20" t="str">
-        <v>simStatus</v>
+        <v>deleteAsk</v>
       </c>
       <c r="C20" t="str">
-        <v>SIM card status</v>
+        <v>Are you sure you want to delete the associated number?</v>
       </c>
       <c r="D20" t="str">
-        <v>卡状态</v>
+        <v>是否删除关联号码？</v>
       </c>
     </row>
     <row r="21">
@@ -687,13 +687,13 @@
         <v>accountMag</v>
       </c>
       <c r="B21" t="str">
-        <v>deleteAsk</v>
+        <v>stopAsk</v>
       </c>
       <c r="C21" t="str">
-        <v>Are you sure you want to delete the associated number?</v>
+        <v>You are about to 【disable】 this account, proceed?</v>
       </c>
       <c r="D21" t="str">
-        <v>是否删除关联号码？</v>
+        <v>即将【停用】该账号，是否继续？</v>
       </c>
     </row>
     <row r="22">
@@ -701,13 +701,13 @@
         <v>accountMag</v>
       </c>
       <c r="B22" t="str">
-        <v>stopAsk</v>
+        <v>activateAsk</v>
       </c>
       <c r="C22" t="str">
-        <v>You are about to 【disable】 this account, proceed?</v>
+        <v>You are about to 【activate】 this account, proceed?</v>
       </c>
       <c r="D22" t="str">
-        <v>即将【停用】该账号，是否继续？</v>
+        <v>即将【激活】该账号，是否继续？</v>
       </c>
     </row>
     <row r="23">
@@ -715,13 +715,13 @@
         <v>accountMag</v>
       </c>
       <c r="B23" t="str">
-        <v>activateAsk</v>
+        <v>activateAccount</v>
       </c>
       <c r="C23" t="str">
-        <v>You are about to 【activate】 this account, proceed?</v>
+        <v>Activate Account</v>
       </c>
       <c r="D23" t="str">
-        <v>即将【激活】该账号，是否继续？</v>
+        <v>激活账号</v>
       </c>
     </row>
     <row r="24">
@@ -729,13 +729,13 @@
         <v>accountMag</v>
       </c>
       <c r="B24" t="str">
-        <v>activateAccount</v>
+        <v>stopAccount</v>
       </c>
       <c r="C24" t="str">
-        <v>Activate Account</v>
+        <v>Disable Account</v>
       </c>
       <c r="D24" t="str">
-        <v>激活账号</v>
+        <v>停用账号</v>
       </c>
     </row>
     <row r="25">
@@ -743,13 +743,13 @@
         <v>accountMag</v>
       </c>
       <c r="B25" t="str">
-        <v>stopAccount</v>
+        <v>activateSuccess</v>
       </c>
       <c r="C25" t="str">
-        <v>Disable Account</v>
+        <v>Activation successfully!</v>
       </c>
       <c r="D25" t="str">
-        <v>停用账号</v>
+        <v>激活成功！</v>
       </c>
     </row>
     <row r="26">
@@ -757,13 +757,13 @@
         <v>accountMag</v>
       </c>
       <c r="B26" t="str">
-        <v>activateSuccess</v>
+        <v>stopSuccess</v>
       </c>
       <c r="C26" t="str">
-        <v>Activation Successful!</v>
+        <v>Disabled Successfully!</v>
       </c>
       <c r="D26" t="str">
-        <v>激活成功！</v>
+        <v>停用成功！</v>
       </c>
     </row>
     <row r="27">
@@ -771,97 +771,97 @@
         <v>accountMag</v>
       </c>
       <c r="B27" t="str">
-        <v>stopSuccess</v>
+        <v>userCode632</v>
       </c>
       <c r="C27" t="str">
-        <v>Disabled Successfully!</v>
+        <v>Please enter a combination of 6 to 32 letters, numbers, and underscores</v>
       </c>
       <c r="D27" t="str">
-        <v>停用成功！</v>
+        <v>请输入6位到32位字母、数字、下划线组合</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>ann</v>
+        <v>accountMag</v>
       </c>
       <c r="B28" t="str">
-        <v>bulletinType</v>
+        <v>userName32</v>
       </c>
       <c r="C28" t="str">
-        <v>Bulletin Type</v>
+        <v>Name input error, please enter characters within 32 positions</v>
       </c>
       <c r="D28" t="str">
-        <v>公告类型</v>
+        <v>姓名输入错误，请输入 32 位以内字符</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>ann</v>
+        <v>accountMag</v>
       </c>
       <c r="B29" t="str">
-        <v>type</v>
+        <v>correctMobile</v>
       </c>
       <c r="C29" t="str">
-        <v>Status</v>
+        <v>Please enter a valid phone number</v>
       </c>
       <c r="D29" t="str">
-        <v>公告状态</v>
+        <v>请输入正确的手机号码</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>ann</v>
+        <v>accountMag</v>
       </c>
       <c r="B30" t="str">
-        <v>markRead</v>
+        <v>createSuccess</v>
       </c>
       <c r="C30" t="str">
-        <v>Mark as Read</v>
+        <v>Creation successfully!</v>
       </c>
       <c r="D30" t="str">
-        <v>标记已读</v>
+        <v>创建成功！</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>ann</v>
+        <v>accountMag</v>
       </c>
       <c r="B31" t="str">
-        <v>markAllRead</v>
+        <v>modifySuccess</v>
       </c>
       <c r="C31" t="str">
-        <v>Mark All as Read</v>
+        <v>Modification successfully!</v>
       </c>
       <c r="D31" t="str">
-        <v>全部已读</v>
+        <v>修改成功！</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>ann</v>
+        <v>accountMag</v>
       </c>
       <c r="B32" t="str">
-        <v>bulletinTitle</v>
+        <v>sendSuccess</v>
       </c>
       <c r="C32" t="str">
-        <v>Bulletin Title</v>
+        <v>Sent successfully!</v>
       </c>
       <c r="D32" t="str">
-        <v>公告标题</v>
+        <v>发送成功！</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>ann</v>
+        <v>accountMag</v>
       </c>
       <c r="B33" t="str">
-        <v>bulletinTypeDefault</v>
+        <v>setSuccess</v>
       </c>
       <c r="C33" t="str">
-        <v>Corporate Bulletin</v>
+        <v>Set successfully!</v>
       </c>
       <c r="D33" t="str">
-        <v>企业公告</v>
+        <v>设置成功！</v>
       </c>
     </row>
     <row r="34">
@@ -869,13 +869,13 @@
         <v>ann</v>
       </c>
       <c r="B34" t="str">
-        <v>publishDate</v>
+        <v>bulletinType</v>
       </c>
       <c r="C34" t="str">
-        <v>Effective Date</v>
+        <v>Bulletin Type</v>
       </c>
       <c r="D34" t="str">
-        <v>生效时间</v>
+        <v>公告类型</v>
       </c>
     </row>
     <row r="35">
@@ -883,13 +883,13 @@
         <v>ann</v>
       </c>
       <c r="B35" t="str">
-        <v>expDate</v>
+        <v>type</v>
       </c>
       <c r="C35" t="str">
-        <v>Expiration Date</v>
+        <v>Status</v>
       </c>
       <c r="D35" t="str">
-        <v>失效时间</v>
+        <v>公告状态</v>
       </c>
     </row>
     <row r="36">
@@ -897,13 +897,13 @@
         <v>ann</v>
       </c>
       <c r="B36" t="str">
-        <v>read</v>
+        <v>markRead</v>
       </c>
       <c r="C36" t="str">
-        <v>Read</v>
+        <v>Mark as Read</v>
       </c>
       <c r="D36" t="str">
-        <v>已读</v>
+        <v>标记已读</v>
       </c>
     </row>
     <row r="37">
@@ -911,13 +911,13 @@
         <v>ann</v>
       </c>
       <c r="B37" t="str">
-        <v>unread</v>
+        <v>markAllRead</v>
       </c>
       <c r="C37" t="str">
-        <v>Unread</v>
+        <v>Mark All as Read</v>
       </c>
       <c r="D37" t="str">
-        <v>未读</v>
+        <v>全部已读</v>
       </c>
     </row>
     <row r="38">
@@ -925,13 +925,13 @@
         <v>ann</v>
       </c>
       <c r="B38" t="str">
-        <v>unknown</v>
+        <v>bulletinTitle</v>
       </c>
       <c r="C38" t="str">
-        <v>Unknown</v>
+        <v>Bulletin Title</v>
       </c>
       <c r="D38" t="str">
-        <v>未知</v>
+        <v>公告标题</v>
       </c>
     </row>
     <row r="39">
@@ -939,13 +939,13 @@
         <v>ann</v>
       </c>
       <c r="B39" t="str">
-        <v>detail</v>
+        <v>bulletinTypeDefault</v>
       </c>
       <c r="C39" t="str">
-        <v>Bulletin Detail</v>
+        <v>Corporate Bulletin</v>
       </c>
       <c r="D39" t="str">
-        <v>公告详情</v>
+        <v>企业公告</v>
       </c>
     </row>
     <row r="40">
@@ -953,13 +953,13 @@
         <v>ann</v>
       </c>
       <c r="B40" t="str">
-        <v>createDate</v>
+        <v>publishDate</v>
       </c>
       <c r="C40" t="str">
-        <v>Publication Date</v>
+        <v>Effective Time</v>
       </c>
       <c r="D40" t="str">
-        <v>发布日期：</v>
+        <v>生效时间</v>
       </c>
     </row>
     <row r="41">
@@ -967,13 +967,13 @@
         <v>ann</v>
       </c>
       <c r="B41" t="str">
-        <v>updateDate</v>
+        <v>expDate</v>
       </c>
       <c r="C41" t="str">
-        <v>Modification Date</v>
+        <v>Expiration Time</v>
       </c>
       <c r="D41" t="str">
-        <v>修改日期：</v>
+        <v>失效时间</v>
       </c>
     </row>
     <row r="42">
@@ -981,13 +981,13 @@
         <v>ann</v>
       </c>
       <c r="B42" t="str">
-        <v>back</v>
+        <v>read</v>
       </c>
       <c r="C42" t="str">
-        <v>Back</v>
+        <v>Read</v>
       </c>
       <c r="D42" t="str">
-        <v>返 回</v>
+        <v>已读</v>
       </c>
     </row>
     <row r="43">
@@ -995,97 +995,97 @@
         <v>ann</v>
       </c>
       <c r="B43" t="str">
-        <v>setSuccess</v>
+        <v>unread</v>
       </c>
       <c r="C43" t="str">
-        <v>Set Successful!</v>
+        <v>Unread</v>
       </c>
       <c r="D43" t="str">
-        <v>设置成功！</v>
+        <v>未读</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>api</v>
+        <v>ann</v>
       </c>
       <c r="B44" t="str">
-        <v>intro</v>
+        <v>unknown</v>
       </c>
       <c r="C44" t="str">
-        <v>API Introduction</v>
+        <v>Unknown</v>
       </c>
       <c r="D44" t="str">
-        <v>API介绍</v>
+        <v>未知</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>api</v>
+        <v>ann</v>
       </c>
       <c r="B45" t="str">
-        <v>introDes1</v>
+        <v>detail</v>
       </c>
       <c r="C45" t="str">
-        <v>The global CMP platform integrates self-operated numbers and resale numbers from international carriers, providing a unified API capability interface. IoT customers can use their own application platforms to call the API interface to retrieve information related to data traffic of Internet of Things cards, SMS usage, card lifecycle status, etc.</v>
+        <v>Bulletin Detail</v>
       </c>
       <c r="D45" t="str">
-        <v>国际CMP平台融合自营号码、国际运营商转售号码，提供统一的API能力接口，物联网客户可以通过自己的应用平台调用API接口，获取物联卡数据流量、短信使用、卡生命周期状态等相关信息。</v>
+        <v>公告详情</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>api</v>
+        <v>ann</v>
       </c>
       <c r="B46" t="str">
-        <v>introDes2</v>
+        <v>createDate</v>
       </c>
       <c r="C46" t="str">
-        <v>To obtain the API specification, please download it under [System Management] - [Knowledge Base].</v>
+        <v xml:space="preserve">Publication Date: </v>
       </c>
       <c r="D46" t="str">
-        <v>如需获取 API 规范，请到【系统管理】- 【知识库】下载</v>
+        <v>发布日期：</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>api</v>
+        <v>ann</v>
       </c>
       <c r="B47" t="str">
-        <v>basicInfo</v>
+        <v>updateDate</v>
       </c>
       <c r="C47" t="str">
-        <v>Account Info</v>
+        <v xml:space="preserve">Modification Date: </v>
       </c>
       <c r="D47" t="str">
-        <v>基础信息</v>
+        <v>修改日期：</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>api</v>
+        <v>ann</v>
       </c>
       <c r="B48" t="str">
-        <v>gwUserName</v>
+        <v>back</v>
       </c>
       <c r="C48" t="str">
-        <v>Gateway Account Name</v>
+        <v>Back</v>
       </c>
       <c r="D48" t="str">
-        <v>网关账号名称</v>
+        <v>返 回</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>api</v>
+        <v>ann</v>
       </c>
       <c r="B49" t="str">
-        <v>cmpUserCode</v>
+        <v>setSuccess</v>
       </c>
       <c r="C49" t="str">
-        <v>CMP Account</v>
+        <v>Set Successful!</v>
       </c>
       <c r="D49" t="str">
-        <v>CMP账号</v>
+        <v>设置成功！</v>
       </c>
     </row>
     <row r="50">
@@ -1093,13 +1093,13 @@
         <v>api</v>
       </c>
       <c r="B50" t="str">
-        <v>cmpUserName</v>
+        <v>intro</v>
       </c>
       <c r="C50" t="str">
-        <v>CMP Account Name</v>
+        <v>API Introduction</v>
       </c>
       <c r="D50" t="str">
-        <v>CMP账号名称</v>
+        <v>API介绍</v>
       </c>
     </row>
     <row r="51">
@@ -1107,13 +1107,13 @@
         <v>api</v>
       </c>
       <c r="B51" t="str">
-        <v>appKey</v>
+        <v>introDes1</v>
       </c>
       <c r="C51" t="str">
-        <v>APP_Key</v>
+        <v>The global CMP platform integrates self-operated numbers and resale numbers from international carriers, providing a unified API capability interface. IoT customers can use their own application platforms to call the API interface to retrieve information related to data traffic of Internet of Things cards, SMS usage, card lifecycle status, etc.</v>
       </c>
       <c r="D51" t="str">
-        <v>APP_Key</v>
+        <v>国际CMP平台融合自营号码、国际运营商转售号码，提供统一的API能力接口，物联网客户可以通过自己的应用平台调用API接口，获取物联卡数据流量、短信使用、卡生命周期状态等相关信息。</v>
       </c>
     </row>
     <row r="52">
@@ -1121,13 +1121,13 @@
         <v>api</v>
       </c>
       <c r="B52" t="str">
-        <v>secretKey</v>
+        <v>introDes2</v>
       </c>
       <c r="C52" t="str">
-        <v>Secret_Key</v>
+        <v>To obtain the API specification, please download it under [System Management] - [Knowledge Base].</v>
       </c>
       <c r="D52" t="str">
-        <v>Secret_Key</v>
+        <v>如需获取 API 规范，请到【系统管理】- 【知识库】下载</v>
       </c>
     </row>
     <row r="53">
@@ -1135,13 +1135,13 @@
         <v>api</v>
       </c>
       <c r="B53" t="str">
-        <v>createUserCode</v>
+        <v>basicInfo</v>
       </c>
       <c r="C53" t="str">
-        <v>Created By</v>
+        <v>Account Info</v>
       </c>
       <c r="D53" t="str">
-        <v>创建人</v>
+        <v>基础信息</v>
       </c>
     </row>
     <row r="54">
@@ -1149,13 +1149,13 @@
         <v>api</v>
       </c>
       <c r="B54" t="str">
-        <v>createDate</v>
+        <v>gwUserId</v>
       </c>
       <c r="C54" t="str">
-        <v>Creation Date</v>
+        <v>Gateway Account（user_id）：</v>
       </c>
       <c r="D54" t="str">
-        <v>创建时间</v>
+        <v>网关账号（user_id）：</v>
       </c>
     </row>
     <row r="55">
@@ -1163,13 +1163,13 @@
         <v>api</v>
       </c>
       <c r="B55" t="str">
-        <v>updateUserCode</v>
+        <v>gwUserName</v>
       </c>
       <c r="C55" t="str">
-        <v>Updated By</v>
+        <v>Gateway Account Name</v>
       </c>
       <c r="D55" t="str">
-        <v>修改人</v>
+        <v>网关账号名称</v>
       </c>
     </row>
     <row r="56">
@@ -1177,13 +1177,13 @@
         <v>api</v>
       </c>
       <c r="B56" t="str">
-        <v>updateDate</v>
+        <v>cmpUserCode</v>
       </c>
       <c r="C56" t="str">
-        <v>Update Date</v>
+        <v>CMP Account</v>
       </c>
       <c r="D56" t="str">
-        <v>修改时间</v>
+        <v>CMP账号</v>
       </c>
     </row>
     <row r="57">
@@ -1191,13 +1191,13 @@
         <v>api</v>
       </c>
       <c r="B57" t="str">
-        <v>viewPlain</v>
+        <v>cmpUserName</v>
       </c>
       <c r="C57" t="str">
-        <v>View Plain Text</v>
+        <v>CMP Account Name</v>
       </c>
       <c r="D57" t="str">
-        <v>查看明文</v>
+        <v>CMP账号名称</v>
       </c>
     </row>
     <row r="58">
@@ -1205,13 +1205,13 @@
         <v>api</v>
       </c>
       <c r="B58" t="str">
-        <v>currentEmail</v>
+        <v>appKey</v>
       </c>
       <c r="C58" t="str">
-        <v>Email bound to the current account</v>
+        <v>APP_Key</v>
       </c>
       <c r="D58" t="str">
-        <v>当前账号绑定的邮箱</v>
+        <v>APP_Key</v>
       </c>
     </row>
     <row r="59">
@@ -1219,13 +1219,13 @@
         <v>api</v>
       </c>
       <c r="B59" t="str">
-        <v>checkCode</v>
+        <v>secretKey</v>
       </c>
       <c r="C59" t="str">
-        <v>Verification Code</v>
+        <v>Secret_Key</v>
       </c>
       <c r="D59" t="str">
-        <v>验证码</v>
+        <v>Secret_Key</v>
       </c>
     </row>
     <row r="60">
@@ -1233,13 +1233,13 @@
         <v>api</v>
       </c>
       <c r="B60" t="str">
-        <v>sendCode</v>
+        <v>createUserCode</v>
       </c>
       <c r="C60" t="str">
-        <v>Send</v>
+        <v>Created By</v>
       </c>
       <c r="D60" t="str">
-        <v>发送验证码</v>
+        <v>创建人</v>
       </c>
     </row>
     <row r="61">
@@ -1247,13 +1247,13 @@
         <v>api</v>
       </c>
       <c r="B61" t="str">
-        <v>apiEdit</v>
+        <v>createDate</v>
       </c>
       <c r="C61" t="str">
-        <v>API Key Modification</v>
+        <v>Creation Time</v>
       </c>
       <c r="D61" t="str">
-        <v>API密钥修改</v>
+        <v>创建时间</v>
       </c>
     </row>
     <row r="62">
@@ -1261,13 +1261,13 @@
         <v>api</v>
       </c>
       <c r="B62" t="str">
-        <v>oldSecret</v>
+        <v>updateUserCode</v>
       </c>
       <c r="C62" t="str">
-        <v>Old Secret</v>
+        <v>Updated By</v>
       </c>
       <c r="D62" t="str">
-        <v>旧密钥</v>
+        <v>修改人</v>
       </c>
     </row>
     <row r="63">
@@ -1275,13 +1275,13 @@
         <v>api</v>
       </c>
       <c r="B63" t="str">
-        <v>newSecret</v>
+        <v>updateDate</v>
       </c>
       <c r="C63" t="str">
-        <v>New Secret</v>
+        <v>Update Time</v>
       </c>
       <c r="D63" t="str">
-        <v>新密钥</v>
+        <v>修改时间</v>
       </c>
     </row>
     <row r="64">
@@ -1289,111 +1289,111 @@
         <v>api</v>
       </c>
       <c r="B64" t="str">
-        <v>secretTip</v>
+        <v>viewPlain</v>
       </c>
       <c r="C64" t="str">
-        <v>To ensure the normal use of the encryption algorithm, the key length is fixed at 9 characters. The key must contain uppercase and lowercase English letters and numbers. The key must not be consecutive numbers or passwords.</v>
+        <v>View Plain Text</v>
       </c>
       <c r="D64" t="str">
-        <v>为确保加密算法正常使用，密钥长度固定为 9 位，密钥必须包含大小写英文和数字，密钥不得是连续数字或者密码</v>
+        <v>查看明文</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>batchUpload</v>
+        <v>api</v>
       </c>
       <c r="B65" t="str">
-        <v>uploading</v>
+        <v>currentEmail</v>
       </c>
       <c r="C65" t="str">
-        <v>File is uploading, please wait</v>
+        <v>Email bound to the current account</v>
       </c>
       <c r="D65" t="str">
-        <v>文件上传中，请稍候</v>
+        <v>当前账号绑定的邮箱</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>batchUpload</v>
+        <v>api</v>
       </c>
       <c r="B66" t="str">
-        <v>please</v>
+        <v>checkCode</v>
       </c>
       <c r="C66" t="str">
-        <v>Please</v>
+        <v>Verification Code</v>
       </c>
       <c r="D66" t="str">
-        <v>请</v>
+        <v>验证码</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>batchUpload</v>
+        <v>api</v>
       </c>
       <c r="B67" t="str">
-        <v>downloadTpl</v>
+        <v>sendCode</v>
       </c>
       <c r="C67" t="str">
-        <v>Download Template</v>
+        <v>Send</v>
       </c>
       <c r="D67" t="str">
-        <v>下载模板</v>
+        <v>发送验证码</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>batchUpload</v>
+        <v>api</v>
       </c>
       <c r="B68" t="str">
-        <v>please2</v>
+        <v>apiEdit</v>
       </c>
       <c r="C68" t="str">
-        <v>, and after entering data according to the template instructions, upload it</v>
+        <v>API Key Modification</v>
       </c>
       <c r="D68" t="str">
-        <v>，并按照模板提示输入数据后上传</v>
+        <v>API密钥修改</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>batchUpload</v>
+        <v>api</v>
       </c>
       <c r="B69" t="str">
-        <v>warmTip</v>
+        <v>oldSecret</v>
       </c>
       <c r="C69" t="str">
-        <v>Warm Reminder: Please select template download;</v>
+        <v>Old Secret</v>
       </c>
       <c r="D69" t="str">
-        <v>温馨提示：请选择模板下载；</v>
+        <v>旧密钥</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>batchUpload</v>
+        <v>api</v>
       </c>
       <c r="B70" t="str">
-        <v>drag1</v>
+        <v>newSecret</v>
       </c>
       <c r="C70" t="str">
-        <v>Drag the file here, or</v>
+        <v>New Secret</v>
       </c>
       <c r="D70" t="str">
-        <v>将文件拖到此处，或</v>
+        <v>新密钥</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>batchUpload</v>
+        <v>api</v>
       </c>
       <c r="B71" t="str">
-        <v>drag2</v>
+        <v>secretTip</v>
       </c>
       <c r="C71" t="str">
-        <v>choose to upload the file</v>
+        <v>To ensure the normal use of the encryption algorithm, the key length is fixed at 9 characters. The key must contain uppercase and lowercase English letters and numbers. The key must not be consecutive numbers or passwords.</v>
       </c>
       <c r="D71" t="str">
-        <v>选择文件上传</v>
+        <v>为确保加密算法正常使用，密钥长度固定为 9 位，密钥必须包含大小写英文和数字，密钥不得是连续数字或者密码</v>
       </c>
     </row>
     <row r="72">
@@ -1401,13 +1401,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B72" t="str">
-        <v>drag3</v>
+        <v>uploading</v>
       </c>
       <c r="C72" t="str">
-        <v>Only single Excel files are supported for upload, supported formats: .xlsx</v>
+        <v>File is uploading, please wait</v>
       </c>
       <c r="D72" t="str">
-        <v>仅支持单个Excel文件上传，支持格式：.xlsx</v>
+        <v>文件上传中，请稍候</v>
       </c>
     </row>
     <row r="73">
@@ -1415,13 +1415,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B73" t="str">
-        <v>submit</v>
+        <v>please</v>
       </c>
       <c r="C73" t="str">
-        <v>Confirm</v>
+        <v xml:space="preserve">Please </v>
       </c>
       <c r="D73" t="str">
-        <v>确认提交</v>
+        <v>请</v>
       </c>
     </row>
     <row r="74">
@@ -1429,13 +1429,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B74" t="str">
-        <v>uploadTip1</v>
+        <v>downloadTpl</v>
       </c>
       <c r="C74" t="str">
-        <v>1. Import must be an xlsx file;</v>
+        <v>Download Template</v>
       </c>
       <c r="D74" t="str">
-        <v>1、导入必须是xlsx文件；</v>
+        <v>下载模板</v>
       </c>
     </row>
     <row r="75">
@@ -1443,13 +1443,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B75" t="str">
-        <v>uploadTip2</v>
+        <v>please2</v>
       </c>
       <c r="C75" t="str">
-        <v>2. Only import the first tab of the EXCEL file;</v>
+        <v>, and after entering data according to the template instructions, upload it</v>
       </c>
       <c r="D75" t="str">
-        <v>2、只导入EXCEL文件的第一个标签页；</v>
+        <v>，并按照模板提示输入数据后上传</v>
       </c>
     </row>
     <row r="76">
@@ -1457,13 +1457,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B76" t="str">
-        <v>uploadTip3</v>
+        <v>warmTip</v>
       </c>
       <c r="C76" t="str">
-        <v>3. The maximum file size is 10MB;</v>
+        <v>Warm Reminder: Please select template download;</v>
       </c>
       <c r="D76" t="str">
-        <v>3、文件大小最大为10MB；</v>
+        <v>温馨提示：请选择模板下载；</v>
       </c>
     </row>
     <row r="77">
@@ -1471,13 +1471,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B77" t="str">
-        <v>uploadTip4</v>
+        <v>drag1</v>
       </c>
       <c r="C77" t="str">
-        <v>4. The maximum number of numbers is 1000, which must include the international area code;</v>
+        <v>Drag the file here, or</v>
       </c>
       <c r="D77" t="str">
-        <v>4、号码最多1000个，需包含国际区号；</v>
+        <v>将文件拖到此处，或</v>
       </c>
     </row>
     <row r="78">
@@ -1485,13 +1485,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B78" t="str">
-        <v>uploadTip5</v>
+        <v>drag2</v>
       </c>
       <c r="C78" t="str">
-        <v>5. The batch operation requires some time, you can view the information by refreshing the device list later；</v>
+        <v>choose to upload the file</v>
       </c>
       <c r="D78" t="str">
-        <v>5、批量操作需要一定时间，稍后可通过刷新设备列表查看信息；</v>
+        <v>选择文件上传</v>
       </c>
     </row>
     <row r="79">
@@ -1499,13 +1499,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B79" t="str">
-        <v>uploadTipSimMag</v>
+        <v>drag3</v>
       </c>
       <c r="C79" t="str">
-        <v>4. The maximum number of numbers is {maxNum}, which must include the international area code;</v>
+        <v>Only single Excel files are supported for upload, supported formats:</v>
       </c>
       <c r="D79" t="str">
-        <v>4、号码最多{maxNum}个，需包含国际区号；</v>
+        <v>仅支持单个Excel文件上传，支持格式:</v>
       </c>
     </row>
     <row r="80">
@@ -1513,13 +1513,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B80" t="str">
-        <v>subtmitSuccess</v>
+        <v>submit</v>
       </c>
       <c r="C80" t="str">
-        <v>Upload successful</v>
+        <v>Confirm</v>
       </c>
       <c r="D80" t="str">
-        <v>上传成功</v>
+        <v>确认提交</v>
       </c>
     </row>
     <row r="81">
@@ -1527,13 +1527,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B81" t="str">
-        <v>subtmitFail</v>
+        <v>uploadTip1xls</v>
       </c>
       <c r="C81" t="str">
-        <v>Upload failed</v>
+        <v>Import must be an xls file;</v>
       </c>
       <c r="D81" t="str">
-        <v>上传失败</v>
+        <v>导入必须是xls文件;</v>
       </c>
     </row>
     <row r="82">
@@ -1541,13 +1541,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B82" t="str">
-        <v>task</v>
+        <v>uploadTip1</v>
       </c>
       <c r="C82" t="str">
-        <v>The file download task has been created, please go to the download task page</v>
+        <v>Import must be an xlsx file;</v>
       </c>
       <c r="D82" t="str">
-        <v>文件下载任务已生成，请到下载任务页面</v>
+        <v>导入必须是xlsx文件;</v>
       </c>
     </row>
     <row r="83">
@@ -1555,13 +1555,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B83" t="str">
-        <v>process</v>
+        <v>uploadTip2</v>
       </c>
       <c r="C83" t="str">
-        <v>to check the task progress</v>
+        <v>Only import the first tab of the EXCEL file;</v>
       </c>
       <c r="D83" t="str">
-        <v>查看任务进度</v>
+        <v>只导入EXCEL文件的第一个标签页;</v>
       </c>
     </row>
     <row r="84">
@@ -1569,13 +1569,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B84" t="str">
-        <v>know</v>
+        <v>uploadTip3</v>
       </c>
       <c r="C84" t="str">
-        <v>Understood</v>
+        <v>The maximum file size is 10MB;</v>
       </c>
       <c r="D84" t="str">
-        <v>知道了</v>
+        <v>文件大小最大为10MB;</v>
       </c>
     </row>
     <row r="85">
@@ -1583,13 +1583,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B85" t="str">
-        <v>systemError</v>
+        <v>uploadTip4</v>
       </c>
       <c r="C85" t="str">
-        <v>System exception</v>
+        <v>The maximum number of numbers is 1000, which must include the international area code;</v>
       </c>
       <c r="D85" t="str">
-        <v>系统异常</v>
+        <v>号码最多1000个，需包含国际区号;</v>
       </c>
     </row>
     <row r="86">
@@ -1597,13 +1597,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B86" t="str">
-        <v>fileSize</v>
+        <v>uploadTip4Max10000</v>
       </c>
       <c r="C86" t="str">
-        <v>The uploaded file cannot exceed</v>
+        <v>The maximum number of numbers is 10000, which must include the international area code;</v>
       </c>
       <c r="D86" t="str">
-        <v>上传文件不能超过</v>
+        <v>号码最多10000个，需包含国际区号;</v>
       </c>
     </row>
     <row r="87">
@@ -1611,13 +1611,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B87" t="str">
-        <v>fileType</v>
+        <v>uploadTip5</v>
       </c>
       <c r="C87" t="str">
-        <v>Incorrect file type, please confirm</v>
+        <v>Batch operations require some time, and the results can be checked later through the batch task query page;</v>
       </c>
       <c r="D87" t="str">
-        <v>文件类型错误，请确认</v>
+        <v>批量操作需要一定时间，稍后可通过批量任务查询页面查询任务执行结果;</v>
       </c>
     </row>
     <row r="88">
@@ -1625,13 +1625,13 @@
         <v>batchUpload</v>
       </c>
       <c r="B88" t="str">
-        <v>actionSuccess</v>
+        <v>uploadTipRule</v>
       </c>
       <c r="C88" t="str">
-        <v>Operation Successful</v>
+        <v>Please fill in according to the template format;</v>
       </c>
       <c r="D88" t="str">
-        <v>操作成功</v>
+        <v>请按模板格式填写;</v>
       </c>
     </row>
     <row r="89">
@@ -1639,209 +1639,209 @@
         <v>batchUpload</v>
       </c>
       <c r="B89" t="str">
-        <v>exportFail</v>
+        <v>uploadTipSimMag</v>
       </c>
       <c r="C89" t="str">
-        <v>Export Failed</v>
+        <v>The maximum number of numbers is {maxNum}, which must include the international area code;</v>
       </c>
       <c r="D89" t="str">
-        <v>导出失败</v>
+        <v>号码最多{maxNum}个，需包含国际区号;</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>common</v>
+        <v>batchUpload</v>
       </c>
       <c r="B90" t="str">
-        <v>action</v>
+        <v>uploadTotal6Month</v>
       </c>
       <c r="C90" t="str">
-        <v>Action</v>
+        <v>The file query time range is for the accounting periods of the past 6 months;</v>
       </c>
       <c r="D90" t="str">
-        <v>操作</v>
+        <v>文件查询时间范围为前6个月的账期;</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>common</v>
+        <v>batchUpload</v>
       </c>
       <c r="B91" t="str">
-        <v>download</v>
+        <v>uploadTotal3Row</v>
       </c>
       <c r="C91" t="str">
-        <v>Download</v>
+        <v>The first three rows of the file are for query conditions and instructions, and data entry starts from the fourth row;</v>
       </c>
       <c r="D91" t="str">
-        <v>下载</v>
+        <v>文件前三行为查询条件及说明、第四行开始填写号码;</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>common</v>
+        <v>batchUpload</v>
       </c>
       <c r="B92" t="str">
-        <v>edit</v>
+        <v>uploadTotal1Col</v>
       </c>
       <c r="C92" t="str">
-        <v>Edit</v>
+        <v>The file requires only the first column;</v>
       </c>
       <c r="D92" t="str">
-        <v>编辑</v>
+        <v>文件只需要第一列;</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>common</v>
+        <v>batchUpload</v>
       </c>
       <c r="B93" t="str">
-        <v>delete</v>
+        <v>subtmitSuccess</v>
       </c>
       <c r="C93" t="str">
-        <v>Delete</v>
+        <v>Upload successful</v>
       </c>
       <c r="D93" t="str">
-        <v>删除</v>
+        <v>上传成功</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>common</v>
+        <v>batchUpload</v>
       </c>
       <c r="B94" t="str">
-        <v>query</v>
+        <v>subtmitFail</v>
       </c>
       <c r="C94" t="str">
-        <v>Query</v>
+        <v>Upload failed</v>
       </c>
       <c r="D94" t="str">
-        <v>查询</v>
+        <v>上传失败</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>common</v>
+        <v>batchUpload</v>
       </c>
       <c r="B95" t="str">
-        <v>reset</v>
+        <v>task</v>
       </c>
       <c r="C95" t="str">
-        <v>Reset</v>
+        <v xml:space="preserve">The file download task has been created, please go to the download task page </v>
       </c>
       <c r="D95" t="str">
-        <v>重置</v>
+        <v>文件下载任务已生成，请到下载任务页面</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>common</v>
+        <v>batchUpload</v>
       </c>
       <c r="B96" t="str">
-        <v>status</v>
+        <v>task2</v>
       </c>
       <c r="C96" t="str">
-        <v>Status</v>
+        <v xml:space="preserve">Batch task has been created, please go to the batch service page </v>
       </c>
       <c r="D96" t="str">
-        <v>状态</v>
+        <v>批量任务已生成，请到批量业务页面</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>common</v>
+        <v>batchUpload</v>
       </c>
       <c r="B97" t="str">
-        <v>remark</v>
+        <v>process</v>
       </c>
       <c r="C97" t="str">
-        <v>Remark</v>
+        <v>to check the task progress</v>
       </c>
       <c r="D97" t="str">
-        <v>备注</v>
+        <v>查看任务进度</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>common</v>
+        <v>batchUpload</v>
       </c>
       <c r="B98" t="str">
-        <v>downloadMag</v>
+        <v>know</v>
       </c>
       <c r="C98" t="str">
-        <v>Download</v>
+        <v>Understood</v>
       </c>
       <c r="D98" t="str">
-        <v>下载管理</v>
+        <v>知道了</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>common</v>
+        <v>batchUpload</v>
       </c>
       <c r="B99" t="str">
-        <v>basicInfo</v>
+        <v>systemError</v>
       </c>
       <c r="C99" t="str">
-        <v>Account Info</v>
+        <v>System exception</v>
       </c>
       <c r="D99" t="str">
-        <v>基本信息</v>
+        <v>系统异常</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>common</v>
+        <v>batchUpload</v>
       </c>
       <c r="B100" t="str">
-        <v>logout</v>
+        <v>fileSize</v>
       </c>
       <c r="C100" t="str">
-        <v>Logout</v>
+        <v xml:space="preserve">The uploaded file cannot exceed </v>
       </c>
       <c r="D100" t="str">
-        <v>退出登录</v>
+        <v>上传文件不能超过</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>common</v>
+        <v>batchUpload</v>
       </c>
       <c r="B101" t="str">
-        <v>batchQuery</v>
+        <v>fileType</v>
       </c>
       <c r="C101" t="str">
-        <v>Batch Query</v>
+        <v>Incorrect file type, please confirm</v>
       </c>
       <c r="D101" t="str">
-        <v>批量查询</v>
+        <v>文件类型错误，请确认</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>common</v>
+        <v>batchUpload</v>
       </c>
       <c r="B102" t="str">
-        <v>batchImport</v>
+        <v>actionSuccess</v>
       </c>
       <c r="C102" t="str">
-        <v>Batch Import</v>
+        <v>Operation Successful</v>
       </c>
       <c r="D102" t="str">
-        <v>批量导入</v>
+        <v>操作成功</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>common</v>
+        <v>batchUpload</v>
       </c>
       <c r="B103" t="str">
-        <v>batchDelete</v>
+        <v>exportFail</v>
       </c>
       <c r="C103" t="str">
-        <v>Batch Delete</v>
+        <v>Export Failed</v>
       </c>
       <c r="D103" t="str">
-        <v>批量删除</v>
+        <v>导出失败</v>
       </c>
     </row>
     <row r="104">
@@ -1849,13 +1849,13 @@
         <v>common</v>
       </c>
       <c r="B104" t="str">
-        <v>export</v>
+        <v>action</v>
       </c>
       <c r="C104" t="str">
-        <v>Export</v>
+        <v>Action</v>
       </c>
       <c r="D104" t="str">
-        <v>导出</v>
+        <v>操作</v>
       </c>
     </row>
     <row r="105">
@@ -1863,13 +1863,13 @@
         <v>common</v>
       </c>
       <c r="B105" t="str">
-        <v>beginTime</v>
+        <v>download</v>
       </c>
       <c r="C105" t="str">
-        <v>Begin</v>
+        <v>Download</v>
       </c>
       <c r="D105" t="str">
-        <v>开始时间</v>
+        <v>下载</v>
       </c>
     </row>
     <row r="106">
@@ -1877,13 +1877,13 @@
         <v>common</v>
       </c>
       <c r="B106" t="str">
-        <v>endTime</v>
+        <v>edit</v>
       </c>
       <c r="C106" t="str">
-        <v>End</v>
+        <v>Edit</v>
       </c>
       <c r="D106" t="str">
-        <v>结束时间</v>
+        <v>编辑</v>
       </c>
     </row>
     <row r="107">
@@ -1891,13 +1891,13 @@
         <v>common</v>
       </c>
       <c r="B107" t="str">
-        <v>showMoreBtn</v>
+        <v>delete</v>
       </c>
       <c r="C107" t="str">
-        <v>More</v>
+        <v>Delete</v>
       </c>
       <c r="D107" t="str">
-        <v>高级搜索</v>
+        <v>删除</v>
       </c>
     </row>
     <row r="108">
@@ -1905,13 +1905,13 @@
         <v>common</v>
       </c>
       <c r="B108" t="str">
-        <v>ok</v>
+        <v>query</v>
       </c>
       <c r="C108" t="str">
-        <v>Ok</v>
+        <v>Query</v>
       </c>
       <c r="D108" t="str">
-        <v>确 定</v>
+        <v>查询</v>
       </c>
     </row>
     <row r="109">
@@ -1919,13 +1919,13 @@
         <v>common</v>
       </c>
       <c r="B109" t="str">
-        <v>cancel</v>
+        <v>reset</v>
       </c>
       <c r="C109" t="str">
-        <v>Cancel</v>
+        <v>Reset</v>
       </c>
       <c r="D109" t="str">
-        <v>取 消</v>
+        <v>重置</v>
       </c>
     </row>
     <row r="110">
@@ -1933,13 +1933,13 @@
         <v>common</v>
       </c>
       <c r="B110" t="str">
-        <v>deleteSuccess</v>
+        <v>status</v>
       </c>
       <c r="C110" t="str">
-        <v>Deleted successfully!</v>
+        <v>Status</v>
       </c>
       <c r="D110" t="str">
-        <v>删除成功！</v>
+        <v>状态</v>
       </c>
     </row>
     <row r="111">
@@ -1947,13 +1947,13 @@
         <v>common</v>
       </c>
       <c r="B111" t="str">
-        <v>yes</v>
+        <v>remark</v>
       </c>
       <c r="C111" t="str">
-        <v>YES</v>
+        <v>Remark</v>
       </c>
       <c r="D111" t="str">
-        <v>是</v>
+        <v>备注</v>
       </c>
     </row>
     <row r="112">
@@ -1961,13 +1961,13 @@
         <v>common</v>
       </c>
       <c r="B112" t="str">
-        <v>no</v>
+        <v>downloadMag</v>
       </c>
       <c r="C112" t="str">
-        <v>NO</v>
+        <v>Download</v>
       </c>
       <c r="D112" t="str">
-        <v>否</v>
+        <v>下载管理</v>
       </c>
     </row>
     <row r="113">
@@ -1975,1763 +1975,1763 @@
         <v>common</v>
       </c>
       <c r="B113" t="str">
-        <v>save</v>
+        <v>basicInfo</v>
       </c>
       <c r="C113" t="str">
-        <v>Save</v>
+        <v>Account Info</v>
       </c>
       <c r="D113" t="str">
-        <v>保 存</v>
+        <v>基本信息</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>dataUsage</v>
+        <v>common</v>
       </c>
       <c r="B114" t="str">
-        <v>offerUsage</v>
+        <v>corpInfo</v>
       </c>
       <c r="C114" t="str">
-        <v>Package Usage</v>
+        <v>Company Info</v>
       </c>
       <c r="D114" t="str">
-        <v>套餐使用量</v>
+        <v>企业基本信息</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>dataUsage</v>
+        <v>common</v>
       </c>
       <c r="B115" t="str">
-        <v>custUsage</v>
+        <v>logout</v>
       </c>
       <c r="C115" t="str">
-        <v>Total Usage</v>
+        <v>Logout</v>
       </c>
       <c r="D115" t="str">
-        <v>用户总使用量</v>
+        <v>退出登录</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>dataUsage</v>
+        <v>common</v>
       </c>
       <c r="B116" t="str">
-        <v>billCycle</v>
+        <v>batchQuery</v>
       </c>
       <c r="C116" t="str">
-        <v>Payment Period</v>
+        <v>Batch Query</v>
       </c>
       <c r="D116" t="str">
-        <v>账期</v>
+        <v>批量查询</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>dataUsage</v>
+        <v>common</v>
       </c>
       <c r="B117" t="str">
-        <v>usageType</v>
+        <v>batchImport</v>
       </c>
       <c r="C117" t="str">
-        <v>Usage Category</v>
+        <v>Batch Import</v>
       </c>
       <c r="D117" t="str">
-        <v>用量分类</v>
+        <v>批量导入</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>dataUsage</v>
+        <v>common</v>
       </c>
       <c r="B118" t="str">
-        <v>offerName</v>
+        <v>batchDelete</v>
       </c>
       <c r="C118" t="str">
-        <v>Offer Name</v>
+        <v>Batch Delete</v>
       </c>
       <c r="D118" t="str">
-        <v>套餐名称</v>
+        <v>批量删除</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>dataUsage</v>
+        <v>common</v>
       </c>
       <c r="B119" t="str">
-        <v>totalUsage</v>
+        <v>export</v>
       </c>
       <c r="C119" t="str">
-        <v>Total Offer Usage</v>
+        <v>Export</v>
       </c>
       <c r="D119" t="str">
-        <v>套餐总使用量</v>
+        <v>导出</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>dataUsage</v>
+        <v>common</v>
       </c>
       <c r="B120" t="str">
-        <v>usage</v>
+        <v>beginTime</v>
       </c>
       <c r="C120" t="str">
-        <v>Used Amount</v>
+        <v>Begin Time</v>
       </c>
       <c r="D120" t="str">
-        <v>已使用量</v>
+        <v>开始时间</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>dataUsage</v>
+        <v>common</v>
       </c>
       <c r="B121" t="str">
-        <v>remain</v>
+        <v>endTime</v>
       </c>
       <c r="C121" t="str">
-        <v>Remaining Amount</v>
+        <v>End Time</v>
       </c>
       <c r="D121" t="str">
-        <v>剩余量</v>
+        <v>结束时间</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>dataUsage</v>
+        <v>common</v>
       </c>
       <c r="B122" t="str">
-        <v>data</v>
+        <v>showMoreBtn</v>
       </c>
       <c r="C122" t="str">
-        <v>Data Usage</v>
+        <v>More</v>
       </c>
       <c r="D122" t="str">
-        <v>数据</v>
+        <v>高级搜索</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>dataUsage</v>
+        <v>common</v>
       </c>
       <c r="B123" t="str">
-        <v>voice</v>
+        <v>ok</v>
       </c>
       <c r="C123" t="str">
-        <v>Voice Usage</v>
+        <v>Ok</v>
       </c>
       <c r="D123" t="str">
-        <v>语音</v>
+        <v>确 定</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>dataUsage</v>
+        <v>common</v>
       </c>
       <c r="B124" t="str">
-        <v>sms</v>
+        <v>cancel</v>
       </c>
       <c r="C124" t="str">
-        <v>SMS Usage</v>
+        <v>Cancel</v>
       </c>
       <c r="D124" t="str">
-        <v>短信</v>
+        <v>取 消</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>dataUsage</v>
+        <v>common</v>
       </c>
       <c r="B125" t="str">
-        <v>all</v>
+        <v>deleteSuccess</v>
       </c>
       <c r="C125" t="str">
-        <v>All</v>
+        <v>Deleted successfully!</v>
       </c>
       <c r="D125" t="str">
-        <v>全部</v>
+        <v>删除成功！</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>dataUsage</v>
+        <v>common</v>
       </c>
       <c r="B126" t="str">
-        <v>flowMbDesc</v>
+        <v>editSuccess</v>
       </c>
       <c r="C126" t="str">
-        <v>Total Data (MB)</v>
+        <v>Modify successfully!</v>
       </c>
       <c r="D126" t="str">
-        <v>总流量（MB)</v>
+        <v>修改成功！</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>dataUsage</v>
+        <v>common</v>
       </c>
       <c r="B127" t="str">
-        <v>voiceMinsDesc</v>
+        <v>createSuccess</v>
       </c>
       <c r="C127" t="str">
-        <v>Voice Duration (Minutes)</v>
+        <v>Created successfully!</v>
       </c>
       <c r="D127" t="str">
-        <v>语音时长（分钟）</v>
+        <v>新增成功！</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>dataUsage</v>
+        <v>common</v>
       </c>
       <c r="B128" t="str">
-        <v>smsDesc</v>
+        <v>yes</v>
       </c>
       <c r="C128" t="str">
-        <v>SMS (Messages)</v>
+        <v>YES</v>
       </c>
       <c r="D128" t="str">
-        <v>短信（条）</v>
+        <v>是</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>dataUsage</v>
+        <v>common</v>
       </c>
       <c r="B129" t="str">
-        <v>batchTitle1</v>
+        <v>no</v>
       </c>
       <c r="C129" t="str">
-        <v>Batch Package Usage Inquiry</v>
+        <v>NO</v>
       </c>
       <c r="D129" t="str">
-        <v>批量套餐使用量查询</v>
+        <v>否</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>dataUsage</v>
+        <v>common</v>
       </c>
       <c r="B130" t="str">
-        <v>batchTitle2</v>
+        <v>save</v>
       </c>
       <c r="C130" t="str">
-        <v>Total Customer Usage Inquiry</v>
+        <v>Save</v>
       </c>
       <c r="D130" t="str">
-        <v>用户总使用使用量查询</v>
+        <v>保 存</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>download</v>
+        <v>common</v>
       </c>
       <c r="B131" t="str">
-        <v>createTime</v>
+        <v>tip</v>
       </c>
       <c r="C131" t="str">
-        <v>Creation Time</v>
+        <v>Tips</v>
       </c>
       <c r="D131" t="str">
-        <v>创建时间</v>
+        <v>提示</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>download</v>
+        <v>corpInfo</v>
       </c>
       <c r="B132" t="str">
-        <v>statusCd</v>
+        <v>create</v>
       </c>
       <c r="C132" t="str">
-        <v>Status Code</v>
+        <v>Create</v>
       </c>
       <c r="D132" t="str">
-        <v>处理状态</v>
+        <v>新增</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>download</v>
+        <v>corpInfo</v>
       </c>
       <c r="B133" t="str">
-        <v>busiType</v>
+        <v>corpBasicInfo</v>
       </c>
       <c r="C133" t="str">
-        <v>Business Type</v>
+        <v>Basic Corporate Information</v>
       </c>
       <c r="D133" t="str">
-        <v>业务类型</v>
+        <v>企业基本信息</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>download</v>
+        <v>corpInfo</v>
       </c>
       <c r="B134" t="str">
-        <v>fileName</v>
+        <v>corpName</v>
       </c>
       <c r="C134" t="str">
-        <v>File Name</v>
+        <v>Corporate Name</v>
       </c>
       <c r="D134" t="str">
-        <v>文件名称</v>
+        <v>企业名称</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>download</v>
+        <v>corpInfo</v>
       </c>
       <c r="B135" t="str">
-        <v>taskProgress</v>
+        <v>corpId</v>
       </c>
       <c r="C135" t="str">
-        <v>Task Progress</v>
+        <v>Corporate ID</v>
       </c>
       <c r="D135" t="str">
-        <v>任务进度</v>
+        <v>企业编码</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>download</v>
+        <v>corpInfo</v>
       </c>
       <c r="B136" t="str">
-        <v>userCode</v>
+        <v>paramInfo</v>
       </c>
       <c r="C136" t="str">
-        <v>Platform Account</v>
+        <v>Configuration Information</v>
       </c>
       <c r="D136" t="str">
-        <v>平台账号</v>
+        <v>配置信息</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>download</v>
+        <v>corpInfo</v>
       </c>
       <c r="B137" t="str">
-        <v>startDate</v>
+        <v>paramName</v>
       </c>
       <c r="C137" t="str">
-        <v>Task Start Date</v>
+        <v>Configuration Name</v>
       </c>
       <c r="D137" t="str">
-        <v>任务开始时间</v>
+        <v>配置名称</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>download</v>
+        <v>corpInfo</v>
       </c>
       <c r="B138" t="str">
-        <v>endDate</v>
+        <v>operationTime</v>
       </c>
       <c r="C138" t="str">
-        <v>Task End Date</v>
+        <v>Operation Time</v>
       </c>
       <c r="D138" t="str">
-        <v>任务结束时间</v>
+        <v>操作时间</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>download</v>
+        <v>corpInfo</v>
       </c>
       <c r="B139" t="str">
-        <v>remark</v>
+        <v>pleaseSelectParam</v>
       </c>
       <c r="C139" t="str">
-        <v>Remark</v>
+        <v>Please Select Configuration</v>
       </c>
       <c r="D139" t="str">
-        <v>备注</v>
+        <v>请选择配置</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>download</v>
+        <v>corpInfo</v>
       </c>
       <c r="B140" t="str">
-        <v>unfinishedTip</v>
+        <v>upSmsPushAddress</v>
       </c>
       <c r="C140" t="str">
-        <v>This task is not fully processed and cannot be downloaded!</v>
+        <v>Upstream SMS Push Address</v>
       </c>
       <c r="D140" t="str">
-        <v>此任务未处理完成，无法下载！</v>
+        <v>上行短信推送地址</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>download</v>
+        <v>corpInfo</v>
       </c>
       <c r="B141" t="str">
-        <v>selectOne</v>
+        <v>deletePushAddress</v>
       </c>
       <c r="C141" t="str">
-        <v>Please select one data item!</v>
+        <v>Delete This Push Address</v>
       </c>
       <c r="D141" t="str">
-        <v>请选择一列数据！</v>
+        <v>是否删除该推送地址</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>download</v>
+        <v>dataUsage</v>
       </c>
       <c r="B142" t="str">
-        <v>deleteOneAsk</v>
+        <v>offerUsage</v>
       </c>
       <c r="C142" t="str">
-        <v>Are you sure you want to delete the selected task?</v>
+        <v>Package Usage</v>
       </c>
       <c r="D142" t="str">
-        <v>确定要删除择的任务吗？</v>
+        <v>套餐使用量</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>download</v>
+        <v>dataUsage</v>
       </c>
       <c r="B143" t="str">
-        <v>batchDeleteAsk</v>
+        <v>custUsage</v>
       </c>
       <c r="C143" t="str">
-        <v>Are you sure you want to delete the selected tasks?</v>
+        <v>Total Usage</v>
       </c>
       <c r="D143" t="str">
-        <v>确定要删除已选中任务吗？</v>
+        <v>用户总使用量</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>download</v>
+        <v>dataUsage</v>
       </c>
       <c r="B144" t="str">
-        <v>statusCdAll</v>
+        <v>billCycle</v>
       </c>
       <c r="C144" t="str">
-        <v>All</v>
+        <v>Payment Period</v>
       </c>
       <c r="D144" t="str">
-        <v>全部</v>
+        <v>账期</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>download</v>
+        <v>dataUsage</v>
       </c>
       <c r="B145" t="str">
-        <v>statusCd1000</v>
+        <v>usageType</v>
       </c>
       <c r="C145" t="str">
-        <v>Preparing</v>
+        <v>Usage Category</v>
       </c>
       <c r="D145" t="str">
-        <v>准备中</v>
+        <v>用量分类</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>download</v>
+        <v>dataUsage</v>
       </c>
       <c r="B146" t="str">
-        <v>statusCd1001</v>
+        <v>offerName</v>
       </c>
       <c r="C146" t="str">
-        <v>Completed</v>
+        <v>Offer Name</v>
       </c>
       <c r="D146" t="str">
-        <v>完成</v>
+        <v>套餐名称</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>download</v>
+        <v>dataUsage</v>
       </c>
       <c r="B147" t="str">
-        <v>statusCd1002</v>
+        <v>totalUsage</v>
       </c>
       <c r="C147" t="str">
-        <v>Processing</v>
+        <v>Total Offer Usage(MB)</v>
       </c>
       <c r="D147" t="str">
-        <v>处理中</v>
+        <v>套餐总使用量(MB)</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>download</v>
+        <v>dataUsage</v>
       </c>
       <c r="B148" t="str">
-        <v>statusCd9999</v>
+        <v>usage</v>
       </c>
       <c r="C148" t="str">
-        <v>Failed</v>
+        <v>Used Amount(MB)</v>
       </c>
       <c r="D148" t="str">
-        <v>失败</v>
+        <v>已使用量(MB)</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>forgetPassword</v>
+        <v>dataUsage</v>
       </c>
       <c r="B149" t="str">
-        <v>validProfile</v>
+        <v>remain</v>
       </c>
       <c r="C149" t="str">
-        <v>Validate Profile</v>
+        <v>Remaining Amount(MB)</v>
       </c>
       <c r="D149" t="str">
-        <v>验证身份</v>
+        <v>剩余量(MB)</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>forgetPassword</v>
+        <v>dataUsage</v>
       </c>
       <c r="B150" t="str">
-        <v>resetPassword</v>
+        <v>data</v>
       </c>
       <c r="C150" t="str">
-        <v>Reset Password</v>
+        <v>Data Usage</v>
       </c>
       <c r="D150" t="str">
-        <v>重置密码</v>
+        <v>数据</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>forgetPassword</v>
+        <v>dataUsage</v>
       </c>
       <c r="B151" t="str">
-        <v>finished</v>
+        <v>voice</v>
       </c>
       <c r="C151" t="str">
-        <v>Finished</v>
+        <v>Voice Usage</v>
       </c>
       <c r="D151" t="str">
-        <v>完成</v>
+        <v>语音</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>forgetPassword</v>
+        <v>dataUsage</v>
       </c>
       <c r="B152" t="str">
-        <v>hasAccount</v>
+        <v>sms</v>
       </c>
       <c r="C152" t="str">
-        <v>already have account,</v>
+        <v>SMS Usage</v>
       </c>
       <c r="D152" t="str">
-        <v>已有账号，</v>
+        <v>短信</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>forgetPassword</v>
+        <v>dataUsage</v>
       </c>
       <c r="B153" t="str">
-        <v>imediateLogin</v>
+        <v>all</v>
       </c>
       <c r="C153" t="str">
-        <v>login immediately</v>
+        <v>All</v>
       </c>
       <c r="D153" t="str">
-        <v>立即登录</v>
+        <v>全部</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>forgetPassword</v>
+        <v>dataUsage</v>
       </c>
       <c r="B154" t="str">
-        <v>next</v>
+        <v>flowMbDesc</v>
       </c>
       <c r="C154" t="str">
-        <v>next</v>
+        <v>Total Data (MB)</v>
       </c>
       <c r="D154" t="str">
-        <v>下一步</v>
+        <v>总流量(MB)</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>forgetPassword</v>
+        <v>dataUsage</v>
       </c>
       <c r="B155" t="str">
-        <v>passwordPh</v>
+        <v>voiceMinsDesc</v>
       </c>
       <c r="C155" t="str">
-        <v>Please input password</v>
+        <v>Voice Duration (Minutes)</v>
       </c>
       <c r="D155" t="str">
-        <v>请输入新密码</v>
+        <v>语音时长（分钟）</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>forgetPassword</v>
+        <v>dataUsage</v>
       </c>
       <c r="B156" t="str">
-        <v>password2Ph</v>
+        <v>smsDesc</v>
       </c>
       <c r="C156" t="str">
-        <v>Please confirm password</v>
+        <v>SMS (Messages)</v>
       </c>
       <c r="D156" t="str">
-        <v>请输入确认新密码</v>
+        <v>短信（条）</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>forgetPassword</v>
+        <v>dataUsage</v>
       </c>
       <c r="B157" t="str">
-        <v>successTitle</v>
+        <v>batchTitle1</v>
       </c>
       <c r="C157" t="str">
-        <v>Modify Successfully, Please Save Carefully</v>
+        <v>Batch Package Usage Inquiry</v>
       </c>
       <c r="D157" t="str">
-        <v>修改成功，请妥善保存</v>
+        <v>批量套餐使用量查询</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>forgetPassword</v>
+        <v>dataUsage</v>
       </c>
       <c r="B158" t="str">
-        <v>passwordError1</v>
+        <v>batchTitle2</v>
       </c>
       <c r="C158" t="str">
-        <v>Password length must be between 8 and 16 characters</v>
+        <v>Total Customer Usage Inquiry</v>
       </c>
       <c r="D158" t="str">
-        <v>密码长度 8-16位</v>
+        <v>用户总使用使用量查询</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>forgetPassword</v>
+        <v>download</v>
       </c>
       <c r="B159" t="str">
-        <v>passwordError2</v>
+        <v>createTime</v>
       </c>
       <c r="C159" t="str">
-        <v>The password must include at least three types of the following: uppercase letters, lowercase letters, numbers, and special characters</v>
+        <v>Creation Time</v>
       </c>
       <c r="D159" t="str">
-        <v>密码至少要包括大写字母、小写字母、数字、特殊字符中的三种</v>
+        <v>创建时间</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>forgetPassword</v>
+        <v>download</v>
       </c>
       <c r="B160" t="str">
-        <v>passwordError3</v>
+        <v>statusCd</v>
       </c>
       <c r="C160" t="str">
-        <v>The password cannot contain three or more consecutive digits or letters on the keyboard</v>
+        <v>Status Code</v>
       </c>
       <c r="D160" t="str">
-        <v>密码不能出现键盘上三位及以上连续数字、字母</v>
+        <v>处理状态</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>forgetPassword</v>
+        <v>download</v>
       </c>
       <c r="B161" t="str">
-        <v>passwordError4</v>
+        <v>busiType</v>
       </c>
       <c r="C161" t="str">
-        <v>The password must not include the full username string, variations in case, or similar transformations</v>
+        <v>Business Type</v>
       </c>
       <c r="D161" t="str">
-        <v>密码中不得包含用户名的完整字符串、大小写变位或形似变换的字符串</v>
+        <v>业务类型</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>forgetPassword</v>
+        <v>download</v>
       </c>
       <c r="B162" t="str">
-        <v>notSame</v>
+        <v>fileName</v>
       </c>
       <c r="C162" t="str">
-        <v>The two entered passwords do not match</v>
+        <v>File Name</v>
       </c>
       <c r="D162" t="str">
-        <v>两次输入的密码不一致</v>
+        <v>文件名称</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>forgetPassword</v>
+        <v>download</v>
       </c>
       <c r="B163" t="str">
-        <v>sendSuccess</v>
+        <v>taskProgress</v>
       </c>
       <c r="C163" t="str">
-        <v>Sent successfully!</v>
+        <v>Task Progress</v>
       </c>
       <c r="D163" t="str">
-        <v>发送成功！</v>
+        <v>任务进度</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>know</v>
+        <v>download</v>
       </c>
       <c r="B164" t="str">
-        <v>docName</v>
+        <v>userCode</v>
       </c>
       <c r="C164" t="str">
-        <v>Document Name</v>
+        <v>Platform Account</v>
       </c>
       <c r="D164" t="str">
-        <v>文档名称</v>
+        <v>平台账号</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>know</v>
+        <v>download</v>
       </c>
       <c r="B165" t="str">
-        <v>docDesc</v>
+        <v>startDate</v>
       </c>
       <c r="C165" t="str">
-        <v>Document Description</v>
+        <v>Task Start Time</v>
       </c>
       <c r="D165" t="str">
-        <v>文档描述</v>
+        <v>任务开始时间</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>know</v>
+        <v>download</v>
       </c>
       <c r="B166" t="str">
-        <v>docTypeName</v>
+        <v>endDate</v>
       </c>
       <c r="C166" t="str">
-        <v>Document Type</v>
+        <v>Task End Time</v>
       </c>
       <c r="D166" t="str">
-        <v>文档类型</v>
+        <v>任务结束时间</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>know</v>
+        <v>download</v>
       </c>
       <c r="B167" t="str">
-        <v>createStaffName</v>
+        <v>remark</v>
       </c>
       <c r="C167" t="str">
-        <v>Created By</v>
+        <v>Remark</v>
       </c>
       <c r="D167" t="str">
-        <v>创建人</v>
+        <v>备注</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>know</v>
+        <v>download</v>
       </c>
       <c r="B168" t="str">
-        <v>createTime</v>
+        <v>unfinishedTip</v>
       </c>
       <c r="C168" t="str">
-        <v>Creation Time</v>
+        <v>This task is not fully processed and cannot be downloaded!</v>
       </c>
       <c r="D168" t="str">
-        <v>创建时间</v>
+        <v>此任务未处理完成，无法下载！</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>linkD</v>
+        <v>download</v>
       </c>
       <c r="B169" t="str">
-        <v>oneClick</v>
+        <v>selectOne</v>
       </c>
       <c r="C169" t="str">
-        <v>One-click Diagnosis</v>
+        <v>Please select one data item!</v>
       </c>
       <c r="D169" t="str">
-        <v>一键诊断</v>
+        <v>请选择一列数据！</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>linkD</v>
+        <v>download</v>
       </c>
       <c r="B170" t="str">
-        <v>oneClickDes</v>
+        <v>deleteOneAsk</v>
       </c>
       <c r="C170" t="str">
-        <v>Query the status of a single card, the opening status of the card network, the binding situation of the machine and the card, the detailed data list, and the recent online and offline records of the card</v>
+        <v>Are you sure you want to delete the selected task?</v>
       </c>
       <c r="D170" t="str">
-        <v>查询单张卡状态、卡网络开通情况、机卡绑定情况、数据详单、卡近期上下线记录</v>
+        <v>确认要删除该任务吗？</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>linkD</v>
+        <v>download</v>
       </c>
       <c r="B171" t="str">
-        <v>resultTitle</v>
+        <v>batchDeleteAsk</v>
       </c>
       <c r="C171" t="str">
-        <v>Card diagnosis completed. The results are as follows:</v>
+        <v>Are you sure you want to delete the selected tasks?</v>
       </c>
       <c r="D171" t="str">
-        <v>卡诊断完成，结果如下</v>
+        <v>确认要批量删除这些任务吗？</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>linkD</v>
+        <v>download</v>
       </c>
       <c r="B172" t="str">
-        <v>basicInfo</v>
+        <v>statusCdAll</v>
       </c>
       <c r="C172" t="str">
-        <v>Basic Information</v>
+        <v>All</v>
       </c>
       <c r="D172" t="str">
-        <v>基础信息</v>
+        <v>全部</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>linkD</v>
+        <v>download</v>
       </c>
       <c r="B173" t="str">
-        <v>resultDetailTitle</v>
+        <v>statusCd1000</v>
       </c>
       <c r="C173" t="str">
-        <v>Diagnosis Result</v>
+        <v>Preparing</v>
       </c>
       <c r="D173" t="str">
-        <v>诊断结果</v>
+        <v>准备中</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>linkD</v>
+        <v>download</v>
       </c>
       <c r="B174" t="str">
-        <v>resutlItemLabel1</v>
+        <v>statusCd1001</v>
       </c>
       <c r="C174" t="str">
-        <v>SIM Card Status</v>
+        <v>Completed</v>
       </c>
       <c r="D174" t="str">
-        <v>SIM卡状态</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>linkD</v>
+        <v>download</v>
       </c>
       <c r="B175" t="str">
-        <v>resutlItemContent1</v>
+        <v>statusCd1002</v>
       </c>
       <c r="C175" t="str">
-        <v>Displays the SIM card status</v>
+        <v>Processing</v>
       </c>
       <c r="D175" t="str">
-        <v>展示 SIM 卡状态</v>
+        <v>处理中</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>linkD</v>
+        <v>download</v>
       </c>
       <c r="B176" t="str">
-        <v>resutlItemLabel2</v>
+        <v>statusCd9999</v>
       </c>
       <c r="C176" t="str">
-        <v>SIM Card Connection</v>
+        <v>Failed</v>
       </c>
       <c r="D176" t="str">
-        <v>SIM卡连接</v>
+        <v>失败</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>linkD</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B177" t="str">
-        <v>resutlItemContent2</v>
+        <v>validProfile</v>
       </c>
       <c r="C177" t="str">
-        <v>Determines the SIM card connection attributes through the SIM card product information</v>
+        <v>Validate Profile</v>
       </c>
       <c r="D177" t="str">
-        <v>通过 SIM 卡产品资料，判断 SIM 卡连接属性</v>
+        <v>验证身份</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>login</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B178" t="str">
-        <v>loginBoxTitle</v>
+        <v>resetPassword</v>
       </c>
       <c r="C178" t="str">
-        <v>Welcome to the Global CMP Portal</v>
+        <v>Reset Password</v>
       </c>
       <c r="D178" t="str">
-        <v>欢迎来到国际CMP门户</v>
+        <v>重置密码</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>login</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B179" t="str">
-        <v>loginButton</v>
+        <v>finished</v>
       </c>
       <c r="C179" t="str">
-        <v>login</v>
+        <v>Finished</v>
       </c>
       <c r="D179" t="str">
-        <v>登录</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>login</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B180" t="str">
-        <v>loginType1EmailPh</v>
+        <v>hasAccount</v>
       </c>
       <c r="C180" t="str">
-        <v>Please enter the user account or email address</v>
+        <v>already have account,</v>
       </c>
       <c r="D180" t="str">
-        <v>请输入账号/邮箱</v>
+        <v>已有账号，</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>login</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B181" t="str">
-        <v>loginType2EmailPh</v>
+        <v>imediateLogin</v>
       </c>
       <c r="C181" t="str">
-        <v>Please enter the email address</v>
+        <v>login immediately</v>
       </c>
       <c r="D181" t="str">
-        <v>请输入邮箱</v>
+        <v>立即登录</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>login</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B182" t="str">
-        <v>passwordPh</v>
+        <v>next</v>
       </c>
       <c r="C182" t="str">
-        <v>Please enter the password</v>
+        <v>next</v>
       </c>
       <c r="D182" t="str">
-        <v>请输入密码</v>
+        <v>下一步</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>login</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B183" t="str">
-        <v>imageCodePh</v>
+        <v>passwordPh</v>
       </c>
       <c r="C183" t="str">
-        <v>Please enter the verification code</v>
+        <v>Please input password</v>
       </c>
       <c r="D183" t="str">
-        <v>请输入图形验证码</v>
+        <v>请输入新密码</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>login</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B184" t="str">
-        <v>emailCodePh</v>
+        <v>password2Ph</v>
       </c>
       <c r="C184" t="str">
-        <v>Please enter the email verification code</v>
+        <v>Please confirm password</v>
       </c>
       <c r="D184" t="str">
-        <v>请输入邮箱验证码</v>
+        <v>请输入确认新密码</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>login</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B185" t="str">
-        <v>checkPrivacyPh</v>
+        <v>successTitle</v>
       </c>
       <c r="C185" t="str">
-        <v>Please read and confirm the relevant agreements and policies</v>
+        <v>Modify Successfully, Please Save Carefully</v>
       </c>
       <c r="D185" t="str">
-        <v>登录前请先阅读和确认平台相关协议和政策</v>
+        <v>修改成功，请妥善保存</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>login</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B186" t="str">
-        <v>getCode</v>
+        <v>passwordError1</v>
       </c>
       <c r="C186" t="str">
-        <v>Get Code</v>
+        <v>Password length must be between 8 and 16 characters</v>
       </c>
       <c r="D186" t="str">
-        <v>获取验证码</v>
+        <v>密码长度 8-16位</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>login</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B187" t="str">
-        <v>reSend</v>
+        <v>passwordError2</v>
       </c>
       <c r="C187" t="str">
-        <v>Resend</v>
+        <v>The password must include at least three types of the following: uppercase letters, lowercase letters, numbers, and special characters</v>
       </c>
       <c r="D187" t="str">
-        <v>重新发送</v>
+        <v>密码至少要包括大写字母、小写字母、数字、特殊字符中的三种</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>login</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B188" t="str">
-        <v>countDown</v>
+        <v>passwordError3</v>
       </c>
       <c r="C188" t="str">
-        <v>resend {countDownNum}</v>
+        <v>The password cannot contain three or more consecutive digits or letters on the keyboard</v>
       </c>
       <c r="D188" t="str">
-        <v>重新发送 {countDownNum}</v>
+        <v>密码不能出现键盘上三位及以上连续数字、字母</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>login</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B189" t="str">
-        <v>privacyDesPart1</v>
+        <v>passwordError4</v>
       </c>
       <c r="C189" t="str">
-        <v>l confirm that l have read, consent and agree to</v>
+        <v>The password must not include the full username string, variations in case, or similar transformations</v>
       </c>
       <c r="D189" t="str">
-        <v>我确认已阅读、许可并同意中国电信国际有限公司</v>
+        <v>密码中不得包含用户名的完整字符串、大小写变位或形似变换的字符串</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>login</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B190" t="str">
-        <v>privacyDesPart2</v>
+        <v>notSame</v>
       </c>
       <c r="C190" t="str">
-        <v>the Privacy Policy Statement.</v>
+        <v>The two entered passwords do not match</v>
       </c>
       <c r="D190" t="str">
-        <v>《隐私政策声明》</v>
+        <v>两次输入的密码不一致</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>login</v>
+        <v>forgetPassword</v>
       </c>
       <c r="B191" t="str">
-        <v>privacyDesPart3</v>
+        <v>sendSuccess</v>
       </c>
       <c r="C191" t="str">
-        <v>If l am a user situated within the European Economic Area or the United Kingdom, l confirm that l have read, consent and agree to the</v>
+        <v>Sent successfully!</v>
       </c>
       <c r="D191" t="str">
-        <v>如果我是欧洲经济区或英国境内的用户,我确认我已阅读、许可并同意中国电信国际有限公司</v>
+        <v>发送成功！</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>login</v>
+        <v>know</v>
       </c>
       <c r="B192" t="str">
-        <v>privacyDesPart4</v>
+        <v>docName</v>
       </c>
       <c r="C192" t="str">
-        <v>GDPR Privacy Policy Statement.</v>
+        <v>Document Name</v>
       </c>
       <c r="D192" t="str">
-        <v>《GDPR 隐私政策声明》</v>
+        <v>文档名称</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>login</v>
+        <v>know</v>
       </c>
       <c r="B193" t="str">
-        <v>forgetPassword</v>
+        <v>docDesc</v>
       </c>
       <c r="C193" t="str">
-        <v>Forget Account/Password</v>
+        <v>Document Description</v>
       </c>
       <c r="D193" t="str">
-        <v>忘记密码？</v>
+        <v>文档描述</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>login</v>
+        <v>know</v>
       </c>
       <c r="B194" t="str">
-        <v>loginTypePassword</v>
+        <v>docTypeName</v>
       </c>
       <c r="C194" t="str">
-        <v>Password Login</v>
+        <v>Document Type</v>
       </c>
       <c r="D194" t="str">
-        <v>密码登录</v>
+        <v>文档类型</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>login</v>
+        <v>know</v>
       </c>
       <c r="B195" t="str">
-        <v>loginTypeEmail</v>
+        <v>createStaffName</v>
       </c>
       <c r="C195" t="str">
-        <v>Verification Code Login</v>
+        <v>Created By</v>
       </c>
       <c r="D195" t="str">
-        <v>邮箱验证码登录</v>
+        <v>创建人</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>login</v>
+        <v>know</v>
       </c>
       <c r="B196" t="str">
-        <v>headerTitle</v>
+        <v>createTime</v>
       </c>
       <c r="C196" t="str">
-        <v>Global IoT CMP</v>
+        <v>Creation Time</v>
       </c>
       <c r="D196" t="str">
-        <v>国际物联网CMP平台</v>
+        <v>创建时间</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>login</v>
+        <v>linkD</v>
       </c>
       <c r="B197" t="str">
-        <v>leftTextPart1</v>
+        <v>oneClick</v>
       </c>
       <c r="C197" t="str">
-        <v/>
+        <v>One-click Diagnosis</v>
       </c>
       <c r="D197" t="str">
-        <v>面向</v>
+        <v>一键诊断</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>login</v>
+        <v>linkD</v>
       </c>
       <c r="B198" t="str">
-        <v>leftTextPart2</v>
+        <v>oneClickDes</v>
       </c>
       <c r="C198" t="str">
-        <v>Global</v>
+        <v>Query the status of a single card, the opening status of the card network, the binding situation of the machine and the card, the detailed data list, and the recent online and offline records of the card</v>
       </c>
       <c r="D198" t="str">
-        <v>全球</v>
+        <v>查询单张卡状态、卡网络开通情况、机卡绑定情况、数据详单、卡近期上下线记录</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>login</v>
+        <v>linkD</v>
       </c>
       <c r="B199" t="str">
-        <v>leftTextPart3</v>
+        <v>resultTitle</v>
       </c>
       <c r="C199" t="str">
-        <v>· Seamless</v>
+        <v>Card diagnosis completed. The results are as follows:</v>
       </c>
       <c r="D199" t="str">
-        <v>· 无缝链接</v>
+        <v>卡诊断完成，结果如下</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>login</v>
+        <v>linkD</v>
       </c>
       <c r="B200" t="str">
-        <v>leftTextPart4</v>
+        <v>basicInfo</v>
       </c>
       <c r="C200" t="str">
-        <v>Connection Management</v>
+        <v>Basic Information</v>
       </c>
       <c r="D200" t="str">
-        <v>连接管理</v>
+        <v>基础信息</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>login</v>
+        <v>linkD</v>
       </c>
       <c r="B201" t="str">
-        <v>leftTextPart5</v>
+        <v>resultDetailTitle</v>
       </c>
       <c r="C201" t="str">
-        <v>Join us and start building</v>
+        <v>Diagnosis Result</v>
       </c>
       <c r="D201" t="str">
-        <v>加入我们，然后开始构建</v>
+        <v>诊断结果</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>login</v>
+        <v>linkD</v>
       </c>
       <c r="B202" t="str">
-        <v>copyRight</v>
+        <v>resutlItemLabel1</v>
       </c>
       <c r="C202" t="str">
-        <v>© 2024 Tianyi IoT Technology Co., Ltd. All rights reserved.Su ICP No. 19042642-1 Value-added Telecommunications Business License A2.B1.B2-2009000</v>
+        <v>SIM Card Status</v>
       </c>
       <c r="D202" t="str">
-        <v>@2024天翼物联科技有限公司版权所有苏ICP备19042642号-1增值电信业务经营许可证A2.B1.B2-2009000</v>
+        <v>SIM卡状态</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>oper</v>
+        <v>linkD</v>
       </c>
       <c r="B203" t="str">
-        <v>operName</v>
+        <v>resutlItemContent1</v>
       </c>
       <c r="C203" t="str">
-        <v>Operation Name</v>
+        <v>Displays the SIM card status</v>
       </c>
       <c r="D203" t="str">
-        <v>操作名称</v>
+        <v>展示 SIM 卡状态</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>oper</v>
+        <v>linkD</v>
       </c>
       <c r="B204" t="str">
-        <v>operDate</v>
+        <v>resutlItemLabel2</v>
       </c>
       <c r="C204" t="str">
-        <v>Operation Date</v>
+        <v>SIM Card Connection</v>
       </c>
       <c r="D204" t="str">
-        <v>操作日期</v>
+        <v>SIM卡连接</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>oper</v>
+        <v>linkD</v>
       </c>
       <c r="B205" t="str">
-        <v>resultCode</v>
+        <v>resutlItemContent2</v>
       </c>
       <c r="C205" t="str">
-        <v>Result Code</v>
+        <v>Determines the SIM card connection attributes through the SIM card product information</v>
       </c>
       <c r="D205" t="str">
-        <v>操作结果</v>
+        <v>通过 SIM 卡产品资料，判断 SIM 卡连接属性</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>oper</v>
+        <v>login</v>
       </c>
       <c r="B206" t="str">
-        <v>clientIp</v>
+        <v>loginBoxTitle</v>
       </c>
       <c r="C206" t="str">
-        <v>Client IP</v>
+        <v>Welcom to Global CMP</v>
       </c>
       <c r="D206" t="str">
-        <v>客户端IP</v>
+        <v>欢迎来到国际CMP门户</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>oper</v>
+        <v>login</v>
       </c>
       <c r="B207" t="str">
-        <v>userCode</v>
+        <v>loginButton</v>
       </c>
       <c r="C207" t="str">
-        <v>User Account</v>
+        <v>LOG IN</v>
       </c>
       <c r="D207" t="str">
-        <v>操作账号</v>
+        <v>登录</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>oper</v>
+        <v>login</v>
       </c>
       <c r="B208" t="str">
-        <v>traceId</v>
+        <v>loginType1EmailPh</v>
       </c>
       <c r="C208" t="str">
-        <v>Trace Id</v>
+        <v>Please enter the user account or email address</v>
       </c>
       <c r="D208" t="str">
-        <v>唯一请求标识</v>
+        <v>请输入账号/邮箱</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>oper</v>
+        <v>login</v>
       </c>
       <c r="B209" t="str">
-        <v>success</v>
+        <v>loginType2EmailPh</v>
       </c>
       <c r="C209" t="str">
-        <v>Success</v>
+        <v>Please enter the email address</v>
       </c>
       <c r="D209" t="str">
-        <v>成功</v>
+        <v>请输入邮箱</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>oper</v>
+        <v>login</v>
       </c>
       <c r="B210" t="str">
-        <v>fail</v>
+        <v>passwordPh</v>
       </c>
       <c r="C210" t="str">
-        <v>Fail</v>
+        <v>Please enter the password</v>
       </c>
       <c r="D210" t="str">
-        <v>失败</v>
+        <v>请输入密码</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>oper</v>
+        <v>login</v>
       </c>
       <c r="B211" t="str">
-        <v>all</v>
+        <v>imageCodePh</v>
       </c>
       <c r="C211" t="str">
-        <v>All</v>
+        <v>Please enter the verification code</v>
       </c>
       <c r="D211" t="str">
-        <v>全部</v>
+        <v>请输入图形验证码</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B212" t="str">
-        <v>orderCode</v>
+        <v>emailCodePh</v>
       </c>
       <c r="C212" t="str">
-        <v>Order Code</v>
+        <v>Please enter the email verification code</v>
       </c>
       <c r="D212" t="str">
-        <v>订单编码</v>
+        <v>请输入邮箱验证码</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B213" t="str">
-        <v>number</v>
+        <v>checkPrivacyPh</v>
       </c>
       <c r="C213" t="str">
-        <v>Code</v>
+        <v>Please read and confirm the relevant agreements and policies</v>
       </c>
       <c r="D213" t="str">
-        <v>号码</v>
+        <v>登录前请先阅读和确认平台相关协议和政策</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B214" t="str">
-        <v>busType</v>
+        <v>getCode</v>
       </c>
       <c r="C214" t="str">
-        <v>Bussiness Type</v>
+        <v>Get Code</v>
       </c>
       <c r="D214" t="str">
-        <v>业务类型</v>
+        <v>获取验证码</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B215" t="str">
-        <v>orderStatus</v>
+        <v>reSend</v>
       </c>
       <c r="C215" t="str">
-        <v>Order Status</v>
+        <v>Resend</v>
       </c>
       <c r="D215" t="str">
-        <v>订单状态</v>
+        <v>重新发送</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B216" t="str">
-        <v>account</v>
+        <v>countDown</v>
       </c>
       <c r="C216" t="str">
-        <v>Account</v>
+        <v>resend {countDownNum}</v>
       </c>
       <c r="D216" t="str">
-        <v>账号</v>
+        <v>重新发送 {countDownNum}</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B217" t="str">
-        <v>serviceTime</v>
+        <v>privacyDesPart1</v>
       </c>
       <c r="C217" t="str">
-        <v>Service Time</v>
+        <v>l confirm that l have read, consent and agree to</v>
       </c>
       <c r="D217" t="str">
-        <v>受理时间</v>
+        <v>我确认已阅读、许可并同意中国电信国际有限公司</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B218" t="str">
-        <v>cust</v>
+        <v>privacyDesPart2</v>
       </c>
       <c r="C218" t="str">
-        <v>Cust</v>
+        <v>the Privacy Policy Statement.</v>
       </c>
       <c r="D218" t="str">
-        <v>客户</v>
+        <v>《隐私政策声明》</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B219" t="str">
-        <v>accNum</v>
+        <v>privacyDesPart3</v>
       </c>
       <c r="C219" t="str">
-        <v>Access Number</v>
+        <v>If l am a user situated within the European Economic Area or the United Kingdom, l confirm that l have read, consent and agree to the</v>
       </c>
       <c r="D219" t="str">
-        <v>接入号</v>
+        <v>如果我是欧洲经济区或英国境内的用户,我确认我已阅读、许可并同意中国电信国际有限公司</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B220" t="str">
-        <v>source</v>
+        <v>privacyDesPart4</v>
       </c>
       <c r="C220" t="str">
-        <v>Order Source</v>
+        <v>GDPR Privacy Policy Statement.</v>
       </c>
       <c r="D220" t="str">
-        <v>订单来源</v>
+        <v>《GDPR 隐私政策声明》</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B221" t="str">
-        <v>createStaffName</v>
+        <v>forgetPassword</v>
       </c>
       <c r="C221" t="str">
-        <v>Operator</v>
+        <v>Forgot your password?</v>
       </c>
       <c r="D221" t="str">
-        <v>操作员</v>
+        <v>忘记密码？</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B222" t="str">
-        <v>offerInfo</v>
+        <v>loginTypePassword</v>
       </c>
       <c r="C222" t="str">
-        <v>Package Information</v>
+        <v>Password Login</v>
       </c>
       <c r="D222" t="str">
-        <v>套餐信息</v>
+        <v>密码登录</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B223" t="str">
-        <v>offerName</v>
+        <v>loginTypeEmail</v>
       </c>
       <c r="C223" t="str">
-        <v>Package Name</v>
+        <v>Verification Code Login</v>
       </c>
       <c r="D223" t="str">
-        <v>套餐名称</v>
+        <v>邮箱验证码登录</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B224" t="str">
-        <v>operType</v>
+        <v>headerTitle</v>
       </c>
       <c r="C224" t="str">
-        <v>Operation Type</v>
+        <v>Global IoT CMP</v>
       </c>
       <c r="D224" t="str">
-        <v>操作类型</v>
+        <v>国际物联网CMP平台</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B225" t="str">
-        <v>fucName</v>
+        <v>leftTextPart1</v>
       </c>
       <c r="C225" t="str">
-        <v>Function Attribute</v>
+        <v/>
       </c>
       <c r="D225" t="str">
-        <v>功能属性</v>
+        <v>面向</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B226" t="str">
-        <v>objName</v>
+        <v>leftTextPart2</v>
       </c>
       <c r="C226" t="str">
-        <v>Name</v>
+        <v>Global</v>
       </c>
       <c r="D226" t="str">
-        <v>名称</v>
+        <v>全球</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B227" t="str">
-        <v>objType</v>
+        <v>leftTextPart3</v>
       </c>
       <c r="C227" t="str">
-        <v>Type</v>
+        <v>·Seamless</v>
       </c>
       <c r="D227" t="str">
-        <v>类型</v>
+        <v>·无缝连接</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B228" t="str">
-        <v>originValue</v>
+        <v>leftTextPart4</v>
       </c>
       <c r="C228" t="str">
-        <v>Original Value</v>
+        <v>Connection Management</v>
       </c>
       <c r="D228" t="str">
-        <v>原值</v>
+        <v>连接管理</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>order</v>
+        <v>login</v>
       </c>
       <c r="B229" t="str">
-        <v>newValue</v>
+        <v>leftTextPart5</v>
       </c>
       <c r="C229" t="str">
-        <v>New Value</v>
+        <v>Join us and start building</v>
       </c>
       <c r="D229" t="str">
-        <v>新值</v>
+        <v>加入我们，然后开始构建</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>order</v>
+        <v>oper</v>
       </c>
       <c r="B230" t="str">
-        <v>orderCodeTitle</v>
+        <v>operName</v>
       </c>
       <c r="C230" t="str">
-        <v>Order Code：</v>
+        <v>Operation Name</v>
       </c>
       <c r="D230" t="str">
-        <v>订单编号：</v>
+        <v>操作名称</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>order</v>
+        <v>oper</v>
       </c>
       <c r="B231" t="str">
-        <v>operTypeAdd</v>
+        <v>operDate</v>
       </c>
       <c r="C231" t="str">
-        <v>Add</v>
+        <v>Operation Date</v>
       </c>
       <c r="D231" t="str">
-        <v>新增</v>
+        <v>操作日期</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>order</v>
+        <v>oper</v>
       </c>
       <c r="B232" t="str">
-        <v>operTypeDelete</v>
+        <v>resultCode</v>
       </c>
       <c r="C232" t="str">
-        <v>Delete</v>
+        <v>Result Code</v>
       </c>
       <c r="D232" t="str">
-        <v>删除</v>
+        <v>操作结果</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>order</v>
+        <v>oper</v>
       </c>
       <c r="B233" t="str">
-        <v>operTypeChange</v>
+        <v>clientIp</v>
       </c>
       <c r="C233" t="str">
-        <v>Change</v>
+        <v>Client IP</v>
       </c>
       <c r="D233" t="str">
-        <v>变更</v>
+        <v>客户端IP</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>order</v>
+        <v>oper</v>
       </c>
       <c r="B234" t="str">
-        <v>operTypeRemain</v>
+        <v>userCode</v>
       </c>
       <c r="C234" t="str">
-        <v>Remain</v>
+        <v>User Account</v>
       </c>
       <c r="D234" t="str">
-        <v>保持</v>
+        <v>操作账号</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>order</v>
+        <v>oper</v>
       </c>
       <c r="B235" t="str">
-        <v>batchTask</v>
+        <v>traceId</v>
       </c>
       <c r="C235" t="str">
-        <v>Batch Task</v>
+        <v>Trace Id</v>
       </c>
       <c r="D235" t="str">
-        <v>批量任务</v>
+        <v>唯一请求标识</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>order</v>
+        <v>oper</v>
       </c>
       <c r="B236" t="str">
-        <v>batchTaskQuery</v>
+        <v>success</v>
       </c>
       <c r="C236" t="str">
-        <v>Batch Task Query</v>
+        <v>Success</v>
       </c>
       <c r="D236" t="str">
-        <v>批量任务查询</v>
+        <v>成功</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>order</v>
+        <v>oper</v>
       </c>
       <c r="B237" t="str">
-        <v>createDate</v>
+        <v>fail</v>
       </c>
       <c r="C237" t="str">
-        <v>Creation Date</v>
+        <v>Fail</v>
       </c>
       <c r="D237" t="str">
-        <v>创建时间</v>
+        <v>失败</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>order</v>
+        <v>oper</v>
       </c>
       <c r="B238" t="str">
-        <v>finishDate</v>
+        <v>all</v>
       </c>
       <c r="C238" t="str">
-        <v>Completion Date</v>
+        <v>All</v>
       </c>
       <c r="D238" t="str">
-        <v>结束时间</v>
+        <v>全部</v>
       </c>
     </row>
     <row r="239">
@@ -3739,13 +3739,13 @@
         <v>order</v>
       </c>
       <c r="B239" t="str">
-        <v>batchStatus</v>
+        <v>orderCode</v>
       </c>
       <c r="C239" t="str">
-        <v>Batch Status</v>
+        <v>Order Code</v>
       </c>
       <c r="D239" t="str">
-        <v>任务状态</v>
+        <v>订单编码</v>
       </c>
     </row>
     <row r="240">
@@ -3753,13 +3753,13 @@
         <v>order</v>
       </c>
       <c r="B240" t="str">
-        <v>batchStatus1000</v>
+        <v>number</v>
       </c>
       <c r="C240" t="str">
-        <v>Accepted</v>
+        <v>Code</v>
       </c>
       <c r="D240" t="str">
-        <v>已受理</v>
+        <v>号码</v>
       </c>
     </row>
     <row r="241">
@@ -3767,13 +3767,13 @@
         <v>order</v>
       </c>
       <c r="B241" t="str">
-        <v>batchStatus1100</v>
+        <v>busType</v>
       </c>
       <c r="C241" t="str">
-        <v>In Progress</v>
+        <v>Bussiness Type</v>
       </c>
       <c r="D241" t="str">
-        <v>执行中</v>
+        <v>业务类型</v>
       </c>
     </row>
     <row r="242">
@@ -3781,13 +3781,13 @@
         <v>order</v>
       </c>
       <c r="B242" t="str">
-        <v>batchStatus1200</v>
+        <v>orderStatus</v>
       </c>
       <c r="C242" t="str">
-        <v>Execution Exception</v>
+        <v>Order Status</v>
       </c>
       <c r="D242" t="str">
-        <v>执行异常</v>
+        <v>订单状态</v>
       </c>
     </row>
     <row r="243">
@@ -3795,13 +3795,13 @@
         <v>order</v>
       </c>
       <c r="B243" t="str">
-        <v>batchStatus1300</v>
+        <v>account</v>
       </c>
       <c r="C243" t="str">
-        <v>Completed</v>
+        <v>Account</v>
       </c>
       <c r="D243" t="str">
-        <v>完成</v>
+        <v>账号</v>
       </c>
     </row>
     <row r="244">
@@ -3809,13 +3809,13 @@
         <v>order</v>
       </c>
       <c r="B244" t="str">
-        <v>batchTaskId</v>
+        <v>serviceTime</v>
       </c>
       <c r="C244" t="str">
-        <v>Batch Number</v>
+        <v>Service Time</v>
       </c>
       <c r="D244" t="str">
-        <v>批次号</v>
+        <v>受理时间</v>
       </c>
     </row>
     <row r="245">
@@ -3823,13 +3823,13 @@
         <v>order</v>
       </c>
       <c r="B245" t="str">
-        <v>statusResult</v>
+        <v>cust</v>
       </c>
       <c r="C245" t="str">
-        <v>Processing Result</v>
+        <v>Cust</v>
       </c>
       <c r="D245" t="str">
-        <v>处理结果</v>
+        <v>客户</v>
       </c>
     </row>
     <row r="246">
@@ -3837,13 +3837,13 @@
         <v>order</v>
       </c>
       <c r="B246" t="str">
-        <v>success</v>
+        <v>accNum</v>
       </c>
       <c r="C246" t="str">
-        <v>Success:</v>
+        <v>MSISDN</v>
       </c>
       <c r="D246" t="str">
-        <v>成功：</v>
+        <v>MSISDN</v>
       </c>
     </row>
     <row r="247">
@@ -3851,13 +3851,13 @@
         <v>order</v>
       </c>
       <c r="B247" t="str">
-        <v>fail</v>
+        <v>source</v>
       </c>
       <c r="C247" t="str">
-        <v>Failure:</v>
+        <v>Order Source</v>
       </c>
       <c r="D247" t="str">
-        <v>失败：</v>
+        <v>订单来源</v>
       </c>
     </row>
     <row r="248">
@@ -3865,13 +3865,13 @@
         <v>order</v>
       </c>
       <c r="B248" t="str">
-        <v>doing</v>
+        <v>createStaffName</v>
       </c>
       <c r="C248" t="str">
-        <v>In Progress:</v>
+        <v>Operator</v>
       </c>
       <c r="D248" t="str">
-        <v>处理中：</v>
+        <v>操作员</v>
       </c>
     </row>
     <row r="249">
@@ -3879,13 +3879,13 @@
         <v>order</v>
       </c>
       <c r="B249" t="str">
-        <v>wait</v>
+        <v>offerInfo</v>
       </c>
       <c r="C249" t="str">
-        <v>Pending:</v>
+        <v>Package Information</v>
       </c>
       <c r="D249" t="str">
-        <v>待处理：</v>
+        <v>套餐信息</v>
       </c>
     </row>
     <row r="250">
@@ -3893,13 +3893,13 @@
         <v>order</v>
       </c>
       <c r="B250" t="str">
-        <v>doTitle</v>
+        <v>offerName</v>
       </c>
       <c r="C250" t="str">
-        <v>Processing List</v>
+        <v>Package Name</v>
       </c>
       <c r="D250" t="str">
-        <v>处理清单</v>
+        <v>套餐名称</v>
       </c>
     </row>
     <row r="251">
@@ -3907,13 +3907,13 @@
         <v>order</v>
       </c>
       <c r="B251" t="str">
-        <v>statusName</v>
+        <v>operType</v>
       </c>
       <c r="C251" t="str">
-        <v>Status</v>
+        <v>Operation Type</v>
       </c>
       <c r="D251" t="str">
-        <v>处理状态</v>
+        <v>操作类型</v>
       </c>
     </row>
     <row r="252">
@@ -3921,643 +3921,643 @@
         <v>order</v>
       </c>
       <c r="B252" t="str">
-        <v>listId</v>
+        <v>fucName</v>
       </c>
       <c r="C252" t="str">
-        <v>List Sequence Number</v>
+        <v>Function Attribute</v>
       </c>
       <c r="D252" t="str">
-        <v>清单序号</v>
+        <v>功能属性</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B253" t="str">
-        <v>roleCode</v>
+        <v>objName</v>
       </c>
       <c r="C253" t="str">
-        <v>Role Code</v>
+        <v>Name</v>
       </c>
       <c r="D253" t="str">
-        <v>角色编码</v>
+        <v>名称</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B254" t="str">
-        <v>roleName</v>
+        <v>objType</v>
       </c>
       <c r="C254" t="str">
-        <v>Role Name</v>
+        <v>Type</v>
       </c>
       <c r="D254" t="str">
-        <v>角色名称</v>
+        <v>类型</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B255" t="str">
-        <v>qryTime</v>
+        <v>originValue</v>
       </c>
       <c r="C255" t="str">
-        <v>Activation Time</v>
+        <v>Original Value</v>
       </c>
       <c r="D255" t="str">
-        <v>激活时间</v>
+        <v>原值</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B256" t="str">
-        <v>createBtn</v>
+        <v>newValue</v>
       </c>
       <c r="C256" t="str">
-        <v>Create Member</v>
+        <v>New Value</v>
       </c>
       <c r="D256" t="str">
-        <v>新建成员</v>
+        <v>新值</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B257" t="str">
-        <v>createStaffName</v>
+        <v>orderCodeTitle</v>
       </c>
       <c r="C257" t="str">
-        <v>Created By</v>
+        <v>Order Code：</v>
       </c>
       <c r="D257" t="str">
-        <v>创建人</v>
+        <v>订单编号：</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B258" t="str">
-        <v>createTime</v>
+        <v>operTypeAdd</v>
       </c>
       <c r="C258" t="str">
-        <v>Creation Time</v>
+        <v>Add</v>
       </c>
       <c r="D258" t="str">
-        <v>创建时间</v>
+        <v>新增</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B259" t="str">
-        <v>remark</v>
+        <v>operTypeDelete</v>
       </c>
       <c r="C259" t="str">
-        <v>Remarks</v>
+        <v>Delete</v>
       </c>
       <c r="D259" t="str">
-        <v>备注</v>
+        <v>删除</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B260" t="str">
-        <v>modifyRoleCreate</v>
+        <v>operTypeChange</v>
       </c>
       <c r="C260" t="str">
-        <v>Create Role</v>
+        <v>Change</v>
       </c>
       <c r="D260" t="str">
-        <v>新建角色</v>
+        <v>变更</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B261" t="str">
-        <v>modifyRoleEdit</v>
+        <v>operTypeRemain</v>
       </c>
       <c r="C261" t="str">
-        <v>Edit Role</v>
+        <v>Remain</v>
       </c>
       <c r="D261" t="str">
-        <v>修改角色</v>
+        <v>保持</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B262" t="str">
-        <v>deleteAsk</v>
+        <v>batchTask</v>
       </c>
       <c r="C262" t="str">
-        <v>Are you sure you want to delete the selected role(s)?</v>
+        <v>Batch Task</v>
       </c>
       <c r="D262" t="str">
-        <v>确定要删除已选中的角色吗？</v>
+        <v>批量任务</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B263" t="str">
-        <v>menuName</v>
+        <v>batchTaskQuery</v>
       </c>
       <c r="C263" t="str">
-        <v>Menu Name</v>
+        <v>Batch Task Query</v>
       </c>
       <c r="D263" t="str">
-        <v>菜单名称</v>
+        <v>批量任务查询</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B264" t="str">
-        <v>menuPriv</v>
+        <v>createDate</v>
       </c>
       <c r="C264" t="str">
-        <v>Menu Privilege</v>
+        <v>Creation Time</v>
       </c>
       <c r="D264" t="str">
-        <v>菜单权限</v>
+        <v>创建时间</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B265" t="str">
-        <v>privAction</v>
+        <v>finishDate</v>
       </c>
       <c r="C265" t="str">
-        <v>Action Privilege</v>
+        <v>Completion Time</v>
       </c>
       <c r="D265" t="str">
-        <v>操作权限</v>
+        <v>结束时间</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>roleMag</v>
+        <v>order</v>
       </c>
       <c r="B266" t="str">
-        <v>checkAll</v>
+        <v>batchStatus</v>
       </c>
       <c r="C266" t="str">
-        <v>Select All</v>
+        <v>Batch Status</v>
       </c>
       <c r="D266" t="str">
-        <v>全选</v>
+        <v>任务状态</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B267" t="str">
-        <v>selectRule</v>
+        <v>batchStatus1000</v>
       </c>
       <c r="C267" t="str">
-        <v>Select Rule</v>
+        <v>Accepted</v>
       </c>
       <c r="D267" t="str">
-        <v>选择规则类型</v>
+        <v>已受理</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B268" t="str">
-        <v>setRule</v>
+        <v>batchStatus1100</v>
       </c>
       <c r="C268" t="str">
-        <v>Set Rule</v>
+        <v>In Progress</v>
       </c>
       <c r="D268" t="str">
-        <v>设置规则</v>
+        <v>执行中</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B269" t="str">
-        <v>ruleName</v>
+        <v>batchStatus1200</v>
       </c>
       <c r="C269" t="str">
-        <v>Rule Name</v>
+        <v>Execution Exception</v>
       </c>
       <c r="D269" t="str">
-        <v>规则名称</v>
+        <v>执行异常</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B270" t="str">
-        <v>supplier</v>
+        <v>batchStatus1300</v>
       </c>
       <c r="C270" t="str">
-        <v>Supplier</v>
+        <v>Completed</v>
       </c>
       <c r="D270" t="str">
-        <v>供应商</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B271" t="str">
-        <v>ruleType</v>
+        <v>batchTaskId</v>
       </c>
       <c r="C271" t="str">
-        <v>Rule Type</v>
+        <v>Batch Number</v>
       </c>
       <c r="D271" t="str">
-        <v>规则类型</v>
+        <v>批次号</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B272" t="str">
-        <v>ruleCategory</v>
+        <v>statusResult</v>
       </c>
       <c r="C272" t="str">
-        <v>Rule Category</v>
+        <v>Processing Result</v>
       </c>
       <c r="D272" t="str">
-        <v>规则类别</v>
+        <v>处理结果</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B273" t="str">
-        <v>createTime</v>
+        <v>success</v>
       </c>
       <c r="C273" t="str">
-        <v>Creation Time</v>
+        <v xml:space="preserve">Success: </v>
       </c>
       <c r="D273" t="str">
-        <v>创建时间</v>
+        <v>成功：</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B274" t="str">
-        <v>createUser</v>
+        <v>fail</v>
       </c>
       <c r="C274" t="str">
-        <v>Creation User</v>
+        <v xml:space="preserve">Failure: </v>
       </c>
       <c r="D274" t="str">
-        <v>创建用户</v>
+        <v>失败：</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B275" t="str">
-        <v>query</v>
+        <v>doing</v>
       </c>
       <c r="C275" t="str">
-        <v>Query</v>
+        <v xml:space="preserve">In Progress: </v>
       </c>
       <c r="D275" t="str">
-        <v>查询</v>
+        <v>处理中：</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B276" t="str">
-        <v>resetting</v>
+        <v>wait</v>
       </c>
       <c r="C276" t="str">
-        <v>Reset</v>
+        <v xml:space="preserve">Pending: </v>
       </c>
       <c r="D276" t="str">
-        <v>重置</v>
+        <v>待处理：</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B277" t="str">
-        <v>addRule</v>
+        <v>doTitle</v>
       </c>
       <c r="C277" t="str">
-        <v>New Rule</v>
+        <v>Processing List</v>
       </c>
       <c r="D277" t="str">
-        <v>新建规则</v>
+        <v>处理清单</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B278" t="str">
-        <v>increase</v>
+        <v>statusName</v>
       </c>
       <c r="C278" t="str">
-        <v>Add</v>
+        <v>Status</v>
       </c>
       <c r="D278" t="str">
-        <v>添加</v>
+        <v>处理状态</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>rule</v>
+        <v>order</v>
       </c>
       <c r="B279" t="str">
-        <v>prev</v>
+        <v>listId</v>
       </c>
       <c r="C279" t="str">
-        <v>Previous Step</v>
+        <v>List Sequence Number</v>
       </c>
       <c r="D279" t="str">
-        <v>上一步</v>
+        <v>清单序号</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B280" t="str">
-        <v>complete</v>
+        <v>roleCode</v>
       </c>
       <c r="C280" t="str">
-        <v>Complete</v>
+        <v>Role Code</v>
       </c>
       <c r="D280" t="str">
-        <v>完成</v>
+        <v>角色编码</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B281" t="str">
-        <v>monitorObjectType</v>
+        <v>roleName</v>
       </c>
       <c r="C281" t="str">
-        <v>Monitoring Object Type</v>
+        <v>Role Name</v>
       </c>
       <c r="D281" t="str">
-        <v>监控对象类型</v>
+        <v>角色名称</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B282" t="str">
-        <v>objectType</v>
+        <v>qryTime</v>
       </c>
       <c r="C282" t="str">
-        <v>Object Type</v>
+        <v>Creation Time</v>
       </c>
       <c r="D282" t="str">
-        <v>对象类型</v>
+        <v>创建时间</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B283" t="str">
-        <v>operate</v>
+        <v>createBtn</v>
       </c>
       <c r="C283" t="str">
-        <v>Operation</v>
+        <v>Create Role</v>
       </c>
       <c r="D283" t="str">
-        <v>操作</v>
+        <v>新建角色</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B284" t="str">
-        <v>enter</v>
+        <v>createStaffName</v>
       </c>
       <c r="C284" t="str">
-        <v>Please Enter</v>
+        <v>Created By</v>
       </c>
       <c r="D284" t="str">
-        <v>请输入</v>
+        <v>创建人</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B285" t="str">
-        <v>pleaseSelect</v>
+        <v>createTime</v>
       </c>
       <c r="C285" t="str">
-        <v>Please Select</v>
+        <v>Creation Time</v>
       </c>
       <c r="D285" t="str">
-        <v>请选择</v>
+        <v>创建时间</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B286" t="str">
-        <v>loading</v>
+        <v>remark</v>
       </c>
       <c r="C286" t="str">
-        <v>Loading</v>
+        <v>Remarks</v>
       </c>
       <c r="D286" t="str">
-        <v>加载中</v>
+        <v>备注</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B287" t="str">
-        <v>modify</v>
+        <v>modifyRoleCreate</v>
       </c>
       <c r="C287" t="str">
-        <v>Edit</v>
+        <v>Create Role</v>
       </c>
       <c r="D287" t="str">
-        <v>修改</v>
+        <v>新建角色</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B288" t="str">
-        <v>delete</v>
+        <v>modifyRoleEdit</v>
       </c>
       <c r="C288" t="str">
-        <v>Delete</v>
+        <v>Edit Role</v>
       </c>
       <c r="D288" t="str">
-        <v>删除</v>
+        <v>修改角色</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B289" t="str">
-        <v>cancellation</v>
+        <v>deleteAsk</v>
       </c>
       <c r="C289" t="str">
-        <v>Cancel</v>
+        <v>Are you sure you want to delete the selected role(s)?</v>
       </c>
       <c r="D289" t="str">
-        <v>取消</v>
+        <v>确定要删除已选中的角色吗？</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B290" t="str">
-        <v>effective</v>
+        <v>menuName</v>
       </c>
       <c r="C290" t="str">
-        <v>Valid</v>
+        <v>Menu Name</v>
       </c>
       <c r="D290" t="str">
-        <v>有效</v>
+        <v>菜单名称</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B291" t="str">
-        <v>invalid</v>
+        <v>menuPriv</v>
       </c>
       <c r="C291" t="str">
-        <v>Invalid</v>
+        <v>Menu Privilege</v>
       </c>
       <c r="D291" t="str">
-        <v>无效</v>
+        <v>菜单权限</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B292" t="str">
-        <v>delectRule</v>
+        <v>privAction</v>
       </c>
       <c r="C292" t="str">
-        <v>Delete Rule</v>
+        <v>Action Privilege</v>
       </c>
       <c r="D292" t="str">
-        <v>删除规则</v>
+        <v>操作权限</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B293" t="str">
-        <v>delectAction</v>
+        <v>checkAll</v>
       </c>
       <c r="C293" t="str">
-        <v>A deletion operation will be performed. Do you wish to continue?</v>
+        <v>Select All</v>
       </c>
       <c r="D293" t="str">
-        <v>将进行删除操作，是否继续</v>
+        <v>全选</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B294" t="str">
-        <v>delectSuccess</v>
+        <v>createSuccess</v>
       </c>
       <c r="C294" t="str">
-        <v>Deleted Successfully</v>
+        <v>Create role successfully!</v>
       </c>
       <c r="D294" t="str">
-        <v>删除成功</v>
+        <v>新建角色成功！</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B295" t="str">
-        <v>usageMonitor</v>
+        <v>modifySuccess</v>
       </c>
       <c r="C295" t="str">
-        <v>Usage Monitoring</v>
+        <v>Modify role successfully!</v>
       </c>
       <c r="D295" t="str">
-        <v>用量监控</v>
+        <v>修改角色成功！</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B296" t="str">
-        <v>selfSupport</v>
+        <v>pleasePriv</v>
       </c>
       <c r="C296" t="str">
-        <v>Self-operated</v>
+        <v>Please select menu privileges</v>
       </c>
       <c r="D296" t="str">
-        <v>自营</v>
+        <v>请选择菜单权限</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>rule</v>
+        <v>roleMag</v>
       </c>
       <c r="B297" t="str">
-        <v>monthDataUsage</v>
+        <v>fullFill</v>
       </c>
       <c r="C297" t="str">
-        <v>Monthly Data Usage</v>
+        <v>Please complete the form</v>
       </c>
       <c r="D297" t="str">
-        <v>月数据用量</v>
+        <v>请完善表单</v>
       </c>
     </row>
     <row r="298">
@@ -4565,13 +4565,13 @@
         <v>rule</v>
       </c>
       <c r="B298" t="str">
-        <v>monthSmsUsage</v>
+        <v>selectRule</v>
       </c>
       <c r="C298" t="str">
-        <v>Monthly SMS Usage</v>
+        <v>Select Rule</v>
       </c>
       <c r="D298" t="str">
-        <v>月短信用量</v>
+        <v>选择规则类型</v>
       </c>
     </row>
     <row r="299">
@@ -4579,13 +4579,13 @@
         <v>rule</v>
       </c>
       <c r="B299" t="str">
-        <v>monthVoiceUsage</v>
+        <v>setRule</v>
       </c>
       <c r="C299" t="str">
-        <v>Monthly Voice Usage</v>
+        <v>Set Rule</v>
       </c>
       <c r="D299" t="str">
-        <v>月语音用量</v>
+        <v>设置规则</v>
       </c>
     </row>
     <row r="300">
@@ -4593,13 +4593,13 @@
         <v>rule</v>
       </c>
       <c r="B300" t="str">
-        <v>monthDataPrompt</v>
+        <v>ruleName</v>
       </c>
       <c r="C300" t="str">
-        <v>Triggered when the monthly network usage traffic of the SIM card in the current billing cycle reaches **MB</v>
+        <v>Rule Name</v>
       </c>
       <c r="D300" t="str">
-        <v>当SIM卡在当前计费周期月网络使用流量 达到**MB时触发</v>
+        <v>规则名称</v>
       </c>
     </row>
     <row r="301">
@@ -4607,13 +4607,13 @@
         <v>rule</v>
       </c>
       <c r="B301" t="str">
-        <v>monthSmsPrompt</v>
+        <v>supplier</v>
       </c>
       <c r="C301" t="str">
-        <v>Triggered when the monthly SMS usage of the SIM card in the current billing cycle reaches **messages</v>
+        <v>Supplier</v>
       </c>
       <c r="D301" t="str">
-        <v>当SIM卡在当前计费周期月短信使用量达 到**条时触发</v>
+        <v>供应商</v>
       </c>
     </row>
     <row r="302">
@@ -4621,13 +4621,13 @@
         <v>rule</v>
       </c>
       <c r="B302" t="str">
-        <v>monthVoicePrompt</v>
+        <v>ruleType</v>
       </c>
       <c r="C302" t="str">
-        <v>Triggered when the monthly SMS usage of the SIM card in the current billing cycle reaches **messages</v>
+        <v>Rule Type</v>
       </c>
       <c r="D302" t="str">
-        <v>当SIM卡在当前计费周期月短信使用量达 到**条时触发</v>
+        <v>规则类型</v>
       </c>
     </row>
     <row r="303">
@@ -4635,13 +4635,13 @@
         <v>rule</v>
       </c>
       <c r="B303" t="str">
-        <v>selectManufacturer</v>
+        <v>ruleCategory</v>
       </c>
       <c r="C303" t="str">
-        <v>Select Manufacturer</v>
+        <v>Rule Category</v>
       </c>
       <c r="D303" t="str">
-        <v>厂商</v>
+        <v>规则类别</v>
       </c>
     </row>
     <row r="304">
@@ -4649,13 +4649,13 @@
         <v>rule</v>
       </c>
       <c r="B304" t="str">
-        <v>package</v>
+        <v>createTime</v>
       </c>
       <c r="C304" t="str">
-        <v>Package</v>
+        <v>Creation Time</v>
       </c>
       <c r="D304" t="str">
-        <v>套餐</v>
+        <v>创建时间</v>
       </c>
     </row>
     <row r="305">
@@ -4663,13 +4663,13 @@
         <v>rule</v>
       </c>
       <c r="B305" t="str">
-        <v>packageName</v>
+        <v>createUser</v>
       </c>
       <c r="C305" t="str">
-        <v>Offer Name</v>
+        <v>Creation User</v>
       </c>
       <c r="D305" t="str">
-        <v>套餐名称</v>
+        <v>创建用户</v>
       </c>
     </row>
     <row r="306">
@@ -4677,13 +4677,13 @@
         <v>rule</v>
       </c>
       <c r="B306" t="str">
-        <v>packageInfo</v>
+        <v>query</v>
       </c>
       <c r="C306" t="str">
-        <v>Offer Info</v>
+        <v>Query</v>
       </c>
       <c r="D306" t="str">
-        <v>套餐信息</v>
+        <v>查询</v>
       </c>
     </row>
     <row r="307">
@@ -4691,13 +4691,13 @@
         <v>rule</v>
       </c>
       <c r="B307" t="str">
-        <v>determine</v>
+        <v>resetting</v>
       </c>
       <c r="C307" t="str">
-        <v>Confirm</v>
+        <v>Reset</v>
       </c>
       <c r="D307" t="str">
-        <v>确定</v>
+        <v>重置</v>
       </c>
     </row>
     <row r="308">
@@ -4705,13 +4705,13 @@
         <v>rule</v>
       </c>
       <c r="B308" t="str">
-        <v>defineRule</v>
+        <v>addRule</v>
       </c>
       <c r="C308" t="str">
-        <v>Define Rule</v>
+        <v>New Rule</v>
       </c>
       <c r="D308" t="str">
-        <v>定义规则</v>
+        <v>新建规则</v>
       </c>
     </row>
     <row r="309">
@@ -4719,13 +4719,13 @@
         <v>rule</v>
       </c>
       <c r="B309" t="str">
-        <v>ruleDefine</v>
+        <v>increase</v>
       </c>
       <c r="C309" t="str">
-        <v>Rule Definition</v>
+        <v>Add</v>
       </c>
       <c r="D309" t="str">
-        <v>规则定义</v>
+        <v>添加</v>
       </c>
     </row>
     <row r="310">
@@ -4733,13 +4733,13 @@
         <v>rule</v>
       </c>
       <c r="B310" t="str">
-        <v>selected</v>
+        <v>prev</v>
       </c>
       <c r="C310" t="str">
-        <v>Current Selection</v>
+        <v>Previous Step</v>
       </c>
       <c r="D310" t="str">
-        <v>当前选择</v>
+        <v>上一步</v>
       </c>
     </row>
     <row r="311">
@@ -4747,13 +4747,13 @@
         <v>rule</v>
       </c>
       <c r="B311" t="str">
-        <v>ruleConfiguration</v>
+        <v>complete</v>
       </c>
       <c r="C311" t="str">
-        <v>Rule Configuration</v>
+        <v>Complete</v>
       </c>
       <c r="D311" t="str">
-        <v>规则配置</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="312">
@@ -4761,13 +4761,13 @@
         <v>rule</v>
       </c>
       <c r="B312" t="str">
-        <v>threshold</v>
+        <v>monitorObjectType</v>
       </c>
       <c r="C312" t="str">
-        <v>Threshold</v>
+        <v>Object Type</v>
       </c>
       <c r="D312" t="str">
-        <v>阈值</v>
+        <v>对象类型</v>
       </c>
     </row>
     <row r="313">
@@ -4775,13 +4775,13 @@
         <v>rule</v>
       </c>
       <c r="B313" t="str">
-        <v>thresholdCannotEmpty</v>
+        <v>objectType</v>
       </c>
       <c r="C313" t="str">
-        <v>The threshold cannot be empty</v>
+        <v>Object Type</v>
       </c>
       <c r="D313" t="str">
-        <v>阈值不能为空</v>
+        <v>对象类型</v>
       </c>
     </row>
     <row r="314">
@@ -4789,13 +4789,13 @@
         <v>rule</v>
       </c>
       <c r="B314" t="str">
-        <v>pushURL</v>
+        <v>operate</v>
       </c>
       <c r="C314" t="str">
-        <v>Push URL</v>
+        <v>Operation</v>
       </c>
       <c r="D314" t="str">
-        <v>推送URL</v>
+        <v>操作</v>
       </c>
     </row>
     <row r="315">
@@ -4803,13 +4803,13 @@
         <v>rule</v>
       </c>
       <c r="B315" t="str">
-        <v>testAddress</v>
+        <v>enter</v>
       </c>
       <c r="C315" t="str">
-        <v>Test Address</v>
+        <v>Please Enter</v>
       </c>
       <c r="D315" t="str">
-        <v>测试地址</v>
+        <v>请输入</v>
       </c>
     </row>
     <row r="316">
@@ -4817,13 +4817,13 @@
         <v>rule</v>
       </c>
       <c r="B316" t="str">
-        <v>uploadCertificate</v>
+        <v>pleaseSelect</v>
       </c>
       <c r="C316" t="str">
-        <v>Upload Certificate</v>
+        <v>Please Select</v>
       </c>
       <c r="D316" t="str">
-        <v>上传证书</v>
+        <v>请选择</v>
       </c>
     </row>
     <row r="317">
@@ -4831,13 +4831,13 @@
         <v>rule</v>
       </c>
       <c r="B317" t="str">
-        <v>httpPrompt</v>
+        <v>loading</v>
       </c>
       <c r="C317" t="str">
-        <v>Note: No certificate needs to be uploaded for HTTP requests; in the HTTPS docking scenario, the server certificate can be uploaded (it needs to be re-uploaded after the certificate's validity period expires); if there is no port in the push URL, add the default port 80.</v>
+        <v>Loading</v>
       </c>
       <c r="D317" t="str">
-        <v>注意:http请求不需要上传证书;https对接场景下，可上传服务器证书(证书有效期到期后需重传);如果推送url中没有端口，请在url中添加默认端口80。</v>
+        <v>加载中</v>
       </c>
     </row>
     <row r="318">
@@ -4845,13 +4845,13 @@
         <v>rule</v>
       </c>
       <c r="B318" t="str">
-        <v>ruleObject</v>
+        <v>modify</v>
       </c>
       <c r="C318" t="str">
-        <v>Rule Object</v>
+        <v>Edit</v>
       </c>
       <c r="D318" t="str">
-        <v>规则对象</v>
+        <v>修改</v>
       </c>
     </row>
     <row r="319">
@@ -4859,13 +4859,13 @@
         <v>rule</v>
       </c>
       <c r="B319" t="str">
-        <v>batchImport</v>
+        <v>delete</v>
       </c>
       <c r="C319" t="str">
-        <v>Batch Import</v>
+        <v>Delete</v>
       </c>
       <c r="D319" t="str">
-        <v>批量导入</v>
+        <v>删除</v>
       </c>
     </row>
     <row r="320">
@@ -4873,13 +4873,13 @@
         <v>rule</v>
       </c>
       <c r="B320" t="str">
-        <v>batchDelete</v>
+        <v>cancellation</v>
       </c>
       <c r="C320" t="str">
-        <v>Batch Import</v>
+        <v>Cancel</v>
       </c>
       <c r="D320" t="str">
-        <v>批量删除</v>
+        <v>取消</v>
       </c>
     </row>
     <row r="321">
@@ -4887,13 +4887,13 @@
         <v>rule</v>
       </c>
       <c r="B321" t="str">
-        <v>accNumber</v>
+        <v>effective</v>
       </c>
       <c r="C321" t="str">
-        <v>Access Number</v>
+        <v>Valid</v>
       </c>
       <c r="D321" t="str">
-        <v>接入号码</v>
+        <v>有效</v>
       </c>
     </row>
     <row r="322">
@@ -4901,13 +4901,13 @@
         <v>rule</v>
       </c>
       <c r="B322" t="str">
-        <v>batchImportNumber</v>
+        <v>invalid</v>
       </c>
       <c r="C322" t="str">
-        <v>Batch Import Numbers</v>
+        <v>Invalid</v>
       </c>
       <c r="D322" t="str">
-        <v>批量导入号码</v>
+        <v>无效</v>
       </c>
     </row>
     <row r="323">
@@ -4915,13 +4915,13 @@
         <v>rule</v>
       </c>
       <c r="B323" t="str">
-        <v>batchDeleteNumber</v>
+        <v>delectRule</v>
       </c>
       <c r="C323" t="str">
-        <v>Batch Delete Numbers</v>
+        <v>Delete Rule</v>
       </c>
       <c r="D323" t="str">
-        <v>批量删除号码</v>
+        <v>删除规则</v>
       </c>
     </row>
     <row r="324">
@@ -4929,13 +4929,13 @@
         <v>rule</v>
       </c>
       <c r="B324" t="str">
-        <v>enterprise</v>
+        <v>delectAction</v>
       </c>
       <c r="C324" t="str">
-        <v>Enterprise</v>
+        <v>A deletion operation will be performed. Do you wish to continue?</v>
       </c>
       <c r="D324" t="str">
-        <v>企业</v>
+        <v>将进行删除操作，是否继续</v>
       </c>
     </row>
     <row r="325">
@@ -4943,13 +4943,13 @@
         <v>rule</v>
       </c>
       <c r="B325" t="str">
-        <v>simCard</v>
+        <v>delectSuccess</v>
       </c>
       <c r="C325" t="str">
-        <v>SIM Card</v>
+        <v>Deleted Successfully</v>
       </c>
       <c r="D325" t="str">
-        <v>SIM卡</v>
+        <v>删除成功</v>
       </c>
     </row>
     <row r="326">
@@ -4957,13 +4957,13 @@
         <v>rule</v>
       </c>
       <c r="B326" t="str">
-        <v>category</v>
+        <v>usageMonitor</v>
       </c>
       <c r="C326" t="str">
-        <v>Category</v>
+        <v>Usage Monitoring</v>
       </c>
       <c r="D326" t="str">
-        <v>类别</v>
+        <v>用量监控</v>
       </c>
     </row>
     <row r="327">
@@ -4971,13 +4971,13 @@
         <v>rule</v>
       </c>
       <c r="B327" t="str">
-        <v>triggerFlip</v>
+        <v>statusMonitor</v>
       </c>
       <c r="C327" t="str">
-        <v>Trigger</v>
+        <v>SIM Card Status</v>
       </c>
       <c r="D327" t="str">
-        <v>触发器</v>
+        <v>卡状态</v>
       </c>
     </row>
     <row r="328">
@@ -4985,13 +4985,13 @@
         <v>rule</v>
       </c>
       <c r="B328" t="str">
-        <v>actionDestMessage</v>
+        <v>monthDataUsage</v>
       </c>
       <c r="C328" t="str">
-        <v>The push URL cannot be empty</v>
+        <v>Monthly Data Usage</v>
       </c>
       <c r="D328" t="str">
-        <v>推送URL不能为空</v>
+        <v>月数据用量</v>
       </c>
     </row>
     <row r="329">
@@ -4999,13 +4999,13 @@
         <v>rule</v>
       </c>
       <c r="B329" t="str">
-        <v>ruleNameMessage</v>
+        <v>monthSmsUsage</v>
       </c>
       <c r="C329" t="str">
-        <v>The rule name cannot be empty</v>
+        <v>Monthly SMS Usage</v>
       </c>
       <c r="D329" t="str">
-        <v>规则名称不能为空</v>
+        <v>月短信用量</v>
       </c>
     </row>
     <row r="330">
@@ -5013,13 +5013,13 @@
         <v>rule</v>
       </c>
       <c r="B330" t="str">
-        <v>objTypeMessage</v>
+        <v>monthVoiceUsage</v>
       </c>
       <c r="C330" t="str">
-        <v>The object type cannot be empty</v>
+        <v>Monthly Voice Usage</v>
       </c>
       <c r="D330" t="str">
-        <v>对象类型不能为空</v>
+        <v>月语音用量</v>
       </c>
     </row>
     <row r="331">
@@ -5027,13 +5027,13 @@
         <v>rule</v>
       </c>
       <c r="B331" t="str">
-        <v>ruleId</v>
+        <v>simStatusChange</v>
       </c>
       <c r="C331" t="str">
-        <v>Rule ID</v>
+        <v>Card Status Change</v>
       </c>
       <c r="D331" t="str">
-        <v>规则ID</v>
+        <v>卡状态变更</v>
       </c>
     </row>
     <row r="332">
@@ -5041,13 +5041,13 @@
         <v>rule</v>
       </c>
       <c r="B332" t="str">
-        <v>triggerDate</v>
+        <v>monthOverflow</v>
       </c>
       <c r="C332" t="str">
-        <v>Trigger Date</v>
+        <v>Monthly Depletion</v>
       </c>
       <c r="D332" t="str">
-        <v>触发日期</v>
+        <v>月用量耗尽</v>
       </c>
     </row>
     <row r="333">
@@ -5055,13 +5055,13 @@
         <v>rule</v>
       </c>
       <c r="B333" t="str">
-        <v>iotNetworkCard</v>
+        <v>packageExpire</v>
       </c>
       <c r="C333" t="str">
-        <v>Internet of Things Card</v>
+        <v>Package Expires</v>
       </c>
       <c r="D333" t="str">
-        <v>物联网卡</v>
+        <v>套餐到期</v>
       </c>
     </row>
     <row r="334">
@@ -5069,13 +5069,13 @@
         <v>rule</v>
       </c>
       <c r="B334" t="str">
-        <v>sendMessageUrl</v>
+        <v>dataRuleType</v>
       </c>
       <c r="C334" t="str">
-        <v>Send an API message to the URL</v>
+        <v>Data</v>
       </c>
       <c r="D334" t="str">
-        <v>发送一条API消息,至URL</v>
+        <v>数据</v>
       </c>
     </row>
     <row r="335">
@@ -5083,13 +5083,13 @@
         <v>rule</v>
       </c>
       <c r="B335" t="str">
-        <v>pushContent</v>
+        <v>smsRuleType</v>
       </c>
       <c r="C335" t="str">
-        <v>Push Content</v>
+        <v>SMS</v>
       </c>
       <c r="D335" t="str">
-        <v>推送内容</v>
+        <v>短信</v>
       </c>
     </row>
     <row r="336">
@@ -5097,13 +5097,13 @@
         <v>rule</v>
       </c>
       <c r="B336" t="str">
-        <v>operationRes</v>
+        <v>voiceRuleType</v>
       </c>
       <c r="C336" t="str">
-        <v>Operation Result</v>
+        <v>Voice</v>
       </c>
       <c r="D336" t="str">
-        <v>操作结果</v>
+        <v>语音</v>
       </c>
     </row>
     <row r="337">
@@ -5111,13 +5111,13 @@
         <v>rule</v>
       </c>
       <c r="B337" t="str">
-        <v>operationResInfo</v>
+        <v>cardRuleType</v>
       </c>
       <c r="C337" t="str">
-        <v>Operation Result Information</v>
+        <v>Card Status</v>
       </c>
       <c r="D337" t="str">
-        <v>操作结果信息</v>
+        <v>卡状态</v>
       </c>
     </row>
     <row r="338">
@@ -5125,858 +5125,1656 @@
         <v>rule</v>
       </c>
       <c r="B338" t="str">
-        <v>failureReason</v>
+        <v>monthDataPrompt</v>
       </c>
       <c r="C338" t="str">
-        <v>Failure Reason</v>
+        <v>Triggered when the monthly network usage traffic of the SIM card in the current billing cycle reaches **MB</v>
       </c>
       <c r="D338" t="str">
-        <v>失败原因</v>
+        <v>当SIM卡在当前计费周期月网络使用流量达到**MB时触发</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B339" t="str">
-        <v>simStatus</v>
+        <v>monthSmsPrompt</v>
       </c>
       <c r="C339" t="str">
-        <v>SIM Status</v>
+        <v>Triggered when the monthly SMS usage of the SIM card in the current billing cycle reaches **messages</v>
       </c>
       <c r="D339" t="str">
-        <v>卡状态</v>
+        <v>当SIM卡在当前计费周期月短信使用量达到**条时触发</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B340" t="str">
-        <v>addressId</v>
+        <v>monthVoicePrompt</v>
       </c>
       <c r="C340" t="str">
-        <v>Supplier</v>
+        <v xml:space="preserve">Triggered when the monthly Voice usage of the SIM card in the current billing cycle reaches **minutes  </v>
       </c>
       <c r="D340" t="str">
-        <v>供应商</v>
+        <v>当SIM卡在当前计费周期月语音使用量达到**分钟时触发</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B341" t="str">
-        <v>actDate</v>
+        <v>simStatusPrompt</v>
       </c>
       <c r="C341" t="str">
-        <v>Activate Time</v>
+        <v>Triggered when the status of the SIM card changes</v>
       </c>
       <c r="D341" t="str">
-        <v>激活时间</v>
+        <v>当SIM卡状态在供应商侧发生状态变更</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B342" t="str">
-        <v>package</v>
+        <v>overflowPrompt</v>
       </c>
       <c r="C342" t="str">
-        <v>Package</v>
+        <v>Triggered when the SIM card runs out of monthly data in the current billing period</v>
       </c>
       <c r="D342" t="str">
-        <v>套餐</v>
+        <v>当SIM卡在当前计费周期月数据用尽时触发</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B343" t="str">
-        <v>cust</v>
+        <v>expirePrompt</v>
       </c>
       <c r="C343" t="str">
-        <v>Enterprise</v>
+        <v>Triggered when the SIM card package expires</v>
       </c>
       <c r="D343" t="str">
-        <v>企业</v>
+        <v>当SIM卡套餐到期时触发</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B344" t="str">
-        <v>monthUsage</v>
+        <v>selectManufacturer</v>
       </c>
       <c r="C344" t="str">
-        <v>Monthly Usage(MB)</v>
+        <v>Select Manufacturer</v>
       </c>
       <c r="D344" t="str">
-        <v>当月使用量（MB）</v>
+        <v>厂商</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B345" t="str">
-        <v>use</v>
+        <v>package</v>
       </c>
       <c r="C345" t="str">
-        <v>Online</v>
+        <v>Package</v>
       </c>
       <c r="D345" t="str">
-        <v>在用</v>
+        <v>套餐</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B346" t="str">
-        <v>stop</v>
+        <v>packageName</v>
       </c>
       <c r="C346" t="str">
-        <v>Offline</v>
+        <v>Offer Name</v>
       </c>
       <c r="D346" t="str">
-        <v>停机</v>
+        <v>套餐名称</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B347" t="str">
-        <v>destroy</v>
+        <v>packageInfo</v>
       </c>
       <c r="C347" t="str">
-        <v>Destroy</v>
+        <v>Offer Info</v>
       </c>
       <c r="D347" t="str">
-        <v>拆机</v>
+        <v>套餐信息</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B348" t="str">
-        <v>batchImportTitle</v>
+        <v>determine</v>
       </c>
       <c r="C348" t="str">
-        <v>Bulk SIM Card Inquiry</v>
+        <v>Confirm</v>
       </c>
       <c r="D348" t="str">
-        <v>SIM卡批量查询</v>
+        <v>确定</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B349" t="str">
-        <v>unactivated</v>
+        <v>defineRule</v>
       </c>
       <c r="C349" t="str">
-        <v>Not Activated</v>
+        <v>Define Rule</v>
       </c>
       <c r="D349" t="str">
-        <v>未激活</v>
+        <v>定义规则</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B350" t="str">
-        <v>unactivated_test</v>
+        <v>ruleDefine</v>
       </c>
       <c r="C350" t="str">
-        <v>Not Activated (Test Period)</v>
+        <v>Rule Definition</v>
       </c>
       <c r="D350" t="str">
-        <v>未激活(测试期)</v>
+        <v>规则定义</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B351" t="str">
-        <v>activated_test</v>
+        <v>selected</v>
       </c>
       <c r="C351" t="str">
-        <v>Activated (Test Period)</v>
+        <v>Current Selection</v>
       </c>
       <c r="D351" t="str">
-        <v>已激活(测试期)</v>
+        <v>当前选择</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B352" t="str">
-        <v>basicInfo</v>
+        <v>ruleConfiguration</v>
       </c>
       <c r="C352" t="str">
-        <v>Basic Information</v>
+        <v>Rule Configuration</v>
       </c>
       <c r="D352" t="str">
-        <v>基本信息</v>
+        <v>规则配置</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B353" t="str">
-        <v>offerInfo</v>
+        <v>threshold</v>
       </c>
       <c r="C353" t="str">
-        <v>Package Information</v>
+        <v>Threshold</v>
       </c>
       <c r="D353" t="str">
-        <v>套餐信息</v>
+        <v>阈值</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B354" t="str">
-        <v>basicInfoTitle</v>
+        <v>thresholdCannotEmpty</v>
       </c>
       <c r="C354" t="str">
-        <v>Functional Products</v>
+        <v>The threshold cannot be empty</v>
       </c>
       <c r="D354" t="str">
-        <v>功能产品</v>
+        <v>阈值不能为空</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B355" t="str">
-        <v>openDate</v>
+        <v>pushURL</v>
       </c>
       <c r="C355" t="str">
-        <v>Card Opening Date</v>
+        <v>Push URL</v>
       </c>
       <c r="D355" t="str">
-        <v>开卡时间</v>
+        <v>推送URL</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B356" t="str">
-        <v>prodName</v>
+        <v>testAddress</v>
       </c>
       <c r="C356" t="str">
-        <v>Product Name</v>
+        <v>Test Address</v>
       </c>
       <c r="D356" t="str">
-        <v>产品名称</v>
+        <v>测试地址</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B357" t="str">
-        <v>prodNbr</v>
+        <v>uploadCertificate</v>
       </c>
       <c r="C357" t="str">
-        <v>Product Code</v>
+        <v>Upload Certificate</v>
       </c>
       <c r="D357" t="str">
-        <v>产品编码</v>
+        <v>上传证书</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B358" t="str">
-        <v>attrName</v>
+        <v>httpPrompt</v>
       </c>
       <c r="C358" t="str">
-        <v>Configuration</v>
+        <v>Note: No certificate needs to be uploaded for HTTP requests; in the HTTPS docking scenario, the server certificate can be uploaded (it needs to be re-uploaded after the certificate's validity period expires); if there is no port in the push URL, add the default port 80.</v>
       </c>
       <c r="D358" t="str">
-        <v>配置信息</v>
+        <v>注意:http请求不需要上传证书;https对接场景下，可上传服务器证书(证书有效期到期后需重传);如果推送url中没有端口，请在url中添加默认端口80。</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B359" t="str">
-        <v>effDate</v>
+        <v>ruleObject</v>
       </c>
       <c r="C359" t="str">
-        <v>Effective Date</v>
+        <v>Rule Object</v>
       </c>
       <c r="D359" t="str">
-        <v>生效时间</v>
+        <v>规则对象</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B360" t="str">
-        <v>packageInfoTitle</v>
+        <v>batchImport</v>
       </c>
       <c r="C360" t="str">
-        <v>Main Package Information</v>
+        <v>Batch Import</v>
       </c>
       <c r="D360" t="str">
-        <v>主套餐信息</v>
+        <v>批量导入</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B361" t="str">
-        <v>totalUsage</v>
+        <v>batchDelete</v>
       </c>
       <c r="C361" t="str">
-        <v>Total Usage (MB)</v>
+        <v>Batch Import</v>
       </c>
       <c r="D361" t="str">
-        <v>总使用量(MB)</v>
+        <v>批量删除</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B362" t="str">
-        <v>mainOfferUsage</v>
+        <v>accNumber</v>
       </c>
       <c r="C362" t="str">
-        <v>Main Package Usage</v>
+        <v>Access Number</v>
       </c>
       <c r="D362" t="str">
-        <v>主套餐使用量</v>
+        <v>接入号码</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B363" t="str">
-        <v>selectOfferUsage</v>
+        <v>batchImportNumber</v>
       </c>
       <c r="C363" t="str">
-        <v>Optional Package Usage</v>
+        <v>Batch Import Numbers</v>
       </c>
       <c r="D363" t="str">
-        <v>可选包使用量</v>
+        <v>批量导入号码</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B364" t="str">
-        <v>selectOffer</v>
+        <v>batchDeleteNumber</v>
       </c>
       <c r="C364" t="str">
-        <v>Optional Packages</v>
+        <v>Batch Delete Numbers</v>
       </c>
       <c r="D364" t="str">
-        <v>可选包</v>
+        <v>批量删除号码</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B365" t="str">
-        <v>selectOfferName</v>
+        <v>enterprise</v>
       </c>
       <c r="C365" t="str">
-        <v>Optional Package Name</v>
+        <v>Enterprise</v>
       </c>
       <c r="D365" t="str">
-        <v>可选包名称</v>
+        <v>企业</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B366" t="str">
-        <v>offerName</v>
+        <v>simCard</v>
       </c>
       <c r="C366" t="str">
-        <v>Package Name</v>
+        <v>SIM Card</v>
       </c>
       <c r="D366" t="str">
-        <v>套餐名称</v>
+        <v>SIM卡</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B367" t="str">
-        <v>offerNbr</v>
+        <v>category</v>
       </c>
       <c r="C367" t="str">
-        <v>Package Number</v>
+        <v>Category</v>
       </c>
       <c r="D367" t="str">
-        <v>套餐编号</v>
+        <v>类别</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B368" t="str">
-        <v>expDate</v>
+        <v>type</v>
       </c>
       <c r="C368" t="str">
-        <v>Expiration Date</v>
+        <v>Type</v>
       </c>
       <c r="D368" t="str">
-        <v>失效时间</v>
+        <v>类型</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B369" t="str">
-        <v>statusCd</v>
+        <v>actionDestMessage</v>
       </c>
       <c r="C369" t="str">
-        <v>Status</v>
+        <v>The push URL cannot be empty</v>
       </c>
       <c r="D369" t="str">
-        <v>状态</v>
+        <v>推送URL不能为空</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B370" t="str">
-        <v>statusCdGood</v>
+        <v>ruleNameMessage</v>
       </c>
       <c r="C370" t="str">
-        <v>Valid</v>
+        <v>The rule name cannot be empty</v>
       </c>
       <c r="D370" t="str">
-        <v>有效</v>
+        <v>规则名称不能为空</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B371" t="str">
-        <v>statusCdBad</v>
+        <v>objTypeMessage</v>
       </c>
       <c r="C371" t="str">
-        <v>Invalid</v>
+        <v>The object type cannot be empty</v>
       </c>
       <c r="D371" t="str">
-        <v>无效</v>
+        <v>对象类型不能为空</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B372" t="str">
-        <v>totalUsageValue</v>
+        <v>ruleId</v>
       </c>
       <c r="C372" t="str">
-        <v>Total Amount</v>
+        <v>Rule ID</v>
       </c>
       <c r="D372" t="str">
-        <v>总量</v>
+        <v>规则ID</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B373" t="str">
-        <v>usageValue</v>
+        <v>triggerDate</v>
       </c>
       <c r="C373" t="str">
-        <v>Used Amount</v>
+        <v>Trigger Date</v>
       </c>
       <c r="D373" t="str">
-        <v>已使用量</v>
+        <v>触发日期</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="str">
-        <v>simMag</v>
+        <v>rule</v>
       </c>
       <c r="B374" t="str">
-        <v>remainValue</v>
+        <v>iotNetworkCard</v>
       </c>
       <c r="C374" t="str">
-        <v>Remaining Amount</v>
+        <v>Internet of Things Card</v>
       </c>
       <c r="D374" t="str">
-        <v>剩余量</v>
+        <v>物联网卡</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="str">
-        <v>traffic</v>
+        <v>rule</v>
       </c>
       <c r="B375" t="str">
-        <v>groupId</v>
+        <v>sendMessageUrl</v>
       </c>
       <c r="C375" t="str">
-        <v>Group ID</v>
+        <v>Send an API message to the URL</v>
       </c>
       <c r="D375" t="str">
-        <v>群号</v>
+        <v>发送一条API消息,至URL</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="str">
-        <v>traffic</v>
+        <v>rule</v>
       </c>
       <c r="B376" t="str">
-        <v>useCustName</v>
+        <v>pushContent</v>
       </c>
       <c r="C376" t="str">
-        <v>Customer Name</v>
+        <v>Push Content</v>
       </c>
       <c r="D376" t="str">
-        <v>客户名称</v>
+        <v>推送内容</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="str">
-        <v>traffic</v>
+        <v>rule</v>
       </c>
       <c r="B377" t="str">
-        <v>memberMag</v>
+        <v>operationRes</v>
       </c>
       <c r="C377" t="str">
-        <v>Member Management</v>
+        <v>Operation Result</v>
       </c>
       <c r="D377" t="str">
-        <v>成员管理</v>
+        <v>操作结果</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>traffic</v>
+        <v>rule</v>
       </c>
       <c r="B378" t="str">
-        <v>billCycle</v>
+        <v>operationResInfo</v>
       </c>
       <c r="C378" t="str">
-        <v>Billing Cycle</v>
+        <v>Operation Result Information</v>
       </c>
       <c r="D378" t="str">
-        <v>账期</v>
+        <v>操作结果信息</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="str">
-        <v>traffic</v>
+        <v>rule</v>
       </c>
       <c r="B379" t="str">
-        <v>usageAvaMonth</v>
+        <v>failureReason</v>
       </c>
       <c r="C379" t="str">
-        <v>Monthly Available Pool Usage (MB)</v>
+        <v>Failure Reason</v>
       </c>
       <c r="D379" t="str">
-        <v>量池当月可用量（MB)</v>
+        <v>失败原因</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>traffic</v>
+        <v>rule</v>
       </c>
       <c r="B380" t="str">
-        <v>usageUsedMonth</v>
+        <v>triggerCountPh1</v>
       </c>
       <c r="C380" t="str">
-        <v>Monthly Used Pool Usage (MB)</v>
+        <v>Please enter the threshold for triggering a reminder</v>
       </c>
       <c r="D380" t="str">
-        <v>量池当月已用量（MB)</v>
+        <v>请输入触发提醒的阈值</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="str">
-        <v>traffic</v>
+        <v>rule</v>
       </c>
       <c r="B381" t="str">
-        <v>usageRemainMonth</v>
+        <v>triggerCountPh</v>
       </c>
       <c r="C381" t="str">
-        <v>Monthly Remaining Pool Usage (MB)</v>
+        <v>Please enter the threshold for triggering a reminder on the {index} occasion</v>
       </c>
       <c r="D381" t="str">
-        <v>量池当月剩余用量（MB)</v>
+        <v>请输入第{index}次触发提醒的阈值</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>traffic</v>
+        <v>rule</v>
       </c>
       <c r="B382" t="str">
-        <v>effDate</v>
+        <v>dataUnit</v>
       </c>
       <c r="C382" t="str">
-        <v>Effective Date</v>
+        <v>MB</v>
       </c>
       <c r="D382" t="str">
-        <v>生效时间</v>
+        <v>MB</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="str">
-        <v>traffic</v>
+        <v>rule</v>
       </c>
       <c r="B383" t="str">
-        <v>expDate</v>
+        <v>smsUnit</v>
       </c>
       <c r="C383" t="str">
-        <v>Expiration Date</v>
+        <v>messages</v>
       </c>
       <c r="D383" t="str">
-        <v>失效时间</v>
+        <v>条</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="str">
-        <v>traffic</v>
+        <v>rule</v>
       </c>
       <c r="B384" t="str">
-        <v>memberNumber</v>
+        <v>voiceUnit</v>
       </c>
       <c r="C384" t="str">
-        <v>Member Number</v>
+        <v>minutes</v>
       </c>
       <c r="D384" t="str">
-        <v>成员号码</v>
+        <v>分钟</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>traffic</v>
+        <v>rule</v>
       </c>
       <c r="B385" t="str">
-        <v>statusCdName</v>
+        <v>sendState1000</v>
       </c>
       <c r="C385" t="str">
-        <v>SIM Card Status</v>
+        <v>Pending Push</v>
       </c>
       <c r="D385" t="str">
-        <v>SIM卡状态</v>
+        <v>待推送</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="str">
-        <v>traffic</v>
+        <v>rule</v>
       </c>
       <c r="B386" t="str">
-        <v>usageRemain</v>
+        <v>sendState2000</v>
       </c>
       <c r="C386" t="str">
-        <v>Remaining Usage (MB)</v>
+        <v>Pushing</v>
       </c>
       <c r="D386" t="str">
-        <v>已使用量（MB）</v>
+        <v>推送中</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="str">
-        <v>traffic</v>
+        <v>rule</v>
       </c>
       <c r="B387" t="str">
-        <v>enterGroupDate</v>
+        <v>sendState3000</v>
       </c>
       <c r="C387" t="str">
-        <v>Join Group Date</v>
+        <v>Push Success</v>
       </c>
       <c r="D387" t="str">
-        <v>入群时间</v>
+        <v>推送成功</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="str">
-        <v>traffic</v>
+        <v>rule</v>
       </c>
       <c r="B388" t="str">
-        <v>usageQuery</v>
+        <v>sendState4000</v>
       </c>
       <c r="C388" t="str">
-        <v>Usage Inquiry</v>
+        <v>Push Failed</v>
       </c>
       <c r="D388" t="str">
-        <v>用量查询</v>
+        <v>推送失败</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="str">
-        <v>traffic</v>
+        <v>rule</v>
       </c>
       <c r="B389" t="str">
-        <v>poolSize</v>
+        <v>noAction</v>
       </c>
       <c r="C389" t="str">
-        <v>Pool Size (MB)</v>
+        <v>This rule contains SIM card and cannot be modified or deleted</v>
       </c>
       <c r="D389" t="str">
-        <v>池容量（MB)</v>
+        <v>该规则下包含SIM卡信息，不支持修改/删除操作</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B390" t="str">
-        <v>avaMonth</v>
+        <v>simStatus</v>
       </c>
       <c r="C390" t="str">
-        <v>Monthly Used (MB)</v>
+        <v>SIM Card Status</v>
       </c>
       <c r="D390" t="str">
-        <v>当月已用量（MB)</v>
+        <v>卡状态</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B391" t="str">
-        <v>remainMonth</v>
+        <v>addressId</v>
       </c>
       <c r="C391" t="str">
-        <v>Monthly Remaining (MB)</v>
+        <v>Supplier</v>
       </c>
       <c r="D391" t="str">
-        <v>当月剩余量（MB)</v>
+        <v>供应商</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B392" t="str">
-        <v>accessNum</v>
+        <v>actDate</v>
       </c>
       <c r="C392" t="str">
-        <v>Access Number</v>
+        <v>Activate Time</v>
       </c>
       <c r="D392" t="str">
-        <v>接入号码</v>
+        <v>激活时间</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B393" t="str">
-        <v>memberSize</v>
+        <v>package</v>
       </c>
       <c r="C393" t="str">
-        <v>Member Allocation Quota (MB)</v>
+        <v>Package</v>
       </c>
       <c r="D393" t="str">
-        <v>成员分配额度（MB)</v>
+        <v>套餐</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B394" t="str">
-        <v>usedSize</v>
+        <v>cust</v>
       </c>
       <c r="C394" t="str">
-        <v>Used Quota</v>
+        <v>Enterprise</v>
       </c>
       <c r="D394" t="str">
-        <v>已使用额度</v>
+        <v>企业</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B395" t="str">
-        <v>rpNum</v>
+        <v>monthUsage</v>
       </c>
       <c r="C395" t="str">
-        <v>Representative Number</v>
+        <v>Monthly Usage(MB)</v>
       </c>
       <c r="D395" t="str">
-        <v>代表号码</v>
+        <v>当月使用量（MB）</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B396" t="str">
-        <v>package</v>
+        <v>use</v>
       </c>
       <c r="C396" t="str">
-        <v>Package</v>
+        <v>Active</v>
       </c>
       <c r="D396" t="str">
-        <v>套餐</v>
+        <v>在用</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="str">
-        <v>traffic</v>
+        <v>simMag</v>
       </c>
       <c r="B397" t="str">
-        <v>product</v>
+        <v>stop</v>
       </c>
       <c r="C397" t="str">
-        <v>Product</v>
+        <v>Pause</v>
       </c>
       <c r="D397" t="str">
-        <v>产品</v>
+        <v>停机</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B398" t="str">
+        <v>destroy</v>
+      </c>
+      <c r="C398" t="str">
+        <v>Terminated</v>
+      </c>
+      <c r="D398" t="str">
+        <v>拆机</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B399" t="str">
+        <v>batchImportTitle</v>
+      </c>
+      <c r="C399" t="str">
+        <v xml:space="preserve">Bulk SIM Card Inquiry </v>
+      </c>
+      <c r="D399" t="str">
+        <v>SIM卡批量查询</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B400" t="str">
+        <v>unactivated</v>
+      </c>
+      <c r="C400" t="str">
+        <v>Deactived</v>
+      </c>
+      <c r="D400" t="str">
+        <v>未激活</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B401" t="str">
+        <v>unactivated_test</v>
+      </c>
+      <c r="C401" t="str">
+        <v>Deactived(TestPeriod)</v>
+      </c>
+      <c r="D401" t="str">
+        <v>未激活(测试期)</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B402" t="str">
+        <v>activated_test</v>
+      </c>
+      <c r="C402" t="str">
+        <v>Active(TestPeriod)</v>
+      </c>
+      <c r="D402" t="str">
+        <v>已激活(测试期)</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B403" t="str">
+        <v>basicInfo</v>
+      </c>
+      <c r="C403" t="str">
+        <v>Basic Information</v>
+      </c>
+      <c r="D403" t="str">
+        <v>基本信息</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B404" t="str">
+        <v>offerInfo</v>
+      </c>
+      <c r="C404" t="str">
+        <v>Package Information</v>
+      </c>
+      <c r="D404" t="str">
+        <v>套餐信息</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B405" t="str">
+        <v>basicInfoTitle</v>
+      </c>
+      <c r="C405" t="str">
+        <v>Functional Products</v>
+      </c>
+      <c r="D405" t="str">
+        <v>功能产品</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B406" t="str">
+        <v>openDate</v>
+      </c>
+      <c r="C406" t="str">
+        <v>Card Opening Time</v>
+      </c>
+      <c r="D406" t="str">
+        <v>开卡时间</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B407" t="str">
+        <v>prodName</v>
+      </c>
+      <c r="C407" t="str">
+        <v>Product Name</v>
+      </c>
+      <c r="D407" t="str">
+        <v>产品名称</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B408" t="str">
+        <v>prodNbr</v>
+      </c>
+      <c r="C408" t="str">
+        <v>Product Code</v>
+      </c>
+      <c r="D408" t="str">
+        <v>产品编码</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B409" t="str">
+        <v>attrName</v>
+      </c>
+      <c r="C409" t="str">
+        <v>Configuration</v>
+      </c>
+      <c r="D409" t="str">
+        <v>配置信息</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B410" t="str">
+        <v>effDate</v>
+      </c>
+      <c r="C410" t="str">
+        <v>Effective Time</v>
+      </c>
+      <c r="D410" t="str">
+        <v>生效时间</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B411" t="str">
+        <v>packageInfoTitle</v>
+      </c>
+      <c r="C411" t="str">
+        <v>Main Package Information</v>
+      </c>
+      <c r="D411" t="str">
+        <v>主套餐信息</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B412" t="str">
+        <v>totalUsage</v>
+      </c>
+      <c r="C412" t="str">
+        <v>Total Usage (MB)</v>
+      </c>
+      <c r="D412" t="str">
+        <v>总使用量(MB)</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B413" t="str">
+        <v>mainOfferUsage</v>
+      </c>
+      <c r="C413" t="str">
+        <v>Main Package Usage(MB)</v>
+      </c>
+      <c r="D413" t="str">
+        <v>主套餐使用量(MB)</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B414" t="str">
+        <v>selectOfferUsage</v>
+      </c>
+      <c r="C414" t="str">
+        <v>Optional Package Usage(MB)</v>
+      </c>
+      <c r="D414" t="str">
+        <v>可选包使用量(MB)</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B415" t="str">
+        <v>selectOffer</v>
+      </c>
+      <c r="C415" t="str">
+        <v>Optional Packages</v>
+      </c>
+      <c r="D415" t="str">
+        <v>可选包</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B416" t="str">
+        <v>selectOfferName</v>
+      </c>
+      <c r="C416" t="str">
+        <v>Optional Package Name</v>
+      </c>
+      <c r="D416" t="str">
+        <v>可选包名称</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B417" t="str">
+        <v>offerName</v>
+      </c>
+      <c r="C417" t="str">
+        <v>Package Name</v>
+      </c>
+      <c r="D417" t="str">
+        <v>套餐名称</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B418" t="str">
+        <v>offerNbr</v>
+      </c>
+      <c r="C418" t="str">
+        <v>Package Number</v>
+      </c>
+      <c r="D418" t="str">
+        <v>套餐编号</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B419" t="str">
+        <v>offerTotal</v>
+      </c>
+      <c r="C419" t="str">
+        <v>Total Package(MB)</v>
+      </c>
+      <c r="D419" t="str">
+        <v>套餐总量(MB)</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B420" t="str">
+        <v>expDate</v>
+      </c>
+      <c r="C420" t="str">
+        <v>Expiration Time</v>
+      </c>
+      <c r="D420" t="str">
+        <v>失效时间</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B421" t="str">
+        <v>statusCd</v>
+      </c>
+      <c r="C421" t="str">
+        <v>Status</v>
+      </c>
+      <c r="D421" t="str">
+        <v>状态</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B422" t="str">
+        <v>statusCdGood</v>
+      </c>
+      <c r="C422" t="str">
+        <v>Valid</v>
+      </c>
+      <c r="D422" t="str">
+        <v>有效</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B423" t="str">
+        <v>statusCdBad</v>
+      </c>
+      <c r="C423" t="str">
+        <v>Invalid</v>
+      </c>
+      <c r="D423" t="str">
+        <v>无效</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B424" t="str">
+        <v>totalUsageValue</v>
+      </c>
+      <c r="C424" t="str">
+        <v>Total Amount</v>
+      </c>
+      <c r="D424" t="str">
+        <v>总量</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B425" t="str">
+        <v>usageValue</v>
+      </c>
+      <c r="C425" t="str">
+        <v>Used Amount</v>
+      </c>
+      <c r="D425" t="str">
+        <v>已使用量</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B426" t="str">
+        <v>remainValue</v>
+      </c>
+      <c r="C426" t="str">
+        <v>Remaining Amount</v>
+      </c>
+      <c r="D426" t="str">
+        <v>剩余量</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B427" t="str">
+        <v>identityStatus</v>
+      </c>
+      <c r="C427" t="str">
+        <v>Real Name Status</v>
+      </c>
+      <c r="D427" t="str">
+        <v>实名状态</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B428" t="str">
+        <v>identityStatus1</v>
+      </c>
+      <c r="C428" t="str">
+        <v>Already Authenticated</v>
+      </c>
+      <c r="D428" t="str">
+        <v>已实名</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B429" t="str">
+        <v>identityStatus0</v>
+      </c>
+      <c r="C429" t="str">
+        <v>Not Authenticated</v>
+      </c>
+      <c r="D429" t="str">
+        <v>未实名</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B430" t="str">
+        <v>identityTime</v>
+      </c>
+      <c r="C430" t="str">
+        <v>Real Name Operation Time</v>
+      </c>
+      <c r="D430" t="str">
+        <v>实名操作时间</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>simMag</v>
+      </c>
+      <c r="B431" t="str">
+        <v>identityUserName</v>
+      </c>
+      <c r="C431" t="str">
+        <v>User Name</v>
+      </c>
+      <c r="D431" t="str">
+        <v>用户姓名</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
         <v>traffic</v>
       </c>
-      <c r="B398" t="str">
+      <c r="B432" t="str">
+        <v>groupId</v>
+      </c>
+      <c r="C432" t="str">
+        <v>Group ID</v>
+      </c>
+      <c r="D432" t="str">
+        <v>群号</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B433" t="str">
+        <v>useCustName</v>
+      </c>
+      <c r="C433" t="str">
+        <v>Customer Name</v>
+      </c>
+      <c r="D433" t="str">
+        <v>客户名称</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B434" t="str">
+        <v>memberMag</v>
+      </c>
+      <c r="C434" t="str">
+        <v>Member Management</v>
+      </c>
+      <c r="D434" t="str">
+        <v>成员管理</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B435" t="str">
+        <v>billCycle</v>
+      </c>
+      <c r="C435" t="str">
+        <v>Payment Period</v>
+      </c>
+      <c r="D435" t="str">
+        <v>账期</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B436" t="str">
+        <v>usageAvaMonth</v>
+      </c>
+      <c r="C436" t="str">
+        <v>Monthly Available Pool Usage (MB)</v>
+      </c>
+      <c r="D436" t="str">
+        <v>量池当月可用量（MB)</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B437" t="str">
+        <v>usageUsedMonth</v>
+      </c>
+      <c r="C437" t="str">
+        <v>Monthly Used Pool Usage (MB)</v>
+      </c>
+      <c r="D437" t="str">
+        <v>量池当月已用量（MB)</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B438" t="str">
+        <v>usageRemainMonth</v>
+      </c>
+      <c r="C438" t="str">
+        <v>Monthly Remaining Pool Usage (MB)</v>
+      </c>
+      <c r="D438" t="str">
+        <v>量池当月剩余用量（MB)</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B439" t="str">
+        <v>effDate</v>
+      </c>
+      <c r="C439" t="str">
+        <v>Effective Time</v>
+      </c>
+      <c r="D439" t="str">
+        <v>生效时间</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B440" t="str">
+        <v>expDate</v>
+      </c>
+      <c r="C440" t="str">
+        <v>Expiration Time</v>
+      </c>
+      <c r="D440" t="str">
+        <v>失效时间</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B441" t="str">
+        <v>memberNumber</v>
+      </c>
+      <c r="C441" t="str">
+        <v>Member Number</v>
+      </c>
+      <c r="D441" t="str">
+        <v>成员号码</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B442" t="str">
+        <v>statusCdName</v>
+      </c>
+      <c r="C442" t="str">
+        <v>SIM Card Status</v>
+      </c>
+      <c r="D442" t="str">
+        <v>SIM卡状态</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B443" t="str">
+        <v>usageRemain</v>
+      </c>
+      <c r="C443" t="str">
+        <v>Remaining Usage (MB)</v>
+      </c>
+      <c r="D443" t="str">
+        <v>已使用量（MB）</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B444" t="str">
+        <v>enterGroupDate</v>
+      </c>
+      <c r="C444" t="str">
+        <v>Join Group Time</v>
+      </c>
+      <c r="D444" t="str">
+        <v>入群时间</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B445" t="str">
+        <v>usageQuery</v>
+      </c>
+      <c r="C445" t="str">
+        <v>Usage Inquiry</v>
+      </c>
+      <c r="D445" t="str">
+        <v>用量查询</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B446" t="str">
+        <v>poolSize</v>
+      </c>
+      <c r="C446" t="str">
+        <v>Pool Size (MB)</v>
+      </c>
+      <c r="D446" t="str">
+        <v>池容量（MB)</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B447" t="str">
+        <v>avaMonth</v>
+      </c>
+      <c r="C447" t="str">
+        <v>Monthly Used (MB)</v>
+      </c>
+      <c r="D447" t="str">
+        <v>当月已用量（MB)</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B448" t="str">
+        <v>remainMonth</v>
+      </c>
+      <c r="C448" t="str">
+        <v>Monthly Remaining (MB)</v>
+      </c>
+      <c r="D448" t="str">
+        <v>当月剩余量（MB)</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B449" t="str">
+        <v>accessNum</v>
+      </c>
+      <c r="C449" t="str">
+        <v>Access Number</v>
+      </c>
+      <c r="D449" t="str">
+        <v>接入号码</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B450" t="str">
+        <v>memberSize</v>
+      </c>
+      <c r="C450" t="str">
+        <v>Member Allocation Quota (MB)</v>
+      </c>
+      <c r="D450" t="str">
+        <v>成员分配额度（MB)</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B451" t="str">
+        <v>usedSize</v>
+      </c>
+      <c r="C451" t="str">
+        <v>Used Quota</v>
+      </c>
+      <c r="D451" t="str">
+        <v>已使用额度</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B452" t="str">
+        <v>rpNum</v>
+      </c>
+      <c r="C452" t="str">
+        <v>Representative Number</v>
+      </c>
+      <c r="D452" t="str">
+        <v>代表号码</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B453" t="str">
+        <v>package</v>
+      </c>
+      <c r="C453" t="str">
+        <v>Package</v>
+      </c>
+      <c r="D453" t="str">
+        <v>套餐</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B454" t="str">
+        <v>product</v>
+      </c>
+      <c r="C454" t="str">
+        <v>Product</v>
+      </c>
+      <c r="D454" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v>traffic</v>
+      </c>
+      <c r="B455" t="str">
         <v>prodDes</v>
       </c>
-      <c r="C398" t="str">
+      <c r="C455" t="str">
         <v>Product Description</v>
       </c>
-      <c r="D398" t="str">
+      <c r="D455" t="str">
         <v>产品描述</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D398"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D455"/>
   </ignoredErrors>
 </worksheet>
 </file>